--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,21 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['15', '52', '86']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['36', '77']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -563,9 +578,6 @@
   </si>
   <si>
     <t>['32']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['87', '90+2', '90+6']</t>
@@ -713,6 +725,21 @@
   </si>
   <si>
     <t>['31', '43']</t>
+  </si>
+  <si>
+    <t>['15', '75']</t>
+  </si>
+  <si>
+    <t>['31', '53', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['4', '49']</t>
+  </si>
+  <si>
+    <t>['4', '45+1']</t>
+  </si>
+  <si>
+    <t>['13', '20', '52', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1566,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1823,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1951,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2032,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2363,7 +2390,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2569,7 +2596,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2856,7 +2883,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2981,7 +3008,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3187,7 +3214,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3265,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3393,7 +3420,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3886,7 +3913,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4295,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -4501,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4629,7 +4656,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4707,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4835,7 +4862,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4913,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5041,7 +5068,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5122,7 +5149,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5328,7 +5355,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5531,10 +5558,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -5740,7 +5767,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.78</v>
@@ -5865,7 +5892,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5943,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6071,7 +6098,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6277,7 +6304,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6483,7 +6510,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6689,7 +6716,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6895,7 +6922,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -6976,7 +7003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7182,7 +7209,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -7307,7 +7334,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7513,7 +7540,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7797,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -7925,7 +7952,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8006,7 +8033,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8131,7 +8158,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8209,7 +8236,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8337,7 +8364,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8749,7 +8776,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8827,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.83</v>
@@ -8955,7 +8982,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9033,10 +9060,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9161,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9367,7 +9394,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9573,7 +9600,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9654,7 +9681,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10063,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10191,7 +10218,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10475,10 +10502,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10603,7 +10630,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10681,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10890,7 +10917,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
@@ -11302,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11427,7 +11454,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11505,7 +11532,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11633,7 +11660,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11839,7 +11866,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12045,7 +12072,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12123,7 +12150,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12251,7 +12278,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12457,7 +12484,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12538,7 +12565,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -12744,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -12869,7 +12896,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13075,7 +13102,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13281,7 +13308,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13362,7 +13389,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -13487,7 +13514,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13565,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13693,7 +13720,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13977,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0</v>
@@ -14105,7 +14132,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14311,7 +14338,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14392,7 +14419,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14517,7 +14544,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14595,7 +14622,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14801,7 +14828,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67">
         <v>0.83</v>
@@ -15213,7 +15240,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15341,7 +15368,7 @@
         <v>97</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15422,7 +15449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -15547,7 +15574,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15628,7 +15655,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15753,7 +15780,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15959,7 +15986,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16040,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>0.91</v>
@@ -16165,7 +16192,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16371,7 +16398,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16452,7 +16479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR75">
         <v>1.31</v>
@@ -16577,7 +16604,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16655,7 +16682,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>1.67</v>
@@ -16783,7 +16810,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17067,7 +17094,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17195,7 +17222,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17401,7 +17428,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17482,7 +17509,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17688,7 +17715,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -17813,7 +17840,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17891,10 +17918,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18097,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83">
         <v>0</v>
@@ -18225,7 +18252,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18306,7 +18333,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18431,7 +18458,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18509,7 +18536,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>0.83</v>
@@ -18637,7 +18664,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18843,7 +18870,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19049,7 +19076,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19336,7 +19363,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19461,7 +19488,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19667,7 +19694,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19745,7 +19772,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
         <v>2.6</v>
@@ -20697,7 +20724,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20778,7 +20805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -20903,7 +20930,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20981,7 +21008,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21109,7 +21136,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21190,7 +21217,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ98">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21315,7 +21342,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21521,7 +21548,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21602,7 +21629,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21805,10 +21832,10 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -21933,7 +21960,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22345,7 +22372,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23375,7 +23402,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23581,7 +23608,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23787,7 +23814,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23944,6 +23971,1448 @@
       </c>
       <c r="BP111">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7466793</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>78</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>171</v>
+      </c>
+      <c r="P112" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q112">
+        <v>5.5</v>
+      </c>
+      <c r="R112">
+        <v>2.6</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2.2</v>
+      </c>
+      <c r="W112">
+        <v>1.62</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>1.17</v>
+      </c>
+      <c r="Z112">
+        <v>2.14</v>
+      </c>
+      <c r="AA112">
+        <v>4.87</v>
+      </c>
+      <c r="AB112">
+        <v>2.29</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>22</v>
+      </c>
+      <c r="AE112">
+        <v>1.14</v>
+      </c>
+      <c r="AF112">
+        <v>5.9</v>
+      </c>
+      <c r="AG112">
+        <v>1.5</v>
+      </c>
+      <c r="AH112">
+        <v>2.55</v>
+      </c>
+      <c r="AI112">
+        <v>1.57</v>
+      </c>
+      <c r="AJ112">
+        <v>2.25</v>
+      </c>
+      <c r="AK112">
+        <v>2.59</v>
+      </c>
+      <c r="AL112">
+        <v>1.19</v>
+      </c>
+      <c r="AM112">
+        <v>1.14</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>2</v>
+      </c>
+      <c r="AP112">
+        <v>0.83</v>
+      </c>
+      <c r="AQ112">
+        <v>2.17</v>
+      </c>
+      <c r="AR112">
+        <v>1.12</v>
+      </c>
+      <c r="AS112">
+        <v>1.34</v>
+      </c>
+      <c r="AT112">
+        <v>2.46</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>5</v>
+      </c>
+      <c r="AZ112">
+        <v>18</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>9</v>
+      </c>
+      <c r="BC112">
+        <v>11</v>
+      </c>
+      <c r="BD112">
+        <v>3.05</v>
+      </c>
+      <c r="BE112">
+        <v>7</v>
+      </c>
+      <c r="BF112">
+        <v>1.47</v>
+      </c>
+      <c r="BG112">
+        <v>1.24</v>
+      </c>
+      <c r="BH112">
+        <v>3.55</v>
+      </c>
+      <c r="BI112">
+        <v>1.41</v>
+      </c>
+      <c r="BJ112">
+        <v>2.63</v>
+      </c>
+      <c r="BK112">
+        <v>1.68</v>
+      </c>
+      <c r="BL112">
+        <v>2.02</v>
+      </c>
+      <c r="BM112">
+        <v>2.07</v>
+      </c>
+      <c r="BN112">
+        <v>1.66</v>
+      </c>
+      <c r="BO112">
+        <v>2.63</v>
+      </c>
+      <c r="BP112">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7466791</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>84</v>
+      </c>
+      <c r="H113" t="s">
+        <v>88</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>172</v>
+      </c>
+      <c r="P113" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q113">
+        <v>2.2</v>
+      </c>
+      <c r="R113">
+        <v>2.38</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>1.22</v>
+      </c>
+      <c r="AA113">
+        <v>6.34</v>
+      </c>
+      <c r="AB113">
+        <v>7.51</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>16</v>
+      </c>
+      <c r="AE113">
+        <v>1.23</v>
+      </c>
+      <c r="AF113">
+        <v>4.45</v>
+      </c>
+      <c r="AG113">
+        <v>1.7</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.7</v>
+      </c>
+      <c r="AJ113">
+        <v>2.05</v>
+      </c>
+      <c r="AK113">
+        <v>1.19</v>
+      </c>
+      <c r="AL113">
+        <v>1.23</v>
+      </c>
+      <c r="AM113">
+        <v>2.29</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>0.4</v>
+      </c>
+      <c r="AP113">
+        <v>1.67</v>
+      </c>
+      <c r="AQ113">
+        <v>0.83</v>
+      </c>
+      <c r="AR113">
+        <v>1.98</v>
+      </c>
+      <c r="AS113">
+        <v>1.31</v>
+      </c>
+      <c r="AT113">
+        <v>3.29</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>11</v>
+      </c>
+      <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.3</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>3.65</v>
+      </c>
+      <c r="BG113">
+        <v>1.12</v>
+      </c>
+      <c r="BH113">
+        <v>5.1</v>
+      </c>
+      <c r="BI113">
+        <v>1.23</v>
+      </c>
+      <c r="BJ113">
+        <v>3.65</v>
+      </c>
+      <c r="BK113">
+        <v>1.38</v>
+      </c>
+      <c r="BL113">
+        <v>2.7</v>
+      </c>
+      <c r="BM113">
+        <v>1.61</v>
+      </c>
+      <c r="BN113">
+        <v>2.15</v>
+      </c>
+      <c r="BO113">
+        <v>1.92</v>
+      </c>
+      <c r="BP113">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7466790</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>91</v>
+      </c>
+      <c r="P114" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>2.2</v>
+      </c>
+      <c r="S114">
+        <v>3.4</v>
+      </c>
+      <c r="T114">
+        <v>1.36</v>
+      </c>
+      <c r="U114">
+        <v>3</v>
+      </c>
+      <c r="V114">
+        <v>2.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>7</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>1.43</v>
+      </c>
+      <c r="AA114">
+        <v>5.04</v>
+      </c>
+      <c r="AB114">
+        <v>4.68</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>11</v>
+      </c>
+      <c r="AE114">
+        <v>1.29</v>
+      </c>
+      <c r="AF114">
+        <v>3.8</v>
+      </c>
+      <c r="AG114">
+        <v>1.8</v>
+      </c>
+      <c r="AH114">
+        <v>2</v>
+      </c>
+      <c r="AI114">
+        <v>1.67</v>
+      </c>
+      <c r="AJ114">
+        <v>2.1</v>
+      </c>
+      <c r="AK114">
+        <v>1.41</v>
+      </c>
+      <c r="AL114">
+        <v>1.31</v>
+      </c>
+      <c r="AM114">
+        <v>1.61</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>1</v>
+      </c>
+      <c r="AQ114">
+        <v>0.17</v>
+      </c>
+      <c r="AR114">
+        <v>1.26</v>
+      </c>
+      <c r="AS114">
+        <v>0.96</v>
+      </c>
+      <c r="AT114">
+        <v>2.22</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>12</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>28</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>10</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>14</v>
+      </c>
+      <c r="BD114">
+        <v>1.71</v>
+      </c>
+      <c r="BE114">
+        <v>6.75</v>
+      </c>
+      <c r="BF114">
+        <v>2.35</v>
+      </c>
+      <c r="BG114">
+        <v>1.17</v>
+      </c>
+      <c r="BH114">
+        <v>4.35</v>
+      </c>
+      <c r="BI114">
+        <v>1.3</v>
+      </c>
+      <c r="BJ114">
+        <v>3.15</v>
+      </c>
+      <c r="BK114">
+        <v>1.5</v>
+      </c>
+      <c r="BL114">
+        <v>2.4</v>
+      </c>
+      <c r="BM114">
+        <v>1.79</v>
+      </c>
+      <c r="BN114">
+        <v>1.9</v>
+      </c>
+      <c r="BO114">
+        <v>2.23</v>
+      </c>
+      <c r="BP114">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7466788</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>173</v>
+      </c>
+      <c r="P115" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q115">
+        <v>1.83</v>
+      </c>
+      <c r="R115">
+        <v>2.4</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>7</v>
+      </c>
+      <c r="Y115">
+        <v>1.1</v>
+      </c>
+      <c r="Z115">
+        <v>1.1</v>
+      </c>
+      <c r="AA115">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AB115">
+        <v>12.51</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>13</v>
+      </c>
+      <c r="AE115">
+        <v>1.27</v>
+      </c>
+      <c r="AF115">
+        <v>3.95</v>
+      </c>
+      <c r="AG115">
+        <v>1.83</v>
+      </c>
+      <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
+        <v>2.1</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>1.05</v>
+      </c>
+      <c r="AL115">
+        <v>1.17</v>
+      </c>
+      <c r="AM115">
+        <v>3.25</v>
+      </c>
+      <c r="AN115">
+        <v>2.2</v>
+      </c>
+      <c r="AO115">
+        <v>2.2</v>
+      </c>
+      <c r="AP115">
+        <v>2.33</v>
+      </c>
+      <c r="AQ115">
+        <v>1.83</v>
+      </c>
+      <c r="AR115">
+        <v>2.22</v>
+      </c>
+      <c r="AS115">
+        <v>1.46</v>
+      </c>
+      <c r="AT115">
+        <v>3.68</v>
+      </c>
+      <c r="AU115">
+        <v>8</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>6</v>
+      </c>
+      <c r="AY115">
+        <v>20</v>
+      </c>
+      <c r="AZ115">
+        <v>8</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>1</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>1.17</v>
+      </c>
+      <c r="BE115">
+        <v>10</v>
+      </c>
+      <c r="BF115">
+        <v>5.3</v>
+      </c>
+      <c r="BG115">
+        <v>1.14</v>
+      </c>
+      <c r="BH115">
+        <v>4.8</v>
+      </c>
+      <c r="BI115">
+        <v>1.24</v>
+      </c>
+      <c r="BJ115">
+        <v>3.55</v>
+      </c>
+      <c r="BK115">
+        <v>1.41</v>
+      </c>
+      <c r="BL115">
+        <v>2.63</v>
+      </c>
+      <c r="BM115">
+        <v>1.66</v>
+      </c>
+      <c r="BN115">
+        <v>2.05</v>
+      </c>
+      <c r="BO115">
+        <v>2</v>
+      </c>
+      <c r="BP115">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7466787</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>174</v>
+      </c>
+      <c r="P116" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q116">
+        <v>2.88</v>
+      </c>
+      <c r="R116">
+        <v>2.38</v>
+      </c>
+      <c r="S116">
+        <v>3.25</v>
+      </c>
+      <c r="T116">
+        <v>1.3</v>
+      </c>
+      <c r="U116">
+        <v>3.4</v>
+      </c>
+      <c r="V116">
+        <v>2.38</v>
+      </c>
+      <c r="W116">
+        <v>1.53</v>
+      </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
+      <c r="Y116">
+        <v>1.13</v>
+      </c>
+      <c r="Z116">
+        <v>1.39</v>
+      </c>
+      <c r="AA116">
+        <v>5.36</v>
+      </c>
+      <c r="AB116">
+        <v>4.85</v>
+      </c>
+      <c r="AC116">
+        <v>1.03</v>
+      </c>
+      <c r="AD116">
+        <v>16</v>
+      </c>
+      <c r="AE116">
+        <v>1.19</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.57</v>
+      </c>
+      <c r="AH116">
+        <v>2.35</v>
+      </c>
+      <c r="AI116">
+        <v>1.5</v>
+      </c>
+      <c r="AJ116">
+        <v>2.5</v>
+      </c>
+      <c r="AK116">
+        <v>1.43</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.63</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.4</v>
+      </c>
+      <c r="AP116">
+        <v>1.67</v>
+      </c>
+      <c r="AQ116">
+        <v>1.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.57</v>
+      </c>
+      <c r="AS116">
+        <v>1.44</v>
+      </c>
+      <c r="AT116">
+        <v>3.01</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>11</v>
+      </c>
+      <c r="AX116">
+        <v>1</v>
+      </c>
+      <c r="AY116">
+        <v>20</v>
+      </c>
+      <c r="AZ116">
+        <v>7</v>
+      </c>
+      <c r="BA116">
+        <v>7</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>1.66</v>
+      </c>
+      <c r="BE116">
+        <v>7</v>
+      </c>
+      <c r="BF116">
+        <v>2.43</v>
+      </c>
+      <c r="BG116">
+        <v>1.14</v>
+      </c>
+      <c r="BH116">
+        <v>4.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.26</v>
+      </c>
+      <c r="BJ116">
+        <v>3.4</v>
+      </c>
+      <c r="BK116">
+        <v>1.43</v>
+      </c>
+      <c r="BL116">
+        <v>2.55</v>
+      </c>
+      <c r="BM116">
+        <v>1.7</v>
+      </c>
+      <c r="BN116">
+        <v>2.02</v>
+      </c>
+      <c r="BO116">
+        <v>2.06</v>
+      </c>
+      <c r="BP116">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7466789</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s">
+        <v>83</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>175</v>
+      </c>
+      <c r="P117" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q117">
+        <v>2.1</v>
+      </c>
+      <c r="R117">
+        <v>2.38</v>
+      </c>
+      <c r="S117">
+        <v>5.5</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>1.21</v>
+      </c>
+      <c r="AA117">
+        <v>6.48</v>
+      </c>
+      <c r="AB117">
+        <v>7.67</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>16</v>
+      </c>
+      <c r="AE117">
+        <v>1.23</v>
+      </c>
+      <c r="AF117">
+        <v>4.45</v>
+      </c>
+      <c r="AG117">
+        <v>1.65</v>
+      </c>
+      <c r="AH117">
+        <v>2.1</v>
+      </c>
+      <c r="AI117">
+        <v>1.75</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.16</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>2.43</v>
+      </c>
+      <c r="AN117">
+        <v>1.6</v>
+      </c>
+      <c r="AO117">
+        <v>0.4</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>0.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.41</v>
+      </c>
+      <c r="AS117">
+        <v>1.51</v>
+      </c>
+      <c r="AT117">
+        <v>2.92</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>18</v>
+      </c>
+      <c r="AZ117">
+        <v>14</v>
+      </c>
+      <c r="BA117">
+        <v>10</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>1.44</v>
+      </c>
+      <c r="BE117">
+        <v>7</v>
+      </c>
+      <c r="BF117">
+        <v>3.15</v>
+      </c>
+      <c r="BG117">
+        <v>1.2</v>
+      </c>
+      <c r="BH117">
+        <v>3.95</v>
+      </c>
+      <c r="BI117">
+        <v>1.35</v>
+      </c>
+      <c r="BJ117">
+        <v>2.9</v>
+      </c>
+      <c r="BK117">
+        <v>1.58</v>
+      </c>
+      <c r="BL117">
+        <v>2.18</v>
+      </c>
+      <c r="BM117">
+        <v>1.92</v>
+      </c>
+      <c r="BN117">
+        <v>1.77</v>
+      </c>
+      <c r="BO117">
+        <v>2.38</v>
+      </c>
+      <c r="BP117">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7466794</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>91</v>
+      </c>
+      <c r="P118" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>2.75</v>
+      </c>
+      <c r="S118">
+        <v>5</v>
+      </c>
+      <c r="T118">
+        <v>1.2</v>
+      </c>
+      <c r="U118">
+        <v>4.33</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>1.73</v>
+      </c>
+      <c r="X118">
+        <v>4</v>
+      </c>
+      <c r="Y118">
+        <v>1.22</v>
+      </c>
+      <c r="Z118">
+        <v>1.42</v>
+      </c>
+      <c r="AA118">
+        <v>5.5</v>
+      </c>
+      <c r="AB118">
+        <v>6.4</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>29</v>
+      </c>
+      <c r="AE118">
+        <v>1.11</v>
+      </c>
+      <c r="AF118">
+        <v>7.2</v>
+      </c>
+      <c r="AG118">
+        <v>1.33</v>
+      </c>
+      <c r="AH118">
+        <v>3.15</v>
+      </c>
+      <c r="AI118">
+        <v>1.44</v>
+      </c>
+      <c r="AJ118">
+        <v>2.63</v>
+      </c>
+      <c r="AK118">
+        <v>1.14</v>
+      </c>
+      <c r="AL118">
+        <v>1.18</v>
+      </c>
+      <c r="AM118">
+        <v>2.59</v>
+      </c>
+      <c r="AN118">
+        <v>2.6</v>
+      </c>
+      <c r="AO118">
+        <v>0.8</v>
+      </c>
+      <c r="AP118">
+        <v>2.17</v>
+      </c>
+      <c r="AQ118">
+        <v>1.17</v>
+      </c>
+      <c r="AR118">
+        <v>2.34</v>
+      </c>
+      <c r="AS118">
+        <v>1.76</v>
+      </c>
+      <c r="AT118">
+        <v>4.1</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>8</v>
+      </c>
+      <c r="AW118">
+        <v>11</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>24</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>9</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>12</v>
+      </c>
+      <c r="BD118">
+        <v>1.3</v>
+      </c>
+      <c r="BE118">
+        <v>8.5</v>
+      </c>
+      <c r="BF118">
+        <v>3.7</v>
+      </c>
+      <c r="BG118">
+        <v>1.09</v>
+      </c>
+      <c r="BH118">
+        <v>5.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.16</v>
+      </c>
+      <c r="BJ118">
+        <v>4.3</v>
+      </c>
+      <c r="BK118">
+        <v>1.3</v>
+      </c>
+      <c r="BL118">
+        <v>3.15</v>
+      </c>
+      <c r="BM118">
+        <v>1.48</v>
+      </c>
+      <c r="BN118">
+        <v>2.43</v>
+      </c>
+      <c r="BO118">
+        <v>1.75</v>
+      </c>
+      <c r="BP118">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,10 +508,10 @@
     <t>['90+2', '90+7']</t>
   </si>
   <si>
-    <t>['27', '50', '58']</t>
+    <t>['2', '51']</t>
   </si>
   <si>
-    <t>['2', '51']</t>
+    <t>['27', '50', '58']</t>
   </si>
   <si>
     <t>['78', '83']</t>
@@ -532,16 +532,22 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['15', '52', '86']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
-    <t>['15', '52', '86']</t>
+    <t>['36', '77']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['36', '77']</t>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['42', '56']</t>
   </si>
   <si>
     <t>['60', '65']</t>
@@ -715,10 +721,10 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['17', '49']</t>
+    <t>['45+2', '83']</t>
   </si>
   <si>
-    <t>['45+2', '83']</t>
+    <t>['17', '49']</t>
   </si>
   <si>
     <t>['54', '72', '83']</t>
@@ -730,16 +736,25 @@
     <t>['15', '75']</t>
   </si>
   <si>
+    <t>['13', '20', '52', '90+3']</t>
+  </si>
+  <si>
     <t>['31', '53', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['4', '45+1']</t>
   </si>
   <si>
     <t>['4', '49']</t>
   </si>
   <si>
-    <t>['4', '45+1']</t>
+    <t>['2']</t>
   </si>
   <si>
-    <t>['13', '20', '52', '90+3']</t>
+    <t>['30', '65', '83']</t>
+  </si>
+  <si>
+    <t>['10', '53']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1581,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1644,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1978,7 +1993,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2262,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2390,7 +2405,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2596,7 +2611,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3008,7 +3023,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3214,7 +3229,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3420,7 +3435,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3910,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
         <v>1.83</v>
@@ -4119,7 +4134,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4656,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4862,7 +4877,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5068,7 +5083,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5892,7 +5907,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6098,7 +6113,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6176,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6510,7 +6525,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6716,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6922,7 +6937,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7206,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7334,7 +7349,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7415,7 +7430,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7540,7 +7555,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7618,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7952,7 +7967,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8239,7 +8254,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -8364,7 +8379,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8776,7 +8791,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8982,7 +8997,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9188,7 +9203,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9394,7 +9409,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9600,7 +9615,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10296,7 +10311,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>0.83</v>
@@ -10630,7 +10645,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11454,7 +11469,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11660,7 +11675,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11738,7 +11753,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -11866,7 +11881,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12072,7 +12087,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12278,7 +12293,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12359,7 +12374,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12484,7 +12499,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12896,7 +12911,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -12977,7 +12992,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ58">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13102,7 +13117,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13180,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13308,7 +13323,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13514,7 +13529,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13720,7 +13735,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13801,7 +13816,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14132,7 +14147,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14338,7 +14353,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14544,7 +14559,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15368,7 +15383,7 @@
         <v>97</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15574,7 +15589,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15780,7 +15795,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15861,7 +15876,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -15986,7 +16001,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16064,7 +16079,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16192,7 +16207,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16270,7 +16285,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74">
         <v>0.83</v>
@@ -16398,7 +16413,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16604,7 +16619,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16810,7 +16825,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16888,7 +16903,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17222,7 +17237,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17428,7 +17443,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17840,7 +17855,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18252,7 +18267,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18458,7 +18473,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18664,7 +18679,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18870,7 +18885,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19076,7 +19091,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19488,7 +19503,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19694,7 +19709,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19775,7 +19790,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -19978,7 +19993,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20187,7 +20202,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20390,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ94">
         <v>0.83</v>
@@ -20596,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95">
         <v>0.83</v>
@@ -20724,7 +20739,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20930,7 +20945,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21136,7 +21151,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21342,7 +21357,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21548,7 +21563,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21918,7 +21933,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7466777</v>
+        <v>7466786</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21933,70 +21948,70 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="Q102">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R102">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S102">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T102">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U102">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V102">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X102">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y102">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z102">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AA102">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB102">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="AC102">
         <v>1.03</v>
@@ -22005,118 +22020,118 @@
         <v>16</v>
       </c>
       <c r="AE102">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF102">
+        <v>4.5</v>
+      </c>
+      <c r="AG102">
+        <v>1.62</v>
+      </c>
+      <c r="AH102">
+        <v>2.21</v>
+      </c>
+      <c r="AI102">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102">
+        <v>2.2</v>
+      </c>
+      <c r="AK102">
+        <v>1.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.26</v>
+      </c>
+      <c r="AM102">
+        <v>1.89</v>
+      </c>
+      <c r="AN102">
+        <v>0.2</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0.67</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>1.17</v>
+      </c>
+      <c r="AS102">
+        <v>1.16</v>
+      </c>
+      <c r="AT102">
+        <v>2.33</v>
+      </c>
+      <c r="AU102">
         <v>5</v>
       </c>
-      <c r="AG102">
-        <v>1.52</v>
-      </c>
-      <c r="AH102">
-        <v>2.43</v>
-      </c>
-      <c r="AI102">
-        <v>1.5</v>
-      </c>
-      <c r="AJ102">
-        <v>2.5</v>
-      </c>
-      <c r="AK102">
-        <v>1.47</v>
-      </c>
-      <c r="AL102">
-        <v>1.28</v>
-      </c>
-      <c r="AM102">
-        <v>1.61</v>
-      </c>
-      <c r="AN102">
-        <v>2.6</v>
-      </c>
-      <c r="AO102">
-        <v>1</v>
-      </c>
-      <c r="AP102">
-        <v>2.67</v>
-      </c>
-      <c r="AQ102">
-        <v>0.83</v>
-      </c>
-      <c r="AR102">
-        <v>1.76</v>
-      </c>
-      <c r="AS102">
-        <v>1.52</v>
-      </c>
-      <c r="AT102">
-        <v>3.28</v>
-      </c>
-      <c r="AU102">
-        <v>7</v>
-      </c>
       <c r="AV102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY102">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ102">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA102">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB102">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC102">
         <v>10</v>
       </c>
       <c r="BD102">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="BE102">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF102">
-        <v>1.84</v>
+        <v>2.15</v>
       </c>
       <c r="BG102">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="BH102">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="BI102">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="BJ102">
-        <v>3.8</v>
+        <v>2.95</v>
       </c>
       <c r="BK102">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="BL102">
-        <v>2.8</v>
+        <v>2.28</v>
       </c>
       <c r="BM102">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="BN102">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="BO102">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="BP102">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22124,7 +22139,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7466786</v>
+        <v>7466785</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22136,193 +22151,193 @@
         <v>45605.5</v>
       </c>
       <c r="F103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="P103" t="s">
         <v>91</v>
       </c>
       <c r="Q103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R103">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T103">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U103">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V103">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W103">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y103">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AA103">
         <v>3.75</v>
       </c>
       <c r="AB103">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC103">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD103">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE103">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF103">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="AG103">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AH103">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="AI103">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ103">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK103">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AL103">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AM103">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AN103">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AO103">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ103">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AR103">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AS103">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
       <c r="AU103">
+        <v>7</v>
+      </c>
+      <c r="AV103">
         <v>5</v>
       </c>
-      <c r="AV103">
-        <v>2</v>
-      </c>
       <c r="AW103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>19</v>
+      </c>
+      <c r="BA103">
+        <v>7</v>
+      </c>
+      <c r="BB103">
         <v>6</v>
       </c>
-      <c r="AY103">
-        <v>9</v>
-      </c>
-      <c r="AZ103">
-        <v>11</v>
-      </c>
-      <c r="BA103">
-        <v>1</v>
-      </c>
-      <c r="BB103">
-        <v>9</v>
-      </c>
       <c r="BC103">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD103">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="BE103">
         <v>6.75</v>
       </c>
       <c r="BF103">
+        <v>2.48</v>
+      </c>
+      <c r="BG103">
+        <v>1.16</v>
+      </c>
+      <c r="BH103">
+        <v>4.4</v>
+      </c>
+      <c r="BI103">
+        <v>1.28</v>
+      </c>
+      <c r="BJ103">
+        <v>3.2</v>
+      </c>
+      <c r="BK103">
+        <v>1.48</v>
+      </c>
+      <c r="BL103">
+        <v>2.45</v>
+      </c>
+      <c r="BM103">
+        <v>1.75</v>
+      </c>
+      <c r="BN103">
+        <v>1.95</v>
+      </c>
+      <c r="BO103">
         <v>2.15</v>
       </c>
-      <c r="BG103">
-        <v>1.18</v>
-      </c>
-      <c r="BH103">
-        <v>4.1</v>
-      </c>
-      <c r="BI103">
-        <v>1.33</v>
-      </c>
-      <c r="BJ103">
-        <v>2.95</v>
-      </c>
-      <c r="BK103">
-        <v>1.55</v>
-      </c>
-      <c r="BL103">
-        <v>2.28</v>
-      </c>
-      <c r="BM103">
-        <v>1.88</v>
-      </c>
-      <c r="BN103">
-        <v>1.81</v>
-      </c>
-      <c r="BO103">
-        <v>2.33</v>
-      </c>
       <c r="BP103">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22372,7 +22387,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22536,7 +22551,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7466785</v>
+        <v>7466777</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22548,193 +22563,193 @@
         <v>45605.5</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O105" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="Q105">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R105">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S105">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T105">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U105">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V105">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W105">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X105">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y105">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z105">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AA105">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB105">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="AC105">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD105">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE105">
+        <v>1.19</v>
+      </c>
+      <c r="AF105">
+        <v>5</v>
+      </c>
+      <c r="AG105">
+        <v>1.52</v>
+      </c>
+      <c r="AH105">
+        <v>2.43</v>
+      </c>
+      <c r="AI105">
+        <v>1.5</v>
+      </c>
+      <c r="AJ105">
+        <v>2.5</v>
+      </c>
+      <c r="AK105">
+        <v>1.47</v>
+      </c>
+      <c r="AL105">
         <v>1.28</v>
       </c>
-      <c r="AF105">
-        <v>3.85</v>
-      </c>
-      <c r="AG105">
-        <v>1.82</v>
-      </c>
-      <c r="AH105">
-        <v>1.92</v>
-      </c>
-      <c r="AI105">
-        <v>1.67</v>
-      </c>
-      <c r="AJ105">
-        <v>2.1</v>
-      </c>
-      <c r="AK105">
-        <v>1.32</v>
-      </c>
-      <c r="AL105">
-        <v>1.31</v>
-      </c>
       <c r="AM105">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AN105">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AO105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.17</v>
+        <v>2.67</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
       </c>
       <c r="AR105">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AS105">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AT105">
-        <v>2.84</v>
+        <v>3.28</v>
       </c>
       <c r="AU105">
         <v>7</v>
       </c>
       <c r="AV105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW105">
         <v>2</v>
       </c>
       <c r="AX105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY105">
         <v>13</v>
       </c>
       <c r="AZ105">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA105">
+        <v>6</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>2.1</v>
+      </c>
+      <c r="BE105">
         <v>7</v>
       </c>
-      <c r="BB105">
-        <v>6</v>
-      </c>
-      <c r="BC105">
-        <v>13</v>
-      </c>
-      <c r="BD105">
-        <v>1.65</v>
-      </c>
-      <c r="BE105">
-        <v>6.75</v>
-      </c>
       <c r="BF105">
-        <v>2.48</v>
+        <v>1.84</v>
       </c>
       <c r="BG105">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="BH105">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="BI105">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="BJ105">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BK105">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BL105">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="BM105">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="BN105">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="BO105">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="BP105">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -23402,7 +23417,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23608,7 +23623,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23814,7 +23829,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23987,7 +24002,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -24020,7 +24035,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24184,7 +24199,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7466791</v>
+        <v>7466794</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24193,196 +24208,196 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F113">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113">
         <v>2</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>4</v>
       </c>
       <c r="N113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O113" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q113">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="R113">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113">
+        <v>1.2</v>
+      </c>
+      <c r="U113">
+        <v>4.33</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>1.73</v>
+      </c>
+      <c r="X113">
+        <v>4</v>
+      </c>
+      <c r="Y113">
+        <v>1.22</v>
+      </c>
+      <c r="Z113">
+        <v>1.42</v>
+      </c>
+      <c r="AA113">
+        <v>5.5</v>
+      </c>
+      <c r="AB113">
+        <v>6.4</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>29</v>
+      </c>
+      <c r="AE113">
+        <v>1.11</v>
+      </c>
+      <c r="AF113">
+        <v>7.2</v>
+      </c>
+      <c r="AG113">
         <v>1.33</v>
       </c>
-      <c r="U113">
-        <v>3.25</v>
-      </c>
-      <c r="V113">
-        <v>2.5</v>
-      </c>
-      <c r="W113">
-        <v>1.5</v>
-      </c>
-      <c r="X113">
-        <v>6.5</v>
-      </c>
-      <c r="Y113">
-        <v>1.11</v>
-      </c>
-      <c r="Z113">
-        <v>1.22</v>
-      </c>
-      <c r="AA113">
-        <v>6.34</v>
-      </c>
-      <c r="AB113">
-        <v>7.51</v>
-      </c>
-      <c r="AC113">
-        <v>1.03</v>
-      </c>
-      <c r="AD113">
-        <v>16</v>
-      </c>
-      <c r="AE113">
-        <v>1.23</v>
-      </c>
-      <c r="AF113">
-        <v>4.45</v>
-      </c>
-      <c r="AG113">
-        <v>1.7</v>
-      </c>
       <c r="AH113">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="AI113">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="AJ113">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="AK113">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AL113">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AM113">
-        <v>2.29</v>
+        <v>2.59</v>
       </c>
       <c r="AN113">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO113">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AR113">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="AS113">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="AT113">
-        <v>3.29</v>
+        <v>4.1</v>
       </c>
       <c r="AU113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW113">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX113">
         <v>2</v>
       </c>
       <c r="AY113">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ113">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC113">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD113">
         <v>1.3</v>
       </c>
       <c r="BE113">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF113">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BG113">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="BH113">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="BI113">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="BJ113">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="BK113">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BL113">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BM113">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="BN113">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="BO113">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="BP113">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24390,7 +24405,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7466790</v>
+        <v>7466788</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24399,61 +24414,61 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="P114" t="s">
         <v>91</v>
       </c>
       <c r="Q114">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="R114">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S114">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="T114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V114">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W114">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X114">
         <v>7</v>
@@ -24462,133 +24477,133 @@
         <v>1.1</v>
       </c>
       <c r="Z114">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AA114">
-        <v>5.04</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AB114">
-        <v>4.68</v>
+        <v>12.51</v>
       </c>
       <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>13</v>
+      </c>
+      <c r="AE114">
+        <v>1.27</v>
+      </c>
+      <c r="AF114">
+        <v>3.95</v>
+      </c>
+      <c r="AG114">
+        <v>1.83</v>
+      </c>
+      <c r="AH114">
+        <v>1.95</v>
+      </c>
+      <c r="AI114">
+        <v>2.1</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
         <v>1.05</v>
       </c>
-      <c r="AD114">
-        <v>11</v>
-      </c>
-      <c r="AE114">
-        <v>1.29</v>
-      </c>
-      <c r="AF114">
-        <v>3.8</v>
-      </c>
-      <c r="AG114">
-        <v>1.8</v>
-      </c>
-      <c r="AH114">
-        <v>2</v>
-      </c>
-      <c r="AI114">
-        <v>1.67</v>
-      </c>
-      <c r="AJ114">
-        <v>2.1</v>
-      </c>
-      <c r="AK114">
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>3.25</v>
+      </c>
+      <c r="AN114">
+        <v>2.2</v>
+      </c>
+      <c r="AO114">
+        <v>2.2</v>
+      </c>
+      <c r="AP114">
+        <v>2.33</v>
+      </c>
+      <c r="AQ114">
+        <v>1.83</v>
+      </c>
+      <c r="AR114">
+        <v>2.22</v>
+      </c>
+      <c r="AS114">
+        <v>1.46</v>
+      </c>
+      <c r="AT114">
+        <v>3.68</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
+      <c r="AW114">
+        <v>7</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+      <c r="AY114">
+        <v>20</v>
+      </c>
+      <c r="AZ114">
+        <v>8</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>1.17</v>
+      </c>
+      <c r="BE114">
+        <v>10</v>
+      </c>
+      <c r="BF114">
+        <v>5.3</v>
+      </c>
+      <c r="BG114">
+        <v>1.14</v>
+      </c>
+      <c r="BH114">
+        <v>4.8</v>
+      </c>
+      <c r="BI114">
+        <v>1.24</v>
+      </c>
+      <c r="BJ114">
+        <v>3.55</v>
+      </c>
+      <c r="BK114">
         <v>1.41</v>
       </c>
-      <c r="AL114">
-        <v>1.31</v>
-      </c>
-      <c r="AM114">
-        <v>1.61</v>
-      </c>
-      <c r="AN114">
-        <v>1</v>
-      </c>
-      <c r="AO114">
-        <v>0</v>
-      </c>
-      <c r="AP114">
-        <v>1</v>
-      </c>
-      <c r="AQ114">
-        <v>0.17</v>
-      </c>
-      <c r="AR114">
-        <v>1.26</v>
-      </c>
-      <c r="AS114">
-        <v>0.96</v>
-      </c>
-      <c r="AT114">
-        <v>2.22</v>
-      </c>
-      <c r="AU114">
-        <v>6</v>
-      </c>
-      <c r="AV114">
-        <v>3</v>
-      </c>
-      <c r="AW114">
-        <v>12</v>
-      </c>
-      <c r="AX114">
-        <v>4</v>
-      </c>
-      <c r="AY114">
-        <v>28</v>
-      </c>
-      <c r="AZ114">
-        <v>10</v>
-      </c>
-      <c r="BA114">
-        <v>10</v>
-      </c>
-      <c r="BB114">
-        <v>4</v>
-      </c>
-      <c r="BC114">
-        <v>14</v>
-      </c>
-      <c r="BD114">
+      <c r="BL114">
+        <v>2.63</v>
+      </c>
+      <c r="BM114">
+        <v>1.66</v>
+      </c>
+      <c r="BN114">
+        <v>2.05</v>
+      </c>
+      <c r="BO114">
+        <v>2</v>
+      </c>
+      <c r="BP114">
         <v>1.71</v>
-      </c>
-      <c r="BE114">
-        <v>6.75</v>
-      </c>
-      <c r="BF114">
-        <v>2.35</v>
-      </c>
-      <c r="BG114">
-        <v>1.17</v>
-      </c>
-      <c r="BH114">
-        <v>4.35</v>
-      </c>
-      <c r="BI114">
-        <v>1.3</v>
-      </c>
-      <c r="BJ114">
-        <v>3.15</v>
-      </c>
-      <c r="BK114">
-        <v>1.5</v>
-      </c>
-      <c r="BL114">
-        <v>2.4</v>
-      </c>
-      <c r="BM114">
-        <v>1.79</v>
-      </c>
-      <c r="BN114">
-        <v>1.9</v>
-      </c>
-      <c r="BO114">
-        <v>2.23</v>
-      </c>
-      <c r="BP114">
-        <v>1.57</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24596,7 +24611,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7466788</v>
+        <v>7466791</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24608,46 +24623,46 @@
         <v>45619.5</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O115" t="s">
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="Q115">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R115">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S115">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T115">
         <v>1.33</v>
@@ -24656,145 +24671,145 @@
         <v>3.25</v>
       </c>
       <c r="V115">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W115">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>1.22</v>
+      </c>
+      <c r="AA115">
+        <v>6.34</v>
+      </c>
+      <c r="AB115">
+        <v>7.51</v>
+      </c>
+      <c r="AC115">
+        <v>1.03</v>
+      </c>
+      <c r="AD115">
+        <v>16</v>
+      </c>
+      <c r="AE115">
+        <v>1.23</v>
+      </c>
+      <c r="AF115">
+        <v>4.45</v>
+      </c>
+      <c r="AG115">
+        <v>1.7</v>
+      </c>
+      <c r="AH115">
+        <v>2.1</v>
+      </c>
+      <c r="AI115">
+        <v>1.7</v>
+      </c>
+      <c r="AJ115">
+        <v>2.05</v>
+      </c>
+      <c r="AK115">
+        <v>1.19</v>
+      </c>
+      <c r="AL115">
+        <v>1.23</v>
+      </c>
+      <c r="AM115">
+        <v>2.29</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+      <c r="AO115">
+        <v>0.4</v>
+      </c>
+      <c r="AP115">
+        <v>1.67</v>
+      </c>
+      <c r="AQ115">
+        <v>0.83</v>
+      </c>
+      <c r="AR115">
+        <v>1.98</v>
+      </c>
+      <c r="AS115">
+        <v>1.31</v>
+      </c>
+      <c r="AT115">
+        <v>3.29</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>4</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>11</v>
+      </c>
+      <c r="AZ115">
+        <v>11</v>
+      </c>
+      <c r="BA115">
         <v>7</v>
       </c>
-      <c r="Y115">
-        <v>1.1</v>
-      </c>
-      <c r="Z115">
-        <v>1.1</v>
-      </c>
-      <c r="AA115">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AB115">
-        <v>12.51</v>
-      </c>
-      <c r="AC115">
-        <v>1.04</v>
-      </c>
-      <c r="AD115">
-        <v>13</v>
-      </c>
-      <c r="AE115">
-        <v>1.27</v>
-      </c>
-      <c r="AF115">
-        <v>3.95</v>
-      </c>
-      <c r="AG115">
-        <v>1.83</v>
-      </c>
-      <c r="AH115">
-        <v>1.95</v>
-      </c>
-      <c r="AI115">
-        <v>2.1</v>
-      </c>
-      <c r="AJ115">
-        <v>1.67</v>
-      </c>
-      <c r="AK115">
-        <v>1.05</v>
-      </c>
-      <c r="AL115">
-        <v>1.17</v>
-      </c>
-      <c r="AM115">
-        <v>3.25</v>
-      </c>
-      <c r="AN115">
-        <v>2.2</v>
-      </c>
-      <c r="AO115">
-        <v>2.2</v>
-      </c>
-      <c r="AP115">
-        <v>2.33</v>
-      </c>
-      <c r="AQ115">
-        <v>1.83</v>
-      </c>
-      <c r="AR115">
-        <v>2.22</v>
-      </c>
-      <c r="AS115">
-        <v>1.46</v>
-      </c>
-      <c r="AT115">
-        <v>3.68</v>
-      </c>
-      <c r="AU115">
-        <v>8</v>
-      </c>
-      <c r="AV115">
-        <v>0</v>
-      </c>
-      <c r="AW115">
-        <v>7</v>
-      </c>
-      <c r="AX115">
-        <v>6</v>
-      </c>
-      <c r="AY115">
-        <v>20</v>
-      </c>
-      <c r="AZ115">
-        <v>8</v>
-      </c>
-      <c r="BA115">
-        <v>8</v>
-      </c>
       <c r="BB115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC115">
         <v>9</v>
       </c>
       <c r="BD115">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BE115">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF115">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="BG115">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="BH115">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BI115">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BJ115">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BK115">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="BL115">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="BM115">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="BN115">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BO115">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BP115">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24802,7 +24817,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7466787</v>
+        <v>7466790</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24814,193 +24829,193 @@
         <v>45619.5</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>91</v>
+      </c>
+      <c r="P116" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q116">
         <v>3</v>
       </c>
-      <c r="O116" t="s">
-        <v>174</v>
-      </c>
-      <c r="P116" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q116">
-        <v>2.88</v>
-      </c>
       <c r="R116">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T116">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U116">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V116">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W116">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y116">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z116">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AA116">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="AB116">
-        <v>4.85</v>
+        <v>4.68</v>
       </c>
       <c r="AC116">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD116">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE116">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF116">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="AG116">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AH116">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AI116">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ116">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK116">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AL116">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM116">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO116">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AR116">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="AS116">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="AT116">
-        <v>3.01</v>
+        <v>2.22</v>
       </c>
       <c r="AU116">
         <v>6</v>
       </c>
       <c r="AV116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY116">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC116">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD116">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="BE116">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF116">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BG116">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH116">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="BI116">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BJ116">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BK116">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BL116">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BM116">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="BN116">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BO116">
-        <v>2.06</v>
+        <v>2.23</v>
       </c>
       <c r="BP116">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25047,10 +25062,10 @@
         <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25214,7 +25229,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7466794</v>
+        <v>7466787</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25223,196 +25238,814 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45619.60416666666</v>
+        <v>45619.5</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O118" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q118">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="R118">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="S118">
+        <v>3.25</v>
+      </c>
+      <c r="T118">
+        <v>1.3</v>
+      </c>
+      <c r="U118">
+        <v>3.4</v>
+      </c>
+      <c r="V118">
+        <v>2.38</v>
+      </c>
+      <c r="W118">
+        <v>1.53</v>
+      </c>
+      <c r="X118">
+        <v>6</v>
+      </c>
+      <c r="Y118">
+        <v>1.13</v>
+      </c>
+      <c r="Z118">
+        <v>1.39</v>
+      </c>
+      <c r="AA118">
+        <v>5.36</v>
+      </c>
+      <c r="AB118">
+        <v>4.85</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>16</v>
+      </c>
+      <c r="AE118">
+        <v>1.19</v>
+      </c>
+      <c r="AF118">
         <v>5</v>
       </c>
-      <c r="T118">
-        <v>1.2</v>
-      </c>
-      <c r="U118">
-        <v>4.33</v>
-      </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
-      <c r="W118">
-        <v>1.73</v>
-      </c>
-      <c r="X118">
-        <v>4</v>
-      </c>
-      <c r="Y118">
-        <v>1.22</v>
-      </c>
-      <c r="Z118">
-        <v>1.42</v>
-      </c>
-      <c r="AA118">
-        <v>5.5</v>
-      </c>
-      <c r="AB118">
-        <v>6.4</v>
-      </c>
-      <c r="AC118">
-        <v>1.01</v>
-      </c>
-      <c r="AD118">
-        <v>29</v>
-      </c>
-      <c r="AE118">
-        <v>1.11</v>
-      </c>
-      <c r="AF118">
-        <v>7.2</v>
-      </c>
       <c r="AG118">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AH118">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="AI118">
+        <v>1.5</v>
+      </c>
+      <c r="AJ118">
+        <v>2.5</v>
+      </c>
+      <c r="AK118">
+        <v>1.43</v>
+      </c>
+      <c r="AL118">
+        <v>1.28</v>
+      </c>
+      <c r="AM118">
+        <v>1.63</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>1.4</v>
+      </c>
+      <c r="AP118">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118">
+        <v>1.67</v>
+      </c>
+      <c r="AR118">
+        <v>1.57</v>
+      </c>
+      <c r="AS118">
         <v>1.44</v>
       </c>
-      <c r="AJ118">
-        <v>2.63</v>
-      </c>
-      <c r="AK118">
-        <v>1.14</v>
-      </c>
-      <c r="AL118">
-        <v>1.18</v>
-      </c>
-      <c r="AM118">
-        <v>2.59</v>
-      </c>
-      <c r="AN118">
-        <v>2.6</v>
-      </c>
-      <c r="AO118">
-        <v>0.8</v>
-      </c>
-      <c r="AP118">
-        <v>2.17</v>
-      </c>
-      <c r="AQ118">
-        <v>1.17</v>
-      </c>
-      <c r="AR118">
-        <v>2.34</v>
-      </c>
-      <c r="AS118">
-        <v>1.76</v>
-      </c>
       <c r="AT118">
-        <v>4.1</v>
+        <v>3.01</v>
       </c>
       <c r="AU118">
         <v>6</v>
       </c>
       <c r="AV118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW118">
         <v>11</v>
       </c>
       <c r="AX118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY118">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ118">
+        <v>7</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>1.66</v>
+      </c>
+      <c r="BE118">
+        <v>7</v>
+      </c>
+      <c r="BF118">
+        <v>2.43</v>
+      </c>
+      <c r="BG118">
+        <v>1.14</v>
+      </c>
+      <c r="BH118">
+        <v>4.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.26</v>
+      </c>
+      <c r="BJ118">
+        <v>3.4</v>
+      </c>
+      <c r="BK118">
+        <v>1.43</v>
+      </c>
+      <c r="BL118">
+        <v>2.55</v>
+      </c>
+      <c r="BM118">
+        <v>1.7</v>
+      </c>
+      <c r="BN118">
+        <v>2.02</v>
+      </c>
+      <c r="BO118">
+        <v>2.06</v>
+      </c>
+      <c r="BP118">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7466792</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>71</v>
+      </c>
+      <c r="H119" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>176</v>
+      </c>
+      <c r="P119" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q119">
+        <v>4.75</v>
+      </c>
+      <c r="R119">
+        <v>2.4</v>
+      </c>
+      <c r="S119">
+        <v>2.2</v>
+      </c>
+      <c r="T119">
+        <v>1.29</v>
+      </c>
+      <c r="U119">
+        <v>3.5</v>
+      </c>
+      <c r="V119">
+        <v>2.38</v>
+      </c>
+      <c r="W119">
+        <v>1.53</v>
+      </c>
+      <c r="X119">
+        <v>5.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.14</v>
+      </c>
+      <c r="Z119">
+        <v>4.82</v>
+      </c>
+      <c r="AA119">
+        <v>4.07</v>
+      </c>
+      <c r="AB119">
+        <v>1.62</v>
+      </c>
+      <c r="AC119">
+        <v>1.03</v>
+      </c>
+      <c r="AD119">
+        <v>17</v>
+      </c>
+      <c r="AE119">
+        <v>1.19</v>
+      </c>
+      <c r="AF119">
+        <v>5</v>
+      </c>
+      <c r="AG119">
+        <v>1.57</v>
+      </c>
+      <c r="AH119">
+        <v>2.26</v>
+      </c>
+      <c r="AI119">
+        <v>1.62</v>
+      </c>
+      <c r="AJ119">
+        <v>2.2</v>
+      </c>
+      <c r="AK119">
+        <v>2.34</v>
+      </c>
+      <c r="AL119">
+        <v>1.22</v>
+      </c>
+      <c r="AM119">
+        <v>1.18</v>
+      </c>
+      <c r="AN119">
+        <v>0.6</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
+        <v>0.67</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>1.13</v>
+      </c>
+      <c r="AS119">
+        <v>1.61</v>
+      </c>
+      <c r="AT119">
+        <v>2.74</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>12</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>2.95</v>
+      </c>
+      <c r="BE119">
+        <v>7</v>
+      </c>
+      <c r="BF119">
+        <v>1.46</v>
+      </c>
+      <c r="BG119">
+        <v>1.13</v>
+      </c>
+      <c r="BH119">
+        <v>4.8</v>
+      </c>
+      <c r="BI119">
+        <v>1.26</v>
+      </c>
+      <c r="BJ119">
+        <v>3.4</v>
+      </c>
+      <c r="BK119">
+        <v>1.44</v>
+      </c>
+      <c r="BL119">
+        <v>2.55</v>
+      </c>
+      <c r="BM119">
+        <v>1.72</v>
+      </c>
+      <c r="BN119">
+        <v>1.98</v>
+      </c>
+      <c r="BO119">
+        <v>2.08</v>
+      </c>
+      <c r="BP119">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7466796</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>82</v>
+      </c>
+      <c r="H120" t="s">
+        <v>89</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120" t="s">
+        <v>177</v>
+      </c>
+      <c r="P120" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>2.75</v>
+      </c>
+      <c r="S120">
+        <v>1.67</v>
+      </c>
+      <c r="T120">
+        <v>1.25</v>
+      </c>
+      <c r="U120">
+        <v>3.75</v>
+      </c>
+      <c r="V120">
+        <v>2.1</v>
+      </c>
+      <c r="W120">
+        <v>1.67</v>
+      </c>
+      <c r="X120">
+        <v>5</v>
+      </c>
+      <c r="Y120">
+        <v>1.17</v>
+      </c>
+      <c r="Z120">
+        <v>7.8</v>
+      </c>
+      <c r="AA120">
+        <v>4.85</v>
+      </c>
+      <c r="AB120">
+        <v>1.34</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>23</v>
+      </c>
+      <c r="AE120">
+        <v>1.14</v>
+      </c>
+      <c r="AF120">
+        <v>6.2</v>
+      </c>
+      <c r="AG120">
+        <v>1.4</v>
+      </c>
+      <c r="AH120">
+        <v>2.82</v>
+      </c>
+      <c r="AI120">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.95</v>
+      </c>
+      <c r="AK120">
+        <v>3.75</v>
+      </c>
+      <c r="AL120">
+        <v>1.13</v>
+      </c>
+      <c r="AM120">
+        <v>1.04</v>
+      </c>
+      <c r="AN120">
+        <v>0.8</v>
+      </c>
+      <c r="AO120">
+        <v>2.6</v>
+      </c>
+      <c r="AP120">
+        <v>0.67</v>
+      </c>
+      <c r="AQ120">
+        <v>2.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.07</v>
+      </c>
+      <c r="AS120">
+        <v>1.47</v>
+      </c>
+      <c r="AT120">
+        <v>2.54</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>12</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>28</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
         <v>10</v>
       </c>
-      <c r="BA118">
+      <c r="BC120">
+        <v>13</v>
+      </c>
+      <c r="BD120">
+        <v>4.6</v>
+      </c>
+      <c r="BE120">
         <v>9</v>
       </c>
-      <c r="BB118">
+      <c r="BF120">
+        <v>1.21</v>
+      </c>
+      <c r="BG120">
+        <v>1.14</v>
+      </c>
+      <c r="BH120">
+        <v>4.8</v>
+      </c>
+      <c r="BI120">
+        <v>1.26</v>
+      </c>
+      <c r="BJ120">
+        <v>3.4</v>
+      </c>
+      <c r="BK120">
+        <v>1.44</v>
+      </c>
+      <c r="BL120">
+        <v>2.55</v>
+      </c>
+      <c r="BM120">
+        <v>1.68</v>
+      </c>
+      <c r="BN120">
+        <v>2.02</v>
+      </c>
+      <c r="BO120">
+        <v>2.05</v>
+      </c>
+      <c r="BP120">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7466795</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45621.70833333334</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>91</v>
+      </c>
+      <c r="P121" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>2.5</v>
+      </c>
+      <c r="S121">
+        <v>5.5</v>
+      </c>
+      <c r="T121">
+        <v>1.29</v>
+      </c>
+      <c r="U121">
+        <v>3.5</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>5.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.14</v>
+      </c>
+      <c r="Z121">
+        <v>1.5</v>
+      </c>
+      <c r="AA121">
+        <v>4.4</v>
+      </c>
+      <c r="AB121">
+        <v>5.75</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>18</v>
+      </c>
+      <c r="AE121">
+        <v>1.18</v>
+      </c>
+      <c r="AF121">
+        <v>5.1</v>
+      </c>
+      <c r="AG121">
+        <v>1.57</v>
+      </c>
+      <c r="AH121">
+        <v>2.35</v>
+      </c>
+      <c r="AI121">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.13</v>
+      </c>
+      <c r="AL121">
+        <v>1.2</v>
+      </c>
+      <c r="AM121">
+        <v>2.68</v>
+      </c>
+      <c r="AN121">
+        <v>2</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1.67</v>
+      </c>
+      <c r="AQ121">
+        <v>1.33</v>
+      </c>
+      <c r="AR121">
+        <v>1.12</v>
+      </c>
+      <c r="AS121">
+        <v>1.2</v>
+      </c>
+      <c r="AT121">
+        <v>2.32</v>
+      </c>
+      <c r="AU121">
         <v>3</v>
       </c>
-      <c r="BC118">
-        <v>12</v>
-      </c>
-      <c r="BD118">
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>10</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
         <v>1.3</v>
       </c>
-      <c r="BE118">
-        <v>8.5</v>
-      </c>
-      <c r="BF118">
-        <v>3.7</v>
-      </c>
-      <c r="BG118">
-        <v>1.09</v>
-      </c>
-      <c r="BH118">
-        <v>5.8</v>
-      </c>
-      <c r="BI118">
-        <v>1.16</v>
-      </c>
-      <c r="BJ118">
-        <v>4.3</v>
-      </c>
-      <c r="BK118">
-        <v>1.3</v>
-      </c>
-      <c r="BL118">
-        <v>3.15</v>
-      </c>
-      <c r="BM118">
-        <v>1.48</v>
-      </c>
-      <c r="BN118">
-        <v>2.43</v>
-      </c>
-      <c r="BO118">
-        <v>1.75</v>
-      </c>
-      <c r="BP118">
-        <v>1.95</v>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>3.65</v>
+      </c>
+      <c r="BG121">
+        <v>1.15</v>
+      </c>
+      <c r="BH121">
+        <v>4.6</v>
+      </c>
+      <c r="BI121">
+        <v>1.27</v>
+      </c>
+      <c r="BJ121">
+        <v>3.3</v>
+      </c>
+      <c r="BK121">
+        <v>1.46</v>
+      </c>
+      <c r="BL121">
+        <v>2.48</v>
+      </c>
+      <c r="BM121">
+        <v>1.72</v>
+      </c>
+      <c r="BN121">
+        <v>1.98</v>
+      </c>
+      <c r="BO121">
+        <v>2.1</v>
+      </c>
+      <c r="BP121">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,10 +508,10 @@
     <t>['90+2', '90+7']</t>
   </si>
   <si>
-    <t>['2', '51']</t>
+    <t>['27', '50', '58']</t>
   </si>
   <si>
-    <t>['27', '50', '58']</t>
+    <t>['2', '51']</t>
   </si>
   <si>
     <t>['78', '83']</t>
@@ -532,19 +532,16 @@
     <t>['90+5']</t>
   </si>
   <si>
-    <t>['15', '52', '86']</t>
-  </si>
-  <si>
     <t>['20']</t>
   </si>
   <si>
-    <t>['36', '77']</t>
+    <t>['15', '52', '86']</t>
   </si>
   <si>
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['43']</t>
+    <t>['36', '77']</t>
   </si>
   <si>
     <t>['42', '56']</t>
@@ -721,10 +718,10 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['45+2', '83']</t>
+    <t>['17', '49']</t>
   </si>
   <si>
-    <t>['17', '49']</t>
+    <t>['45+2', '83']</t>
   </si>
   <si>
     <t>['54', '72', '83']</t>
@@ -736,19 +733,16 @@
     <t>['15', '75']</t>
   </si>
   <si>
-    <t>['13', '20', '52', '90+3']</t>
+    <t>['31', '53', '87', '90+5']</t>
   </si>
   <si>
-    <t>['31', '53', '87', '90+5']</t>
+    <t>['4', '49']</t>
   </si>
   <si>
     <t>['4', '45+1']</t>
   </si>
   <si>
-    <t>['4', '49']</t>
-  </si>
-  <si>
-    <t>['2']</t>
+    <t>['13', '20', '52', '90+3']</t>
   </si>
   <si>
     <t>['30', '65', '83']</t>
@@ -1116,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,7 +1575,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1659,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ3">
         <v>2.67</v>
@@ -1993,7 +1987,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2405,7 +2399,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2611,7 +2605,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3023,7 +3017,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3229,7 +3223,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3435,7 +3429,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4671,7 +4665,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4877,7 +4871,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5083,7 +5077,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5907,7 +5901,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6113,7 +6107,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6191,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6525,7 +6519,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6731,7 +6725,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6937,7 +6931,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7349,7 +7343,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7555,7 +7549,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7967,7 +7961,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8379,7 +8373,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8791,7 +8785,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8997,7 +8991,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9203,7 +9197,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9409,7 +9403,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9615,7 +9609,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10645,7 +10639,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11469,7 +11463,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11675,7 +11669,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11881,7 +11875,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12087,7 +12081,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12293,7 +12287,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12499,7 +12493,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12911,7 +12905,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13117,7 +13111,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13195,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13323,7 +13317,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13529,7 +13523,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13735,7 +13729,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14147,7 +14141,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14353,7 +14347,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14559,7 +14553,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15383,7 +15377,7 @@
         <v>97</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15589,7 +15583,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15795,7 +15789,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16001,7 +15995,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16207,7 +16201,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16413,7 +16407,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16619,7 +16613,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16825,7 +16819,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16903,7 +16897,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17237,7 +17231,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17443,7 +17437,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17855,7 +17849,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18267,7 +18261,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18473,7 +18467,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18679,7 +18673,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18885,7 +18879,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19091,7 +19085,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19503,7 +19497,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19709,7 +19703,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20611,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ95">
         <v>0.83</v>
@@ -20739,7 +20733,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20945,7 +20939,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21151,7 +21145,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21357,7 +21351,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21563,7 +21557,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21933,7 +21927,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7466786</v>
+        <v>7466777</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21948,70 +21942,70 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="Q102">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R102">
+        <v>2.38</v>
+      </c>
+      <c r="S102">
+        <v>3.2</v>
+      </c>
+      <c r="T102">
+        <v>1.29</v>
+      </c>
+      <c r="U102">
+        <v>3.5</v>
+      </c>
+      <c r="V102">
+        <v>2.38</v>
+      </c>
+      <c r="W102">
+        <v>1.53</v>
+      </c>
+      <c r="X102">
+        <v>5.5</v>
+      </c>
+      <c r="Y102">
+        <v>1.14</v>
+      </c>
+      <c r="Z102">
         <v>2.3</v>
       </c>
-      <c r="S102">
-        <v>4</v>
-      </c>
-      <c r="T102">
-        <v>1.3</v>
-      </c>
-      <c r="U102">
-        <v>3.4</v>
-      </c>
-      <c r="V102">
-        <v>2.5</v>
-      </c>
-      <c r="W102">
-        <v>1.5</v>
-      </c>
-      <c r="X102">
-        <v>6</v>
-      </c>
-      <c r="Y102">
-        <v>1.13</v>
-      </c>
-      <c r="Z102">
-        <v>1.95</v>
-      </c>
       <c r="AA102">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB102">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="AC102">
         <v>1.03</v>
@@ -22020,118 +22014,118 @@
         <v>16</v>
       </c>
       <c r="AE102">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF102">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG102">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AH102">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="AI102">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ102">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK102">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AL102">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM102">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AN102">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="AO102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>2.67</v>
       </c>
       <c r="AQ102">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="AS102">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="AT102">
-        <v>2.33</v>
+        <v>3.28</v>
       </c>
       <c r="AU102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>13</v>
+      </c>
+      <c r="AZ102">
+        <v>17</v>
+      </c>
+      <c r="BA102">
         <v>6</v>
       </c>
-      <c r="AY102">
-        <v>9</v>
-      </c>
-      <c r="AZ102">
-        <v>11</v>
-      </c>
-      <c r="BA102">
-        <v>1</v>
-      </c>
       <c r="BB102">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC102">
         <v>10</v>
       </c>
       <c r="BD102">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="BE102">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF102">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="BG102">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="BH102">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BI102">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="BJ102">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="BK102">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="BL102">
-        <v>2.28</v>
+        <v>2.8</v>
       </c>
       <c r="BM102">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="BN102">
-        <v>1.81</v>
+        <v>2.17</v>
       </c>
       <c r="BO102">
-        <v>2.33</v>
+        <v>1.92</v>
       </c>
       <c r="BP102">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22139,7 +22133,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7466785</v>
+        <v>7466786</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22151,193 +22145,193 @@
         <v>45605.5</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="P103" t="s">
         <v>91</v>
       </c>
       <c r="Q103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R103">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T103">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U103">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V103">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W103">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z103">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AA103">
         <v>3.75</v>
       </c>
       <c r="AB103">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AC103">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD103">
+        <v>16</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.62</v>
+      </c>
+      <c r="AH103">
+        <v>2.21</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.3</v>
+      </c>
+      <c r="AL103">
+        <v>1.26</v>
+      </c>
+      <c r="AM103">
+        <v>1.89</v>
+      </c>
+      <c r="AN103">
+        <v>0.2</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0.67</v>
+      </c>
+      <c r="AQ103">
+        <v>0</v>
+      </c>
+      <c r="AR103">
+        <v>1.17</v>
+      </c>
+      <c r="AS103">
+        <v>1.16</v>
+      </c>
+      <c r="AT103">
+        <v>2.33</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>1</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>9</v>
+      </c>
+      <c r="AZ103">
         <v>11</v>
       </c>
-      <c r="AE103">
-        <v>1.28</v>
-      </c>
-      <c r="AF103">
-        <v>3.85</v>
-      </c>
-      <c r="AG103">
-        <v>1.82</v>
-      </c>
-      <c r="AH103">
-        <v>1.92</v>
-      </c>
-      <c r="AI103">
-        <v>1.67</v>
-      </c>
-      <c r="AJ103">
-        <v>2.1</v>
-      </c>
-      <c r="AK103">
-        <v>1.32</v>
-      </c>
-      <c r="AL103">
-        <v>1.31</v>
-      </c>
-      <c r="AM103">
-        <v>1.75</v>
-      </c>
-      <c r="AN103">
-        <v>1.2</v>
-      </c>
-      <c r="AO103">
-        <v>0.8</v>
-      </c>
-      <c r="AP103">
-        <v>1.17</v>
-      </c>
-      <c r="AQ103">
-        <v>0.83</v>
-      </c>
-      <c r="AR103">
-        <v>1.57</v>
-      </c>
-      <c r="AS103">
-        <v>1.27</v>
-      </c>
-      <c r="AT103">
-        <v>2.84</v>
-      </c>
-      <c r="AU103">
-        <v>7</v>
-      </c>
-      <c r="AV103">
-        <v>5</v>
-      </c>
-      <c r="AW103">
-        <v>2</v>
-      </c>
-      <c r="AX103">
-        <v>8</v>
-      </c>
-      <c r="AY103">
-        <v>13</v>
-      </c>
-      <c r="AZ103">
-        <v>19</v>
-      </c>
       <c r="BA103">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB103">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC103">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD103">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="BE103">
         <v>6.75</v>
       </c>
       <c r="BF103">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="BG103">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH103">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI103">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BJ103">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BK103">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BL103">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="BM103">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="BN103">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="BO103">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="BP103">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22551,7 +22545,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7466777</v>
+        <v>7466785</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22563,193 +22557,193 @@
         <v>45605.5</v>
       </c>
       <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>91</v>
+      </c>
+      <c r="P105" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q105">
+        <v>2.75</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>3.75</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>1.85</v>
+      </c>
+      <c r="AA105">
+        <v>3.75</v>
+      </c>
+      <c r="AB105">
+        <v>3.9</v>
+      </c>
+      <c r="AC105">
+        <v>1.06</v>
+      </c>
+      <c r="AD105">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>77</v>
-      </c>
-      <c r="H105" t="s">
-        <v>87</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105">
-        <v>2</v>
-      </c>
-      <c r="L105">
-        <v>3</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>5</v>
-      </c>
-      <c r="O105" t="s">
-        <v>165</v>
-      </c>
-      <c r="P105" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q105">
-        <v>2.88</v>
-      </c>
-      <c r="R105">
-        <v>2.38</v>
-      </c>
-      <c r="S105">
-        <v>3.2</v>
-      </c>
-      <c r="T105">
-        <v>1.29</v>
-      </c>
-      <c r="U105">
-        <v>3.5</v>
-      </c>
-      <c r="V105">
-        <v>2.38</v>
-      </c>
-      <c r="W105">
-        <v>1.53</v>
-      </c>
-      <c r="X105">
-        <v>5.5</v>
-      </c>
-      <c r="Y105">
-        <v>1.14</v>
-      </c>
-      <c r="Z105">
-        <v>2.3</v>
-      </c>
-      <c r="AA105">
-        <v>3.5</v>
-      </c>
-      <c r="AB105">
-        <v>2.88</v>
-      </c>
-      <c r="AC105">
-        <v>1.03</v>
-      </c>
-      <c r="AD105">
-        <v>16</v>
-      </c>
       <c r="AE105">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AF105">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="AG105">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AH105">
-        <v>2.43</v>
+        <v>1.92</v>
       </c>
       <c r="AI105">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ105">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK105">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AL105">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM105">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AN105">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
       </c>
       <c r="AR105">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AS105">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="AU105">
         <v>7</v>
       </c>
       <c r="AV105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW105">
         <v>2</v>
       </c>
       <c r="AX105">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY105">
         <v>13</v>
       </c>
       <c r="AZ105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA105">
+        <v>7</v>
+      </c>
+      <c r="BB105">
         <v>6</v>
       </c>
-      <c r="BB105">
-        <v>4</v>
-      </c>
       <c r="BC105">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD105">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="BE105">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF105">
-        <v>1.84</v>
+        <v>2.48</v>
       </c>
       <c r="BG105">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="BH105">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI105">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="BJ105">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK105">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BL105">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="BM105">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="BN105">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BO105">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="BP105">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -23417,7 +23411,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23623,7 +23617,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23829,7 +23823,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24002,10 +23996,10 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
         <v>79</v>
@@ -24035,7 +24029,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24128,22 +24122,22 @@
         <v>2.46</v>
       </c>
       <c r="AU112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV112">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX112">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY112">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AZ112">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BA112">
         <v>2</v>
@@ -24199,7 +24193,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7466794</v>
+        <v>7466791</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24208,196 +24202,196 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F113">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H113" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>2</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>4</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O113" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q113">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R113">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="U113">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W113">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>1.22</v>
+      </c>
+      <c r="AA113">
+        <v>6.34</v>
+      </c>
+      <c r="AB113">
+        <v>7.51</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>16</v>
+      </c>
+      <c r="AE113">
+        <v>1.23</v>
+      </c>
+      <c r="AF113">
+        <v>4.45</v>
+      </c>
+      <c r="AG113">
+        <v>1.7</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.7</v>
+      </c>
+      <c r="AJ113">
+        <v>2.05</v>
+      </c>
+      <c r="AK113">
+        <v>1.19</v>
+      </c>
+      <c r="AL113">
+        <v>1.23</v>
+      </c>
+      <c r="AM113">
+        <v>2.29</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>0.4</v>
+      </c>
+      <c r="AP113">
+        <v>1.67</v>
+      </c>
+      <c r="AQ113">
+        <v>0.83</v>
+      </c>
+      <c r="AR113">
+        <v>1.98</v>
+      </c>
+      <c r="AS113">
+        <v>1.31</v>
+      </c>
+      <c r="AT113">
+        <v>3.29</v>
+      </c>
+      <c r="AU113">
         <v>4</v>
       </c>
-      <c r="Y113">
-        <v>1.22</v>
-      </c>
-      <c r="Z113">
-        <v>1.42</v>
-      </c>
-      <c r="AA113">
-        <v>5.5</v>
-      </c>
-      <c r="AB113">
-        <v>6.4</v>
-      </c>
-      <c r="AC113">
-        <v>1.01</v>
-      </c>
-      <c r="AD113">
-        <v>29</v>
-      </c>
-      <c r="AE113">
-        <v>1.11</v>
-      </c>
-      <c r="AF113">
-        <v>7.2</v>
-      </c>
-      <c r="AG113">
-        <v>1.33</v>
-      </c>
-      <c r="AH113">
-        <v>3.15</v>
-      </c>
-      <c r="AI113">
-        <v>1.44</v>
-      </c>
-      <c r="AJ113">
-        <v>2.63</v>
-      </c>
-      <c r="AK113">
-        <v>1.14</v>
-      </c>
-      <c r="AL113">
-        <v>1.18</v>
-      </c>
-      <c r="AM113">
-        <v>2.59</v>
-      </c>
-      <c r="AN113">
-        <v>2.6</v>
-      </c>
-      <c r="AO113">
-        <v>0.8</v>
-      </c>
-      <c r="AP113">
-        <v>2.17</v>
-      </c>
-      <c r="AQ113">
-        <v>1.17</v>
-      </c>
-      <c r="AR113">
-        <v>2.34</v>
-      </c>
-      <c r="AS113">
-        <v>1.76</v>
-      </c>
-      <c r="AT113">
-        <v>4.1</v>
-      </c>
-      <c r="AU113">
+      <c r="AV113">
         <v>6</v>
       </c>
-      <c r="AV113">
-        <v>8</v>
-      </c>
       <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
         <v>11</v>
       </c>
-      <c r="AX113">
-        <v>2</v>
-      </c>
-      <c r="AY113">
-        <v>24</v>
-      </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
         <v>9</v>
-      </c>
-      <c r="BB113">
-        <v>3</v>
-      </c>
-      <c r="BC113">
-        <v>12</v>
       </c>
       <c r="BD113">
         <v>1.3</v>
       </c>
       <c r="BE113">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF113">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BG113">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="BH113">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="BI113">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="BJ113">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="BK113">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BL113">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="BM113">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="BN113">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="BO113">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BP113">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24405,7 +24399,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7466788</v>
+        <v>7466790</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24414,61 +24408,61 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="P114" t="s">
         <v>91</v>
       </c>
       <c r="Q114">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="R114">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S114">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="T114">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V114">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W114">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X114">
         <v>7</v>
@@ -24477,133 +24471,133 @@
         <v>1.1</v>
       </c>
       <c r="Z114">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AA114">
-        <v>8.109999999999999</v>
+        <v>5.04</v>
       </c>
       <c r="AB114">
-        <v>12.51</v>
+        <v>4.68</v>
       </c>
       <c r="AC114">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD114">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE114">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF114">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AG114">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AH114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AI114">
+        <v>1.67</v>
+      </c>
+      <c r="AJ114">
         <v>2.1</v>
       </c>
-      <c r="AJ114">
-        <v>1.67</v>
-      </c>
       <c r="AK114">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="AL114">
+        <v>1.31</v>
+      </c>
+      <c r="AM114">
+        <v>1.61</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>1</v>
+      </c>
+      <c r="AQ114">
+        <v>0.17</v>
+      </c>
+      <c r="AR114">
+        <v>1.26</v>
+      </c>
+      <c r="AS114">
+        <v>0.96</v>
+      </c>
+      <c r="AT114">
+        <v>2.22</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>12</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>28</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>10</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>14</v>
+      </c>
+      <c r="BD114">
+        <v>1.71</v>
+      </c>
+      <c r="BE114">
+        <v>6.75</v>
+      </c>
+      <c r="BF114">
+        <v>2.35</v>
+      </c>
+      <c r="BG114">
         <v>1.17</v>
       </c>
-      <c r="AM114">
-        <v>3.25</v>
-      </c>
-      <c r="AN114">
-        <v>2.2</v>
-      </c>
-      <c r="AO114">
-        <v>2.2</v>
-      </c>
-      <c r="AP114">
-        <v>2.33</v>
-      </c>
-      <c r="AQ114">
-        <v>1.83</v>
-      </c>
-      <c r="AR114">
-        <v>2.22</v>
-      </c>
-      <c r="AS114">
-        <v>1.46</v>
-      </c>
-      <c r="AT114">
-        <v>3.68</v>
-      </c>
-      <c r="AU114">
-        <v>8</v>
-      </c>
-      <c r="AV114">
-        <v>0</v>
-      </c>
-      <c r="AW114">
-        <v>7</v>
-      </c>
-      <c r="AX114">
-        <v>6</v>
-      </c>
-      <c r="AY114">
-        <v>20</v>
-      </c>
-      <c r="AZ114">
-        <v>8</v>
-      </c>
-      <c r="BA114">
-        <v>8</v>
-      </c>
-      <c r="BB114">
-        <v>1</v>
-      </c>
-      <c r="BC114">
-        <v>9</v>
-      </c>
-      <c r="BD114">
-        <v>1.17</v>
-      </c>
-      <c r="BE114">
-        <v>10</v>
-      </c>
-      <c r="BF114">
-        <v>5.3</v>
-      </c>
-      <c r="BG114">
-        <v>1.14</v>
-      </c>
       <c r="BH114">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="BI114">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BJ114">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK114">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="BL114">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="BM114">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="BN114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BO114">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BP114">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24611,7 +24605,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7466791</v>
+        <v>7466788</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24626,43 +24620,43 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="Q115">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R115">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S115">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T115">
         <v>1.33</v>
@@ -24671,145 +24665,145 @@
         <v>3.25</v>
       </c>
       <c r="V115">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W115">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X115">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y115">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z115">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AA115">
-        <v>6.34</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AB115">
-        <v>7.51</v>
+        <v>12.51</v>
       </c>
       <c r="AC115">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE115">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AF115">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="AG115">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
         <v>2.1</v>
       </c>
-      <c r="AI115">
-        <v>1.7</v>
-      </c>
       <c r="AJ115">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AK115">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="AL115">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AM115">
-        <v>2.29</v>
+        <v>3.25</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO115">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>1.83</v>
       </c>
       <c r="AR115">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="AS115">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AT115">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="AU115">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV115">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW115">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY115">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ115">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC115">
         <v>9</v>
       </c>
       <c r="BD115">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="BE115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BF115">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="BG115">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="BH115">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="BI115">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BJ115">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BK115">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BL115">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="BM115">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="BN115">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="BO115">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BP115">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24817,7 +24811,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7466790</v>
+        <v>7466787</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24829,193 +24823,193 @@
         <v>45619.5</v>
       </c>
       <c r="F116">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="Q116">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R116">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S116">
+        <v>3.25</v>
+      </c>
+      <c r="T116">
+        <v>1.3</v>
+      </c>
+      <c r="U116">
         <v>3.4</v>
       </c>
-      <c r="T116">
-        <v>1.36</v>
-      </c>
-      <c r="U116">
-        <v>3</v>
-      </c>
       <c r="V116">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W116">
+        <v>1.53</v>
+      </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
+      <c r="Y116">
+        <v>1.13</v>
+      </c>
+      <c r="Z116">
+        <v>1.39</v>
+      </c>
+      <c r="AA116">
+        <v>5.36</v>
+      </c>
+      <c r="AB116">
+        <v>4.85</v>
+      </c>
+      <c r="AC116">
+        <v>1.03</v>
+      </c>
+      <c r="AD116">
+        <v>16</v>
+      </c>
+      <c r="AE116">
+        <v>1.19</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.57</v>
+      </c>
+      <c r="AH116">
+        <v>2.35</v>
+      </c>
+      <c r="AI116">
+        <v>1.5</v>
+      </c>
+      <c r="AJ116">
+        <v>2.5</v>
+      </c>
+      <c r="AK116">
+        <v>1.43</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.63</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
         <v>1.4</v>
       </c>
-      <c r="X116">
-        <v>7</v>
-      </c>
-      <c r="Y116">
-        <v>1.1</v>
-      </c>
-      <c r="Z116">
-        <v>1.43</v>
-      </c>
-      <c r="AA116">
-        <v>5.04</v>
-      </c>
-      <c r="AB116">
-        <v>4.68</v>
-      </c>
-      <c r="AC116">
-        <v>1.05</v>
-      </c>
-      <c r="AD116">
-        <v>11</v>
-      </c>
-      <c r="AE116">
-        <v>1.29</v>
-      </c>
-      <c r="AF116">
-        <v>3.8</v>
-      </c>
-      <c r="AG116">
-        <v>1.8</v>
-      </c>
-      <c r="AH116">
-        <v>2</v>
-      </c>
-      <c r="AI116">
+      <c r="AP116">
         <v>1.67</v>
       </c>
-      <c r="AJ116">
-        <v>2.1</v>
-      </c>
-      <c r="AK116">
-        <v>1.41</v>
-      </c>
-      <c r="AL116">
-        <v>1.31</v>
-      </c>
-      <c r="AM116">
-        <v>1.61</v>
-      </c>
-      <c r="AN116">
-        <v>1</v>
-      </c>
-      <c r="AO116">
-        <v>0</v>
-      </c>
-      <c r="AP116">
-        <v>1</v>
-      </c>
       <c r="AQ116">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="AR116">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="AS116">
-        <v>0.96</v>
+        <v>1.44</v>
       </c>
       <c r="AT116">
-        <v>2.22</v>
+        <v>3.01</v>
       </c>
       <c r="AU116">
         <v>6</v>
       </c>
       <c r="AV116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY116">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC116">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD116">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="BE116">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF116">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BG116">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH116">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="BI116">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BJ116">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BK116">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="BL116">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BM116">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="BN116">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="BO116">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="BP116">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25062,10 +25056,10 @@
         <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25229,7 +25223,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7466787</v>
+        <v>7466794</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25238,196 +25232,196 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45619.5</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>91</v>
+      </c>
+      <c r="P118" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>2.75</v>
+      </c>
+      <c r="S118">
+        <v>5</v>
+      </c>
+      <c r="T118">
+        <v>1.2</v>
+      </c>
+      <c r="U118">
+        <v>4.33</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>1.73</v>
+      </c>
+      <c r="X118">
+        <v>4</v>
+      </c>
+      <c r="Y118">
+        <v>1.22</v>
+      </c>
+      <c r="Z118">
+        <v>1.42</v>
+      </c>
+      <c r="AA118">
+        <v>5.5</v>
+      </c>
+      <c r="AB118">
+        <v>6.4</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>29</v>
+      </c>
+      <c r="AE118">
+        <v>1.11</v>
+      </c>
+      <c r="AF118">
+        <v>7.2</v>
+      </c>
+      <c r="AG118">
+        <v>1.33</v>
+      </c>
+      <c r="AH118">
+        <v>3.15</v>
+      </c>
+      <c r="AI118">
+        <v>1.44</v>
+      </c>
+      <c r="AJ118">
+        <v>2.63</v>
+      </c>
+      <c r="AK118">
+        <v>1.14</v>
+      </c>
+      <c r="AL118">
+        <v>1.18</v>
+      </c>
+      <c r="AM118">
+        <v>2.59</v>
+      </c>
+      <c r="AN118">
+        <v>2.6</v>
+      </c>
+      <c r="AO118">
+        <v>0.8</v>
+      </c>
+      <c r="AP118">
+        <v>2.17</v>
+      </c>
+      <c r="AQ118">
+        <v>1.17</v>
+      </c>
+      <c r="AR118">
+        <v>2.34</v>
+      </c>
+      <c r="AS118">
+        <v>1.76</v>
+      </c>
+      <c r="AT118">
+        <v>4.1</v>
+      </c>
+      <c r="AU118">
+        <v>-1</v>
+      </c>
+      <c r="AV118">
+        <v>-1</v>
+      </c>
+      <c r="AW118">
+        <v>-1</v>
+      </c>
+      <c r="AX118">
+        <v>-1</v>
+      </c>
+      <c r="AY118">
+        <v>-1</v>
+      </c>
+      <c r="AZ118">
+        <v>-1</v>
+      </c>
+      <c r="BA118">
+        <v>9</v>
+      </c>
+      <c r="BB118">
         <v>3</v>
       </c>
-      <c r="O118" t="s">
-        <v>175</v>
-      </c>
-      <c r="P118" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q118">
-        <v>2.88</v>
-      </c>
-      <c r="R118">
-        <v>2.38</v>
-      </c>
-      <c r="S118">
-        <v>3.25</v>
-      </c>
-      <c r="T118">
+      <c r="BC118">
+        <v>12</v>
+      </c>
+      <c r="BD118">
         <v>1.3</v>
       </c>
-      <c r="U118">
-        <v>3.4</v>
-      </c>
-      <c r="V118">
-        <v>2.38</v>
-      </c>
-      <c r="W118">
-        <v>1.53</v>
-      </c>
-      <c r="X118">
-        <v>6</v>
-      </c>
-      <c r="Y118">
-        <v>1.13</v>
-      </c>
-      <c r="Z118">
-        <v>1.39</v>
-      </c>
-      <c r="AA118">
-        <v>5.36</v>
-      </c>
-      <c r="AB118">
-        <v>4.85</v>
-      </c>
-      <c r="AC118">
-        <v>1.03</v>
-      </c>
-      <c r="AD118">
-        <v>16</v>
-      </c>
-      <c r="AE118">
-        <v>1.19</v>
-      </c>
-      <c r="AF118">
-        <v>5</v>
-      </c>
-      <c r="AG118">
-        <v>1.57</v>
-      </c>
-      <c r="AH118">
-        <v>2.35</v>
-      </c>
-      <c r="AI118">
-        <v>1.5</v>
-      </c>
-      <c r="AJ118">
-        <v>2.5</v>
-      </c>
-      <c r="AK118">
-        <v>1.43</v>
-      </c>
-      <c r="AL118">
-        <v>1.28</v>
-      </c>
-      <c r="AM118">
-        <v>1.63</v>
-      </c>
-      <c r="AN118">
-        <v>2</v>
-      </c>
-      <c r="AO118">
-        <v>1.4</v>
-      </c>
-      <c r="AP118">
-        <v>1.67</v>
-      </c>
-      <c r="AQ118">
-        <v>1.67</v>
-      </c>
-      <c r="AR118">
-        <v>1.57</v>
-      </c>
-      <c r="AS118">
-        <v>1.44</v>
-      </c>
-      <c r="AT118">
-        <v>3.01</v>
-      </c>
-      <c r="AU118">
-        <v>6</v>
-      </c>
-      <c r="AV118">
-        <v>5</v>
-      </c>
-      <c r="AW118">
-        <v>11</v>
-      </c>
-      <c r="AX118">
-        <v>1</v>
-      </c>
-      <c r="AY118">
-        <v>20</v>
-      </c>
-      <c r="AZ118">
-        <v>7</v>
-      </c>
-      <c r="BA118">
-        <v>7</v>
-      </c>
-      <c r="BB118">
-        <v>0</v>
-      </c>
-      <c r="BC118">
-        <v>7</v>
-      </c>
-      <c r="BD118">
-        <v>1.66</v>
-      </c>
       <c r="BE118">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF118">
+        <v>3.7</v>
+      </c>
+      <c r="BG118">
+        <v>1.09</v>
+      </c>
+      <c r="BH118">
+        <v>5.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.16</v>
+      </c>
+      <c r="BJ118">
+        <v>4.3</v>
+      </c>
+      <c r="BK118">
+        <v>1.3</v>
+      </c>
+      <c r="BL118">
+        <v>3.15</v>
+      </c>
+      <c r="BM118">
+        <v>1.48</v>
+      </c>
+      <c r="BN118">
         <v>2.43</v>
       </c>
-      <c r="BG118">
-        <v>1.14</v>
-      </c>
-      <c r="BH118">
-        <v>4.8</v>
-      </c>
-      <c r="BI118">
-        <v>1.26</v>
-      </c>
-      <c r="BJ118">
-        <v>3.4</v>
-      </c>
-      <c r="BK118">
-        <v>1.43</v>
-      </c>
-      <c r="BL118">
-        <v>2.55</v>
-      </c>
-      <c r="BM118">
-        <v>1.7</v>
-      </c>
-      <c r="BN118">
-        <v>2.02</v>
-      </c>
       <c r="BO118">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="BP118">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -25435,7 +25429,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7466792</v>
+        <v>7466796</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25444,16 +25438,16 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45619.875</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -25465,148 +25459,148 @@
         <v>2</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O119" t="s">
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q119">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="R119">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S119">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="T119">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U119">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V119">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X119">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y119">
+        <v>1.17</v>
+      </c>
+      <c r="Z119">
+        <v>7.8</v>
+      </c>
+      <c r="AA119">
+        <v>4.85</v>
+      </c>
+      <c r="AB119">
+        <v>1.34</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>23</v>
+      </c>
+      <c r="AE119">
         <v>1.14</v>
       </c>
-      <c r="Z119">
-        <v>4.82</v>
-      </c>
-      <c r="AA119">
-        <v>4.07</v>
-      </c>
-      <c r="AB119">
-        <v>1.62</v>
-      </c>
-      <c r="AC119">
-        <v>1.03</v>
-      </c>
-      <c r="AD119">
-        <v>17</v>
-      </c>
-      <c r="AE119">
-        <v>1.19</v>
-      </c>
       <c r="AF119">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AG119">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AH119">
-        <v>2.26</v>
+        <v>2.82</v>
       </c>
       <c r="AI119">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ119">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK119">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="AL119">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AM119">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AN119">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AP119">
         <v>0.67</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="AR119">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AS119">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AT119">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>12</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
         <v>7</v>
       </c>
-      <c r="AV119">
-        <v>5</v>
-      </c>
-      <c r="AW119">
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>28</v>
+      </c>
+      <c r="BA119">
         <v>3</v>
       </c>
-      <c r="AX119">
-        <v>5</v>
-      </c>
-      <c r="AY119">
-        <v>12</v>
-      </c>
-      <c r="AZ119">
-        <v>12</v>
-      </c>
-      <c r="BA119">
-        <v>4</v>
-      </c>
       <c r="BB119">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC119">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD119">
-        <v>2.95</v>
+        <v>4.6</v>
       </c>
       <c r="BE119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF119">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="BG119">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH119">
         <v>4.8</v>
@@ -25624,16 +25618,16 @@
         <v>2.55</v>
       </c>
       <c r="BM119">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="BN119">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BO119">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BP119">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25641,7 +25635,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7466796</v>
+        <v>7466795</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25650,401 +25644,195 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45619.875</v>
+        <v>45620.875</v>
       </c>
       <c r="F120">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H120" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>91</v>
+      </c>
+      <c r="P120" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>2.5</v>
+      </c>
+      <c r="S120">
+        <v>5.5</v>
+      </c>
+      <c r="T120">
+        <v>1.29</v>
+      </c>
+      <c r="U120">
+        <v>3.5</v>
+      </c>
+      <c r="V120">
+        <v>2.38</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>5.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.14</v>
+      </c>
+      <c r="Z120">
+        <v>1.5</v>
+      </c>
+      <c r="AA120">
+        <v>4.4</v>
+      </c>
+      <c r="AB120">
+        <v>5.75</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>18</v>
+      </c>
+      <c r="AE120">
+        <v>1.18</v>
+      </c>
+      <c r="AF120">
+        <v>5.1</v>
+      </c>
+      <c r="AG120">
+        <v>1.57</v>
+      </c>
+      <c r="AH120">
+        <v>2.35</v>
+      </c>
+      <c r="AI120">
+        <v>1.67</v>
+      </c>
+      <c r="AJ120">
+        <v>2.1</v>
+      </c>
+      <c r="AK120">
+        <v>1.13</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>2.68</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>1</v>
+      </c>
+      <c r="AP120">
+        <v>1.67</v>
+      </c>
+      <c r="AQ120">
+        <v>1.33</v>
+      </c>
+      <c r="AR120">
+        <v>1.12</v>
+      </c>
+      <c r="AS120">
+        <v>1.2</v>
+      </c>
+      <c r="AT120">
+        <v>2.32</v>
+      </c>
+      <c r="AU120">
         <v>3</v>
       </c>
-      <c r="N120">
-        <v>5</v>
-      </c>
-      <c r="O120" t="s">
-        <v>177</v>
-      </c>
-      <c r="P120" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q120">
+      <c r="AV120">
+        <v>7</v>
+      </c>
+      <c r="AW120">
+        <v>10</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>19</v>
+      </c>
+      <c r="AZ120">
+        <v>16</v>
+      </c>
+      <c r="BA120">
         <v>8</v>
       </c>
-      <c r="R120">
-        <v>2.75</v>
-      </c>
-      <c r="S120">
-        <v>1.67</v>
-      </c>
-      <c r="T120">
-        <v>1.25</v>
-      </c>
-      <c r="U120">
-        <v>3.75</v>
-      </c>
-      <c r="V120">
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>11</v>
+      </c>
+      <c r="BD120">
+        <v>1.3</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>3.65</v>
+      </c>
+      <c r="BG120">
+        <v>1.15</v>
+      </c>
+      <c r="BH120">
+        <v>4.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.27</v>
+      </c>
+      <c r="BJ120">
+        <v>3.3</v>
+      </c>
+      <c r="BK120">
+        <v>1.46</v>
+      </c>
+      <c r="BL120">
+        <v>2.48</v>
+      </c>
+      <c r="BM120">
+        <v>1.72</v>
+      </c>
+      <c r="BN120">
+        <v>1.98</v>
+      </c>
+      <c r="BO120">
         <v>2.1</v>
       </c>
-      <c r="W120">
-        <v>1.67</v>
-      </c>
-      <c r="X120">
-        <v>5</v>
-      </c>
-      <c r="Y120">
-        <v>1.17</v>
-      </c>
-      <c r="Z120">
-        <v>7.8</v>
-      </c>
-      <c r="AA120">
-        <v>4.85</v>
-      </c>
-      <c r="AB120">
-        <v>1.34</v>
-      </c>
-      <c r="AC120">
-        <v>1.01</v>
-      </c>
-      <c r="AD120">
-        <v>23</v>
-      </c>
-      <c r="AE120">
-        <v>1.14</v>
-      </c>
-      <c r="AF120">
-        <v>6.2</v>
-      </c>
-      <c r="AG120">
-        <v>1.4</v>
-      </c>
-      <c r="AH120">
-        <v>2.82</v>
-      </c>
-      <c r="AI120">
-        <v>1.8</v>
-      </c>
-      <c r="AJ120">
-        <v>1.95</v>
-      </c>
-      <c r="AK120">
-        <v>3.75</v>
-      </c>
-      <c r="AL120">
-        <v>1.13</v>
-      </c>
-      <c r="AM120">
-        <v>1.04</v>
-      </c>
-      <c r="AN120">
-        <v>0.8</v>
-      </c>
-      <c r="AO120">
-        <v>2.6</v>
-      </c>
-      <c r="AP120">
-        <v>0.67</v>
-      </c>
-      <c r="AQ120">
-        <v>2.67</v>
-      </c>
-      <c r="AR120">
-        <v>1.07</v>
-      </c>
-      <c r="AS120">
-        <v>1.47</v>
-      </c>
-      <c r="AT120">
-        <v>2.54</v>
-      </c>
-      <c r="AU120">
-        <v>6</v>
-      </c>
-      <c r="AV120">
-        <v>12</v>
-      </c>
-      <c r="AW120">
-        <v>2</v>
-      </c>
-      <c r="AX120">
-        <v>7</v>
-      </c>
-      <c r="AY120">
-        <v>9</v>
-      </c>
-      <c r="AZ120">
-        <v>28</v>
-      </c>
-      <c r="BA120">
-        <v>3</v>
-      </c>
-      <c r="BB120">
-        <v>10</v>
-      </c>
-      <c r="BC120">
-        <v>13</v>
-      </c>
-      <c r="BD120">
-        <v>4.6</v>
-      </c>
-      <c r="BE120">
-        <v>9</v>
-      </c>
-      <c r="BF120">
-        <v>1.21</v>
-      </c>
-      <c r="BG120">
-        <v>1.14</v>
-      </c>
-      <c r="BH120">
-        <v>4.8</v>
-      </c>
-      <c r="BI120">
-        <v>1.26</v>
-      </c>
-      <c r="BJ120">
-        <v>3.4</v>
-      </c>
-      <c r="BK120">
-        <v>1.44</v>
-      </c>
-      <c r="BL120">
-        <v>2.55</v>
-      </c>
-      <c r="BM120">
-        <v>1.68</v>
-      </c>
-      <c r="BN120">
-        <v>2.02</v>
-      </c>
-      <c r="BO120">
-        <v>2.05</v>
-      </c>
       <c r="BP120">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:68">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>7466795</v>
-      </c>
-      <c r="C121" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="2">
-        <v>45621.70833333334</v>
-      </c>
-      <c r="F121">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>74</v>
-      </c>
-      <c r="H121" t="s">
-        <v>76</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>2</v>
-      </c>
-      <c r="N121">
-        <v>2</v>
-      </c>
-      <c r="O121" t="s">
-        <v>91</v>
-      </c>
-      <c r="P121" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q121">
-        <v>2</v>
-      </c>
-      <c r="R121">
-        <v>2.5</v>
-      </c>
-      <c r="S121">
-        <v>5.5</v>
-      </c>
-      <c r="T121">
-        <v>1.29</v>
-      </c>
-      <c r="U121">
-        <v>3.5</v>
-      </c>
-      <c r="V121">
-        <v>2.38</v>
-      </c>
-      <c r="W121">
-        <v>1.53</v>
-      </c>
-      <c r="X121">
-        <v>5.5</v>
-      </c>
-      <c r="Y121">
-        <v>1.14</v>
-      </c>
-      <c r="Z121">
-        <v>1.5</v>
-      </c>
-      <c r="AA121">
-        <v>4.4</v>
-      </c>
-      <c r="AB121">
-        <v>5.75</v>
-      </c>
-      <c r="AC121">
-        <v>1.02</v>
-      </c>
-      <c r="AD121">
-        <v>18</v>
-      </c>
-      <c r="AE121">
-        <v>1.18</v>
-      </c>
-      <c r="AF121">
-        <v>5.1</v>
-      </c>
-      <c r="AG121">
-        <v>1.57</v>
-      </c>
-      <c r="AH121">
-        <v>2.35</v>
-      </c>
-      <c r="AI121">
-        <v>1.67</v>
-      </c>
-      <c r="AJ121">
-        <v>2.1</v>
-      </c>
-      <c r="AK121">
-        <v>1.13</v>
-      </c>
-      <c r="AL121">
-        <v>1.2</v>
-      </c>
-      <c r="AM121">
-        <v>2.68</v>
-      </c>
-      <c r="AN121">
-        <v>2</v>
-      </c>
-      <c r="AO121">
-        <v>1</v>
-      </c>
-      <c r="AP121">
-        <v>1.67</v>
-      </c>
-      <c r="AQ121">
-        <v>1.33</v>
-      </c>
-      <c r="AR121">
-        <v>1.12</v>
-      </c>
-      <c r="AS121">
-        <v>1.2</v>
-      </c>
-      <c r="AT121">
-        <v>2.32</v>
-      </c>
-      <c r="AU121">
-        <v>3</v>
-      </c>
-      <c r="AV121">
-        <v>7</v>
-      </c>
-      <c r="AW121">
-        <v>10</v>
-      </c>
-      <c r="AX121">
-        <v>3</v>
-      </c>
-      <c r="AY121">
-        <v>19</v>
-      </c>
-      <c r="AZ121">
-        <v>16</v>
-      </c>
-      <c r="BA121">
-        <v>8</v>
-      </c>
-      <c r="BB121">
-        <v>3</v>
-      </c>
-      <c r="BC121">
-        <v>11</v>
-      </c>
-      <c r="BD121">
-        <v>1.3</v>
-      </c>
-      <c r="BE121">
-        <v>8</v>
-      </c>
-      <c r="BF121">
-        <v>3.65</v>
-      </c>
-      <c r="BG121">
-        <v>1.15</v>
-      </c>
-      <c r="BH121">
-        <v>4.6</v>
-      </c>
-      <c r="BI121">
-        <v>1.27</v>
-      </c>
-      <c r="BJ121">
-        <v>3.3</v>
-      </c>
-      <c r="BK121">
-        <v>1.46</v>
-      </c>
-      <c r="BL121">
-        <v>2.48</v>
-      </c>
-      <c r="BM121">
-        <v>1.72</v>
-      </c>
-      <c r="BN121">
-        <v>1.98</v>
-      </c>
-      <c r="BO121">
-        <v>2.1</v>
-      </c>
-      <c r="BP121">
         <v>1.64</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['42', '56']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -746,6 +749,9 @@
   </si>
   <si>
     <t>['30', '65', '83']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
   <si>
     <t>['10', '53']</t>
@@ -1110,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,7 +1581,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>2.67</v>
@@ -1987,7 +1993,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2399,7 +2405,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2605,7 +2611,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3017,7 +3023,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3223,7 +3229,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3429,7 +3435,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4665,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4871,7 +4877,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5077,7 +5083,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5901,7 +5907,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6107,7 +6113,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6185,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6519,7 +6525,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6725,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6931,7 +6937,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7343,7 +7349,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7549,7 +7555,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7961,7 +7967,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8373,7 +8379,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8785,7 +8791,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8991,7 +8997,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9197,7 +9203,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9403,7 +9409,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9609,7 +9615,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10639,7 +10645,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11463,7 +11469,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11669,7 +11675,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11875,7 +11881,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12081,7 +12087,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12287,7 +12293,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12493,7 +12499,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12905,7 +12911,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13111,7 +13117,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13189,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13317,7 +13323,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13523,7 +13529,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13729,7 +13735,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14141,7 +14147,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14347,7 +14353,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14553,7 +14559,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15377,7 +15383,7 @@
         <v>97</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15583,7 +15589,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15789,7 +15795,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15995,7 +16001,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16201,7 +16207,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16407,7 +16413,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16613,7 +16619,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16819,7 +16825,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16897,7 +16903,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17231,7 +17237,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17437,7 +17443,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17849,7 +17855,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18261,7 +18267,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18467,7 +18473,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18673,7 +18679,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18879,7 +18885,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19085,7 +19091,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19497,7 +19503,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19703,7 +19709,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20605,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95">
         <v>0.83</v>
@@ -20733,7 +20739,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20939,7 +20945,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21145,7 +21151,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21351,7 +21357,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21557,7 +21563,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21969,7 +21975,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22381,7 +22387,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23411,7 +23417,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23617,7 +23623,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23823,7 +23829,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24029,7 +24035,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24235,7 +24241,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24853,7 +24859,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25059,7 +25065,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25265,7 +25271,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25471,7 +25477,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25635,7 +25641,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7466795</v>
+        <v>7466792</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25644,49 +25650,49 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45620.875</v>
+        <v>45620.5625</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H120" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="R120">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S120">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="T120">
         <v>1.29</v>
@@ -25707,121 +25713,121 @@
         <v>1.14</v>
       </c>
       <c r="Z120">
-        <v>1.5</v>
+        <v>4.82</v>
       </c>
       <c r="AA120">
-        <v>4.4</v>
+        <v>4.07</v>
       </c>
       <c r="AB120">
-        <v>5.75</v>
+        <v>1.62</v>
       </c>
       <c r="AC120">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD120">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE120">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AF120">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG120">
         <v>1.57</v>
       </c>
       <c r="AH120">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="AI120">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ120">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK120">
+        <v>2.34</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.18</v>
+      </c>
+      <c r="AN120">
+        <v>0.6</v>
+      </c>
+      <c r="AO120">
+        <v>1</v>
+      </c>
+      <c r="AP120">
+        <v>0.67</v>
+      </c>
+      <c r="AQ120">
+        <v>1</v>
+      </c>
+      <c r="AR120">
         <v>1.13</v>
       </c>
-      <c r="AL120">
-        <v>1.2</v>
-      </c>
-      <c r="AM120">
-        <v>2.68</v>
-      </c>
-      <c r="AN120">
-        <v>2</v>
-      </c>
-      <c r="AO120">
-        <v>1</v>
-      </c>
-      <c r="AP120">
-        <v>1.67</v>
-      </c>
-      <c r="AQ120">
-        <v>1.33</v>
-      </c>
-      <c r="AR120">
-        <v>1.12</v>
-      </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AT120">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
         <v>3</v>
       </c>
-      <c r="AV120">
-        <v>7</v>
-      </c>
-      <c r="AW120">
-        <v>10</v>
-      </c>
       <c r="AX120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY120">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ120">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA120">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB120">
         <v>3</v>
       </c>
       <c r="BC120">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD120">
-        <v>1.3</v>
+        <v>2.95</v>
       </c>
       <c r="BE120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF120">
-        <v>3.65</v>
+        <v>1.46</v>
       </c>
       <c r="BG120">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH120">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI120">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BJ120">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK120">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BL120">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BM120">
         <v>1.72</v>
@@ -25830,9 +25836,215 @@
         <v>1.98</v>
       </c>
       <c r="BO120">
+        <v>2.08</v>
+      </c>
+      <c r="BP120">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7466795</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45620.875</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>91</v>
+      </c>
+      <c r="P121" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>2.5</v>
+      </c>
+      <c r="S121">
+        <v>5.5</v>
+      </c>
+      <c r="T121">
+        <v>1.29</v>
+      </c>
+      <c r="U121">
+        <v>3.5</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>5.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.14</v>
+      </c>
+      <c r="Z121">
+        <v>1.5</v>
+      </c>
+      <c r="AA121">
+        <v>4.4</v>
+      </c>
+      <c r="AB121">
+        <v>5.75</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>18</v>
+      </c>
+      <c r="AE121">
+        <v>1.18</v>
+      </c>
+      <c r="AF121">
+        <v>5.1</v>
+      </c>
+      <c r="AG121">
+        <v>1.57</v>
+      </c>
+      <c r="AH121">
+        <v>2.35</v>
+      </c>
+      <c r="AI121">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121">
         <v>2.1</v>
       </c>
-      <c r="BP120">
+      <c r="AK121">
+        <v>1.13</v>
+      </c>
+      <c r="AL121">
+        <v>1.2</v>
+      </c>
+      <c r="AM121">
+        <v>2.68</v>
+      </c>
+      <c r="AN121">
+        <v>2</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1.67</v>
+      </c>
+      <c r="AQ121">
+        <v>1.33</v>
+      </c>
+      <c r="AR121">
+        <v>1.12</v>
+      </c>
+      <c r="AS121">
+        <v>1.2</v>
+      </c>
+      <c r="AT121">
+        <v>2.32</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>10</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
+        <v>1.3</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>3.65</v>
+      </c>
+      <c r="BG121">
+        <v>1.15</v>
+      </c>
+      <c r="BH121">
+        <v>4.6</v>
+      </c>
+      <c r="BI121">
+        <v>1.27</v>
+      </c>
+      <c r="BJ121">
+        <v>3.3</v>
+      </c>
+      <c r="BK121">
+        <v>1.46</v>
+      </c>
+      <c r="BL121">
+        <v>2.48</v>
+      </c>
+      <c r="BM121">
+        <v>1.72</v>
+      </c>
+      <c r="BN121">
+        <v>1.98</v>
+      </c>
+      <c r="BO121">
+        <v>2.1</v>
+      </c>
+      <c r="BP121">
         <v>1.64</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -25856,7 +25856,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45620.875</v>
+        <v>45621.70833333334</v>
       </c>
       <c r="F121">
         <v>12</v>
@@ -25988,10 +25988,10 @@
         <v>7</v>
       </c>
       <c r="AW121">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AX121">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY121">
         <v>19</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,21 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['25', '29', '45+8', '59']</t>
+  </si>
+  <si>
+    <t>['5', '69']</t>
+  </si>
+  <si>
+    <t>['38', '40']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -563,9 +578,6 @@
   </si>
   <si>
     <t>['18', '84']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -661,9 +673,6 @@
     <t>['26', '88']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['23', '37']</t>
   </si>
   <si>
@@ -755,6 +764,18 @@
   </si>
   <si>
     <t>['10', '53']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['3', '8', '18', '74']</t>
+  </si>
+  <si>
+    <t>['10', '27', '34', '36', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,7 +1602,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1993,7 +2014,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2280,7 +2301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2405,7 +2426,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2483,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2611,7 +2632,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2689,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2895,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3023,7 +3044,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3229,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3435,7 +3456,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3513,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4131,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4340,7 +4361,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4546,7 +4567,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4671,7 +4692,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4752,7 +4773,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4877,7 +4898,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4958,7 +4979,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5083,7 +5104,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5161,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ20">
         <v>2.17</v>
@@ -5779,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>0.83</v>
@@ -5907,7 +5928,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6113,7 +6134,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6397,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6525,7 +6546,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6606,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -6731,7 +6752,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6809,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6937,7 +6958,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7349,7 +7370,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7555,7 +7576,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7967,7 +7988,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8379,7 +8400,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8457,10 +8478,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>1.29</v>
@@ -8663,10 +8684,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8791,7 +8812,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8997,7 +9018,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9203,7 +9224,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9284,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -9409,7 +9430,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9487,10 +9508,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9615,7 +9636,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9693,7 +9714,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>2.17</v>
@@ -9902,7 +9923,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10314,7 +10335,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>0.83</v>
@@ -10645,7 +10666,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10726,7 +10747,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11135,7 +11156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11341,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11469,7 +11490,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11550,7 +11571,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -11675,7 +11696,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11881,7 +11902,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11959,7 +11980,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12087,7 +12108,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12168,7 +12189,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>1.6</v>
@@ -12293,7 +12314,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12371,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12499,7 +12520,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12911,7 +12932,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -12989,7 +13010,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ58">
         <v>2.67</v>
@@ -13117,7 +13138,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13323,7 +13344,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13529,7 +13550,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13610,7 +13631,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13735,7 +13756,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13813,7 +13834,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ62">
         <v>2.67</v>
@@ -14022,7 +14043,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR63">
         <v>2.4</v>
@@ -14147,7 +14168,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14225,10 +14246,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14353,7 +14374,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14431,7 +14452,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14559,7 +14580,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14846,7 +14867,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15052,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15383,7 +15404,7 @@
         <v>97</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>1.95</v>
@@ -15589,7 +15610,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15667,7 +15688,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
         <v>1.17</v>
@@ -15795,7 +15816,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16001,7 +16022,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16207,7 +16228,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16288,7 +16309,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>0.91</v>
@@ -16413,7 +16434,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16619,7 +16640,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16825,7 +16846,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17112,7 +17133,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17237,7 +17258,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17315,7 +17336,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ79">
         <v>1.67</v>
@@ -17443,7 +17464,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17727,7 +17748,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -17855,7 +17876,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18142,7 +18163,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ83">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18267,7 +18288,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18345,7 +18366,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -18473,7 +18494,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18554,7 +18575,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -18679,7 +18700,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18757,10 +18778,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -18885,7 +18906,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19091,7 +19112,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19172,7 +19193,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19375,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19503,7 +19524,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19581,7 +19602,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19709,7 +19730,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19996,7 +20017,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -20199,7 +20220,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20614,7 +20635,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -20739,7 +20760,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20945,7 +20966,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21151,7 +21172,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21229,7 +21250,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21357,7 +21378,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21563,7 +21584,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21975,7 +21996,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22053,10 +22074,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22259,10 +22280,10 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR103">
         <v>1.17</v>
@@ -22387,7 +22408,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22465,7 +22486,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -22671,7 +22692,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -22877,7 +22898,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106">
         <v>1.67</v>
@@ -23292,7 +23313,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23417,7 +23438,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23495,10 +23516,10 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23623,7 +23644,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23704,7 +23725,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -23829,7 +23850,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23910,7 +23931,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24035,7 +24056,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24241,7 +24262,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24859,7 +24880,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25065,7 +25086,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25271,7 +25292,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25477,7 +25498,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25683,7 +25704,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25889,7 +25910,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26046,6 +26067,1242 @@
       </c>
       <c r="BP121">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7466798</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45625.70833333334</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>82</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>178</v>
+      </c>
+      <c r="P122" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q122">
+        <v>1.91</v>
+      </c>
+      <c r="R122">
+        <v>2.63</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>1.25</v>
+      </c>
+      <c r="U122">
+        <v>3.75</v>
+      </c>
+      <c r="V122">
+        <v>2.2</v>
+      </c>
+      <c r="W122">
+        <v>1.62</v>
+      </c>
+      <c r="X122">
+        <v>5</v>
+      </c>
+      <c r="Y122">
+        <v>1.17</v>
+      </c>
+      <c r="Z122">
+        <v>1.52</v>
+      </c>
+      <c r="AA122">
+        <v>4.15</v>
+      </c>
+      <c r="AB122">
+        <v>5</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>23</v>
+      </c>
+      <c r="AE122">
+        <v>1.14</v>
+      </c>
+      <c r="AF122">
+        <v>6.2</v>
+      </c>
+      <c r="AG122">
+        <v>1.56</v>
+      </c>
+      <c r="AH122">
+        <v>2.18</v>
+      </c>
+      <c r="AI122">
+        <v>1.62</v>
+      </c>
+      <c r="AJ122">
+        <v>2.2</v>
+      </c>
+      <c r="AK122">
+        <v>1.1</v>
+      </c>
+      <c r="AL122">
+        <v>1.17</v>
+      </c>
+      <c r="AM122">
+        <v>2.94</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>1.86</v>
+      </c>
+      <c r="AQ122">
+        <v>0.14</v>
+      </c>
+      <c r="AR122">
+        <v>1.46</v>
+      </c>
+      <c r="AS122">
+        <v>1.14</v>
+      </c>
+      <c r="AT122">
+        <v>2.6</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>10</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>23</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.3</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>3.7</v>
+      </c>
+      <c r="BG122">
+        <v>1.14</v>
+      </c>
+      <c r="BH122">
+        <v>4.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.25</v>
+      </c>
+      <c r="BJ122">
+        <v>3.45</v>
+      </c>
+      <c r="BK122">
+        <v>1.41</v>
+      </c>
+      <c r="BL122">
+        <v>2.63</v>
+      </c>
+      <c r="BM122">
+        <v>1.65</v>
+      </c>
+      <c r="BN122">
+        <v>2.07</v>
+      </c>
+      <c r="BO122">
+        <v>1.98</v>
+      </c>
+      <c r="BP122">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7466803</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>179</v>
+      </c>
+      <c r="P123" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q123">
+        <v>2.3</v>
+      </c>
+      <c r="R123">
+        <v>2.25</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>1.36</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>8</v>
+      </c>
+      <c r="Y123">
+        <v>1.08</v>
+      </c>
+      <c r="Z123">
+        <v>1.71</v>
+      </c>
+      <c r="AA123">
+        <v>4.1</v>
+      </c>
+      <c r="AB123">
+        <v>4.4</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>12</v>
+      </c>
+      <c r="AE123">
+        <v>1.29</v>
+      </c>
+      <c r="AF123">
+        <v>3.8</v>
+      </c>
+      <c r="AG123">
+        <v>1.72</v>
+      </c>
+      <c r="AH123">
+        <v>2</v>
+      </c>
+      <c r="AI123">
+        <v>1.91</v>
+      </c>
+      <c r="AJ123">
+        <v>1.91</v>
+      </c>
+      <c r="AK123">
+        <v>1.19</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.33</v>
+      </c>
+      <c r="AO123">
+        <v>0.83</v>
+      </c>
+      <c r="AP123">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123">
+        <v>0.71</v>
+      </c>
+      <c r="AR123">
+        <v>1.52</v>
+      </c>
+      <c r="AS123">
+        <v>0.99</v>
+      </c>
+      <c r="AT123">
+        <v>2.51</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>8</v>
+      </c>
+      <c r="BA123">
+        <v>8</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
+        <v>15</v>
+      </c>
+      <c r="BD123">
+        <v>1.49</v>
+      </c>
+      <c r="BE123">
+        <v>7</v>
+      </c>
+      <c r="BF123">
+        <v>2.9</v>
+      </c>
+      <c r="BG123">
+        <v>1.2</v>
+      </c>
+      <c r="BH123">
+        <v>3.95</v>
+      </c>
+      <c r="BI123">
+        <v>1.35</v>
+      </c>
+      <c r="BJ123">
+        <v>2.9</v>
+      </c>
+      <c r="BK123">
+        <v>1.58</v>
+      </c>
+      <c r="BL123">
+        <v>2.2</v>
+      </c>
+      <c r="BM123">
+        <v>1.93</v>
+      </c>
+      <c r="BN123">
+        <v>1.76</v>
+      </c>
+      <c r="BO123">
+        <v>2.4</v>
+      </c>
+      <c r="BP123">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7466800</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>149</v>
+      </c>
+      <c r="P124" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q124">
+        <v>3.4</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>3</v>
+      </c>
+      <c r="AA124">
+        <v>3.5</v>
+      </c>
+      <c r="AB124">
+        <v>2.25</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>13</v>
+      </c>
+      <c r="AE124">
+        <v>1.27</v>
+      </c>
+      <c r="AF124">
+        <v>4</v>
+      </c>
+      <c r="AG124">
+        <v>1.85</v>
+      </c>
+      <c r="AH124">
+        <v>1.85</v>
+      </c>
+      <c r="AI124">
+        <v>1.67</v>
+      </c>
+      <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.6</v>
+      </c>
+      <c r="AL124">
+        <v>1.29</v>
+      </c>
+      <c r="AM124">
+        <v>1.46</v>
+      </c>
+      <c r="AN124">
+        <v>0.83</v>
+      </c>
+      <c r="AO124">
+        <v>1.33</v>
+      </c>
+      <c r="AP124">
+        <v>0.86</v>
+      </c>
+      <c r="AQ124">
+        <v>1.29</v>
+      </c>
+      <c r="AR124">
+        <v>1.38</v>
+      </c>
+      <c r="AS124">
+        <v>1.53</v>
+      </c>
+      <c r="AT124">
+        <v>2.91</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>17</v>
+      </c>
+      <c r="AZ124">
+        <v>1</v>
+      </c>
+      <c r="BA124">
+        <v>8</v>
+      </c>
+      <c r="BB124">
+        <v>9</v>
+      </c>
+      <c r="BC124">
+        <v>17</v>
+      </c>
+      <c r="BD124">
+        <v>1.85</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>2.12</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>3.95</v>
+      </c>
+      <c r="BI124">
+        <v>1.35</v>
+      </c>
+      <c r="BJ124">
+        <v>2.9</v>
+      </c>
+      <c r="BK124">
+        <v>1.57</v>
+      </c>
+      <c r="BL124">
+        <v>2.2</v>
+      </c>
+      <c r="BM124">
+        <v>1.91</v>
+      </c>
+      <c r="BN124">
+        <v>1.78</v>
+      </c>
+      <c r="BO124">
+        <v>2.38</v>
+      </c>
+      <c r="BP124">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7466797</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>180</v>
+      </c>
+      <c r="P125" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q125">
+        <v>2.2</v>
+      </c>
+      <c r="R125">
+        <v>2.4</v>
+      </c>
+      <c r="S125">
+        <v>4.75</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
+        <v>2.25</v>
+      </c>
+      <c r="W125">
+        <v>1.57</v>
+      </c>
+      <c r="X125">
+        <v>5.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>1.72</v>
+      </c>
+      <c r="AA125">
+        <v>4.2</v>
+      </c>
+      <c r="AB125">
+        <v>4.2</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>19</v>
+      </c>
+      <c r="AE125">
+        <v>1.18</v>
+      </c>
+      <c r="AF125">
+        <v>5.1</v>
+      </c>
+      <c r="AG125">
+        <v>1.53</v>
+      </c>
+      <c r="AH125">
+        <v>2.48</v>
+      </c>
+      <c r="AI125">
+        <v>1.62</v>
+      </c>
+      <c r="AJ125">
+        <v>2.2</v>
+      </c>
+      <c r="AK125">
+        <v>1.2</v>
+      </c>
+      <c r="AL125">
+        <v>1.22</v>
+      </c>
+      <c r="AM125">
+        <v>2.27</v>
+      </c>
+      <c r="AN125">
+        <v>2.67</v>
+      </c>
+      <c r="AO125">
+        <v>0.83</v>
+      </c>
+      <c r="AP125">
+        <v>2.71</v>
+      </c>
+      <c r="AQ125">
+        <v>0.71</v>
+      </c>
+      <c r="AR125">
+        <v>1.7</v>
+      </c>
+      <c r="AS125">
+        <v>1.21</v>
+      </c>
+      <c r="AT125">
+        <v>2.91</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>1</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>9</v>
+      </c>
+      <c r="BA125">
+        <v>5</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.5</v>
+      </c>
+      <c r="BE125">
+        <v>7</v>
+      </c>
+      <c r="BF125">
+        <v>2.85</v>
+      </c>
+      <c r="BG125">
+        <v>1.19</v>
+      </c>
+      <c r="BH125">
+        <v>4.1</v>
+      </c>
+      <c r="BI125">
+        <v>1.33</v>
+      </c>
+      <c r="BJ125">
+        <v>2.95</v>
+      </c>
+      <c r="BK125">
+        <v>1.55</v>
+      </c>
+      <c r="BL125">
+        <v>2.25</v>
+      </c>
+      <c r="BM125">
+        <v>1.89</v>
+      </c>
+      <c r="BN125">
+        <v>1.8</v>
+      </c>
+      <c r="BO125">
+        <v>2.33</v>
+      </c>
+      <c r="BP125">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7466806</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>88</v>
+      </c>
+      <c r="H126" t="s">
+        <v>87</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126" t="s">
+        <v>181</v>
+      </c>
+      <c r="P126" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>2.88</v>
+      </c>
+      <c r="T126">
+        <v>1.3</v>
+      </c>
+      <c r="U126">
+        <v>3.4</v>
+      </c>
+      <c r="V126">
+        <v>2.5</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>6</v>
+      </c>
+      <c r="Y126">
+        <v>1.13</v>
+      </c>
+      <c r="Z126">
+        <v>2.55</v>
+      </c>
+      <c r="AA126">
+        <v>3.9</v>
+      </c>
+      <c r="AB126">
+        <v>2.45</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>16</v>
+      </c>
+      <c r="AE126">
+        <v>1.21</v>
+      </c>
+      <c r="AF126">
+        <v>4.7</v>
+      </c>
+      <c r="AG126">
+        <v>1.57</v>
+      </c>
+      <c r="AH126">
+        <v>2.25</v>
+      </c>
+      <c r="AI126">
+        <v>1.53</v>
+      </c>
+      <c r="AJ126">
+        <v>2.38</v>
+      </c>
+      <c r="AK126">
+        <v>1.61</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.47</v>
+      </c>
+      <c r="AN126">
+        <v>0.67</v>
+      </c>
+      <c r="AO126">
+        <v>0.83</v>
+      </c>
+      <c r="AP126">
+        <v>0.57</v>
+      </c>
+      <c r="AQ126">
+        <v>1.14</v>
+      </c>
+      <c r="AR126">
+        <v>1.13</v>
+      </c>
+      <c r="AS126">
+        <v>1.47</v>
+      </c>
+      <c r="AT126">
+        <v>2.6</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>9</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>4</v>
+      </c>
+      <c r="BC126">
+        <v>7</v>
+      </c>
+      <c r="BD126">
+        <v>2.4</v>
+      </c>
+      <c r="BE126">
+        <v>7</v>
+      </c>
+      <c r="BF126">
+        <v>1.68</v>
+      </c>
+      <c r="BG126">
+        <v>1.14</v>
+      </c>
+      <c r="BH126">
+        <v>4.8</v>
+      </c>
+      <c r="BI126">
+        <v>1.26</v>
+      </c>
+      <c r="BJ126">
+        <v>3.4</v>
+      </c>
+      <c r="BK126">
+        <v>1.44</v>
+      </c>
+      <c r="BL126">
+        <v>2.55</v>
+      </c>
+      <c r="BM126">
+        <v>1.72</v>
+      </c>
+      <c r="BN126">
+        <v>1.98</v>
+      </c>
+      <c r="BO126">
+        <v>2.1</v>
+      </c>
+      <c r="BP126">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7466805</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>72</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127">
+        <v>7</v>
+      </c>
+      <c r="O127" t="s">
+        <v>182</v>
+      </c>
+      <c r="P127" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q127">
+        <v>6</v>
+      </c>
+      <c r="R127">
+        <v>2.4</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.5</v>
+      </c>
+      <c r="W127">
+        <v>1.5</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>5.6</v>
+      </c>
+      <c r="AA127">
+        <v>4.17</v>
+      </c>
+      <c r="AB127">
+        <v>1.46</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>16</v>
+      </c>
+      <c r="AE127">
+        <v>1.23</v>
+      </c>
+      <c r="AF127">
+        <v>4.45</v>
+      </c>
+      <c r="AG127">
+        <v>1.7</v>
+      </c>
+      <c r="AH127">
+        <v>2.1</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.91</v>
+      </c>
+      <c r="AK127">
+        <v>2.72</v>
+      </c>
+      <c r="AL127">
+        <v>1.2</v>
+      </c>
+      <c r="AM127">
+        <v>1.12</v>
+      </c>
+      <c r="AN127">
+        <v>1.17</v>
+      </c>
+      <c r="AO127">
+        <v>1.33</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>1.57</v>
+      </c>
+      <c r="AR127">
+        <v>1.54</v>
+      </c>
+      <c r="AS127">
+        <v>1.03</v>
+      </c>
+      <c r="AT127">
+        <v>2.57</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>8</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>17</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>10</v>
+      </c>
+      <c r="BC127">
+        <v>12</v>
+      </c>
+      <c r="BD127">
+        <v>3.65</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>1.32</v>
+      </c>
+      <c r="BG127">
+        <v>1.21</v>
+      </c>
+      <c r="BH127">
+        <v>3.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.37</v>
+      </c>
+      <c r="BJ127">
+        <v>2.8</v>
+      </c>
+      <c r="BK127">
+        <v>1.61</v>
+      </c>
+      <c r="BL127">
+        <v>2.15</v>
+      </c>
+      <c r="BM127">
+        <v>1.97</v>
+      </c>
+      <c r="BN127">
+        <v>1.72</v>
+      </c>
+      <c r="BO127">
+        <v>2.48</v>
+      </c>
+      <c r="BP127">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,18 @@
     <t>['38', '40']</t>
   </si>
   <si>
+    <t>['34', '41', '46', '64']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['7', '36', '83']</t>
+  </si>
+  <si>
+    <t>['12', '78']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -644,9 +656,6 @@
   </si>
   <si>
     <t>['47', '63']</t>
-  </si>
-  <si>
-    <t>['54']</t>
   </si>
   <si>
     <t>['7', '34']</t>
@@ -776,6 +785,9 @@
   </si>
   <si>
     <t>['10', '27', '34', '36', '45+5']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1602,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2014,7 +2026,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2426,7 +2438,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2632,7 +2644,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2713,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3044,7 +3056,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3122,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3456,7 +3468,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3740,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4692,7 +4704,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4898,7 +4910,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5104,7 +5116,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5388,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ21">
         <v>0.17</v>
@@ -5928,7 +5940,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6009,7 +6021,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>0.86</v>
@@ -6134,7 +6146,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6215,7 +6227,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>0.77</v>
@@ -6546,7 +6558,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6752,7 +6764,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6833,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6958,7 +6970,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7036,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7370,7 +7382,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7448,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>2.67</v>
@@ -7576,7 +7588,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7988,7 +8000,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8066,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ34">
         <v>1.83</v>
@@ -8400,7 +8412,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8812,7 +8824,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8893,7 +8905,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9018,7 +9030,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9224,7 +9236,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9302,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -9430,7 +9442,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9636,7 +9648,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9920,7 +9932,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10129,7 +10141,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -10666,7 +10678,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10950,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>0.17</v>
@@ -11490,7 +11502,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11696,7 +11708,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11777,7 +11789,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -11902,7 +11914,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11983,7 +11995,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12108,7 +12120,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12314,7 +12326,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12520,7 +12532,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12598,7 +12610,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
         <v>1.67</v>
@@ -12932,7 +12944,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13138,7 +13150,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13219,7 +13231,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13344,7 +13356,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13422,7 +13434,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13550,7 +13562,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13756,7 +13768,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14168,7 +14180,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14374,7 +14386,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14580,7 +14592,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14661,7 +14673,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>2.4</v>
@@ -15482,7 +15494,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
         <v>1.83</v>
@@ -15610,7 +15622,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15816,7 +15828,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15894,7 +15906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16022,7 +16034,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16228,7 +16240,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16434,7 +16446,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16512,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75">
         <v>0.17</v>
@@ -16640,7 +16652,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16721,7 +16733,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>2.01</v>
@@ -16846,7 +16858,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16927,7 +16939,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17258,7 +17270,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17339,7 +17351,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -17464,7 +17476,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17542,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ80">
         <v>2.17</v>
@@ -17876,7 +17888,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18288,7 +18300,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18494,7 +18506,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18700,7 +18712,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18906,7 +18918,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18987,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19112,7 +19124,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19190,7 +19202,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
         <v>1.29</v>
@@ -19524,7 +19536,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19730,7 +19742,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20429,7 +20441,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ94">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.09</v>
@@ -20760,7 +20772,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20838,7 +20850,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ96">
         <v>1.67</v>
@@ -20966,7 +20978,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21047,7 +21059,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21172,7 +21184,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21378,7 +21390,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21456,10 +21468,10 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR99">
         <v>1.99</v>
@@ -21584,7 +21596,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21662,7 +21674,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
         <v>2.17</v>
@@ -21996,7 +22008,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22408,7 +22420,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22489,7 +22501,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR104">
         <v>1.37</v>
@@ -22695,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.57</v>
@@ -22901,7 +22913,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23104,10 +23116,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -23310,7 +23322,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23438,7 +23450,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23644,7 +23656,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23722,7 +23734,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ110">
         <v>0.71</v>
@@ -23850,7 +23862,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23928,7 +23940,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
         <v>1.57</v>
@@ -24056,7 +24068,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24262,7 +24274,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24880,7 +24892,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25086,7 +25098,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25292,7 +25304,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25498,7 +25510,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25704,7 +25716,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25910,7 +25922,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26116,7 +26128,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26528,7 +26540,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26734,7 +26746,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -26940,7 +26952,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27146,7 +27158,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27303,6 +27315,830 @@
       </c>
       <c r="BP127">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7466802</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>183</v>
+      </c>
+      <c r="P128" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q128">
+        <v>2.05</v>
+      </c>
+      <c r="R128">
+        <v>2.38</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.63</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>1.51</v>
+      </c>
+      <c r="AA128">
+        <v>4.35</v>
+      </c>
+      <c r="AB128">
+        <v>5.71</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>15</v>
+      </c>
+      <c r="AE128">
+        <v>1.24</v>
+      </c>
+      <c r="AF128">
+        <v>4.25</v>
+      </c>
+      <c r="AG128">
+        <v>1.65</v>
+      </c>
+      <c r="AH128">
+        <v>2.1</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>1.13</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>2.62</v>
+      </c>
+      <c r="AN128">
+        <v>1.67</v>
+      </c>
+      <c r="AO128">
+        <v>0.83</v>
+      </c>
+      <c r="AP128">
+        <v>1.86</v>
+      </c>
+      <c r="AQ128">
+        <v>0.71</v>
+      </c>
+      <c r="AR128">
+        <v>1.43</v>
+      </c>
+      <c r="AS128">
+        <v>1.31</v>
+      </c>
+      <c r="AT128">
+        <v>2.74</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>3</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>9</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>2</v>
+      </c>
+      <c r="BC128">
+        <v>4</v>
+      </c>
+      <c r="BD128">
+        <v>1.36</v>
+      </c>
+      <c r="BE128">
+        <v>11</v>
+      </c>
+      <c r="BF128">
+        <v>3.84</v>
+      </c>
+      <c r="BG128">
+        <v>1.05</v>
+      </c>
+      <c r="BH128">
+        <v>5.9</v>
+      </c>
+      <c r="BI128">
+        <v>1.15</v>
+      </c>
+      <c r="BJ128">
+        <v>4</v>
+      </c>
+      <c r="BK128">
+        <v>1.31</v>
+      </c>
+      <c r="BL128">
+        <v>2.82</v>
+      </c>
+      <c r="BM128">
+        <v>1.57</v>
+      </c>
+      <c r="BN128">
+        <v>2.14</v>
+      </c>
+      <c r="BO128">
+        <v>1.96</v>
+      </c>
+      <c r="BP128">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7466804</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>184</v>
+      </c>
+      <c r="P129" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q129">
+        <v>2.2</v>
+      </c>
+      <c r="R129">
+        <v>2.6</v>
+      </c>
+      <c r="S129">
+        <v>4.33</v>
+      </c>
+      <c r="T129">
+        <v>1.22</v>
+      </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
+      <c r="V129">
+        <v>2.1</v>
+      </c>
+      <c r="W129">
+        <v>1.67</v>
+      </c>
+      <c r="X129">
+        <v>4.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.18</v>
+      </c>
+      <c r="Z129">
+        <v>1.57</v>
+      </c>
+      <c r="AA129">
+        <v>4.48</v>
+      </c>
+      <c r="AB129">
+        <v>4.8</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>25</v>
+      </c>
+      <c r="AE129">
+        <v>1.13</v>
+      </c>
+      <c r="AF129">
+        <v>6.4</v>
+      </c>
+      <c r="AG129">
+        <v>1.36</v>
+      </c>
+      <c r="AH129">
+        <v>2.99</v>
+      </c>
+      <c r="AI129">
+        <v>1.5</v>
+      </c>
+      <c r="AJ129">
+        <v>2.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.22</v>
+      </c>
+      <c r="AL129">
+        <v>1.2</v>
+      </c>
+      <c r="AM129">
+        <v>2.26</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.33</v>
+      </c>
+      <c r="AP129">
+        <v>1.86</v>
+      </c>
+      <c r="AQ129">
+        <v>1.29</v>
+      </c>
+      <c r="AR129">
+        <v>1.95</v>
+      </c>
+      <c r="AS129">
+        <v>1.29</v>
+      </c>
+      <c r="AT129">
+        <v>3.24</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>7</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>15</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>11</v>
+      </c>
+      <c r="BC129">
+        <v>18</v>
+      </c>
+      <c r="BD129">
+        <v>1.55</v>
+      </c>
+      <c r="BE129">
+        <v>10</v>
+      </c>
+      <c r="BF129">
+        <v>2.92</v>
+      </c>
+      <c r="BG129">
+        <v>1.03</v>
+      </c>
+      <c r="BH129">
+        <v>6.85</v>
+      </c>
+      <c r="BI129">
+        <v>1.11</v>
+      </c>
+      <c r="BJ129">
+        <v>4.6</v>
+      </c>
+      <c r="BK129">
+        <v>1.24</v>
+      </c>
+      <c r="BL129">
+        <v>3.22</v>
+      </c>
+      <c r="BM129">
+        <v>1.46</v>
+      </c>
+      <c r="BN129">
+        <v>2.38</v>
+      </c>
+      <c r="BO129">
+        <v>1.8</v>
+      </c>
+      <c r="BP129">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7466799</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>86</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>185</v>
+      </c>
+      <c r="P130" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q130">
+        <v>2.25</v>
+      </c>
+      <c r="R130">
+        <v>2.5</v>
+      </c>
+      <c r="S130">
+        <v>4.33</v>
+      </c>
+      <c r="T130">
+        <v>1.25</v>
+      </c>
+      <c r="U130">
+        <v>3.75</v>
+      </c>
+      <c r="V130">
+        <v>2.2</v>
+      </c>
+      <c r="W130">
+        <v>1.62</v>
+      </c>
+      <c r="X130">
+        <v>5</v>
+      </c>
+      <c r="Y130">
+        <v>1.17</v>
+      </c>
+      <c r="Z130">
+        <v>1.6</v>
+      </c>
+      <c r="AA130">
+        <v>4.31</v>
+      </c>
+      <c r="AB130">
+        <v>4.76</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>21</v>
+      </c>
+      <c r="AE130">
+        <v>1.16</v>
+      </c>
+      <c r="AF130">
+        <v>5.6</v>
+      </c>
+      <c r="AG130">
+        <v>1.5</v>
+      </c>
+      <c r="AH130">
+        <v>2.48</v>
+      </c>
+      <c r="AI130">
+        <v>1.5</v>
+      </c>
+      <c r="AJ130">
+        <v>2.5</v>
+      </c>
+      <c r="AK130">
+        <v>1.23</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>2.18</v>
+      </c>
+      <c r="AN130">
+        <v>1.5</v>
+      </c>
+      <c r="AO130">
+        <v>1.67</v>
+      </c>
+      <c r="AP130">
+        <v>1.71</v>
+      </c>
+      <c r="AQ130">
+        <v>1.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.64</v>
+      </c>
+      <c r="AS130">
+        <v>1.2</v>
+      </c>
+      <c r="AT130">
+        <v>2.84</v>
+      </c>
+      <c r="AU130">
+        <v>9</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>19</v>
+      </c>
+      <c r="AZ130">
+        <v>11</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>1.6</v>
+      </c>
+      <c r="BE130">
+        <v>9.4</v>
+      </c>
+      <c r="BF130">
+        <v>2.81</v>
+      </c>
+      <c r="BG130">
+        <v>1.11</v>
+      </c>
+      <c r="BH130">
+        <v>4.65</v>
+      </c>
+      <c r="BI130">
+        <v>1.25</v>
+      </c>
+      <c r="BJ130">
+        <v>3.14</v>
+      </c>
+      <c r="BK130">
+        <v>1.48</v>
+      </c>
+      <c r="BL130">
+        <v>2.33</v>
+      </c>
+      <c r="BM130">
+        <v>1.85</v>
+      </c>
+      <c r="BN130">
+        <v>1.85</v>
+      </c>
+      <c r="BO130">
+        <v>2.3</v>
+      </c>
+      <c r="BP130">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7466801</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>89</v>
+      </c>
+      <c r="H131" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>186</v>
+      </c>
+      <c r="P131" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q131">
+        <v>2.63</v>
+      </c>
+      <c r="R131">
+        <v>2.38</v>
+      </c>
+      <c r="S131">
+        <v>3.5</v>
+      </c>
+      <c r="T131">
+        <v>1.29</v>
+      </c>
+      <c r="U131">
+        <v>3.5</v>
+      </c>
+      <c r="V131">
+        <v>2.38</v>
+      </c>
+      <c r="W131">
+        <v>1.53</v>
+      </c>
+      <c r="X131">
+        <v>5.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.14</v>
+      </c>
+      <c r="Z131">
+        <v>2.1</v>
+      </c>
+      <c r="AA131">
+        <v>3.7</v>
+      </c>
+      <c r="AB131">
+        <v>3.25</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>17</v>
+      </c>
+      <c r="AE131">
+        <v>1.18</v>
+      </c>
+      <c r="AF131">
+        <v>5.1</v>
+      </c>
+      <c r="AG131">
+        <v>1.6</v>
+      </c>
+      <c r="AH131">
+        <v>2.3</v>
+      </c>
+      <c r="AI131">
+        <v>1.5</v>
+      </c>
+      <c r="AJ131">
+        <v>2.5</v>
+      </c>
+      <c r="AK131">
+        <v>1.36</v>
+      </c>
+      <c r="AL131">
+        <v>1.27</v>
+      </c>
+      <c r="AM131">
+        <v>1.76</v>
+      </c>
+      <c r="AN131">
+        <v>2.5</v>
+      </c>
+      <c r="AO131">
+        <v>1.67</v>
+      </c>
+      <c r="AP131">
+        <v>2.57</v>
+      </c>
+      <c r="AQ131">
+        <v>1.43</v>
+      </c>
+      <c r="AR131">
+        <v>1.72</v>
+      </c>
+      <c r="AS131">
+        <v>2.05</v>
+      </c>
+      <c r="AT131">
+        <v>3.77</v>
+      </c>
+      <c r="AU131">
+        <v>8</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>19</v>
+      </c>
+      <c r="AZ131">
+        <v>9</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>11</v>
+      </c>
+      <c r="BD131">
+        <v>1.93</v>
+      </c>
+      <c r="BE131">
+        <v>6.95</v>
+      </c>
+      <c r="BF131">
+        <v>2.35</v>
+      </c>
+      <c r="BG131">
+        <v>1.08</v>
+      </c>
+      <c r="BH131">
+        <v>5.1</v>
+      </c>
+      <c r="BI131">
+        <v>1.21</v>
+      </c>
+      <c r="BJ131">
+        <v>3.44</v>
+      </c>
+      <c r="BK131">
+        <v>1.41</v>
+      </c>
+      <c r="BL131">
+        <v>2.52</v>
+      </c>
+      <c r="BM131">
+        <v>1.75</v>
+      </c>
+      <c r="BN131">
+        <v>1.96</v>
+      </c>
+      <c r="BO131">
+        <v>2.14</v>
+      </c>
+      <c r="BP131">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,33 @@
     <t>['12', '78']</t>
   </si>
   <si>
+    <t>['2', '61', '90']</t>
+  </si>
+  <si>
+    <t>['8', '31', '57']</t>
+  </si>
+  <si>
+    <t>['35', '62', '90']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['10', '33', '49', '72']</t>
+  </si>
+  <si>
+    <t>['21', '28', '34']</t>
+  </si>
+  <si>
+    <t>['54', '73']</t>
+  </si>
+  <si>
+    <t>['4', '79', '87']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -788,6 +815,12 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['50', '68', '83']</t>
+  </si>
+  <si>
+    <t>['7', '17', '34', '76', '87']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1692,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ3">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1898,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2026,7 +2059,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2104,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2310,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
         <v>0.14</v>
@@ -2438,7 +2471,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2644,7 +2677,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2931,7 +2964,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3056,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3340,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3468,7 +3501,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3549,7 +3582,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3958,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4167,7 +4200,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4370,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4576,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -4704,7 +4737,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4782,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -4910,7 +4943,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4988,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5116,7 +5149,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5197,7 +5230,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5403,7 +5436,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5606,10 +5639,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -5815,7 +5848,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>1.78</v>
@@ -5940,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6018,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -6146,7 +6179,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6224,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6558,7 +6591,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6636,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6764,7 +6797,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6970,7 +7003,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7051,7 +7084,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7254,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -7382,7 +7415,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7463,7 +7496,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7588,7 +7621,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7666,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR32">
         <v>0.65</v>
@@ -7872,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -8000,7 +8033,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8081,7 +8114,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ34">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8284,10 +8317,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -8412,7 +8445,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8824,7 +8857,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8902,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38">
         <v>0.71</v>
@@ -9030,7 +9063,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9108,10 +9141,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9236,7 +9269,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9442,7 +9475,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9648,7 +9681,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9729,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10138,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -10344,7 +10377,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ45">
         <v>0.71</v>
@@ -10550,10 +10583,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10678,7 +10711,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10756,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -10965,7 +10998,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
@@ -11171,7 +11204,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11377,7 +11410,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11502,7 +11535,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11580,7 +11613,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>1.57</v>
@@ -11708,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11786,7 +11819,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11914,7 +11947,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12120,7 +12153,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12198,7 +12231,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ54">
         <v>0.71</v>
@@ -12407,7 +12440,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12532,7 +12565,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12613,7 +12646,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -12816,10 +12849,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -12944,7 +12977,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13025,7 +13058,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ58">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13150,7 +13183,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13228,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13356,7 +13389,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13437,7 +13470,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -13562,7 +13595,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13640,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
         <v>0.14</v>
@@ -13768,7 +13801,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13849,7 +13882,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14052,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ63">
         <v>0.14</v>
@@ -14180,7 +14213,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14386,7 +14419,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14467,7 +14500,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14592,7 +14625,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14670,7 +14703,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
         <v>1.29</v>
@@ -14876,7 +14909,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
         <v>1.14</v>
@@ -15082,7 +15115,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15288,10 +15321,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15497,7 +15530,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -15622,7 +15655,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15703,7 +15736,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15828,7 +15861,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15909,7 +15942,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16034,7 +16067,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16112,10 +16145,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>0.91</v>
@@ -16240,7 +16273,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16318,7 +16351,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16446,7 +16479,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16527,7 +16560,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ75">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR75">
         <v>1.31</v>
@@ -16652,7 +16685,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16730,7 +16763,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76">
         <v>1.43</v>
@@ -16858,7 +16891,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16936,7 +16969,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ77">
         <v>0.71</v>
@@ -17142,7 +17175,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
         <v>1.57</v>
@@ -17270,7 +17303,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17476,7 +17509,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17557,7 +17590,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ80">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17763,7 +17796,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -17888,7 +17921,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17966,10 +17999,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18172,7 +18205,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
         <v>0.14</v>
@@ -18300,7 +18333,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18381,7 +18414,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18506,7 +18539,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18584,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18712,7 +18745,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18918,7 +18951,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18996,7 +19029,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19124,7 +19157,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19411,7 +19444,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19536,7 +19569,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19617,7 +19650,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19742,7 +19775,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19820,10 +19853,10 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ91">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -20026,7 +20059,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20235,7 +20268,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20438,7 +20471,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ94">
         <v>0.71</v>
@@ -20644,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ95">
         <v>0.71</v>
@@ -20772,7 +20805,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20853,7 +20886,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -20978,7 +21011,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21056,7 +21089,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>1.43</v>
@@ -21184,7 +21217,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21265,7 +21298,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ98">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21390,7 +21423,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21596,7 +21629,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21677,7 +21710,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21880,10 +21913,10 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -22008,7 +22041,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22420,7 +22453,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23450,7 +23483,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23656,7 +23689,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23862,7 +23895,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24068,7 +24101,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24146,10 +24179,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24274,7 +24307,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24352,10 +24385,10 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -24558,10 +24591,10 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24764,10 +24797,10 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -24892,7 +24925,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -24970,10 +25003,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25098,7 +25131,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25176,10 +25209,10 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25304,7 +25337,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25382,10 +25415,10 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ118">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>2.34</v>
@@ -25510,7 +25543,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25588,10 +25621,10 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ119">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -25716,7 +25749,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25794,10 +25827,10 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -25922,7 +25955,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26000,10 +26033,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26128,7 +26161,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26540,7 +26573,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26746,7 +26779,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -26952,7 +26985,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27158,7 +27191,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27570,7 +27603,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28139,6 +28172,2066 @@
       </c>
       <c r="BP131">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7466812</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45629.6875</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>83</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>91</v>
+      </c>
+      <c r="P132" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.2</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>2.99</v>
+      </c>
+      <c r="AA132">
+        <v>3.49</v>
+      </c>
+      <c r="AB132">
+        <v>2.48</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>12.3</v>
+      </c>
+      <c r="AE132">
+        <v>1.25</v>
+      </c>
+      <c r="AF132">
+        <v>3.28</v>
+      </c>
+      <c r="AG132">
+        <v>2</v>
+      </c>
+      <c r="AH132">
+        <v>1.86</v>
+      </c>
+      <c r="AI132">
+        <v>1.7</v>
+      </c>
+      <c r="AJ132">
+        <v>2.05</v>
+      </c>
+      <c r="AK132">
+        <v>1.55</v>
+      </c>
+      <c r="AL132">
+        <v>1.31</v>
+      </c>
+      <c r="AM132">
+        <v>1.49</v>
+      </c>
+      <c r="AN132">
+        <v>0.67</v>
+      </c>
+      <c r="AO132">
+        <v>0.5</v>
+      </c>
+      <c r="AP132">
+        <v>0.57</v>
+      </c>
+      <c r="AQ132">
+        <v>0.86</v>
+      </c>
+      <c r="AR132">
+        <v>1.18</v>
+      </c>
+      <c r="AS132">
+        <v>1.51</v>
+      </c>
+      <c r="AT132">
+        <v>2.69</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>14</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>2</v>
+      </c>
+      <c r="BE132">
+        <v>6.75</v>
+      </c>
+      <c r="BF132">
+        <v>1.95</v>
+      </c>
+      <c r="BG132">
+        <v>1.2</v>
+      </c>
+      <c r="BH132">
+        <v>3.95</v>
+      </c>
+      <c r="BI132">
+        <v>1.35</v>
+      </c>
+      <c r="BJ132">
+        <v>2.9</v>
+      </c>
+      <c r="BK132">
+        <v>1.58</v>
+      </c>
+      <c r="BL132">
+        <v>2.2</v>
+      </c>
+      <c r="BM132">
+        <v>1.92</v>
+      </c>
+      <c r="BN132">
+        <v>1.77</v>
+      </c>
+      <c r="BO132">
+        <v>2.4</v>
+      </c>
+      <c r="BP132">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7466813</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45629.71875</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>187</v>
+      </c>
+      <c r="P133" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q133">
+        <v>3.25</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>3.1</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>7</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>2.82</v>
+      </c>
+      <c r="AA133">
+        <v>3.71</v>
+      </c>
+      <c r="AB133">
+        <v>2.49</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>14</v>
+      </c>
+      <c r="AE133">
+        <v>1.2</v>
+      </c>
+      <c r="AF133">
+        <v>3.74</v>
+      </c>
+      <c r="AG133">
+        <v>1.75</v>
+      </c>
+      <c r="AH133">
+        <v>2.05</v>
+      </c>
+      <c r="AI133">
+        <v>1.57</v>
+      </c>
+      <c r="AJ133">
+        <v>2.25</v>
+      </c>
+      <c r="AK133">
+        <v>1.55</v>
+      </c>
+      <c r="AL133">
+        <v>1.3</v>
+      </c>
+      <c r="AM133">
+        <v>1.49</v>
+      </c>
+      <c r="AN133">
+        <v>0.83</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1.14</v>
+      </c>
+      <c r="AQ133">
+        <v>1.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.12</v>
+      </c>
+      <c r="AS133">
+        <v>1.28</v>
+      </c>
+      <c r="AT133">
+        <v>2.4</v>
+      </c>
+      <c r="AU133">
+        <v>8</v>
+      </c>
+      <c r="AV133">
+        <v>11</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>10</v>
+      </c>
+      <c r="AY133">
+        <v>10</v>
+      </c>
+      <c r="AZ133">
+        <v>32</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>9</v>
+      </c>
+      <c r="BC133">
+        <v>12</v>
+      </c>
+      <c r="BD133">
+        <v>1.97</v>
+      </c>
+      <c r="BE133">
+        <v>6.75</v>
+      </c>
+      <c r="BF133">
+        <v>1.98</v>
+      </c>
+      <c r="BG133">
+        <v>1.19</v>
+      </c>
+      <c r="BH133">
+        <v>3.9</v>
+      </c>
+      <c r="BI133">
+        <v>1.36</v>
+      </c>
+      <c r="BJ133">
+        <v>2.8</v>
+      </c>
+      <c r="BK133">
+        <v>1.61</v>
+      </c>
+      <c r="BL133">
+        <v>2.15</v>
+      </c>
+      <c r="BM133">
+        <v>1.96</v>
+      </c>
+      <c r="BN133">
+        <v>1.74</v>
+      </c>
+      <c r="BO133">
+        <v>2.43</v>
+      </c>
+      <c r="BP133">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7466814</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45630.6875</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>188</v>
+      </c>
+      <c r="P134" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q134">
+        <v>1.73</v>
+      </c>
+      <c r="R134">
+        <v>2.63</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>1.29</v>
+      </c>
+      <c r="U134">
+        <v>3.5</v>
+      </c>
+      <c r="V134">
+        <v>2.25</v>
+      </c>
+      <c r="W134">
+        <v>1.57</v>
+      </c>
+      <c r="X134">
+        <v>5.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.14</v>
+      </c>
+      <c r="Z134">
+        <v>1.07</v>
+      </c>
+      <c r="AA134">
+        <v>13.3</v>
+      </c>
+      <c r="AB134">
+        <v>9.81</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>21</v>
+      </c>
+      <c r="AE134">
+        <v>1.17</v>
+      </c>
+      <c r="AF134">
+        <v>5.4</v>
+      </c>
+      <c r="AG134">
+        <v>1.59</v>
+      </c>
+      <c r="AH134">
+        <v>2.43</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.05</v>
+      </c>
+      <c r="AL134">
+        <v>1.13</v>
+      </c>
+      <c r="AM134">
+        <v>3.65</v>
+      </c>
+      <c r="AN134">
+        <v>2.17</v>
+      </c>
+      <c r="AO134">
+        <v>1.83</v>
+      </c>
+      <c r="AP134">
+        <v>2.29</v>
+      </c>
+      <c r="AQ134">
+        <v>1.57</v>
+      </c>
+      <c r="AR134">
+        <v>2.34</v>
+      </c>
+      <c r="AS134">
+        <v>1.46</v>
+      </c>
+      <c r="AT134">
+        <v>3.8</v>
+      </c>
+      <c r="AU134">
+        <v>8</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>7</v>
+      </c>
+      <c r="AX134">
+        <v>7</v>
+      </c>
+      <c r="AY134">
+        <v>18</v>
+      </c>
+      <c r="AZ134">
+        <v>13</v>
+      </c>
+      <c r="BA134">
+        <v>8</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>10</v>
+      </c>
+      <c r="BD134">
+        <v>1.13</v>
+      </c>
+      <c r="BE134">
+        <v>10.5</v>
+      </c>
+      <c r="BF134">
+        <v>6.1</v>
+      </c>
+      <c r="BG134">
+        <v>1.18</v>
+      </c>
+      <c r="BH134">
+        <v>4.1</v>
+      </c>
+      <c r="BI134">
+        <v>1.3</v>
+      </c>
+      <c r="BJ134">
+        <v>3.05</v>
+      </c>
+      <c r="BK134">
+        <v>1.52</v>
+      </c>
+      <c r="BL134">
+        <v>2.33</v>
+      </c>
+      <c r="BM134">
+        <v>1.82</v>
+      </c>
+      <c r="BN134">
+        <v>1.86</v>
+      </c>
+      <c r="BO134">
+        <v>2.23</v>
+      </c>
+      <c r="BP134">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7466815</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45630.6875</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>89</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>189</v>
+      </c>
+      <c r="P135" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>2.4</v>
+      </c>
+      <c r="S135">
+        <v>2.4</v>
+      </c>
+      <c r="T135">
+        <v>1.29</v>
+      </c>
+      <c r="U135">
+        <v>3.5</v>
+      </c>
+      <c r="V135">
+        <v>2.25</v>
+      </c>
+      <c r="W135">
+        <v>1.57</v>
+      </c>
+      <c r="X135">
+        <v>5.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.14</v>
+      </c>
+      <c r="Z135">
+        <v>1.91</v>
+      </c>
+      <c r="AA135">
+        <v>7.88</v>
+      </c>
+      <c r="AB135">
+        <v>2.17</v>
+      </c>
+      <c r="AC135">
+        <v>1.02</v>
+      </c>
+      <c r="AD135">
+        <v>19</v>
+      </c>
+      <c r="AE135">
+        <v>1.18</v>
+      </c>
+      <c r="AF135">
+        <v>5.1</v>
+      </c>
+      <c r="AG135">
+        <v>1.76</v>
+      </c>
+      <c r="AH135">
+        <v>1.95</v>
+      </c>
+      <c r="AI135">
+        <v>1.5</v>
+      </c>
+      <c r="AJ135">
+        <v>2.5</v>
+      </c>
+      <c r="AK135">
+        <v>1.99</v>
+      </c>
+      <c r="AL135">
+        <v>1.24</v>
+      </c>
+      <c r="AM135">
+        <v>1.28</v>
+      </c>
+      <c r="AN135">
+        <v>1.67</v>
+      </c>
+      <c r="AO135">
+        <v>2.67</v>
+      </c>
+      <c r="AP135">
+        <v>1.57</v>
+      </c>
+      <c r="AQ135">
+        <v>2.43</v>
+      </c>
+      <c r="AR135">
+        <v>1.25</v>
+      </c>
+      <c r="AS135">
+        <v>1.67</v>
+      </c>
+      <c r="AT135">
+        <v>2.92</v>
+      </c>
+      <c r="AU135">
+        <v>7</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>18</v>
+      </c>
+      <c r="AZ135">
+        <v>17</v>
+      </c>
+      <c r="BA135">
+        <v>5</v>
+      </c>
+      <c r="BB135">
+        <v>6</v>
+      </c>
+      <c r="BC135">
+        <v>11</v>
+      </c>
+      <c r="BD135">
+        <v>2.8</v>
+      </c>
+      <c r="BE135">
+        <v>7</v>
+      </c>
+      <c r="BF135">
+        <v>1.5</v>
+      </c>
+      <c r="BG135">
+        <v>1.15</v>
+      </c>
+      <c r="BH135">
+        <v>4.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.28</v>
+      </c>
+      <c r="BJ135">
+        <v>3.3</v>
+      </c>
+      <c r="BK135">
+        <v>1.47</v>
+      </c>
+      <c r="BL135">
+        <v>2.48</v>
+      </c>
+      <c r="BM135">
+        <v>1.73</v>
+      </c>
+      <c r="BN135">
+        <v>1.96</v>
+      </c>
+      <c r="BO135">
+        <v>2.12</v>
+      </c>
+      <c r="BP135">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7466816</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45630.6875</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>82</v>
+      </c>
+      <c r="H136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>6</v>
+      </c>
+      <c r="O136" t="s">
+        <v>190</v>
+      </c>
+      <c r="P136" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>2.6</v>
+      </c>
+      <c r="S136">
+        <v>1.91</v>
+      </c>
+      <c r="T136">
+        <v>1.25</v>
+      </c>
+      <c r="U136">
+        <v>3.75</v>
+      </c>
+      <c r="V136">
+        <v>2.2</v>
+      </c>
+      <c r="W136">
+        <v>1.62</v>
+      </c>
+      <c r="X136">
+        <v>5</v>
+      </c>
+      <c r="Y136">
+        <v>1.17</v>
+      </c>
+      <c r="Z136">
+        <v>2.1</v>
+      </c>
+      <c r="AA136">
+        <v>5.86</v>
+      </c>
+      <c r="AB136">
+        <v>2.16</v>
+      </c>
+      <c r="AC136">
+        <v>1.02</v>
+      </c>
+      <c r="AD136">
+        <v>22</v>
+      </c>
+      <c r="AE136">
+        <v>1.16</v>
+      </c>
+      <c r="AF136">
+        <v>5.6</v>
+      </c>
+      <c r="AG136">
+        <v>1.55</v>
+      </c>
+      <c r="AH136">
+        <v>2.3</v>
+      </c>
+      <c r="AI136">
+        <v>1.67</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>2.9</v>
+      </c>
+      <c r="AL136">
+        <v>1.17</v>
+      </c>
+      <c r="AM136">
+        <v>1.1</v>
+      </c>
+      <c r="AN136">
+        <v>0.67</v>
+      </c>
+      <c r="AO136">
+        <v>2.17</v>
+      </c>
+      <c r="AP136">
+        <v>0.57</v>
+      </c>
+      <c r="AQ136">
+        <v>2.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.08</v>
+      </c>
+      <c r="AS136">
+        <v>1.34</v>
+      </c>
+      <c r="AT136">
+        <v>2.42</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>14</v>
+      </c>
+      <c r="AW136">
+        <v>0</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>7</v>
+      </c>
+      <c r="AZ136">
+        <v>27</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>7</v>
+      </c>
+      <c r="BC136">
+        <v>12</v>
+      </c>
+      <c r="BD136">
+        <v>3.05</v>
+      </c>
+      <c r="BE136">
+        <v>7</v>
+      </c>
+      <c r="BF136">
+        <v>1.44</v>
+      </c>
+      <c r="BG136">
+        <v>1.16</v>
+      </c>
+      <c r="BH136">
+        <v>4.3</v>
+      </c>
+      <c r="BI136">
+        <v>1.3</v>
+      </c>
+      <c r="BJ136">
+        <v>3.05</v>
+      </c>
+      <c r="BK136">
+        <v>1.52</v>
+      </c>
+      <c r="BL136">
+        <v>2.33</v>
+      </c>
+      <c r="BM136">
+        <v>1.82</v>
+      </c>
+      <c r="BN136">
+        <v>1.86</v>
+      </c>
+      <c r="BO136">
+        <v>2.23</v>
+      </c>
+      <c r="BP136">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7466810</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45630.6875</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>88</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>191</v>
+      </c>
+      <c r="P137" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q137">
+        <v>2.63</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>1.18</v>
+      </c>
+      <c r="AA137">
+        <v>7.22</v>
+      </c>
+      <c r="AB137">
+        <v>7.85</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>12</v>
+      </c>
+      <c r="AE137">
+        <v>1.3</v>
+      </c>
+      <c r="AF137">
+        <v>3.7</v>
+      </c>
+      <c r="AG137">
+        <v>1.85</v>
+      </c>
+      <c r="AH137">
+        <v>1.85</v>
+      </c>
+      <c r="AI137">
+        <v>1.7</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>1.31</v>
+      </c>
+      <c r="AL137">
+        <v>1.29</v>
+      </c>
+      <c r="AM137">
+        <v>1.81</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
+        <v>0.83</v>
+      </c>
+      <c r="AP137">
+        <v>1.29</v>
+      </c>
+      <c r="AQ137">
+        <v>0.71</v>
+      </c>
+      <c r="AR137">
+        <v>1.42</v>
+      </c>
+      <c r="AS137">
+        <v>1.28</v>
+      </c>
+      <c r="AT137">
+        <v>2.7</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>14</v>
+      </c>
+      <c r="AZ137">
+        <v>7</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>1.5</v>
+      </c>
+      <c r="BE137">
+        <v>7</v>
+      </c>
+      <c r="BF137">
+        <v>2.8</v>
+      </c>
+      <c r="BG137">
+        <v>1.21</v>
+      </c>
+      <c r="BH137">
+        <v>3.8</v>
+      </c>
+      <c r="BI137">
+        <v>1.4</v>
+      </c>
+      <c r="BJ137">
+        <v>2.7</v>
+      </c>
+      <c r="BK137">
+        <v>1.65</v>
+      </c>
+      <c r="BL137">
+        <v>2.08</v>
+      </c>
+      <c r="BM137">
+        <v>2</v>
+      </c>
+      <c r="BN137">
+        <v>1.7</v>
+      </c>
+      <c r="BO137">
+        <v>2.55</v>
+      </c>
+      <c r="BP137">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7466809</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45630.71875</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>86</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>192</v>
+      </c>
+      <c r="P138" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q138">
+        <v>2.25</v>
+      </c>
+      <c r="R138">
+        <v>2.4</v>
+      </c>
+      <c r="S138">
+        <v>4.5</v>
+      </c>
+      <c r="T138">
+        <v>1.29</v>
+      </c>
+      <c r="U138">
+        <v>3.5</v>
+      </c>
+      <c r="V138">
+        <v>2.38</v>
+      </c>
+      <c r="W138">
+        <v>1.53</v>
+      </c>
+      <c r="X138">
+        <v>5.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.14</v>
+      </c>
+      <c r="Z138">
+        <v>1.25</v>
+      </c>
+      <c r="AA138">
+        <v>13.25</v>
+      </c>
+      <c r="AB138">
+        <v>4.35</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>17</v>
+      </c>
+      <c r="AE138">
+        <v>1.19</v>
+      </c>
+      <c r="AF138">
+        <v>5</v>
+      </c>
+      <c r="AG138">
+        <v>1.57</v>
+      </c>
+      <c r="AH138">
+        <v>2.25</v>
+      </c>
+      <c r="AI138">
+        <v>1.57</v>
+      </c>
+      <c r="AJ138">
+        <v>2.25</v>
+      </c>
+      <c r="AK138">
+        <v>1.21</v>
+      </c>
+      <c r="AL138">
+        <v>1.24</v>
+      </c>
+      <c r="AM138">
+        <v>2.19</v>
+      </c>
+      <c r="AN138">
+        <v>1.5</v>
+      </c>
+      <c r="AO138">
+        <v>0.17</v>
+      </c>
+      <c r="AP138">
+        <v>1.71</v>
+      </c>
+      <c r="AQ138">
+        <v>0.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.44</v>
+      </c>
+      <c r="AS138">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT138">
+        <v>2.38</v>
+      </c>
+      <c r="AU138">
+        <v>11</v>
+      </c>
+      <c r="AV138">
+        <v>2</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>21</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>10</v>
+      </c>
+      <c r="BB138">
+        <v>5</v>
+      </c>
+      <c r="BC138">
+        <v>15</v>
+      </c>
+      <c r="BD138">
+        <v>1.33</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>3.55</v>
+      </c>
+      <c r="BG138">
+        <v>1.17</v>
+      </c>
+      <c r="BH138">
+        <v>4.35</v>
+      </c>
+      <c r="BI138">
+        <v>1.3</v>
+      </c>
+      <c r="BJ138">
+        <v>3.15</v>
+      </c>
+      <c r="BK138">
+        <v>1.5</v>
+      </c>
+      <c r="BL138">
+        <v>2.4</v>
+      </c>
+      <c r="BM138">
+        <v>1.79</v>
+      </c>
+      <c r="BN138">
+        <v>1.9</v>
+      </c>
+      <c r="BO138">
+        <v>2.18</v>
+      </c>
+      <c r="BP138">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7466808</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45630.71875</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>193</v>
+      </c>
+      <c r="P139" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q139">
+        <v>1.95</v>
+      </c>
+      <c r="R139">
+        <v>2.5</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>1.3</v>
+      </c>
+      <c r="U139">
+        <v>3.4</v>
+      </c>
+      <c r="V139">
+        <v>2.38</v>
+      </c>
+      <c r="W139">
+        <v>1.53</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.13</v>
+      </c>
+      <c r="Z139">
+        <v>1.2</v>
+      </c>
+      <c r="AA139">
+        <v>10.44</v>
+      </c>
+      <c r="AB139">
+        <v>5.39</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>17</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4.85</v>
+      </c>
+      <c r="AG139">
+        <v>1.55</v>
+      </c>
+      <c r="AH139">
+        <v>2.3</v>
+      </c>
+      <c r="AI139">
+        <v>1.75</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>1.11</v>
+      </c>
+      <c r="AL139">
+        <v>1.19</v>
+      </c>
+      <c r="AM139">
+        <v>2.73</v>
+      </c>
+      <c r="AN139">
+        <v>2.33</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>2.43</v>
+      </c>
+      <c r="AQ139">
+        <v>0.86</v>
+      </c>
+      <c r="AR139">
+        <v>2.22</v>
+      </c>
+      <c r="AS139">
+        <v>1.54</v>
+      </c>
+      <c r="AT139">
+        <v>3.76</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>15</v>
+      </c>
+      <c r="AZ139">
+        <v>6</v>
+      </c>
+      <c r="BA139">
+        <v>13</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>13</v>
+      </c>
+      <c r="BD139">
+        <v>1.29</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>3.9</v>
+      </c>
+      <c r="BG139">
+        <v>1.19</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>1.34</v>
+      </c>
+      <c r="BJ139">
+        <v>2.9</v>
+      </c>
+      <c r="BK139">
+        <v>1.57</v>
+      </c>
+      <c r="BL139">
+        <v>2.23</v>
+      </c>
+      <c r="BM139">
+        <v>1.9</v>
+      </c>
+      <c r="BN139">
+        <v>1.79</v>
+      </c>
+      <c r="BO139">
+        <v>2.35</v>
+      </c>
+      <c r="BP139">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7466811</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45631.6875</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>194</v>
+      </c>
+      <c r="P140" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q140">
+        <v>2.88</v>
+      </c>
+      <c r="R140">
+        <v>2.3</v>
+      </c>
+      <c r="S140">
+        <v>3.25</v>
+      </c>
+      <c r="T140">
+        <v>1.3</v>
+      </c>
+      <c r="U140">
+        <v>3.4</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>6</v>
+      </c>
+      <c r="Y140">
+        <v>1.13</v>
+      </c>
+      <c r="Z140">
+        <v>2.52</v>
+      </c>
+      <c r="AA140">
+        <v>3.4</v>
+      </c>
+      <c r="AB140">
+        <v>2.76</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>16</v>
+      </c>
+      <c r="AE140">
+        <v>1.21</v>
+      </c>
+      <c r="AF140">
+        <v>4.7</v>
+      </c>
+      <c r="AG140">
+        <v>1.9</v>
+      </c>
+      <c r="AH140">
+        <v>1.9</v>
+      </c>
+      <c r="AI140">
+        <v>1.53</v>
+      </c>
+      <c r="AJ140">
+        <v>2.38</v>
+      </c>
+      <c r="AK140">
+        <v>1.42</v>
+      </c>
+      <c r="AL140">
+        <v>1.27</v>
+      </c>
+      <c r="AM140">
+        <v>1.66</v>
+      </c>
+      <c r="AN140">
+        <v>1.67</v>
+      </c>
+      <c r="AO140">
+        <v>1.67</v>
+      </c>
+      <c r="AP140">
+        <v>1.86</v>
+      </c>
+      <c r="AQ140">
+        <v>1.43</v>
+      </c>
+      <c r="AR140">
+        <v>1.88</v>
+      </c>
+      <c r="AS140">
+        <v>1.34</v>
+      </c>
+      <c r="AT140">
+        <v>3.22</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>5</v>
+      </c>
+      <c r="AY140">
+        <v>7</v>
+      </c>
+      <c r="AZ140">
+        <v>14</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>6</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>1.79</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>2.18</v>
+      </c>
+      <c r="BG140">
+        <v>1.17</v>
+      </c>
+      <c r="BH140">
+        <v>4.3</v>
+      </c>
+      <c r="BI140">
+        <v>1.32</v>
+      </c>
+      <c r="BJ140">
+        <v>3.05</v>
+      </c>
+      <c r="BK140">
+        <v>1.53</v>
+      </c>
+      <c r="BL140">
+        <v>2.32</v>
+      </c>
+      <c r="BM140">
+        <v>1.83</v>
+      </c>
+      <c r="BN140">
+        <v>1.85</v>
+      </c>
+      <c r="BO140">
+        <v>2.3</v>
+      </c>
+      <c r="BP140">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7466807</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45631.71875</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>87</v>
+      </c>
+      <c r="H141" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+      <c r="P141" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>2.5</v>
+      </c>
+      <c r="S141">
+        <v>2.88</v>
+      </c>
+      <c r="T141">
+        <v>1.22</v>
+      </c>
+      <c r="U141">
+        <v>4</v>
+      </c>
+      <c r="V141">
+        <v>2.1</v>
+      </c>
+      <c r="W141">
+        <v>1.67</v>
+      </c>
+      <c r="X141">
+        <v>4.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.18</v>
+      </c>
+      <c r="Z141">
+        <v>3.15</v>
+      </c>
+      <c r="AA141">
+        <v>3.56</v>
+      </c>
+      <c r="AB141">
+        <v>2.2</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>23</v>
+      </c>
+      <c r="AE141">
+        <v>1.13</v>
+      </c>
+      <c r="AF141">
+        <v>6.4</v>
+      </c>
+      <c r="AG141">
+        <v>1.6</v>
+      </c>
+      <c r="AH141">
+        <v>2.34</v>
+      </c>
+      <c r="AI141">
+        <v>1.4</v>
+      </c>
+      <c r="AJ141">
+        <v>2.75</v>
+      </c>
+      <c r="AK141">
+        <v>1.61</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.51</v>
+      </c>
+      <c r="AN141">
+        <v>1.67</v>
+      </c>
+      <c r="AO141">
+        <v>1.17</v>
+      </c>
+      <c r="AP141">
+        <v>1.86</v>
+      </c>
+      <c r="AQ141">
+        <v>1</v>
+      </c>
+      <c r="AR141">
+        <v>1.64</v>
+      </c>
+      <c r="AS141">
+        <v>1.76</v>
+      </c>
+      <c r="AT141">
+        <v>3.4</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>8</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
+        <v>22</v>
+      </c>
+      <c r="AZ141">
+        <v>13</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>9</v>
+      </c>
+      <c r="BC141">
+        <v>14</v>
+      </c>
+      <c r="BD141">
+        <v>2.8</v>
+      </c>
+      <c r="BE141">
+        <v>11</v>
+      </c>
+      <c r="BF141">
+        <v>1.59</v>
+      </c>
+      <c r="BG141">
+        <v>1.17</v>
+      </c>
+      <c r="BH141">
+        <v>4.65</v>
+      </c>
+      <c r="BI141">
+        <v>1.32</v>
+      </c>
+      <c r="BJ141">
+        <v>3.2</v>
+      </c>
+      <c r="BK141">
+        <v>1.55</v>
+      </c>
+      <c r="BL141">
+        <v>2.35</v>
+      </c>
+      <c r="BM141">
+        <v>1.9</v>
+      </c>
+      <c r="BN141">
+        <v>1.85</v>
+      </c>
+      <c r="BO141">
+        <v>2.4</v>
+      </c>
+      <c r="BP141">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['8', '28', '56', '90']</t>
+  </si>
+  <si>
+    <t>['4', '56']</t>
+  </si>
+  <si>
+    <t>['18', '61']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -821,6 +830,15 @@
   </si>
   <si>
     <t>['7', '17', '34', '76', '87']</t>
+  </si>
+  <si>
+    <t>['11', '32']</t>
+  </si>
+  <si>
+    <t>['30', '68']</t>
+  </si>
+  <si>
+    <t>['2', '47', '54']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1647,7 +1665,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2059,7 +2077,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2346,7 +2364,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ6">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2471,7 +2489,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2677,7 +2695,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2961,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -3089,7 +3107,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3170,7 +3188,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3501,7 +3519,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3994,7 +4012,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ14">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4197,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4737,7 +4755,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4815,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -4943,7 +4961,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5024,7 +5042,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5149,7 +5167,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5973,7 +5991,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6179,7 +6197,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6463,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ26">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6591,7 +6609,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6797,7 +6815,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6878,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7003,7 +7021,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7415,7 +7433,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7493,7 +7511,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>2.43</v>
@@ -7621,7 +7639,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8033,7 +8051,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8114,7 +8132,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8445,7 +8463,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8523,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -8857,7 +8875,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8935,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>0.71</v>
@@ -9063,7 +9081,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9269,7 +9287,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9475,7 +9493,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9556,7 +9574,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9681,7 +9699,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10583,7 +10601,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
         <v>0.71</v>
@@ -10711,7 +10729,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10792,7 +10810,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11201,7 +11219,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11410,7 +11428,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11535,7 +11553,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11741,7 +11759,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11822,7 +11840,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -11947,7 +11965,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12153,7 +12171,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12437,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55">
         <v>1.14</v>
@@ -12565,7 +12583,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12977,7 +12995,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13183,7 +13201,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13389,7 +13407,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13467,7 +13485,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13595,7 +13613,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13676,7 +13694,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13801,7 +13819,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13879,7 +13897,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ62">
         <v>2.43</v>
@@ -14088,7 +14106,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR63">
         <v>2.4</v>
@@ -14213,7 +14231,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14419,7 +14437,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14497,7 +14515,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14625,7 +14643,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15118,7 +15136,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15321,7 +15339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>0.86</v>
@@ -15530,7 +15548,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -15655,7 +15673,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15861,7 +15879,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16067,7 +16085,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16273,7 +16291,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16479,7 +16497,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16557,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>0.14</v>
@@ -16685,7 +16703,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16891,7 +16909,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17303,7 +17321,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17384,7 +17402,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -17509,7 +17527,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17921,7 +17939,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18002,7 +18020,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18208,7 +18226,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18333,7 +18351,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18539,7 +18557,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18617,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -18745,7 +18763,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18823,7 +18841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -18951,7 +18969,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19157,7 +19175,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19238,7 +19256,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19441,7 +19459,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19569,7 +19587,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19775,7 +19793,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20805,7 +20823,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -21011,7 +21029,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21092,7 +21110,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21217,7 +21235,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21423,7 +21441,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21629,7 +21647,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21707,7 +21725,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>2.29</v>
@@ -22041,7 +22059,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22119,7 +22137,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ102">
         <v>1.14</v>
@@ -22328,7 +22346,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR103">
         <v>1.17</v>
@@ -22453,7 +22471,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22531,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ104">
         <v>1.29</v>
@@ -22946,7 +22964,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23355,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23483,7 +23501,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23564,7 +23582,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23689,7 +23707,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23895,7 +23913,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24101,7 +24119,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24307,7 +24325,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24800,7 +24818,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ115">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -24925,7 +24943,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25131,7 +25149,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25209,7 +25227,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>0.86</v>
@@ -25337,7 +25355,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25543,7 +25561,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25749,7 +25767,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25955,7 +25973,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26161,7 +26179,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26242,7 +26260,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ122">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26573,7 +26591,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26651,10 +26669,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ124">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -26779,7 +26797,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -26857,7 +26875,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ125">
         <v>0.71</v>
@@ -26985,7 +27003,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27191,7 +27209,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27475,7 +27493,7 @@
         <v>0.83</v>
       </c>
       <c r="AP128">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128">
         <v>0.71</v>
@@ -27603,7 +27621,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28096,7 +28114,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28221,7 +28239,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28714,7 +28732,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR134">
         <v>2.34</v>
@@ -28839,7 +28857,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29045,7 +29063,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29535,7 +29553,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ138">
         <v>0.14</v>
@@ -30232,6 +30250,830 @@
       </c>
       <c r="BP141">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7466818</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>6</v>
+      </c>
+      <c r="O142" t="s">
+        <v>196</v>
+      </c>
+      <c r="P142" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q142">
+        <v>3.2</v>
+      </c>
+      <c r="R142">
+        <v>2.38</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+      <c r="V142">
+        <v>2.38</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
+      <c r="Y142">
+        <v>1.13</v>
+      </c>
+      <c r="Z142">
+        <v>3</v>
+      </c>
+      <c r="AA142">
+        <v>3.5</v>
+      </c>
+      <c r="AB142">
+        <v>2.2</v>
+      </c>
+      <c r="AC142">
+        <v>1.04</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.2</v>
+      </c>
+      <c r="AF142">
+        <v>4.33</v>
+      </c>
+      <c r="AG142">
+        <v>1.5</v>
+      </c>
+      <c r="AH142">
+        <v>2.48</v>
+      </c>
+      <c r="AI142">
+        <v>1.5</v>
+      </c>
+      <c r="AJ142">
+        <v>2.5</v>
+      </c>
+      <c r="AK142">
+        <v>1.55</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>1.45</v>
+      </c>
+      <c r="AN142">
+        <v>2.71</v>
+      </c>
+      <c r="AO142">
+        <v>1.29</v>
+      </c>
+      <c r="AP142">
+        <v>2.75</v>
+      </c>
+      <c r="AQ142">
+        <v>1.13</v>
+      </c>
+      <c r="AR142">
+        <v>1.7</v>
+      </c>
+      <c r="AS142">
+        <v>1.36</v>
+      </c>
+      <c r="AT142">
+        <v>3.06</v>
+      </c>
+      <c r="AU142">
+        <v>9</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>2</v>
+      </c>
+      <c r="AX142">
+        <v>11</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>17</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>7</v>
+      </c>
+      <c r="BD142">
+        <v>2.05</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>1.92</v>
+      </c>
+      <c r="BG142">
+        <v>1.13</v>
+      </c>
+      <c r="BH142">
+        <v>4.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.26</v>
+      </c>
+      <c r="BJ142">
+        <v>3.4</v>
+      </c>
+      <c r="BK142">
+        <v>1.46</v>
+      </c>
+      <c r="BL142">
+        <v>2.48</v>
+      </c>
+      <c r="BM142">
+        <v>1.73</v>
+      </c>
+      <c r="BN142">
+        <v>1.96</v>
+      </c>
+      <c r="BO142">
+        <v>2.12</v>
+      </c>
+      <c r="BP142">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7466819</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>83</v>
+      </c>
+      <c r="H143" t="s">
+        <v>85</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>197</v>
+      </c>
+      <c r="P143" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q143">
+        <v>5.5</v>
+      </c>
+      <c r="R143">
+        <v>2.38</v>
+      </c>
+      <c r="S143">
+        <v>2.1</v>
+      </c>
+      <c r="T143">
+        <v>1.33</v>
+      </c>
+      <c r="U143">
+        <v>3.25</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>5.5</v>
+      </c>
+      <c r="AA143">
+        <v>4.4</v>
+      </c>
+      <c r="AB143">
+        <v>1.5</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.2</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.65</v>
+      </c>
+      <c r="AH143">
+        <v>2.16</v>
+      </c>
+      <c r="AI143">
+        <v>1.7</v>
+      </c>
+      <c r="AJ143">
+        <v>2.05</v>
+      </c>
+      <c r="AK143">
+        <v>2.35</v>
+      </c>
+      <c r="AL143">
+        <v>1.18</v>
+      </c>
+      <c r="AM143">
+        <v>1.14</v>
+      </c>
+      <c r="AN143">
+        <v>0.86</v>
+      </c>
+      <c r="AO143">
+        <v>1.43</v>
+      </c>
+      <c r="AP143">
+        <v>0.88</v>
+      </c>
+      <c r="AQ143">
+        <v>1.38</v>
+      </c>
+      <c r="AR143">
+        <v>1.38</v>
+      </c>
+      <c r="AS143">
+        <v>1.9</v>
+      </c>
+      <c r="AT143">
+        <v>3.28</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
+        <v>13</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>8</v>
+      </c>
+      <c r="BC143">
+        <v>14</v>
+      </c>
+      <c r="BD143">
+        <v>3.7</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>1.3</v>
+      </c>
+      <c r="BG143">
+        <v>1.15</v>
+      </c>
+      <c r="BH143">
+        <v>4.6</v>
+      </c>
+      <c r="BI143">
+        <v>1.26</v>
+      </c>
+      <c r="BJ143">
+        <v>3.4</v>
+      </c>
+      <c r="BK143">
+        <v>1.43</v>
+      </c>
+      <c r="BL143">
+        <v>2.55</v>
+      </c>
+      <c r="BM143">
+        <v>1.7</v>
+      </c>
+      <c r="BN143">
+        <v>2</v>
+      </c>
+      <c r="BO143">
+        <v>2.06</v>
+      </c>
+      <c r="BP143">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7466817</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>86</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>114</v>
+      </c>
+      <c r="P144" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q144">
+        <v>1.91</v>
+      </c>
+      <c r="R144">
+        <v>2.6</v>
+      </c>
+      <c r="S144">
+        <v>6</v>
+      </c>
+      <c r="T144">
+        <v>1.25</v>
+      </c>
+      <c r="U144">
+        <v>3.75</v>
+      </c>
+      <c r="V144">
+        <v>2.2</v>
+      </c>
+      <c r="W144">
+        <v>1.62</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
+      </c>
+      <c r="Y144">
+        <v>1.17</v>
+      </c>
+      <c r="Z144">
+        <v>1.36</v>
+      </c>
+      <c r="AA144">
+        <v>4.75</v>
+      </c>
+      <c r="AB144">
+        <v>7.5</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>11</v>
+      </c>
+      <c r="AE144">
+        <v>1.15</v>
+      </c>
+      <c r="AF144">
+        <v>5.25</v>
+      </c>
+      <c r="AG144">
+        <v>1.45</v>
+      </c>
+      <c r="AH144">
+        <v>2.63</v>
+      </c>
+      <c r="AI144">
+        <v>1.67</v>
+      </c>
+      <c r="AJ144">
+        <v>2.1</v>
+      </c>
+      <c r="AK144">
+        <v>1.12</v>
+      </c>
+      <c r="AL144">
+        <v>1.13</v>
+      </c>
+      <c r="AM144">
+        <v>2.7</v>
+      </c>
+      <c r="AN144">
+        <v>1.71</v>
+      </c>
+      <c r="AO144">
+        <v>0.14</v>
+      </c>
+      <c r="AP144">
+        <v>1.88</v>
+      </c>
+      <c r="AQ144">
+        <v>0.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.54</v>
+      </c>
+      <c r="AS144">
+        <v>1.09</v>
+      </c>
+      <c r="AT144">
+        <v>2.63</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>0</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>20</v>
+      </c>
+      <c r="AZ144">
+        <v>4</v>
+      </c>
+      <c r="BA144">
+        <v>14</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>15</v>
+      </c>
+      <c r="BD144">
+        <v>1.26</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>4.1</v>
+      </c>
+      <c r="BG144">
+        <v>1.19</v>
+      </c>
+      <c r="BH144">
+        <v>4.1</v>
+      </c>
+      <c r="BI144">
+        <v>1.33</v>
+      </c>
+      <c r="BJ144">
+        <v>2.95</v>
+      </c>
+      <c r="BK144">
+        <v>1.55</v>
+      </c>
+      <c r="BL144">
+        <v>2.25</v>
+      </c>
+      <c r="BM144">
+        <v>1.86</v>
+      </c>
+      <c r="BN144">
+        <v>1.82</v>
+      </c>
+      <c r="BO144">
+        <v>2.32</v>
+      </c>
+      <c r="BP144">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7466824</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45633.60416666666</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>198</v>
+      </c>
+      <c r="P145" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q145">
+        <v>2.25</v>
+      </c>
+      <c r="R145">
+        <v>2.3</v>
+      </c>
+      <c r="S145">
+        <v>5</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>1.6</v>
+      </c>
+      <c r="AA145">
+        <v>4.23</v>
+      </c>
+      <c r="AB145">
+        <v>6.06</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <v>1.25</v>
+      </c>
+      <c r="AF145">
+        <v>3.85</v>
+      </c>
+      <c r="AG145">
+        <v>1.72</v>
+      </c>
+      <c r="AH145">
+        <v>2</v>
+      </c>
+      <c r="AI145">
+        <v>1.75</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.17</v>
+      </c>
+      <c r="AL145">
+        <v>1.2</v>
+      </c>
+      <c r="AM145">
+        <v>2.15</v>
+      </c>
+      <c r="AN145">
+        <v>1.86</v>
+      </c>
+      <c r="AO145">
+        <v>1.57</v>
+      </c>
+      <c r="AP145">
+        <v>1.63</v>
+      </c>
+      <c r="AQ145">
+        <v>1.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.4</v>
+      </c>
+      <c r="AS145">
+        <v>1.42</v>
+      </c>
+      <c r="AT145">
+        <v>2.82</v>
+      </c>
+      <c r="AU145">
+        <v>8</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>18</v>
+      </c>
+      <c r="AZ145">
+        <v>12</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>8</v>
+      </c>
+      <c r="BD145">
+        <v>1.45</v>
+      </c>
+      <c r="BE145">
+        <v>7</v>
+      </c>
+      <c r="BF145">
+        <v>3.05</v>
+      </c>
+      <c r="BG145">
+        <v>1.18</v>
+      </c>
+      <c r="BH145">
+        <v>4.1</v>
+      </c>
+      <c r="BI145">
+        <v>1.32</v>
+      </c>
+      <c r="BJ145">
+        <v>3.05</v>
+      </c>
+      <c r="BK145">
+        <v>1.54</v>
+      </c>
+      <c r="BL145">
+        <v>2.3</v>
+      </c>
+      <c r="BM145">
+        <v>1.84</v>
+      </c>
+      <c r="BN145">
+        <v>1.84</v>
+      </c>
+      <c r="BO145">
+        <v>2.28</v>
+      </c>
+      <c r="BP145">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['18', '61']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['86', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '11', '90+6']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -814,9 +823,6 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['3', '8', '18', '74']</t>
   </si>
   <si>
@@ -839,6 +845,18 @@
   </si>
   <si>
     <t>['2', '47', '54']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['87', '90+5']</t>
+  </si>
+  <si>
+    <t>['37', '79']</t>
+  </si>
+  <si>
+    <t>['17', '61', '73', '84']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1665,7 +1683,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1743,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>2.43</v>
@@ -2077,7 +2095,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2158,7 +2176,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2489,7 +2507,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2570,7 +2588,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,7 +2713,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3107,7 +3125,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3391,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3519,7 +3537,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3803,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>0.71</v>
@@ -4421,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4755,7 +4773,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4836,7 +4854,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4961,7 +4979,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5167,7 +5185,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5248,7 +5266,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5660,7 +5678,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -5991,7 +6009,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6069,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -6197,7 +6215,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6275,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6609,7 +6627,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6690,7 +6708,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -6815,7 +6833,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7021,7 +7039,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7433,7 +7451,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7639,7 +7657,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8051,7 +8069,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8335,7 +8353,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8463,7 +8481,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8875,7 +8893,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9081,7 +9099,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9162,7 +9180,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9287,7 +9305,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9365,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -9493,7 +9511,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9699,7 +9717,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -9986,7 +10004,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10189,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -10729,7 +10747,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10807,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>1.13</v>
@@ -11013,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>0.14</v>
@@ -11553,7 +11571,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11634,7 +11652,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -11759,7 +11777,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11965,7 +11983,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12171,7 +12189,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12583,7 +12601,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12664,7 +12682,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -12995,7 +13013,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13201,7 +13219,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13279,7 +13297,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13407,7 +13425,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13613,7 +13631,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13819,7 +13837,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14231,7 +14249,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14437,7 +14455,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14643,7 +14661,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14927,10 +14945,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15673,7 +15691,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15879,7 +15897,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -15957,7 +15975,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16085,7 +16103,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16166,7 +16184,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>0.91</v>
@@ -16291,7 +16309,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16497,7 +16515,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16703,7 +16721,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16781,7 +16799,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>1.43</v>
@@ -16909,7 +16927,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16987,7 +17005,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>0.71</v>
@@ -17196,7 +17214,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17321,7 +17339,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17527,7 +17545,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17608,7 +17626,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ80">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17939,7 +17957,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18017,7 +18035,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
         <v>1.75</v>
@@ -18351,7 +18369,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18557,7 +18575,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18638,7 +18656,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -18763,7 +18781,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18969,7 +18987,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19175,7 +19193,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19587,7 +19605,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19793,7 +19811,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20080,7 +20098,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -20695,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ95">
         <v>0.71</v>
@@ -20823,7 +20841,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20904,7 +20922,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -21029,7 +21047,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21235,7 +21253,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21441,7 +21459,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21519,7 +21537,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ99">
         <v>1.43</v>
@@ -21647,7 +21665,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21728,7 +21746,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21931,7 +21949,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ101">
         <v>0.14</v>
@@ -22059,7 +22077,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22140,7 +22158,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22471,7 +22489,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23501,7 +23519,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23707,7 +23725,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23785,7 +23803,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ110">
         <v>0.71</v>
@@ -23913,7 +23931,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23994,7 +24012,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24119,7 +24137,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24197,10 +24215,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24325,7 +24343,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24403,7 +24421,7 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -24943,7 +24961,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25024,7 +25042,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25149,7 +25167,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25355,7 +25373,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25561,7 +25579,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25767,7 +25785,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25845,7 +25863,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ120">
         <v>0.86</v>
@@ -25973,7 +25991,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26179,7 +26197,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26591,7 +26609,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26797,7 +26815,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27003,7 +27021,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27084,7 +27102,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.13</v>
@@ -27209,7 +27227,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27290,7 +27308,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27621,7 +27639,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27699,7 +27717,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ129">
         <v>1.29</v>
@@ -28239,7 +28257,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28317,7 +28335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ132">
         <v>0.86</v>
@@ -28523,7 +28541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ133">
         <v>1.14</v>
@@ -28857,7 +28875,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29063,7 +29081,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29144,7 +29162,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ136">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29965,10 +29983,10 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR140">
         <v>1.88</v>
@@ -30299,7 +30317,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30505,7 +30523,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30917,7 +30935,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31074,6 +31092,830 @@
       </c>
       <c r="BP145">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7466821</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q146">
+        <v>5.5</v>
+      </c>
+      <c r="R146">
+        <v>2.38</v>
+      </c>
+      <c r="S146">
+        <v>2.1</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.63</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>5.5</v>
+      </c>
+      <c r="AA146">
+        <v>4</v>
+      </c>
+      <c r="AB146">
+        <v>1.43</v>
+      </c>
+      <c r="AC146">
+        <v>1.04</v>
+      </c>
+      <c r="AD146">
+        <v>14</v>
+      </c>
+      <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>3.85</v>
+      </c>
+      <c r="AG146">
+        <v>1.67</v>
+      </c>
+      <c r="AH146">
+        <v>2.07</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.95</v>
+      </c>
+      <c r="AK146">
+        <v>2.41</v>
+      </c>
+      <c r="AL146">
+        <v>1.24</v>
+      </c>
+      <c r="AM146">
+        <v>1.16</v>
+      </c>
+      <c r="AN146">
+        <v>1.86</v>
+      </c>
+      <c r="AO146">
+        <v>1.57</v>
+      </c>
+      <c r="AP146">
+        <v>1.75</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.74</v>
+      </c>
+      <c r="AS146">
+        <v>1.15</v>
+      </c>
+      <c r="AT146">
+        <v>2.89</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>0</v>
+      </c>
+      <c r="AX146">
+        <v>8</v>
+      </c>
+      <c r="AY146">
+        <v>3</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>6</v>
+      </c>
+      <c r="BC146">
+        <v>6</v>
+      </c>
+      <c r="BD146">
+        <v>2.8</v>
+      </c>
+      <c r="BE146">
+        <v>7</v>
+      </c>
+      <c r="BF146">
+        <v>1.5</v>
+      </c>
+      <c r="BG146">
+        <v>1.2</v>
+      </c>
+      <c r="BH146">
+        <v>3.8</v>
+      </c>
+      <c r="BI146">
+        <v>1.37</v>
+      </c>
+      <c r="BJ146">
+        <v>2.8</v>
+      </c>
+      <c r="BK146">
+        <v>1.61</v>
+      </c>
+      <c r="BL146">
+        <v>2.14</v>
+      </c>
+      <c r="BM146">
+        <v>1.97</v>
+      </c>
+      <c r="BN146">
+        <v>1.72</v>
+      </c>
+      <c r="BO146">
+        <v>2.48</v>
+      </c>
+      <c r="BP146">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7466822</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>87</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>199</v>
+      </c>
+      <c r="P147" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q147">
+        <v>3.75</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>2.63</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.11</v>
+      </c>
+      <c r="Z147">
+        <v>2.98</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>2</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>14</v>
+      </c>
+      <c r="AE147">
+        <v>1.18</v>
+      </c>
+      <c r="AF147">
+        <v>3.85</v>
+      </c>
+      <c r="AG147">
+        <v>1.65</v>
+      </c>
+      <c r="AH147">
+        <v>2.1</v>
+      </c>
+      <c r="AI147">
+        <v>1.62</v>
+      </c>
+      <c r="AJ147">
+        <v>2.2</v>
+      </c>
+      <c r="AK147">
+        <v>1.79</v>
+      </c>
+      <c r="AL147">
+        <v>1.29</v>
+      </c>
+      <c r="AM147">
+        <v>1.33</v>
+      </c>
+      <c r="AN147">
+        <v>0.57</v>
+      </c>
+      <c r="AO147">
+        <v>1.14</v>
+      </c>
+      <c r="AP147">
+        <v>0.5</v>
+      </c>
+      <c r="AQ147">
+        <v>1.38</v>
+      </c>
+      <c r="AR147">
+        <v>1.16</v>
+      </c>
+      <c r="AS147">
+        <v>1.49</v>
+      </c>
+      <c r="AT147">
+        <v>2.65</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>7</v>
+      </c>
+      <c r="AW147">
+        <v>6</v>
+      </c>
+      <c r="AX147">
+        <v>9</v>
+      </c>
+      <c r="AY147">
+        <v>19</v>
+      </c>
+      <c r="AZ147">
+        <v>23</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>13</v>
+      </c>
+      <c r="BC147">
+        <v>19</v>
+      </c>
+      <c r="BD147">
+        <v>2.4</v>
+      </c>
+      <c r="BE147">
+        <v>7</v>
+      </c>
+      <c r="BF147">
+        <v>1.65</v>
+      </c>
+      <c r="BG147">
+        <v>1.12</v>
+      </c>
+      <c r="BH147">
+        <v>5.1</v>
+      </c>
+      <c r="BI147">
+        <v>1.22</v>
+      </c>
+      <c r="BJ147">
+        <v>3.7</v>
+      </c>
+      <c r="BK147">
+        <v>1.38</v>
+      </c>
+      <c r="BL147">
+        <v>2.7</v>
+      </c>
+      <c r="BM147">
+        <v>1.61</v>
+      </c>
+      <c r="BN147">
+        <v>2.15</v>
+      </c>
+      <c r="BO147">
+        <v>1.95</v>
+      </c>
+      <c r="BP147">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7466823</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>200</v>
+      </c>
+      <c r="P148" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q148">
+        <v>4.75</v>
+      </c>
+      <c r="R148">
+        <v>2.4</v>
+      </c>
+      <c r="S148">
+        <v>2.2</v>
+      </c>
+      <c r="T148">
+        <v>1.29</v>
+      </c>
+      <c r="U148">
+        <v>3.5</v>
+      </c>
+      <c r="V148">
+        <v>2.25</v>
+      </c>
+      <c r="W148">
+        <v>1.57</v>
+      </c>
+      <c r="X148">
+        <v>5.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>3.8</v>
+      </c>
+      <c r="AA148">
+        <v>3.8</v>
+      </c>
+      <c r="AB148">
+        <v>1.66</v>
+      </c>
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>18</v>
+      </c>
+      <c r="AE148">
+        <v>1.12</v>
+      </c>
+      <c r="AF148">
+        <v>4.45</v>
+      </c>
+      <c r="AG148">
+        <v>1.57</v>
+      </c>
+      <c r="AH148">
+        <v>2.38</v>
+      </c>
+      <c r="AI148">
+        <v>1.57</v>
+      </c>
+      <c r="AJ148">
+        <v>2.25</v>
+      </c>
+      <c r="AK148">
+        <v>2.25</v>
+      </c>
+      <c r="AL148">
+        <v>1.24</v>
+      </c>
+      <c r="AM148">
+        <v>1.21</v>
+      </c>
+      <c r="AN148">
+        <v>1.14</v>
+      </c>
+      <c r="AO148">
+        <v>1.43</v>
+      </c>
+      <c r="AP148">
+        <v>1.13</v>
+      </c>
+      <c r="AQ148">
+        <v>1.38</v>
+      </c>
+      <c r="AR148">
+        <v>1.16</v>
+      </c>
+      <c r="AS148">
+        <v>1.33</v>
+      </c>
+      <c r="AT148">
+        <v>2.49</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>8</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>17</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>9</v>
+      </c>
+      <c r="BD148">
+        <v>3.05</v>
+      </c>
+      <c r="BE148">
+        <v>7</v>
+      </c>
+      <c r="BF148">
+        <v>1.44</v>
+      </c>
+      <c r="BG148">
+        <v>1.21</v>
+      </c>
+      <c r="BH148">
+        <v>3.7</v>
+      </c>
+      <c r="BI148">
+        <v>1.38</v>
+      </c>
+      <c r="BJ148">
+        <v>2.7</v>
+      </c>
+      <c r="BK148">
+        <v>1.63</v>
+      </c>
+      <c r="BL148">
+        <v>2.12</v>
+      </c>
+      <c r="BM148">
+        <v>1.98</v>
+      </c>
+      <c r="BN148">
+        <v>1.72</v>
+      </c>
+      <c r="BO148">
+        <v>2.48</v>
+      </c>
+      <c r="BP148">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7466825</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45634.5625</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149" t="s">
+        <v>201</v>
+      </c>
+      <c r="P149" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>2.6</v>
+      </c>
+      <c r="S149">
+        <v>2.75</v>
+      </c>
+      <c r="T149">
+        <v>1.22</v>
+      </c>
+      <c r="U149">
+        <v>4</v>
+      </c>
+      <c r="V149">
+        <v>2</v>
+      </c>
+      <c r="W149">
+        <v>1.73</v>
+      </c>
+      <c r="X149">
+        <v>4.33</v>
+      </c>
+      <c r="Y149">
+        <v>1.2</v>
+      </c>
+      <c r="Z149">
+        <v>2.6</v>
+      </c>
+      <c r="AA149">
+        <v>3.9</v>
+      </c>
+      <c r="AB149">
+        <v>2.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>24</v>
+      </c>
+      <c r="AE149">
+        <v>1.05</v>
+      </c>
+      <c r="AF149">
+        <v>6.05</v>
+      </c>
+      <c r="AG149">
+        <v>1.45</v>
+      </c>
+      <c r="AH149">
+        <v>2.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.36</v>
+      </c>
+      <c r="AJ149">
+        <v>3</v>
+      </c>
+      <c r="AK149">
+        <v>1.61</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.51</v>
+      </c>
+      <c r="AN149">
+        <v>1.86</v>
+      </c>
+      <c r="AO149">
+        <v>2.29</v>
+      </c>
+      <c r="AP149">
+        <v>1.63</v>
+      </c>
+      <c r="AQ149">
+        <v>2.38</v>
+      </c>
+      <c r="AR149">
+        <v>1.84</v>
+      </c>
+      <c r="AS149">
+        <v>1.57</v>
+      </c>
+      <c r="AT149">
+        <v>3.41</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>9</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>14</v>
+      </c>
+      <c r="AZ149">
+        <v>18</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>10</v>
+      </c>
+      <c r="BC149">
+        <v>15</v>
+      </c>
+      <c r="BD149">
+        <v>1.84</v>
+      </c>
+      <c r="BE149">
+        <v>7</v>
+      </c>
+      <c r="BF149">
+        <v>2.1</v>
+      </c>
+      <c r="BG149">
+        <v>1.15</v>
+      </c>
+      <c r="BH149">
+        <v>4.6</v>
+      </c>
+      <c r="BI149">
+        <v>1.27</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.46</v>
+      </c>
+      <c r="BL149">
+        <v>2.5</v>
+      </c>
+      <c r="BM149">
+        <v>1.72</v>
+      </c>
+      <c r="BN149">
+        <v>1.98</v>
+      </c>
+      <c r="BO149">
+        <v>2.1</v>
+      </c>
+      <c r="BP149">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['5', '11', '90+6']</t>
   </si>
   <si>
+    <t>['54', '72']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1218,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1686,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1970,7 +1973,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2095,7 +2098,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2507,7 +2510,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2713,7 +2716,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2791,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.43</v>
@@ -3125,7 +3128,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3537,7 +3540,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4773,7 +4776,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4979,7 +4982,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5185,7 +5188,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5884,7 +5887,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>1.78</v>
@@ -6009,7 +6012,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6215,7 +6218,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6627,7 +6630,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6833,7 +6836,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6911,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7039,7 +7042,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7451,7 +7454,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7657,7 +7660,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8069,7 +8072,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8481,7 +8484,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8893,7 +8896,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9099,7 +9102,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9305,7 +9308,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9511,7 +9514,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9717,7 +9720,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9795,7 +9798,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>2.38</v>
@@ -10622,7 +10625,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10747,7 +10750,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11571,7 +11574,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11777,7 +11780,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11983,7 +11986,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12189,7 +12192,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12601,7 +12604,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13013,7 +13016,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13219,7 +13222,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13425,7 +13428,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13631,7 +13634,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13837,7 +13840,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14249,7 +14252,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14327,7 +14330,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14455,7 +14458,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14536,7 +14539,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14661,7 +14664,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15691,7 +15694,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15897,7 +15900,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16103,7 +16106,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16309,7 +16312,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16515,7 +16518,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16721,7 +16724,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16927,7 +16930,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17339,7 +17342,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17545,7 +17548,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17957,7 +17960,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18369,7 +18372,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18450,7 +18453,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18575,7 +18578,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18781,7 +18784,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18987,7 +18990,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19193,7 +19196,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19605,7 +19608,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19683,7 +19686,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>0.86</v>
@@ -19811,7 +19814,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20841,7 +20844,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -21047,7 +21050,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21253,7 +21256,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21459,7 +21462,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21665,7 +21668,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22077,7 +22080,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22489,7 +22492,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22773,7 +22776,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>0.71</v>
@@ -23519,7 +23522,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23725,7 +23728,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23931,7 +23934,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24137,7 +24140,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24343,7 +24346,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24424,7 +24427,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -24961,7 +24964,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25167,7 +25170,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25373,7 +25376,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25579,7 +25582,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25785,7 +25788,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25991,7 +25994,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26197,7 +26200,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26609,7 +26612,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27021,7 +27024,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27227,7 +27230,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27305,7 +27308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27639,7 +27642,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28257,7 +28260,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28875,7 +28878,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29081,7 +29084,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29368,7 +29371,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30317,7 +30320,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30523,7 +30526,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30935,7 +30938,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31111,7 +31114,7 @@
         <v>45634.45833333334</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G146" t="s">
         <v>84</v>
@@ -31141,7 +31144,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31347,7 +31350,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31523,7 +31526,7 @@
         <v>45634.45833333334</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
         <v>79</v>
@@ -31553,7 +31556,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31759,7 +31762,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31916,6 +31919,212 @@
       </c>
       <c r="BP149">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7466826</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45635.70833333334</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>88</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P150" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q150">
+        <v>2.5</v>
+      </c>
+      <c r="R150">
+        <v>2.38</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.3</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>1.91</v>
+      </c>
+      <c r="AA150">
+        <v>3.6</v>
+      </c>
+      <c r="AB150">
+        <v>3.75</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>17</v>
+      </c>
+      <c r="AE150">
+        <v>1.2</v>
+      </c>
+      <c r="AF150">
+        <v>4.85</v>
+      </c>
+      <c r="AG150">
+        <v>1.6</v>
+      </c>
+      <c r="AH150">
+        <v>2.3</v>
+      </c>
+      <c r="AI150">
+        <v>1.57</v>
+      </c>
+      <c r="AJ150">
+        <v>2.25</v>
+      </c>
+      <c r="AK150">
+        <v>1.3</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.92</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>0.71</v>
+      </c>
+      <c r="AP150">
+        <v>1.25</v>
+      </c>
+      <c r="AQ150">
+        <v>0.63</v>
+      </c>
+      <c r="AR150">
+        <v>1.48</v>
+      </c>
+      <c r="AS150">
+        <v>1.22</v>
+      </c>
+      <c r="AT150">
+        <v>2.7</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>7</v>
+      </c>
+      <c r="AY150">
+        <v>20</v>
+      </c>
+      <c r="AZ150">
+        <v>20</v>
+      </c>
+      <c r="BA150">
+        <v>11</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>1.42</v>
+      </c>
+      <c r="BE150">
+        <v>7</v>
+      </c>
+      <c r="BF150">
+        <v>3.15</v>
+      </c>
+      <c r="BG150">
+        <v>1.15</v>
+      </c>
+      <c r="BH150">
+        <v>4.6</v>
+      </c>
+      <c r="BI150">
+        <v>1.29</v>
+      </c>
+      <c r="BJ150">
+        <v>3.2</v>
+      </c>
+      <c r="BK150">
+        <v>1.47</v>
+      </c>
+      <c r="BL150">
+        <v>2.43</v>
+      </c>
+      <c r="BM150">
+        <v>1.76</v>
+      </c>
+      <c r="BN150">
+        <v>1.94</v>
+      </c>
+      <c r="BO150">
+        <v>2.17</v>
+      </c>
+      <c r="BP150">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,18 @@
     <t>['54', '72']</t>
   </si>
   <si>
+    <t>['30', '47', '50', '60']</t>
+  </si>
+  <si>
+    <t>['47', '86']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['87', '90+3']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -671,9 +683,6 @@
   </si>
   <si>
     <t>['35', '41', '90+6']</t>
-  </si>
-  <si>
-    <t>['72']</t>
   </si>
   <si>
     <t>['21', '46']</t>
@@ -860,6 +869,15 @@
   </si>
   <si>
     <t>['17', '61', '73', '84']</t>
+  </si>
+  <si>
+    <t>['11', '76']</t>
+  </si>
+  <si>
+    <t>['15', '90+4']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1579,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1686,7 +1704,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1970,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>0.63</v>
@@ -2098,7 +2116,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2382,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>0.13</v>
@@ -2510,7 +2528,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2588,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -2716,7 +2734,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2797,7 +2815,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3128,7 +3146,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3540,7 +3558,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3827,7 +3845,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4445,7 +4463,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4651,7 +4669,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4776,7 +4794,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4982,7 +5000,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5188,7 +5206,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5266,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>2.38</v>
@@ -5472,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ21">
         <v>0.14</v>
@@ -5678,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>1.38</v>
@@ -5884,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>0.63</v>
@@ -6012,7 +6030,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6093,7 +6111,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0.86</v>
@@ -6218,7 +6236,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6299,7 +6317,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0.77</v>
@@ -6630,7 +6648,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6836,7 +6854,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7042,7 +7060,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7326,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7454,7 +7472,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7660,7 +7678,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8072,7 +8090,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>1.62</v>
@@ -8150,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8484,7 +8502,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8565,7 +8583,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR36">
         <v>1.29</v>
@@ -8771,7 +8789,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8896,7 +8914,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8977,7 +8995,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9102,7 +9120,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9308,7 +9326,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9514,7 +9532,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9592,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9720,7 +9738,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10004,7 +10022,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10213,7 +10231,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -10419,7 +10437,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>0.83</v>
@@ -10750,7 +10768,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11574,7 +11592,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11780,7 +11798,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11858,7 +11876,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -11986,7 +12004,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12064,10 +12082,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12192,7 +12210,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12270,10 +12288,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR54">
         <v>1.6</v>
@@ -12604,7 +12622,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13016,7 +13034,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13094,7 +13112,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>2.43</v>
@@ -13222,7 +13240,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13303,7 +13321,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13428,7 +13446,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13634,7 +13652,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13840,7 +13858,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14124,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>0.13</v>
@@ -14252,7 +14270,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14333,7 +14351,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14458,7 +14476,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14664,7 +14682,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14745,7 +14763,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>2.4</v>
@@ -15694,7 +15712,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15900,7 +15918,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16106,7 +16124,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16184,7 +16202,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16312,7 +16330,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16393,7 +16411,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>0.91</v>
@@ -16518,7 +16536,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16724,7 +16742,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16805,7 +16823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>2.01</v>
@@ -16930,7 +16948,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17011,7 +17029,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17342,7 +17360,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17420,7 +17438,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ79">
         <v>1.38</v>
@@ -17548,7 +17566,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17626,7 +17644,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ80">
         <v>2.38</v>
@@ -17832,7 +17850,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -17960,7 +17978,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18372,7 +18390,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18578,7 +18596,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18784,7 +18802,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18865,7 +18883,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -18990,7 +19008,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19071,7 +19089,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19196,7 +19214,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19608,7 +19626,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19814,7 +19832,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19892,7 +19910,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
         <v>2.43</v>
@@ -20098,7 +20116,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20304,7 +20322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.14</v>
@@ -20513,7 +20531,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR94">
         <v>1.09</v>
@@ -20719,7 +20737,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -20844,7 +20862,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20922,7 +20940,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21050,7 +21068,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21256,7 +21274,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21334,7 +21352,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ98">
         <v>0.86</v>
@@ -21462,7 +21480,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21543,7 +21561,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ99">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.99</v>
@@ -21668,7 +21686,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22080,7 +22098,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22364,7 +22382,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ103">
         <v>0.13</v>
@@ -22492,7 +22510,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22573,7 +22591,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR104">
         <v>1.37</v>
@@ -22779,7 +22797,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR105">
         <v>1.57</v>
@@ -23188,10 +23206,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -23397,7 +23415,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23522,7 +23540,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23600,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>1.13</v>
@@ -23728,7 +23746,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23809,7 +23827,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -23934,7 +23952,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24140,7 +24158,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24346,7 +24364,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24836,7 +24854,7 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ115">
         <v>1.75</v>
@@ -24964,7 +24982,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25170,7 +25188,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25376,7 +25394,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25582,7 +25600,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25788,7 +25806,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25994,7 +26012,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26072,7 +26090,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
         <v>1.14</v>
@@ -26200,7 +26218,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26484,10 +26502,10 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26612,7 +26630,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26899,7 +26917,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR125">
         <v>1.7</v>
@@ -27024,7 +27042,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27102,7 +27120,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27230,7 +27248,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27517,7 +27535,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ128">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR128">
         <v>1.43</v>
@@ -27642,7 +27660,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27723,7 +27741,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.95</v>
@@ -27929,7 +27947,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28132,7 +28150,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ131">
         <v>1.38</v>
@@ -28260,7 +28278,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28878,7 +28896,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -28956,7 +28974,7 @@
         <v>2.67</v>
       </c>
       <c r="AP135">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
         <v>2.43</v>
@@ -29084,7 +29102,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29780,7 +29798,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139">
         <v>0.86</v>
@@ -30320,7 +30338,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30526,7 +30544,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30938,7 +30956,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31144,7 +31162,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31350,7 +31368,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31556,7 +31574,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31762,7 +31780,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32125,6 +32143,1036 @@
       </c>
       <c r="BP150">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7466833</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>203</v>
+      </c>
+      <c r="P151" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q151">
+        <v>1.73</v>
+      </c>
+      <c r="R151">
+        <v>2.75</v>
+      </c>
+      <c r="S151">
+        <v>7</v>
+      </c>
+      <c r="T151">
+        <v>1.25</v>
+      </c>
+      <c r="U151">
+        <v>3.75</v>
+      </c>
+      <c r="V151">
+        <v>2.1</v>
+      </c>
+      <c r="W151">
+        <v>1.67</v>
+      </c>
+      <c r="X151">
+        <v>5</v>
+      </c>
+      <c r="Y151">
+        <v>1.17</v>
+      </c>
+      <c r="Z151">
+        <v>1.35</v>
+      </c>
+      <c r="AA151">
+        <v>5</v>
+      </c>
+      <c r="AB151">
+        <v>8.5</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>24</v>
+      </c>
+      <c r="AE151">
+        <v>1.14</v>
+      </c>
+      <c r="AF151">
+        <v>6.2</v>
+      </c>
+      <c r="AG151">
+        <v>1.42</v>
+      </c>
+      <c r="AH151">
+        <v>2.74</v>
+      </c>
+      <c r="AI151">
+        <v>1.8</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.06</v>
+      </c>
+      <c r="AL151">
+        <v>1.14</v>
+      </c>
+      <c r="AM151">
+        <v>3.4</v>
+      </c>
+      <c r="AN151">
+        <v>1.57</v>
+      </c>
+      <c r="AO151">
+        <v>0.71</v>
+      </c>
+      <c r="AP151">
+        <v>1.75</v>
+      </c>
+      <c r="AQ151">
+        <v>0.63</v>
+      </c>
+      <c r="AR151">
+        <v>1.32</v>
+      </c>
+      <c r="AS151">
+        <v>1.16</v>
+      </c>
+      <c r="AT151">
+        <v>2.48</v>
+      </c>
+      <c r="AU151">
+        <v>12</v>
+      </c>
+      <c r="AV151">
+        <v>2</v>
+      </c>
+      <c r="AW151">
+        <v>9</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>28</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.23</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>4.4</v>
+      </c>
+      <c r="BG151">
+        <v>1.15</v>
+      </c>
+      <c r="BH151">
+        <v>4.6</v>
+      </c>
+      <c r="BI151">
+        <v>1.27</v>
+      </c>
+      <c r="BJ151">
+        <v>3.3</v>
+      </c>
+      <c r="BK151">
+        <v>1.46</v>
+      </c>
+      <c r="BL151">
+        <v>2.5</v>
+      </c>
+      <c r="BM151">
+        <v>1.72</v>
+      </c>
+      <c r="BN151">
+        <v>1.98</v>
+      </c>
+      <c r="BO151">
+        <v>2.08</v>
+      </c>
+      <c r="BP151">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7466831</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>89</v>
+      </c>
+      <c r="H152" t="s">
+        <v>84</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>204</v>
+      </c>
+      <c r="P152" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q152">
+        <v>1.73</v>
+      </c>
+      <c r="R152">
+        <v>2.75</v>
+      </c>
+      <c r="S152">
+        <v>7.5</v>
+      </c>
+      <c r="T152">
+        <v>1.25</v>
+      </c>
+      <c r="U152">
+        <v>3.75</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>1.67</v>
+      </c>
+      <c r="X152">
+        <v>5</v>
+      </c>
+      <c r="Y152">
+        <v>1.17</v>
+      </c>
+      <c r="Z152">
+        <v>1.35</v>
+      </c>
+      <c r="AA152">
+        <v>5</v>
+      </c>
+      <c r="AB152">
+        <v>8</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>24</v>
+      </c>
+      <c r="AE152">
+        <v>1.14</v>
+      </c>
+      <c r="AF152">
+        <v>6.2</v>
+      </c>
+      <c r="AG152">
+        <v>1.43</v>
+      </c>
+      <c r="AH152">
+        <v>2.7</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.05</v>
+      </c>
+      <c r="AL152">
+        <v>1.13</v>
+      </c>
+      <c r="AM152">
+        <v>3.6</v>
+      </c>
+      <c r="AN152">
+        <v>2.57</v>
+      </c>
+      <c r="AO152">
+        <v>1.29</v>
+      </c>
+      <c r="AP152">
+        <v>2.38</v>
+      </c>
+      <c r="AQ152">
+        <v>1.25</v>
+      </c>
+      <c r="AR152">
+        <v>1.76</v>
+      </c>
+      <c r="AS152">
+        <v>1.36</v>
+      </c>
+      <c r="AT152">
+        <v>3.12</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>17</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>1.23</v>
+      </c>
+      <c r="BE152">
+        <v>8</v>
+      </c>
+      <c r="BF152">
+        <v>4.4</v>
+      </c>
+      <c r="BG152">
+        <v>1.14</v>
+      </c>
+      <c r="BH152">
+        <v>4.8</v>
+      </c>
+      <c r="BI152">
+        <v>1.26</v>
+      </c>
+      <c r="BJ152">
+        <v>3.4</v>
+      </c>
+      <c r="BK152">
+        <v>1.44</v>
+      </c>
+      <c r="BL152">
+        <v>2.55</v>
+      </c>
+      <c r="BM152">
+        <v>1.68</v>
+      </c>
+      <c r="BN152">
+        <v>2.04</v>
+      </c>
+      <c r="BO152">
+        <v>2.04</v>
+      </c>
+      <c r="BP152">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7466840</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" t="s">
+        <v>71</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>205</v>
+      </c>
+      <c r="P153" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q153">
+        <v>2.5</v>
+      </c>
+      <c r="R153">
+        <v>2.3</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.25</v>
+      </c>
+      <c r="V153">
+        <v>2.63</v>
+      </c>
+      <c r="W153">
+        <v>1.44</v>
+      </c>
+      <c r="X153">
+        <v>6.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.11</v>
+      </c>
+      <c r="Z153">
+        <v>1.85</v>
+      </c>
+      <c r="AA153">
+        <v>3.8</v>
+      </c>
+      <c r="AB153">
+        <v>3.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>15</v>
+      </c>
+      <c r="AE153">
+        <v>1.24</v>
+      </c>
+      <c r="AF153">
+        <v>4.25</v>
+      </c>
+      <c r="AG153">
+        <v>1.65</v>
+      </c>
+      <c r="AH153">
+        <v>2.1</v>
+      </c>
+      <c r="AI153">
+        <v>1.62</v>
+      </c>
+      <c r="AJ153">
+        <v>2.2</v>
+      </c>
+      <c r="AK153">
+        <v>1.27</v>
+      </c>
+      <c r="AL153">
+        <v>1.26</v>
+      </c>
+      <c r="AM153">
+        <v>1.96</v>
+      </c>
+      <c r="AN153">
+        <v>0.57</v>
+      </c>
+      <c r="AO153">
+        <v>0.71</v>
+      </c>
+      <c r="AP153">
+        <v>0.5</v>
+      </c>
+      <c r="AQ153">
+        <v>1</v>
+      </c>
+      <c r="AR153">
+        <v>1.14</v>
+      </c>
+      <c r="AS153">
+        <v>0.98</v>
+      </c>
+      <c r="AT153">
+        <v>2.12</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>17</v>
+      </c>
+      <c r="AZ153">
+        <v>11</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>10</v>
+      </c>
+      <c r="BD153">
+        <v>1.65</v>
+      </c>
+      <c r="BE153">
+        <v>6.75</v>
+      </c>
+      <c r="BF153">
+        <v>2.45</v>
+      </c>
+      <c r="BG153">
+        <v>1.17</v>
+      </c>
+      <c r="BH153">
+        <v>4.35</v>
+      </c>
+      <c r="BI153">
+        <v>1.3</v>
+      </c>
+      <c r="BJ153">
+        <v>3.15</v>
+      </c>
+      <c r="BK153">
+        <v>1.5</v>
+      </c>
+      <c r="BL153">
+        <v>2.38</v>
+      </c>
+      <c r="BM153">
+        <v>1.79</v>
+      </c>
+      <c r="BN153">
+        <v>1.9</v>
+      </c>
+      <c r="BO153">
+        <v>2.2</v>
+      </c>
+      <c r="BP153">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7466828</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>91</v>
+      </c>
+      <c r="P154" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q154">
+        <v>1.67</v>
+      </c>
+      <c r="R154">
+        <v>2.6</v>
+      </c>
+      <c r="S154">
+        <v>10</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.4</v>
+      </c>
+      <c r="V154">
+        <v>2.5</v>
+      </c>
+      <c r="W154">
+        <v>1.5</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.13</v>
+      </c>
+      <c r="Z154">
+        <v>1.25</v>
+      </c>
+      <c r="AA154">
+        <v>5.5</v>
+      </c>
+      <c r="AB154">
+        <v>12</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>17</v>
+      </c>
+      <c r="AE154">
+        <v>1.21</v>
+      </c>
+      <c r="AF154">
+        <v>4.7</v>
+      </c>
+      <c r="AG154">
+        <v>1.68</v>
+      </c>
+      <c r="AH154">
+        <v>2.05</v>
+      </c>
+      <c r="AI154">
+        <v>2.2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.62</v>
+      </c>
+      <c r="AK154">
+        <v>1.02</v>
+      </c>
+      <c r="AL154">
+        <v>1.12</v>
+      </c>
+      <c r="AM154">
+        <v>4.1</v>
+      </c>
+      <c r="AN154">
+        <v>2.43</v>
+      </c>
+      <c r="AO154">
+        <v>0.71</v>
+      </c>
+      <c r="AP154">
+        <v>2.25</v>
+      </c>
+      <c r="AQ154">
+        <v>0.75</v>
+      </c>
+      <c r="AR154">
+        <v>2.1</v>
+      </c>
+      <c r="AS154">
+        <v>1.27</v>
+      </c>
+      <c r="AT154">
+        <v>3.37</v>
+      </c>
+      <c r="AU154">
+        <v>6</v>
+      </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
+        <v>3</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>14</v>
+      </c>
+      <c r="AZ154">
+        <v>2</v>
+      </c>
+      <c r="BA154">
+        <v>8</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>10</v>
+      </c>
+      <c r="BD154">
+        <v>1.14</v>
+      </c>
+      <c r="BE154">
+        <v>10</v>
+      </c>
+      <c r="BF154">
+        <v>5.8</v>
+      </c>
+      <c r="BG154">
+        <v>1.17</v>
+      </c>
+      <c r="BH154">
+        <v>4.35</v>
+      </c>
+      <c r="BI154">
+        <v>1.3</v>
+      </c>
+      <c r="BJ154">
+        <v>3.15</v>
+      </c>
+      <c r="BK154">
+        <v>1.5</v>
+      </c>
+      <c r="BL154">
+        <v>2.38</v>
+      </c>
+      <c r="BM154">
+        <v>1.79</v>
+      </c>
+      <c r="BN154">
+        <v>1.9</v>
+      </c>
+      <c r="BO154">
+        <v>2.18</v>
+      </c>
+      <c r="BP154">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7466834</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>86</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>206</v>
+      </c>
+      <c r="P155" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q155">
+        <v>3.2</v>
+      </c>
+      <c r="R155">
+        <v>2.2</v>
+      </c>
+      <c r="S155">
+        <v>3.25</v>
+      </c>
+      <c r="T155">
+        <v>1.36</v>
+      </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
+      <c r="V155">
+        <v>2.75</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>8</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>2.52</v>
+      </c>
+      <c r="AA155">
+        <v>3.35</v>
+      </c>
+      <c r="AB155">
+        <v>2.6</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>11</v>
+      </c>
+      <c r="AE155">
+        <v>1.29</v>
+      </c>
+      <c r="AF155">
+        <v>3.8</v>
+      </c>
+      <c r="AG155">
+        <v>1.77</v>
+      </c>
+      <c r="AH155">
+        <v>2.05</v>
+      </c>
+      <c r="AI155">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>1.5</v>
+      </c>
+      <c r="AL155">
+        <v>1.31</v>
+      </c>
+      <c r="AM155">
+        <v>1.52</v>
+      </c>
+      <c r="AN155">
+        <v>1.57</v>
+      </c>
+      <c r="AO155">
+        <v>1.43</v>
+      </c>
+      <c r="AP155">
+        <v>1.75</v>
+      </c>
+      <c r="AQ155">
+        <v>1.25</v>
+      </c>
+      <c r="AR155">
+        <v>1.52</v>
+      </c>
+      <c r="AS155">
+        <v>1.2</v>
+      </c>
+      <c r="AT155">
+        <v>2.72</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>4</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>7</v>
+      </c>
+      <c r="BD155">
+        <v>2</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>1.95</v>
+      </c>
+      <c r="BG155">
+        <v>1.19</v>
+      </c>
+      <c r="BH155">
+        <v>4.1</v>
+      </c>
+      <c r="BI155">
+        <v>1.33</v>
+      </c>
+      <c r="BJ155">
+        <v>2.95</v>
+      </c>
+      <c r="BK155">
+        <v>1.54</v>
+      </c>
+      <c r="BL155">
+        <v>2.3</v>
+      </c>
+      <c r="BM155">
+        <v>1.85</v>
+      </c>
+      <c r="BN155">
+        <v>1.83</v>
+      </c>
+      <c r="BO155">
+        <v>2.3</v>
+      </c>
+      <c r="BP155">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,9 @@
     <t>['87', '90+3']</t>
   </si>
   <si>
+    <t>['43', '80']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -878,6 +881,18 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['27', '33', '82']</t>
+  </si>
+  <si>
+    <t>['88', '90']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['1', '12', '14', '25', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2116,7 +2131,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2528,7 +2543,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2734,7 +2749,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3021,7 +3036,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3146,7 +3161,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3224,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10">
         <v>1.38</v>
@@ -3433,7 +3448,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3573,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3636,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4048,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -4666,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4794,7 +4809,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5000,7 +5015,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5206,7 +5221,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5493,7 +5508,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6030,7 +6045,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6236,7 +6251,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6648,7 +6663,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6854,7 +6869,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7060,7 +7075,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7138,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7347,7 +7362,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -7472,7 +7487,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7678,7 +7693,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7756,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR32">
         <v>0.65</v>
@@ -7962,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -8502,7 +8517,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8786,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8914,7 +8929,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9120,7 +9135,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9326,7 +9341,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9532,7 +9547,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9738,7 +9753,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10434,7 +10449,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10768,7 +10783,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11055,7 +11070,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
@@ -11261,7 +11276,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11464,7 +11479,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -11592,7 +11607,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11670,7 +11685,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11798,7 +11813,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12004,7 +12019,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12210,7 +12225,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12622,7 +12637,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12700,7 +12715,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12909,7 +12924,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13034,7 +13049,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13240,7 +13255,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13446,7 +13461,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13527,7 +13542,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -13652,7 +13667,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13858,7 +13873,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14270,7 +14285,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14476,7 +14491,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14682,7 +14697,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14760,7 +14775,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -15381,7 +15396,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15584,7 +15599,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>1.75</v>
@@ -15712,7 +15727,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15790,10 +15805,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15918,7 +15933,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16124,7 +16139,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16330,7 +16345,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16408,7 +16423,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16536,7 +16551,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16617,7 +16632,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR75">
         <v>1.31</v>
@@ -16742,7 +16757,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16948,7 +16963,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17360,7 +17375,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17566,7 +17581,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17853,7 +17868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -17978,7 +17993,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18262,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>0.13</v>
@@ -18390,7 +18405,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18468,7 +18483,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>0.63</v>
@@ -18596,7 +18611,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18802,7 +18817,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19008,7 +19023,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19214,7 +19229,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19292,7 +19307,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1.13</v>
@@ -19501,7 +19516,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19626,7 +19641,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19707,7 +19722,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19832,7 +19847,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20528,7 +20543,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ94">
         <v>0.75</v>
@@ -20862,7 +20877,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -21068,7 +21083,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21274,7 +21289,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21355,7 +21370,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ98">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21480,7 +21495,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21686,7 +21701,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21973,7 +21988,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -22098,7 +22113,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22510,7 +22525,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23000,7 +23015,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106">
         <v>1.38</v>
@@ -23540,7 +23555,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23746,7 +23761,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23952,7 +23967,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24030,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24158,7 +24173,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24364,7 +24379,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24651,7 +24666,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24982,7 +24997,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25188,7 +25203,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25269,7 +25284,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25394,7 +25409,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25472,10 +25487,10 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR118">
         <v>2.34</v>
@@ -25600,7 +25615,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25678,7 +25693,7 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ119">
         <v>2.43</v>
@@ -25806,7 +25821,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25887,7 +25902,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ120">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -26012,7 +26027,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26218,7 +26233,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26296,7 +26311,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
         <v>0.13</v>
@@ -26630,7 +26645,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27042,7 +27057,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27248,7 +27263,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27660,7 +27675,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27944,7 +27959,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
         <v>1.25</v>
@@ -28278,7 +28293,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28359,7 +28374,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ132">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
         <v>1.18</v>
@@ -28768,7 +28783,7 @@
         <v>1.83</v>
       </c>
       <c r="AP134">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -28896,7 +28911,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29102,7 +29117,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29180,7 +29195,7 @@
         <v>2.17</v>
       </c>
       <c r="AP136">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ136">
         <v>2.38</v>
@@ -29595,7 +29610,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29801,7 +29816,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>2.22</v>
@@ -30213,7 +30228,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30338,7 +30353,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30544,7 +30559,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30956,7 +30971,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31162,7 +31177,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31368,7 +31383,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31574,7 +31589,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31780,7 +31795,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32398,7 +32413,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32604,7 +32619,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33016,7 +33031,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33173,6 +33188,830 @@
       </c>
       <c r="BP155">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7466829</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>83</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q156">
+        <v>2.5</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>4.33</v>
+      </c>
+      <c r="T156">
+        <v>1.33</v>
+      </c>
+      <c r="U156">
+        <v>3.25</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.11</v>
+      </c>
+      <c r="Z156">
+        <v>1.86</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>3.5</v>
+      </c>
+      <c r="AC156">
+        <v>1.04</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.25</v>
+      </c>
+      <c r="AF156">
+        <v>4.15</v>
+      </c>
+      <c r="AG156">
+        <v>1.7</v>
+      </c>
+      <c r="AH156">
+        <v>2.1</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.27</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.97</v>
+      </c>
+      <c r="AN156">
+        <v>1.86</v>
+      </c>
+      <c r="AO156">
+        <v>0.86</v>
+      </c>
+      <c r="AP156">
+        <v>1.63</v>
+      </c>
+      <c r="AQ156">
+        <v>1.13</v>
+      </c>
+      <c r="AR156">
+        <v>1.53</v>
+      </c>
+      <c r="AS156">
+        <v>1.46</v>
+      </c>
+      <c r="AT156">
+        <v>2.99</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>18</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>8</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>13</v>
+      </c>
+      <c r="BD156">
+        <v>1.54</v>
+      </c>
+      <c r="BE156">
+        <v>7</v>
+      </c>
+      <c r="BF156">
+        <v>2.7</v>
+      </c>
+      <c r="BG156">
+        <v>1.15</v>
+      </c>
+      <c r="BH156">
+        <v>4.4</v>
+      </c>
+      <c r="BI156">
+        <v>1.29</v>
+      </c>
+      <c r="BJ156">
+        <v>3.15</v>
+      </c>
+      <c r="BK156">
+        <v>1.49</v>
+      </c>
+      <c r="BL156">
+        <v>2.4</v>
+      </c>
+      <c r="BM156">
+        <v>1.77</v>
+      </c>
+      <c r="BN156">
+        <v>1.92</v>
+      </c>
+      <c r="BO156">
+        <v>2.17</v>
+      </c>
+      <c r="BP156">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7466832</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45641.5625</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>85</v>
+      </c>
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>117</v>
+      </c>
+      <c r="P157" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q157">
+        <v>2.05</v>
+      </c>
+      <c r="R157">
+        <v>2.6</v>
+      </c>
+      <c r="S157">
+        <v>5</v>
+      </c>
+      <c r="T157">
+        <v>1.25</v>
+      </c>
+      <c r="U157">
+        <v>3.75</v>
+      </c>
+      <c r="V157">
+        <v>2.1</v>
+      </c>
+      <c r="W157">
+        <v>1.67</v>
+      </c>
+      <c r="X157">
+        <v>4.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.18</v>
+      </c>
+      <c r="Z157">
+        <v>1.55</v>
+      </c>
+      <c r="AA157">
+        <v>4.5</v>
+      </c>
+      <c r="AB157">
+        <v>5</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>24</v>
+      </c>
+      <c r="AE157">
+        <v>1.14</v>
+      </c>
+      <c r="AF157">
+        <v>6.2</v>
+      </c>
+      <c r="AG157">
+        <v>1.44</v>
+      </c>
+      <c r="AH157">
+        <v>2.75</v>
+      </c>
+      <c r="AI157">
+        <v>1.53</v>
+      </c>
+      <c r="AJ157">
+        <v>2.38</v>
+      </c>
+      <c r="AK157">
+        <v>1.17</v>
+      </c>
+      <c r="AL157">
+        <v>1.18</v>
+      </c>
+      <c r="AM157">
+        <v>2.52</v>
+      </c>
+      <c r="AN157">
+        <v>2.29</v>
+      </c>
+      <c r="AO157">
+        <v>0.86</v>
+      </c>
+      <c r="AP157">
+        <v>2</v>
+      </c>
+      <c r="AQ157">
+        <v>1.13</v>
+      </c>
+      <c r="AR157">
+        <v>2.28</v>
+      </c>
+      <c r="AS157">
+        <v>1.44</v>
+      </c>
+      <c r="AT157">
+        <v>3.72</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>11</v>
+      </c>
+      <c r="BA157">
+        <v>8</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.23</v>
+      </c>
+      <c r="BE157">
+        <v>8.5</v>
+      </c>
+      <c r="BF157">
+        <v>4.4</v>
+      </c>
+      <c r="BG157">
+        <v>1.13</v>
+      </c>
+      <c r="BH157">
+        <v>4.9</v>
+      </c>
+      <c r="BI157">
+        <v>1.24</v>
+      </c>
+      <c r="BJ157">
+        <v>3.55</v>
+      </c>
+      <c r="BK157">
+        <v>1.41</v>
+      </c>
+      <c r="BL157">
+        <v>2.65</v>
+      </c>
+      <c r="BM157">
+        <v>1.63</v>
+      </c>
+      <c r="BN157">
+        <v>2.1</v>
+      </c>
+      <c r="BO157">
+        <v>1.96</v>
+      </c>
+      <c r="BP157">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7466830</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45641.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>78</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>207</v>
+      </c>
+      <c r="P158" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q158">
+        <v>1.73</v>
+      </c>
+      <c r="R158">
+        <v>2.88</v>
+      </c>
+      <c r="S158">
+        <v>6.5</v>
+      </c>
+      <c r="T158">
+        <v>1.2</v>
+      </c>
+      <c r="U158">
+        <v>4.33</v>
+      </c>
+      <c r="V158">
+        <v>1.91</v>
+      </c>
+      <c r="W158">
+        <v>1.8</v>
+      </c>
+      <c r="X158">
+        <v>4</v>
+      </c>
+      <c r="Y158">
+        <v>1.22</v>
+      </c>
+      <c r="Z158">
+        <v>1.29</v>
+      </c>
+      <c r="AA158">
+        <v>5.1</v>
+      </c>
+      <c r="AB158">
+        <v>6.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>30</v>
+      </c>
+      <c r="AE158">
+        <v>1.11</v>
+      </c>
+      <c r="AF158">
+        <v>7.4</v>
+      </c>
+      <c r="AG158">
+        <v>1.33</v>
+      </c>
+      <c r="AH158">
+        <v>3.15</v>
+      </c>
+      <c r="AI158">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.07</v>
+      </c>
+      <c r="AL158">
+        <v>1.14</v>
+      </c>
+      <c r="AM158">
+        <v>3.35</v>
+      </c>
+      <c r="AN158">
+        <v>1.71</v>
+      </c>
+      <c r="AO158">
+        <v>0.14</v>
+      </c>
+      <c r="AP158">
+        <v>1.88</v>
+      </c>
+      <c r="AQ158">
+        <v>0.13</v>
+      </c>
+      <c r="AR158">
+        <v>1.69</v>
+      </c>
+      <c r="AS158">
+        <v>0.93</v>
+      </c>
+      <c r="AT158">
+        <v>2.62</v>
+      </c>
+      <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>10</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>27</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>8</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.25</v>
+      </c>
+      <c r="BE158">
+        <v>8.5</v>
+      </c>
+      <c r="BF158">
+        <v>4.1</v>
+      </c>
+      <c r="BG158">
+        <v>1.11</v>
+      </c>
+      <c r="BH158">
+        <v>5.3</v>
+      </c>
+      <c r="BI158">
+        <v>1.23</v>
+      </c>
+      <c r="BJ158">
+        <v>3.65</v>
+      </c>
+      <c r="BK158">
+        <v>1.38</v>
+      </c>
+      <c r="BL158">
+        <v>2.75</v>
+      </c>
+      <c r="BM158">
+        <v>1.6</v>
+      </c>
+      <c r="BN158">
+        <v>2.17</v>
+      </c>
+      <c r="BO158">
+        <v>1.92</v>
+      </c>
+      <c r="BP158">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7466835</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45641.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>5</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>91</v>
+      </c>
+      <c r="P159" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
+      </c>
+      <c r="R159">
+        <v>2.75</v>
+      </c>
+      <c r="S159">
+        <v>2.2</v>
+      </c>
+      <c r="T159">
+        <v>1.2</v>
+      </c>
+      <c r="U159">
+        <v>4.33</v>
+      </c>
+      <c r="V159">
+        <v>1.91</v>
+      </c>
+      <c r="W159">
+        <v>1.8</v>
+      </c>
+      <c r="X159">
+        <v>4</v>
+      </c>
+      <c r="Y159">
+        <v>1.22</v>
+      </c>
+      <c r="Z159">
+        <v>3.5</v>
+      </c>
+      <c r="AA159">
+        <v>4</v>
+      </c>
+      <c r="AB159">
+        <v>1.78</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>32</v>
+      </c>
+      <c r="AE159">
+        <v>1.09</v>
+      </c>
+      <c r="AF159">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG159">
+        <v>1.32</v>
+      </c>
+      <c r="AH159">
+        <v>3.21</v>
+      </c>
+      <c r="AI159">
+        <v>1.36</v>
+      </c>
+      <c r="AJ159">
+        <v>3</v>
+      </c>
+      <c r="AK159">
+        <v>2.18</v>
+      </c>
+      <c r="AL159">
+        <v>1.21</v>
+      </c>
+      <c r="AM159">
+        <v>1.25</v>
+      </c>
+      <c r="AN159">
+        <v>0.57</v>
+      </c>
+      <c r="AO159">
+        <v>1</v>
+      </c>
+      <c r="AP159">
+        <v>0.5</v>
+      </c>
+      <c r="AQ159">
+        <v>1.25</v>
+      </c>
+      <c r="AR159">
+        <v>1.06</v>
+      </c>
+      <c r="AS159">
+        <v>1.7</v>
+      </c>
+      <c r="AT159">
+        <v>2.76</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>10</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>19</v>
+      </c>
+      <c r="BA159">
+        <v>2</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>7</v>
+      </c>
+      <c r="BD159">
+        <v>4.1</v>
+      </c>
+      <c r="BE159">
+        <v>7.5</v>
+      </c>
+      <c r="BF159">
+        <v>1.33</v>
+      </c>
+      <c r="BG159">
+        <v>1.02</v>
+      </c>
+      <c r="BH159">
+        <v>7.4</v>
+      </c>
+      <c r="BI159">
+        <v>1.09</v>
+      </c>
+      <c r="BJ159">
+        <v>4.95</v>
+      </c>
+      <c r="BK159">
+        <v>1.2</v>
+      </c>
+      <c r="BL159">
+        <v>3.9</v>
+      </c>
+      <c r="BM159">
+        <v>1.4</v>
+      </c>
+      <c r="BN159">
+        <v>2.68</v>
+      </c>
+      <c r="BO159">
+        <v>1.68</v>
+      </c>
+      <c r="BP159">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,9 @@
     <t>['43', '80']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -883,16 +886,13 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['88', '90']</t>
+  </si>
+  <si>
     <t>['27', '33', '82']</t>
   </si>
   <si>
-    <t>['88', '90']</t>
-  </si>
-  <si>
-    <t>['90']</t>
-  </si>
-  <si>
-    <t>['1', '12', '14', '25', '45+4']</t>
+    <t>['1', '12', '14', '25', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2131,7 +2131,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2543,7 +2543,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2749,7 +2749,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3573,7 +3573,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4272,7 +4272,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5015,7 +5015,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -5221,7 +5221,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -6045,7 +6045,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6251,7 +6251,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6663,7 +6663,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6869,7 +6869,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7075,7 +7075,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7487,7 +7487,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7693,7 +7693,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8392,7 +8392,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -8517,7 +8517,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8929,7 +8929,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9135,7 +9135,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9213,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>2.38</v>
@@ -9341,7 +9341,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9547,7 +9547,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9753,7 +9753,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10783,7 +10783,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11607,7 +11607,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11813,7 +11813,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12019,7 +12019,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12225,7 +12225,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12512,7 +12512,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12637,7 +12637,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13049,7 +13049,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13255,7 +13255,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13461,7 +13461,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13667,7 +13667,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>0.13</v>
@@ -13873,7 +13873,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14285,7 +14285,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14491,7 +14491,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14697,7 +14697,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15727,7 +15727,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15933,7 +15933,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16014,7 +16014,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16139,7 +16139,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16345,7 +16345,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16551,7 +16551,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16757,7 +16757,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16963,7 +16963,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17247,7 +17247,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17375,7 +17375,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17581,7 +17581,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17993,7 +17993,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18405,7 +18405,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18611,7 +18611,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18817,7 +18817,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19023,7 +19023,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19229,7 +19229,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19641,7 +19641,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19847,7 +19847,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20340,7 +20340,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20877,7 +20877,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -21083,7 +21083,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21161,7 +21161,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21289,7 +21289,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21495,7 +21495,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21701,7 +21701,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22113,7 +22113,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22525,7 +22525,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23555,7 +23555,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23761,7 +23761,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23967,7 +23967,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24173,7 +24173,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24379,7 +24379,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24997,7 +24997,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25075,7 +25075,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25203,7 +25203,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25409,7 +25409,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25615,7 +25615,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25821,7 +25821,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26027,7 +26027,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26108,7 +26108,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26233,7 +26233,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26645,7 +26645,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27057,7 +27057,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27263,7 +27263,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27675,7 +27675,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28293,7 +28293,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28580,7 +28580,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR133">
         <v>1.12</v>
@@ -28911,7 +28911,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29117,7 +29117,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -30225,7 +30225,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ141">
         <v>1.25</v>
@@ -30353,7 +30353,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30559,7 +30559,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30971,7 +30971,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31177,7 +31177,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31383,7 +31383,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31589,7 +31589,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31795,7 +31795,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32413,7 +32413,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32619,7 +32619,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33031,7 +33031,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33195,7 +33195,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7466829</v>
+        <v>7466832</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33204,196 +33204,196 @@
         <v>69</v>
       </c>
       <c r="E156" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F156">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
       <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
         <v>3</v>
       </c>
-      <c r="N156">
-        <v>4</v>
-      </c>
       <c r="O156" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R156">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S156">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T156">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U156">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V156">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W156">
+        <v>1.67</v>
+      </c>
+      <c r="X156">
+        <v>4.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.18</v>
+      </c>
+      <c r="Z156">
+        <v>1.55</v>
+      </c>
+      <c r="AA156">
+        <v>4.5</v>
+      </c>
+      <c r="AB156">
+        <v>5</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>24</v>
+      </c>
+      <c r="AE156">
+        <v>1.14</v>
+      </c>
+      <c r="AF156">
+        <v>6.2</v>
+      </c>
+      <c r="AG156">
         <v>1.44</v>
       </c>
-      <c r="X156">
-        <v>6.5</v>
-      </c>
-      <c r="Y156">
-        <v>1.11</v>
-      </c>
-      <c r="Z156">
-        <v>1.86</v>
-      </c>
-      <c r="AA156">
-        <v>3.3</v>
-      </c>
-      <c r="AB156">
-        <v>3.5</v>
-      </c>
-      <c r="AC156">
-        <v>1.04</v>
-      </c>
-      <c r="AD156">
-        <v>15</v>
-      </c>
-      <c r="AE156">
-        <v>1.25</v>
-      </c>
-      <c r="AF156">
-        <v>4.15</v>
-      </c>
-      <c r="AG156">
-        <v>1.7</v>
-      </c>
       <c r="AH156">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AI156">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ156">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK156">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AL156">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM156">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="AN156">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AO156">
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
       </c>
       <c r="AR156">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="AS156">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT156">
-        <v>2.99</v>
+        <v>3.72</v>
       </c>
       <c r="AU156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW156">
         <v>4</v>
       </c>
       <c r="AX156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY156">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ156">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA156">
         <v>8</v>
       </c>
       <c r="BB156">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC156">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD156">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="BE156">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF156">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="BG156">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH156">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BI156">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BJ156">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BK156">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BL156">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BM156">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="BN156">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BO156">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="BP156">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33401,7 +33401,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7466832</v>
+        <v>7466829</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33410,196 +33410,196 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45641.5625</v>
+        <v>45640.875</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H157" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <v>1</v>
       </c>
       <c r="M157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O157" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q157">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R157">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S157">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.25</v>
+      </c>
+      <c r="V157">
+        <v>2.63</v>
+      </c>
+      <c r="W157">
+        <v>1.44</v>
+      </c>
+      <c r="X157">
+        <v>6.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.11</v>
+      </c>
+      <c r="Z157">
+        <v>1.86</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>3.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.04</v>
+      </c>
+      <c r="AD157">
+        <v>15</v>
+      </c>
+      <c r="AE157">
         <v>1.25</v>
       </c>
-      <c r="U157">
-        <v>3.75</v>
-      </c>
-      <c r="V157">
+      <c r="AF157">
+        <v>4.15</v>
+      </c>
+      <c r="AG157">
+        <v>1.7</v>
+      </c>
+      <c r="AH157">
         <v>2.1</v>
       </c>
-      <c r="W157">
+      <c r="AI157">
         <v>1.67</v>
       </c>
-      <c r="X157">
-        <v>4.5</v>
-      </c>
-      <c r="Y157">
-        <v>1.18</v>
-      </c>
-      <c r="Z157">
-        <v>1.55</v>
-      </c>
-      <c r="AA157">
-        <v>4.5</v>
-      </c>
-      <c r="AB157">
-        <v>5</v>
-      </c>
-      <c r="AC157">
-        <v>1.01</v>
-      </c>
-      <c r="AD157">
-        <v>24</v>
-      </c>
-      <c r="AE157">
-        <v>1.14</v>
-      </c>
-      <c r="AF157">
-        <v>6.2</v>
-      </c>
-      <c r="AG157">
-        <v>1.44</v>
-      </c>
-      <c r="AH157">
-        <v>2.75</v>
-      </c>
-      <c r="AI157">
-        <v>1.53</v>
-      </c>
       <c r="AJ157">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK157">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AL157">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM157">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="AN157">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AO157">
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AQ157">
         <v>1.13</v>
       </c>
       <c r="AR157">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="AS157">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT157">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="AU157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW157">
         <v>4</v>
       </c>
       <c r="AX157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY157">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ157">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA157">
         <v>8</v>
       </c>
       <c r="BB157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC157">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD157">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="BE157">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF157">
+        <v>2.7</v>
+      </c>
+      <c r="BG157">
+        <v>1.15</v>
+      </c>
+      <c r="BH157">
         <v>4.4</v>
       </c>
-      <c r="BG157">
-        <v>1.13</v>
-      </c>
-      <c r="BH157">
-        <v>4.9</v>
-      </c>
       <c r="BI157">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BJ157">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK157">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BL157">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BM157">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="BN157">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="BO157">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="BP157">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33649,7 +33649,7 @@
         <v>207</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="Q158">
         <v>1.73</v>
@@ -34012,6 +34012,212 @@
       </c>
       <c r="BP159">
         <v>2.05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7466827</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45642.70833333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>208</v>
+      </c>
+      <c r="P160" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q160">
+        <v>2.25</v>
+      </c>
+      <c r="R160">
+        <v>2.5</v>
+      </c>
+      <c r="S160">
+        <v>4.33</v>
+      </c>
+      <c r="T160">
+        <v>1.29</v>
+      </c>
+      <c r="U160">
+        <v>3.5</v>
+      </c>
+      <c r="V160">
+        <v>2.25</v>
+      </c>
+      <c r="W160">
+        <v>1.57</v>
+      </c>
+      <c r="X160">
+        <v>5.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.14</v>
+      </c>
+      <c r="Z160">
+        <v>2.19</v>
+      </c>
+      <c r="AA160">
+        <v>3.81</v>
+      </c>
+      <c r="AB160">
+        <v>2.57</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>19</v>
+      </c>
+      <c r="AE160">
+        <v>1.18</v>
+      </c>
+      <c r="AF160">
+        <v>5.2</v>
+      </c>
+      <c r="AG160">
+        <v>1.54</v>
+      </c>
+      <c r="AH160">
+        <v>2.45</v>
+      </c>
+      <c r="AI160">
+        <v>1.53</v>
+      </c>
+      <c r="AJ160">
+        <v>2.38</v>
+      </c>
+      <c r="AK160">
+        <v>1.22</v>
+      </c>
+      <c r="AL160">
+        <v>1.23</v>
+      </c>
+      <c r="AM160">
+        <v>2.17</v>
+      </c>
+      <c r="AN160">
+        <v>1.86</v>
+      </c>
+      <c r="AO160">
+        <v>1.14</v>
+      </c>
+      <c r="AP160">
+        <v>1.75</v>
+      </c>
+      <c r="AQ160">
+        <v>1.13</v>
+      </c>
+      <c r="AR160">
+        <v>1.69</v>
+      </c>
+      <c r="AS160">
+        <v>1.49</v>
+      </c>
+      <c r="AT160">
+        <v>3.18</v>
+      </c>
+      <c r="AU160">
+        <v>10</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>6</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>30</v>
+      </c>
+      <c r="AZ160">
+        <v>17</v>
+      </c>
+      <c r="BA160">
+        <v>12</v>
+      </c>
+      <c r="BB160">
+        <v>6</v>
+      </c>
+      <c r="BC160">
+        <v>18</v>
+      </c>
+      <c r="BD160">
+        <v>1.3</v>
+      </c>
+      <c r="BE160">
+        <v>7.5</v>
+      </c>
+      <c r="BF160">
+        <v>4.4</v>
+      </c>
+      <c r="BG160">
+        <v>1.03</v>
+      </c>
+      <c r="BH160">
+        <v>6.7</v>
+      </c>
+      <c r="BI160">
+        <v>1.12</v>
+      </c>
+      <c r="BJ160">
+        <v>4.5</v>
+      </c>
+      <c r="BK160">
+        <v>1.29</v>
+      </c>
+      <c r="BL160">
+        <v>3.25</v>
+      </c>
+      <c r="BM160">
+        <v>1.5</v>
+      </c>
+      <c r="BN160">
+        <v>2.35</v>
+      </c>
+      <c r="BO160">
+        <v>1.85</v>
+      </c>
+      <c r="BP160">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -886,10 +886,10 @@
     <t>['63']</t>
   </si>
   <si>
-    <t>['88', '90']</t>
+    <t>['27', '33', '82']</t>
   </si>
   <si>
-    <t>['27', '33', '82']</t>
+    <t>['88', '90']</t>
   </si>
   <si>
     <t>['1', '12', '14', '25', '45+5']</t>
@@ -24266,22 +24266,22 @@
         <v>2.46</v>
       </c>
       <c r="AU112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV112">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX112">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ112">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA112">
         <v>2</v>
@@ -24884,22 +24884,22 @@
         <v>3.68</v>
       </c>
       <c r="AU115">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW115">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX115">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY115">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ115">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA115">
         <v>8</v>
@@ -25502,22 +25502,22 @@
         <v>4.1</v>
       </c>
       <c r="AU118">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV118">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW118">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX118">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY118">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ118">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA118">
         <v>9</v>
@@ -28583,13 +28583,13 @@
         <v>1.13</v>
       </c>
       <c r="AR133">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="AS133">
         <v>1.28</v>
       </c>
       <c r="AT133">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -28789,13 +28789,13 @@
         <v>1.75</v>
       </c>
       <c r="AR134">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="AS134">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT134">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="AU134">
         <v>8</v>
@@ -29204,10 +29204,10 @@
         <v>1.08</v>
       </c>
       <c r="AS136">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AT136">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29819,13 +29819,13 @@
         <v>1.13</v>
       </c>
       <c r="AR139">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AS139">
         <v>1.54</v>
       </c>
       <c r="AT139">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="AU139">
         <v>7</v>
@@ -30234,10 +30234,10 @@
         <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AT141">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -31058,10 +31058,10 @@
         <v>1.4</v>
       </c>
       <c r="AS145">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT145">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="AU145">
         <v>8</v>
@@ -31673,13 +31673,13 @@
         <v>1.38</v>
       </c>
       <c r="AR148">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AS148">
         <v>1.33</v>
       </c>
       <c r="AT148">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -31882,10 +31882,10 @@
         <v>1.84</v>
       </c>
       <c r="AS149">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AT149">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32909,13 +32909,13 @@
         <v>0.75</v>
       </c>
       <c r="AR154">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AS154">
         <v>1.27</v>
       </c>
       <c r="AT154">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="AU154">
         <v>6</v>
@@ -33195,7 +33195,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7466832</v>
+        <v>7466829</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33204,196 +33204,196 @@
         <v>69</v>
       </c>
       <c r="E156" s="2">
-        <v>45640.875</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O156" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="P156" t="s">
         <v>290</v>
       </c>
       <c r="Q156">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R156">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S156">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T156">
+        <v>1.33</v>
+      </c>
+      <c r="U156">
+        <v>3.25</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.11</v>
+      </c>
+      <c r="Z156">
+        <v>1.86</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>3.5</v>
+      </c>
+      <c r="AC156">
+        <v>1.04</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
         <v>1.25</v>
       </c>
-      <c r="U156">
-        <v>3.75</v>
-      </c>
-      <c r="V156">
+      <c r="AF156">
+        <v>4.15</v>
+      </c>
+      <c r="AG156">
+        <v>1.7</v>
+      </c>
+      <c r="AH156">
         <v>2.1</v>
       </c>
-      <c r="W156">
+      <c r="AI156">
         <v>1.67</v>
       </c>
-      <c r="X156">
-        <v>4.5</v>
-      </c>
-      <c r="Y156">
-        <v>1.18</v>
-      </c>
-      <c r="Z156">
-        <v>1.55</v>
-      </c>
-      <c r="AA156">
-        <v>4.5</v>
-      </c>
-      <c r="AB156">
-        <v>5</v>
-      </c>
-      <c r="AC156">
-        <v>1.01</v>
-      </c>
-      <c r="AD156">
-        <v>24</v>
-      </c>
-      <c r="AE156">
-        <v>1.14</v>
-      </c>
-      <c r="AF156">
-        <v>6.2</v>
-      </c>
-      <c r="AG156">
-        <v>1.44</v>
-      </c>
-      <c r="AH156">
-        <v>2.75</v>
-      </c>
-      <c r="AI156">
-        <v>1.53</v>
-      </c>
       <c r="AJ156">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK156">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AL156">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM156">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="AN156">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AO156">
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
       </c>
       <c r="AR156">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT156">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="AU156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW156">
         <v>4</v>
       </c>
       <c r="AX156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY156">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ156">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA156">
         <v>8</v>
       </c>
       <c r="BB156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC156">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD156">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="BE156">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF156">
+        <v>2.7</v>
+      </c>
+      <c r="BG156">
+        <v>1.15</v>
+      </c>
+      <c r="BH156">
         <v>4.4</v>
       </c>
-      <c r="BG156">
-        <v>1.13</v>
-      </c>
-      <c r="BH156">
-        <v>4.9</v>
-      </c>
       <c r="BI156">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BJ156">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK156">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BL156">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BM156">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="BN156">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="BO156">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="BP156">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33401,7 +33401,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7466829</v>
+        <v>7466832</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33410,196 +33410,196 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45640.875</v>
+        <v>45641.5625</v>
       </c>
       <c r="F157">
         <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H157" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <v>1</v>
       </c>
       <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
         <v>3</v>
       </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
       <c r="O157" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="P157" t="s">
         <v>291</v>
       </c>
       <c r="Q157">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R157">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S157">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T157">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V157">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W157">
+        <v>1.67</v>
+      </c>
+      <c r="X157">
+        <v>4.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.18</v>
+      </c>
+      <c r="Z157">
+        <v>1.55</v>
+      </c>
+      <c r="AA157">
+        <v>4.5</v>
+      </c>
+      <c r="AB157">
+        <v>5</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>24</v>
+      </c>
+      <c r="AE157">
+        <v>1.14</v>
+      </c>
+      <c r="AF157">
+        <v>6.2</v>
+      </c>
+      <c r="AG157">
         <v>1.44</v>
       </c>
-      <c r="X157">
-        <v>6.5</v>
-      </c>
-      <c r="Y157">
-        <v>1.11</v>
-      </c>
-      <c r="Z157">
-        <v>1.86</v>
-      </c>
-      <c r="AA157">
-        <v>3.3</v>
-      </c>
-      <c r="AB157">
-        <v>3.5</v>
-      </c>
-      <c r="AC157">
-        <v>1.04</v>
-      </c>
-      <c r="AD157">
-        <v>15</v>
-      </c>
-      <c r="AE157">
-        <v>1.25</v>
-      </c>
-      <c r="AF157">
-        <v>4.15</v>
-      </c>
-      <c r="AG157">
-        <v>1.7</v>
-      </c>
       <c r="AH157">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AI157">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ157">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK157">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AL157">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM157">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="AN157">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="AO157">
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.13</v>
       </c>
       <c r="AR157">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AS157">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT157">
-        <v>2.99</v>
+        <v>3.69</v>
       </c>
       <c r="AU157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW157">
         <v>4</v>
       </c>
       <c r="AX157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY157">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ157">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA157">
         <v>8</v>
       </c>
       <c r="BB157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC157">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD157">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="BE157">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF157">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="BG157">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH157">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BI157">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BJ157">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BK157">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BL157">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BM157">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="BN157">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BO157">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="BP157">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33942,10 +33942,10 @@
         <v>1.06</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AT159">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU159">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['16', '65']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -893,6 +896,15 @@
   </si>
   <si>
     <t>['1', '12', '14', '25', '45+5']</t>
+  </si>
+  <si>
+    <t>['38', '51']</t>
+  </si>
+  <si>
+    <t>['1', '32', '45+2', '54']</t>
+  </si>
+  <si>
+    <t>['6', '14', '38', '60', '84']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,7 +1731,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1797,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ3">
         <v>2.43</v>
@@ -2131,7 +2143,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2212,7 +2224,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2543,7 +2555,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2749,7 +2761,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2827,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
         <v>1.25</v>
@@ -3033,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3161,7 +3173,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3242,7 +3254,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3573,7 +3585,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4066,7 +4078,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4269,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4809,7 +4821,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4887,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5015,7 +5027,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5096,7 +5108,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5221,7 +5233,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5714,7 +5726,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -6045,7 +6057,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6251,7 +6263,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6329,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6535,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26">
         <v>0.13</v>
@@ -6663,7 +6675,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6869,7 +6881,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6947,10 +6959,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7075,7 +7087,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7487,7 +7499,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7693,7 +7705,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8186,7 +8198,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8517,7 +8529,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8595,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ36">
         <v>0.63</v>
@@ -8929,7 +8941,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9007,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9135,7 +9147,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9341,7 +9353,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9422,7 +9434,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -9547,7 +9559,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9628,7 +9640,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9753,7 +9765,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9831,7 +9843,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
         <v>2.38</v>
@@ -10655,7 +10667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -10783,7 +10795,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10864,7 +10876,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11273,7 +11285,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ49">
         <v>1.13</v>
@@ -11482,7 +11494,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11607,7 +11619,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11688,7 +11700,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -11813,7 +11825,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11894,7 +11906,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -12019,7 +12031,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12225,7 +12237,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12509,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12637,7 +12649,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12718,7 +12730,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -13049,7 +13061,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13255,7 +13267,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13333,7 +13345,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13461,7 +13473,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13667,7 +13679,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13873,7 +13885,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13951,7 +13963,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ62">
         <v>2.43</v>
@@ -14285,7 +14297,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14363,7 +14375,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14491,7 +14503,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14569,7 +14581,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14697,7 +14709,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15190,7 +15202,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15393,7 +15405,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15602,7 +15614,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -15727,7 +15739,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15933,7 +15945,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16139,7 +16151,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16220,7 +16232,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>0.91</v>
@@ -16345,7 +16357,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16551,7 +16563,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16757,7 +16769,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16963,7 +16975,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17041,7 +17053,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ77">
         <v>0.75</v>
@@ -17250,7 +17262,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17375,7 +17387,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17456,7 +17468,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -17581,7 +17593,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17993,7 +18005,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18074,7 +18086,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18405,7 +18417,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18611,7 +18623,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18689,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -18817,7 +18829,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18895,7 +18907,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19023,7 +19035,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19229,7 +19241,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19310,7 +19322,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19513,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -19641,7 +19653,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19719,7 +19731,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -19847,7 +19859,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20134,7 +20146,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -20749,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
         <v>0.63</v>
@@ -20877,7 +20889,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20958,7 +20970,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ96">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -21083,7 +21095,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21164,7 +21176,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21289,7 +21301,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21495,7 +21507,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21701,7 +21713,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22113,7 +22125,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22191,7 +22203,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22525,7 +22537,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22603,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ104">
         <v>1.25</v>
@@ -22809,7 +22821,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -23018,7 +23030,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23555,7 +23567,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23636,7 +23648,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23761,7 +23773,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23967,7 +23979,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24048,7 +24060,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24173,7 +24185,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24379,7 +24391,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24872,7 +24884,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ115">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -24997,7 +25009,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25078,7 +25090,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25203,7 +25215,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25281,7 +25293,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.13</v>
@@ -25409,7 +25421,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25615,7 +25627,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25821,7 +25833,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25899,7 +25911,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ120">
         <v>1.13</v>
@@ -26027,7 +26039,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26233,7 +26245,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26645,7 +26657,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26723,10 +26735,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -26929,7 +26941,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125">
         <v>0.63</v>
@@ -27057,7 +27069,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27263,7 +27275,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27341,10 +27353,10 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27675,7 +27687,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28168,7 +28180,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ131">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28293,7 +28305,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28371,7 +28383,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ132">
         <v>1.13</v>
@@ -28786,7 +28798,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR134">
         <v>2.3</v>
@@ -28911,7 +28923,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29117,7 +29129,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29607,7 +29619,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>0.13</v>
@@ -30022,7 +30034,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ140">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.88</v>
@@ -30353,7 +30365,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30431,10 +30443,10 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.7</v>
@@ -30559,7 +30571,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30637,10 +30649,10 @@
         <v>1.43</v>
       </c>
       <c r="AP143">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30843,7 +30855,7 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.13</v>
@@ -30971,7 +30983,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31052,7 +31064,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -31177,7 +31189,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31258,7 +31270,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR146">
         <v>1.74</v>
@@ -31383,7 +31395,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31461,7 +31473,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
         <v>1.38</v>
@@ -31589,7 +31601,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31670,7 +31682,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ148">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31795,7 +31807,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32079,7 +32091,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ150">
         <v>0.63</v>
@@ -32413,7 +32425,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32619,7 +32631,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33031,7 +33043,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33237,7 +33249,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33443,7 +33455,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33855,7 +33867,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34218,6 +34230,1036 @@
       </c>
       <c r="BP160">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7466841</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45647.39583333334</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>86</v>
+      </c>
+      <c r="H161" t="s">
+        <v>85</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>209</v>
+      </c>
+      <c r="P161" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q161">
+        <v>3.6</v>
+      </c>
+      <c r="R161">
+        <v>2.38</v>
+      </c>
+      <c r="S161">
+        <v>2.63</v>
+      </c>
+      <c r="T161">
+        <v>1.29</v>
+      </c>
+      <c r="U161">
+        <v>3.5</v>
+      </c>
+      <c r="V161">
+        <v>2.38</v>
+      </c>
+      <c r="W161">
+        <v>1.53</v>
+      </c>
+      <c r="X161">
+        <v>5.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.14</v>
+      </c>
+      <c r="Z161">
+        <v>3.39</v>
+      </c>
+      <c r="AA161">
+        <v>3.78</v>
+      </c>
+      <c r="AB161">
+        <v>1.99</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>16</v>
+      </c>
+      <c r="AE161">
+        <v>1.18</v>
+      </c>
+      <c r="AF161">
+        <v>5.1</v>
+      </c>
+      <c r="AG161">
+        <v>1.56</v>
+      </c>
+      <c r="AH161">
+        <v>2.33</v>
+      </c>
+      <c r="AI161">
+        <v>1.5</v>
+      </c>
+      <c r="AJ161">
+        <v>2.5</v>
+      </c>
+      <c r="AK161">
+        <v>1.72</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.37</v>
+      </c>
+      <c r="AN161">
+        <v>1.88</v>
+      </c>
+      <c r="AO161">
+        <v>1.38</v>
+      </c>
+      <c r="AP161">
+        <v>2</v>
+      </c>
+      <c r="AQ161">
+        <v>1.22</v>
+      </c>
+      <c r="AR161">
+        <v>1.54</v>
+      </c>
+      <c r="AS161">
+        <v>1.85</v>
+      </c>
+      <c r="AT161">
+        <v>3.39</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>7</v>
+      </c>
+      <c r="AW161">
+        <v>3</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
+        <v>13</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>9</v>
+      </c>
+      <c r="BD161">
+        <v>2.63</v>
+      </c>
+      <c r="BE161">
+        <v>6.75</v>
+      </c>
+      <c r="BF161">
+        <v>1.58</v>
+      </c>
+      <c r="BG161">
+        <v>1.2</v>
+      </c>
+      <c r="BH161">
+        <v>3.9</v>
+      </c>
+      <c r="BI161">
+        <v>1.36</v>
+      </c>
+      <c r="BJ161">
+        <v>2.8</v>
+      </c>
+      <c r="BK161">
+        <v>1.6</v>
+      </c>
+      <c r="BL161">
+        <v>2.17</v>
+      </c>
+      <c r="BM161">
+        <v>1.95</v>
+      </c>
+      <c r="BN161">
+        <v>1.75</v>
+      </c>
+      <c r="BO161">
+        <v>2.43</v>
+      </c>
+      <c r="BP161">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7466850</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>125</v>
+      </c>
+      <c r="P162" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q162">
+        <v>3.25</v>
+      </c>
+      <c r="R162">
+        <v>2.4</v>
+      </c>
+      <c r="S162">
+        <v>2.88</v>
+      </c>
+      <c r="T162">
+        <v>1.29</v>
+      </c>
+      <c r="U162">
+        <v>3.5</v>
+      </c>
+      <c r="V162">
+        <v>2.25</v>
+      </c>
+      <c r="W162">
+        <v>1.57</v>
+      </c>
+      <c r="X162">
+        <v>5.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.14</v>
+      </c>
+      <c r="Z162">
+        <v>2.96</v>
+      </c>
+      <c r="AA162">
+        <v>3.78</v>
+      </c>
+      <c r="AB162">
+        <v>1.98</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>18</v>
+      </c>
+      <c r="AE162">
+        <v>1.18</v>
+      </c>
+      <c r="AF162">
+        <v>5.2</v>
+      </c>
+      <c r="AG162">
+        <v>1.62</v>
+      </c>
+      <c r="AH162">
+        <v>2.3</v>
+      </c>
+      <c r="AI162">
+        <v>1.44</v>
+      </c>
+      <c r="AJ162">
+        <v>2.63</v>
+      </c>
+      <c r="AK162">
+        <v>1.64</v>
+      </c>
+      <c r="AL162">
+        <v>1.27</v>
+      </c>
+      <c r="AM162">
+        <v>1.44</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.38</v>
+      </c>
+      <c r="AP162">
+        <v>1.22</v>
+      </c>
+      <c r="AQ162">
+        <v>1.33</v>
+      </c>
+      <c r="AR162">
+        <v>1.48</v>
+      </c>
+      <c r="AS162">
+        <v>1.37</v>
+      </c>
+      <c r="AT162">
+        <v>2.85</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>3</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>13</v>
+      </c>
+      <c r="BA162">
+        <v>8</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>12</v>
+      </c>
+      <c r="BD162">
+        <v>2.17</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>1.81</v>
+      </c>
+      <c r="BG162">
+        <v>1.19</v>
+      </c>
+      <c r="BH162">
+        <v>4.1</v>
+      </c>
+      <c r="BI162">
+        <v>1.34</v>
+      </c>
+      <c r="BJ162">
+        <v>2.9</v>
+      </c>
+      <c r="BK162">
+        <v>1.56</v>
+      </c>
+      <c r="BL162">
+        <v>2.23</v>
+      </c>
+      <c r="BM162">
+        <v>1.89</v>
+      </c>
+      <c r="BN162">
+        <v>1.8</v>
+      </c>
+      <c r="BO162">
+        <v>2.33</v>
+      </c>
+      <c r="BP162">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7466842</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>77</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>91</v>
+      </c>
+      <c r="P163" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q163">
+        <v>2.88</v>
+      </c>
+      <c r="R163">
+        <v>2.25</v>
+      </c>
+      <c r="S163">
+        <v>3.5</v>
+      </c>
+      <c r="T163">
+        <v>1.33</v>
+      </c>
+      <c r="U163">
+        <v>3.25</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>6.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.11</v>
+      </c>
+      <c r="Z163">
+        <v>1.89</v>
+      </c>
+      <c r="AA163">
+        <v>4.71</v>
+      </c>
+      <c r="AB163">
+        <v>2.72</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>13</v>
+      </c>
+      <c r="AE163">
+        <v>1.25</v>
+      </c>
+      <c r="AF163">
+        <v>4.15</v>
+      </c>
+      <c r="AG163">
+        <v>1.7</v>
+      </c>
+      <c r="AH163">
+        <v>2.1</v>
+      </c>
+      <c r="AI163">
+        <v>1.62</v>
+      </c>
+      <c r="AJ163">
+        <v>2.2</v>
+      </c>
+      <c r="AK163">
+        <v>1.39</v>
+      </c>
+      <c r="AL163">
+        <v>1.29</v>
+      </c>
+      <c r="AM163">
+        <v>1.67</v>
+      </c>
+      <c r="AN163">
+        <v>2.75</v>
+      </c>
+      <c r="AO163">
+        <v>1.75</v>
+      </c>
+      <c r="AP163">
+        <v>2.44</v>
+      </c>
+      <c r="AQ163">
+        <v>1.89</v>
+      </c>
+      <c r="AR163">
+        <v>1.71</v>
+      </c>
+      <c r="AS163">
+        <v>1.27</v>
+      </c>
+      <c r="AT163">
+        <v>2.98</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>7</v>
+      </c>
+      <c r="AW163">
+        <v>2</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>11</v>
+      </c>
+      <c r="BA163">
+        <v>9</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>14</v>
+      </c>
+      <c r="BD163">
+        <v>1.89</v>
+      </c>
+      <c r="BE163">
+        <v>6.75</v>
+      </c>
+      <c r="BF163">
+        <v>2.08</v>
+      </c>
+      <c r="BG163">
+        <v>1.16</v>
+      </c>
+      <c r="BH163">
+        <v>4.4</v>
+      </c>
+      <c r="BI163">
+        <v>1.29</v>
+      </c>
+      <c r="BJ163">
+        <v>3.15</v>
+      </c>
+      <c r="BK163">
+        <v>1.48</v>
+      </c>
+      <c r="BL163">
+        <v>2.43</v>
+      </c>
+      <c r="BM163">
+        <v>1.76</v>
+      </c>
+      <c r="BN163">
+        <v>1.94</v>
+      </c>
+      <c r="BO163">
+        <v>2.17</v>
+      </c>
+      <c r="BP163">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7466846</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>91</v>
+      </c>
+      <c r="P164" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q164">
+        <v>4.5</v>
+      </c>
+      <c r="R164">
+        <v>2.4</v>
+      </c>
+      <c r="S164">
+        <v>2.25</v>
+      </c>
+      <c r="T164">
+        <v>1.29</v>
+      </c>
+      <c r="U164">
+        <v>3.5</v>
+      </c>
+      <c r="V164">
+        <v>2.38</v>
+      </c>
+      <c r="W164">
+        <v>1.53</v>
+      </c>
+      <c r="X164">
+        <v>5.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.14</v>
+      </c>
+      <c r="Z164">
+        <v>3.19</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+      <c r="AB164">
+        <v>1.68</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>17</v>
+      </c>
+      <c r="AE164">
+        <v>1.2</v>
+      </c>
+      <c r="AF164">
+        <v>4.85</v>
+      </c>
+      <c r="AG164">
+        <v>1.62</v>
+      </c>
+      <c r="AH164">
+        <v>2.3</v>
+      </c>
+      <c r="AI164">
+        <v>1.57</v>
+      </c>
+      <c r="AJ164">
+        <v>2.25</v>
+      </c>
+      <c r="AK164">
+        <v>2.17</v>
+      </c>
+      <c r="AL164">
+        <v>1.24</v>
+      </c>
+      <c r="AM164">
+        <v>1.21</v>
+      </c>
+      <c r="AN164">
+        <v>0.5</v>
+      </c>
+      <c r="AO164">
+        <v>1.13</v>
+      </c>
+      <c r="AP164">
+        <v>0.44</v>
+      </c>
+      <c r="AQ164">
+        <v>1.33</v>
+      </c>
+      <c r="AR164">
+        <v>1.2</v>
+      </c>
+      <c r="AS164">
+        <v>1.4</v>
+      </c>
+      <c r="AT164">
+        <v>2.6</v>
+      </c>
+      <c r="AU164">
+        <v>3</v>
+      </c>
+      <c r="AV164">
+        <v>8</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>11</v>
+      </c>
+      <c r="AZ164">
+        <v>16</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>1</v>
+      </c>
+      <c r="BC164">
+        <v>3</v>
+      </c>
+      <c r="BD164">
+        <v>2.65</v>
+      </c>
+      <c r="BE164">
+        <v>7</v>
+      </c>
+      <c r="BF164">
+        <v>1.56</v>
+      </c>
+      <c r="BG164">
+        <v>1.17</v>
+      </c>
+      <c r="BH164">
+        <v>4.3</v>
+      </c>
+      <c r="BI164">
+        <v>1.32</v>
+      </c>
+      <c r="BJ164">
+        <v>3.05</v>
+      </c>
+      <c r="BK164">
+        <v>1.53</v>
+      </c>
+      <c r="BL164">
+        <v>2.32</v>
+      </c>
+      <c r="BM164">
+        <v>1.84</v>
+      </c>
+      <c r="BN164">
+        <v>1.84</v>
+      </c>
+      <c r="BO164">
+        <v>2.28</v>
+      </c>
+      <c r="BP164">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7466843</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>83</v>
+      </c>
+      <c r="H165" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>5</v>
+      </c>
+      <c r="N165">
+        <v>6</v>
+      </c>
+      <c r="O165" t="s">
+        <v>190</v>
+      </c>
+      <c r="P165" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q165">
+        <v>5.5</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>2.2</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>7</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>6.72</v>
+      </c>
+      <c r="AA165">
+        <v>1.94</v>
+      </c>
+      <c r="AB165">
+        <v>2.24</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>13</v>
+      </c>
+      <c r="AE165">
+        <v>1.28</v>
+      </c>
+      <c r="AF165">
+        <v>3.9</v>
+      </c>
+      <c r="AG165">
+        <v>1.9</v>
+      </c>
+      <c r="AH165">
+        <v>1.9</v>
+      </c>
+      <c r="AI165">
+        <v>1.91</v>
+      </c>
+      <c r="AJ165">
+        <v>1.91</v>
+      </c>
+      <c r="AK165">
+        <v>2.39</v>
+      </c>
+      <c r="AL165">
+        <v>1.23</v>
+      </c>
+      <c r="AM165">
+        <v>1.16</v>
+      </c>
+      <c r="AN165">
+        <v>0.88</v>
+      </c>
+      <c r="AO165">
+        <v>1.5</v>
+      </c>
+      <c r="AP165">
+        <v>0.78</v>
+      </c>
+      <c r="AQ165">
+        <v>1.67</v>
+      </c>
+      <c r="AR165">
+        <v>1.31</v>
+      </c>
+      <c r="AS165">
+        <v>1.24</v>
+      </c>
+      <c r="AT165">
+        <v>2.55</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>6</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>16</v>
+      </c>
+      <c r="AZ165">
+        <v>15</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>6</v>
+      </c>
+      <c r="BD165">
+        <v>3.05</v>
+      </c>
+      <c r="BE165">
+        <v>7</v>
+      </c>
+      <c r="BF165">
+        <v>1.45</v>
+      </c>
+      <c r="BG165">
+        <v>1.2</v>
+      </c>
+      <c r="BH165">
+        <v>3.95</v>
+      </c>
+      <c r="BI165">
+        <v>1.35</v>
+      </c>
+      <c r="BJ165">
+        <v>2.9</v>
+      </c>
+      <c r="BK165">
+        <v>1.57</v>
+      </c>
+      <c r="BL165">
+        <v>2.23</v>
+      </c>
+      <c r="BM165">
+        <v>1.9</v>
+      </c>
+      <c r="BN165">
+        <v>1.79</v>
+      </c>
+      <c r="BO165">
+        <v>2.33</v>
+      </c>
+      <c r="BP165">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['16', '65']</t>
   </si>
   <si>
+    <t>['41', '72', '83']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -904,7 +907,16 @@
     <t>['1', '32', '45+2', '54']</t>
   </si>
   <si>
-    <t>['6', '14', '38', '60', '84']</t>
+    <t>['6', '15', '38', '60', '84']</t>
+  </si>
+  <si>
+    <t>['19', '36', '44']</t>
+  </si>
+  <si>
+    <t>['29', '61', '63']</t>
+  </si>
+  <si>
+    <t>['23', '36', '45+1', '54', '61', '85']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1731,7 +1743,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1812,7 +1824,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ3">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2018,7 +2030,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2143,7 +2155,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2221,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2430,7 +2442,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2555,7 +2567,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2636,7 +2648,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2761,7 +2773,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3173,7 +3185,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3585,7 +3597,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3869,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4487,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.63</v>
@@ -4821,7 +4833,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5027,7 +5039,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5233,7 +5245,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5314,7 +5326,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5932,7 +5944,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>1.78</v>
@@ -6057,7 +6069,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6135,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6263,7 +6275,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6550,7 +6562,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ26">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6675,7 +6687,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6753,10 +6765,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -6881,7 +6893,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7087,7 +7099,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7499,7 +7511,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7577,10 +7589,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7705,7 +7717,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8401,7 +8413,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>1.13</v>
@@ -8529,7 +8541,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8941,7 +8953,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9147,7 +9159,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9228,7 +9240,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9353,7 +9365,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9431,7 +9443,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9559,7 +9571,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9765,7 +9777,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9846,7 +9858,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10052,7 +10064,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10255,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10670,7 +10682,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10795,7 +10807,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10873,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11079,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48">
         <v>0.13</v>
@@ -11619,7 +11631,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11825,7 +11837,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12031,7 +12043,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12237,7 +12249,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12649,7 +12661,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12933,7 +12945,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.13</v>
@@ -13061,7 +13073,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13142,7 +13154,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ58">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13267,7 +13279,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13473,7 +13485,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13551,7 +13563,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13679,7 +13691,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13760,7 +13772,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13885,7 +13897,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13966,7 +13978,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14172,7 +14184,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR63">
         <v>2.4</v>
@@ -14297,7 +14309,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14503,7 +14515,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14584,7 +14596,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14709,7 +14721,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14993,10 +15005,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15199,7 +15211,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15739,7 +15751,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15945,7 +15957,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16023,7 +16035,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16151,7 +16163,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16357,7 +16369,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16563,7 +16575,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16641,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>0.13</v>
@@ -16769,7 +16781,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16847,7 +16859,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -16975,7 +16987,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17387,7 +17399,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17593,7 +17605,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17674,7 +17686,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ80">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18005,7 +18017,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18083,7 +18095,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.89</v>
@@ -18292,7 +18304,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18417,7 +18429,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18498,7 +18510,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18623,7 +18635,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18704,7 +18716,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -18829,7 +18841,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19035,7 +19047,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19113,7 +19125,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>1.25</v>
@@ -19241,7 +19253,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19653,7 +19665,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19859,7 +19871,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19940,7 +19952,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -20889,7 +20901,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -21095,7 +21107,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21301,7 +21313,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21507,7 +21519,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21585,7 +21597,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>1.25</v>
@@ -21713,7 +21725,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21791,10 +21803,10 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -21997,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>0.13</v>
@@ -22125,7 +22137,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22206,7 +22218,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22412,7 +22424,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ103">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR103">
         <v>1.17</v>
@@ -22537,7 +22549,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23439,7 +23451,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23567,7 +23579,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23773,7 +23785,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23851,7 +23863,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23979,7 +23991,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24185,7 +24197,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24263,10 +24275,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24391,7 +24403,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24469,10 +24481,10 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -24675,7 +24687,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
         <v>0.13</v>
@@ -25009,7 +25021,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25215,7 +25227,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25421,7 +25433,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25627,7 +25639,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25708,7 +25720,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ119">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -25833,7 +25845,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26039,7 +26051,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26245,7 +26257,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26326,7 +26338,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ122">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26657,7 +26669,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27069,7 +27081,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27150,7 +27162,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR126">
         <v>1.13</v>
@@ -27275,7 +27287,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27559,7 +27571,7 @@
         <v>0.83</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>0.75</v>
@@ -27687,7 +27699,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27765,7 +27777,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ129">
         <v>1.25</v>
@@ -28305,7 +28317,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28589,7 +28601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>1.13</v>
@@ -28923,7 +28935,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29004,7 +29016,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR135">
         <v>1.25</v>
@@ -29129,7 +29141,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29210,7 +29222,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ136">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29413,10 +29425,10 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30031,7 +30043,7 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30365,7 +30377,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30571,7 +30583,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30858,7 +30870,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -30983,7 +30995,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31061,7 +31073,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>1.89</v>
@@ -31189,7 +31201,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31267,7 +31279,7 @@
         <v>1.57</v>
       </c>
       <c r="AP146">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ146">
         <v>1.67</v>
@@ -31395,7 +31407,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31476,7 +31488,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -31601,7 +31613,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31679,7 +31691,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
         <v>1.33</v>
@@ -31807,7 +31819,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31885,10 +31897,10 @@
         <v>2.29</v>
       </c>
       <c r="AP149">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32094,7 +32106,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32425,7 +32437,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32631,7 +32643,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33043,7 +33055,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33249,7 +33261,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33455,7 +33467,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33867,7 +33879,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34485,7 +34497,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34691,7 +34703,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34897,7 +34909,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35103,7 +35115,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35260,6 +35272,1036 @@
       </c>
       <c r="BP165">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7466844</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166" t="s">
+        <v>78</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>91</v>
+      </c>
+      <c r="P166" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q166">
+        <v>5</v>
+      </c>
+      <c r="R166">
+        <v>2.38</v>
+      </c>
+      <c r="S166">
+        <v>2.2</v>
+      </c>
+      <c r="T166">
+        <v>1.3</v>
+      </c>
+      <c r="U166">
+        <v>3.4</v>
+      </c>
+      <c r="V166">
+        <v>2.5</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.13</v>
+      </c>
+      <c r="Z166">
+        <v>5.5</v>
+      </c>
+      <c r="AA166">
+        <v>3.9</v>
+      </c>
+      <c r="AB166">
+        <v>1.61</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>17</v>
+      </c>
+      <c r="AE166">
+        <v>1.21</v>
+      </c>
+      <c r="AF166">
+        <v>4.7</v>
+      </c>
+      <c r="AG166">
+        <v>1.7</v>
+      </c>
+      <c r="AH166">
+        <v>2.05</v>
+      </c>
+      <c r="AI166">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>2.44</v>
+      </c>
+      <c r="AL166">
+        <v>1.21</v>
+      </c>
+      <c r="AM166">
+        <v>1.17</v>
+      </c>
+      <c r="AN166">
+        <v>1.29</v>
+      </c>
+      <c r="AO166">
+        <v>2.38</v>
+      </c>
+      <c r="AP166">
+        <v>1.25</v>
+      </c>
+      <c r="AQ166">
+        <v>2.22</v>
+      </c>
+      <c r="AR166">
+        <v>1.39</v>
+      </c>
+      <c r="AS166">
+        <v>1.65</v>
+      </c>
+      <c r="AT166">
+        <v>3.04</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>6</v>
+      </c>
+      <c r="AW166">
+        <v>0</v>
+      </c>
+      <c r="AX166">
+        <v>3</v>
+      </c>
+      <c r="AY166">
+        <v>6</v>
+      </c>
+      <c r="AZ166">
+        <v>13</v>
+      </c>
+      <c r="BA166">
+        <v>2</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>7</v>
+      </c>
+      <c r="BD166">
+        <v>3.15</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>1.41</v>
+      </c>
+      <c r="BG166">
+        <v>1.2</v>
+      </c>
+      <c r="BH166">
+        <v>3.95</v>
+      </c>
+      <c r="BI166">
+        <v>1.35</v>
+      </c>
+      <c r="BJ166">
+        <v>2.9</v>
+      </c>
+      <c r="BK166">
+        <v>1.57</v>
+      </c>
+      <c r="BL166">
+        <v>2.23</v>
+      </c>
+      <c r="BM166">
+        <v>1.9</v>
+      </c>
+      <c r="BN166">
+        <v>1.79</v>
+      </c>
+      <c r="BO166">
+        <v>2.38</v>
+      </c>
+      <c r="BP166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7466845</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>84</v>
+      </c>
+      <c r="H167" t="s">
+        <v>82</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>91</v>
+      </c>
+      <c r="P167" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q167">
+        <v>1.91</v>
+      </c>
+      <c r="R167">
+        <v>2.6</v>
+      </c>
+      <c r="S167">
+        <v>6</v>
+      </c>
+      <c r="T167">
+        <v>1.29</v>
+      </c>
+      <c r="U167">
+        <v>3.5</v>
+      </c>
+      <c r="V167">
+        <v>2.25</v>
+      </c>
+      <c r="W167">
+        <v>1.57</v>
+      </c>
+      <c r="X167">
+        <v>5.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.14</v>
+      </c>
+      <c r="Z167">
+        <v>1.55</v>
+      </c>
+      <c r="AA167">
+        <v>4.2</v>
+      </c>
+      <c r="AB167">
+        <v>6</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>21</v>
+      </c>
+      <c r="AE167">
+        <v>1.17</v>
+      </c>
+      <c r="AF167">
+        <v>5.4</v>
+      </c>
+      <c r="AG167">
+        <v>1.61</v>
+      </c>
+      <c r="AH167">
+        <v>2.2</v>
+      </c>
+      <c r="AI167">
+        <v>1.7</v>
+      </c>
+      <c r="AJ167">
+        <v>2.05</v>
+      </c>
+      <c r="AK167">
+        <v>1.1</v>
+      </c>
+      <c r="AL167">
+        <v>1.17</v>
+      </c>
+      <c r="AM167">
+        <v>2.92</v>
+      </c>
+      <c r="AN167">
+        <v>1.75</v>
+      </c>
+      <c r="AO167">
+        <v>0.13</v>
+      </c>
+      <c r="AP167">
+        <v>1.67</v>
+      </c>
+      <c r="AQ167">
+        <v>0.22</v>
+      </c>
+      <c r="AR167">
+        <v>1.59</v>
+      </c>
+      <c r="AS167">
+        <v>1.01</v>
+      </c>
+      <c r="AT167">
+        <v>2.6</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>1</v>
+      </c>
+      <c r="AY167">
+        <v>17</v>
+      </c>
+      <c r="AZ167">
+        <v>6</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>11</v>
+      </c>
+      <c r="BD167">
+        <v>1.23</v>
+      </c>
+      <c r="BE167">
+        <v>8.5</v>
+      </c>
+      <c r="BF167">
+        <v>4.4</v>
+      </c>
+      <c r="BG167">
+        <v>1.15</v>
+      </c>
+      <c r="BH167">
+        <v>4.6</v>
+      </c>
+      <c r="BI167">
+        <v>1.27</v>
+      </c>
+      <c r="BJ167">
+        <v>3.3</v>
+      </c>
+      <c r="BK167">
+        <v>1.44</v>
+      </c>
+      <c r="BL167">
+        <v>2.55</v>
+      </c>
+      <c r="BM167">
+        <v>1.72</v>
+      </c>
+      <c r="BN167">
+        <v>1.98</v>
+      </c>
+      <c r="BO167">
+        <v>2.08</v>
+      </c>
+      <c r="BP167">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7466847</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s">
+        <v>88</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>3</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>91</v>
+      </c>
+      <c r="P168" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>2.3</v>
+      </c>
+      <c r="S168">
+        <v>3.2</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.25</v>
+      </c>
+      <c r="V168">
+        <v>2.5</v>
+      </c>
+      <c r="W168">
+        <v>1.5</v>
+      </c>
+      <c r="X168">
+        <v>6.5</v>
+      </c>
+      <c r="Y168">
+        <v>1.11</v>
+      </c>
+      <c r="Z168">
+        <v>2.4</v>
+      </c>
+      <c r="AA168">
+        <v>3.7</v>
+      </c>
+      <c r="AB168">
+        <v>2.75</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>15</v>
+      </c>
+      <c r="AE168">
+        <v>1.23</v>
+      </c>
+      <c r="AF168">
+        <v>4.45</v>
+      </c>
+      <c r="AG168">
+        <v>1.67</v>
+      </c>
+      <c r="AH168">
+        <v>2.2</v>
+      </c>
+      <c r="AI168">
+        <v>1.53</v>
+      </c>
+      <c r="AJ168">
+        <v>2.38</v>
+      </c>
+      <c r="AK168">
+        <v>1.49</v>
+      </c>
+      <c r="AL168">
+        <v>1.29</v>
+      </c>
+      <c r="AM168">
+        <v>1.57</v>
+      </c>
+      <c r="AN168">
+        <v>1.13</v>
+      </c>
+      <c r="AO168">
+        <v>0.63</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
+        <v>0.89</v>
+      </c>
+      <c r="AR168">
+        <v>1.06</v>
+      </c>
+      <c r="AS168">
+        <v>1.25</v>
+      </c>
+      <c r="AT168">
+        <v>2.31</v>
+      </c>
+      <c r="AU168">
+        <v>6</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>2</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>1.74</v>
+      </c>
+      <c r="BE168">
+        <v>6.75</v>
+      </c>
+      <c r="BF168">
+        <v>2.3</v>
+      </c>
+      <c r="BG168">
+        <v>1.18</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>1.34</v>
+      </c>
+      <c r="BJ168">
+        <v>2.9</v>
+      </c>
+      <c r="BK168">
+        <v>1.57</v>
+      </c>
+      <c r="BL168">
+        <v>2.23</v>
+      </c>
+      <c r="BM168">
+        <v>1.91</v>
+      </c>
+      <c r="BN168">
+        <v>1.78</v>
+      </c>
+      <c r="BO168">
+        <v>2.38</v>
+      </c>
+      <c r="BP168">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7466848</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>87</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>91</v>
+      </c>
+      <c r="P169" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q169">
+        <v>2.38</v>
+      </c>
+      <c r="R169">
+        <v>2.4</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>2.38</v>
+      </c>
+      <c r="W169">
+        <v>1.53</v>
+      </c>
+      <c r="X169">
+        <v>5.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.14</v>
+      </c>
+      <c r="Z169">
+        <v>1.75</v>
+      </c>
+      <c r="AA169">
+        <v>3.8</v>
+      </c>
+      <c r="AB169">
+        <v>4.33</v>
+      </c>
+      <c r="AC169">
+        <v>1.03</v>
+      </c>
+      <c r="AD169">
+        <v>17</v>
+      </c>
+      <c r="AE169">
+        <v>1.19</v>
+      </c>
+      <c r="AF169">
+        <v>5</v>
+      </c>
+      <c r="AG169">
+        <v>1.75</v>
+      </c>
+      <c r="AH169">
+        <v>2</v>
+      </c>
+      <c r="AI169">
+        <v>1.57</v>
+      </c>
+      <c r="AJ169">
+        <v>2.25</v>
+      </c>
+      <c r="AK169">
+        <v>1.26</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>2.02</v>
+      </c>
+      <c r="AN169">
+        <v>1.63</v>
+      </c>
+      <c r="AO169">
+        <v>1.38</v>
+      </c>
+      <c r="AP169">
+        <v>1.44</v>
+      </c>
+      <c r="AQ169">
+        <v>1.56</v>
+      </c>
+      <c r="AR169">
+        <v>1.46</v>
+      </c>
+      <c r="AS169">
+        <v>1.57</v>
+      </c>
+      <c r="AT169">
+        <v>3.03</v>
+      </c>
+      <c r="AU169">
+        <v>8</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>10</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>24</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>13</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>14</v>
+      </c>
+      <c r="BD169">
+        <v>1.76</v>
+      </c>
+      <c r="BE169">
+        <v>6.75</v>
+      </c>
+      <c r="BF169">
+        <v>2.23</v>
+      </c>
+      <c r="BG169">
+        <v>1.18</v>
+      </c>
+      <c r="BH169">
+        <v>4.1</v>
+      </c>
+      <c r="BI169">
+        <v>1.32</v>
+      </c>
+      <c r="BJ169">
+        <v>3.05</v>
+      </c>
+      <c r="BK169">
+        <v>1.53</v>
+      </c>
+      <c r="BL169">
+        <v>2.32</v>
+      </c>
+      <c r="BM169">
+        <v>1.84</v>
+      </c>
+      <c r="BN169">
+        <v>1.84</v>
+      </c>
+      <c r="BO169">
+        <v>2.3</v>
+      </c>
+      <c r="BP169">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7466849</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45648.5625</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" t="s">
+        <v>89</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>3</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>6</v>
+      </c>
+      <c r="N170">
+        <v>9</v>
+      </c>
+      <c r="O170" t="s">
+        <v>210</v>
+      </c>
+      <c r="P170" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q170">
+        <v>3.75</v>
+      </c>
+      <c r="R170">
+        <v>2.75</v>
+      </c>
+      <c r="S170">
+        <v>2.2</v>
+      </c>
+      <c r="T170">
+        <v>1.18</v>
+      </c>
+      <c r="U170">
+        <v>4.5</v>
+      </c>
+      <c r="V170">
+        <v>1.83</v>
+      </c>
+      <c r="W170">
+        <v>1.83</v>
+      </c>
+      <c r="X170">
+        <v>3.75</v>
+      </c>
+      <c r="Y170">
+        <v>1.25</v>
+      </c>
+      <c r="Z170">
+        <v>3.36</v>
+      </c>
+      <c r="AA170">
+        <v>4.08</v>
+      </c>
+      <c r="AB170">
+        <v>2.07</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>32</v>
+      </c>
+      <c r="AE170">
+        <v>1.09</v>
+      </c>
+      <c r="AF170">
+        <v>8.4</v>
+      </c>
+      <c r="AG170">
+        <v>1.3</v>
+      </c>
+      <c r="AH170">
+        <v>3.4</v>
+      </c>
+      <c r="AI170">
+        <v>1.33</v>
+      </c>
+      <c r="AJ170">
+        <v>3.25</v>
+      </c>
+      <c r="AK170">
+        <v>2.23</v>
+      </c>
+      <c r="AL170">
+        <v>1.21</v>
+      </c>
+      <c r="AM170">
+        <v>1.22</v>
+      </c>
+      <c r="AN170">
+        <v>1.63</v>
+      </c>
+      <c r="AO170">
+        <v>2.43</v>
+      </c>
+      <c r="AP170">
+        <v>1.44</v>
+      </c>
+      <c r="AQ170">
+        <v>2.5</v>
+      </c>
+      <c r="AR170">
+        <v>1.79</v>
+      </c>
+      <c r="AS170">
+        <v>1.64</v>
+      </c>
+      <c r="AT170">
+        <v>3.43</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>13</v>
+      </c>
+      <c r="AW170">
+        <v>3</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>25</v>
+      </c>
+      <c r="BA170">
+        <v>7</v>
+      </c>
+      <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>12</v>
+      </c>
+      <c r="BD170">
+        <v>2.35</v>
+      </c>
+      <c r="BE170">
+        <v>7</v>
+      </c>
+      <c r="BF170">
+        <v>1.68</v>
+      </c>
+      <c r="BG170">
+        <v>1.08</v>
+      </c>
+      <c r="BH170">
+        <v>5.8</v>
+      </c>
+      <c r="BI170">
+        <v>1.16</v>
+      </c>
+      <c r="BJ170">
+        <v>4.3</v>
+      </c>
+      <c r="BK170">
+        <v>1.29</v>
+      </c>
+      <c r="BL170">
+        <v>3.15</v>
+      </c>
+      <c r="BM170">
+        <v>1.47</v>
+      </c>
+      <c r="BN170">
+        <v>2.43</v>
+      </c>
+      <c r="BO170">
+        <v>1.74</v>
+      </c>
+      <c r="BP170">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -36115,7 +36115,7 @@
         <v>45648.5625</v>
       </c>
       <c r="F170">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>81</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,21 @@
     <t>['41', '72', '83']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '59', '90+1']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['58', '90+9']</t>
+  </si>
+  <si>
+    <t>['45+1', '49', '82']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -796,9 +811,6 @@
     <t>['18', '81']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['82']</t>
   </si>
   <si>
@@ -917,6 +929,9 @@
   </si>
   <si>
     <t>['23', '36', '45+1', '54', '61', '85']</t>
+  </si>
+  <si>
+    <t>['82', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1633,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1743,7 +1758,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2155,7 +2170,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2439,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>0.22</v>
@@ -2567,7 +2582,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2645,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
         <v>1.56</v>
@@ -2773,7 +2788,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2854,7 +2869,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3060,7 +3075,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3185,7 +3200,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3263,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1.22</v>
@@ -3472,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3597,7 +3612,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3678,7 +3693,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3884,7 +3899,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4087,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ14">
         <v>1.89</v>
@@ -4296,7 +4311,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4502,7 +4517,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4705,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4833,7 +4848,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5039,7 +5054,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5117,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5245,7 +5260,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5323,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ20">
         <v>2.22</v>
@@ -5529,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ21">
         <v>0.13</v>
@@ -5941,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -6069,7 +6084,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6150,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>0.86</v>
@@ -6275,7 +6290,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6356,7 +6371,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>0.77</v>
@@ -6687,7 +6702,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6893,7 +6908,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7099,7 +7114,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7177,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7383,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -7511,7 +7526,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7717,7 +7732,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7795,10 +7810,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.65</v>
@@ -8001,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ33">
         <v>0.13</v>
@@ -8207,7 +8222,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ34">
         <v>1.89</v>
@@ -8416,7 +8431,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -8541,7 +8556,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8622,7 +8637,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ36">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36">
         <v>1.29</v>
@@ -8953,7 +8968,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9034,7 +9049,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9159,7 +9174,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9237,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>2.22</v>
@@ -9365,7 +9380,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9571,7 +9586,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9649,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9777,7 +9792,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10061,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ43">
         <v>1.56</v>
@@ -10270,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -10473,7 +10488,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10807,7 +10822,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11300,7 +11315,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11631,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11709,7 +11724,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11837,7 +11852,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11915,7 +11930,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52">
         <v>1.22</v>
@@ -12043,7 +12058,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12121,10 +12136,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12249,7 +12264,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12330,7 +12345,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>1.6</v>
@@ -12536,7 +12551,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12661,7 +12676,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12739,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12948,7 +12963,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13073,7 +13088,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13151,7 +13166,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ58">
         <v>2.5</v>
@@ -13279,7 +13294,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13360,7 +13375,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13485,7 +13500,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13566,7 +13581,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -13691,7 +13706,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13769,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>0.22</v>
@@ -13897,7 +13912,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14309,7 +14324,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14515,7 +14530,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14721,7 +14736,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14799,10 +14814,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>2.4</v>
@@ -15420,7 +15435,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15623,7 +15638,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>1.89</v>
@@ -15751,7 +15766,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15832,7 +15847,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15957,7 +15972,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16038,7 +16053,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16163,7 +16178,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16241,7 +16256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16369,7 +16384,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16447,10 +16462,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR74">
         <v>0.91</v>
@@ -16575,7 +16590,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16781,7 +16796,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16862,7 +16877,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>2.01</v>
@@ -16987,7 +17002,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17068,7 +17083,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17271,7 +17286,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17399,7 +17414,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17477,7 +17492,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
         <v>1.22</v>
@@ -17605,7 +17620,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17683,7 +17698,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ80">
         <v>2.22</v>
@@ -17889,10 +17904,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18017,7 +18032,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18301,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83">
         <v>0.22</v>
@@ -18429,7 +18444,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18635,7 +18650,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18841,7 +18856,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19047,7 +19062,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19128,7 +19143,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19253,7 +19268,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19331,7 +19346,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19540,7 +19555,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19665,7 +19680,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19746,7 +19761,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19871,7 +19886,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20155,7 +20170,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20361,10 +20376,10 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20567,10 +20582,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.09</v>
@@ -20776,7 +20791,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -20901,7 +20916,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>1.83</v>
@@ -20979,7 +20994,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21107,7 +21122,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21185,7 +21200,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
         <v>1.22</v>
@@ -21313,7 +21328,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21391,10 +21406,10 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21519,7 +21534,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21600,7 +21615,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.99</v>
@@ -21725,7 +21740,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22137,7 +22152,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22421,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ103">
         <v>0.22</v>
@@ -22549,7 +22564,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22630,7 +22645,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.37</v>
@@ -22836,7 +22851,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.57</v>
@@ -23245,10 +23260,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -23454,7 +23469,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23579,7 +23594,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23657,7 +23672,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23785,7 +23800,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23991,7 +24006,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24069,7 +24084,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24197,7 +24212,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24403,7 +24418,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25021,7 +25036,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25099,7 +25114,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
         <v>1.33</v>
@@ -25227,7 +25242,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25308,7 +25323,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25433,7 +25448,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25511,10 +25526,10 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
         <v>2.34</v>
@@ -25639,7 +25654,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25717,7 +25732,7 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ119">
         <v>2.5</v>
@@ -25845,7 +25860,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25926,7 +25941,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -26051,7 +26066,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26129,10 +26144,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26257,7 +26272,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26541,7 +26556,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26669,7 +26684,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26956,7 +26971,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ125">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR125">
         <v>1.7</v>
@@ -27081,7 +27096,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27159,7 +27174,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ126">
         <v>1.56</v>
@@ -27287,7 +27302,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27574,7 +27589,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ128">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
         <v>1.43</v>
@@ -27699,7 +27714,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27780,7 +27795,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.95</v>
@@ -27983,10 +27998,10 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28189,7 +28204,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ131">
         <v>1.22</v>
@@ -28317,7 +28332,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28398,7 +28413,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ132">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.18</v>
@@ -28604,7 +28619,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
         <v>1.02</v>
@@ -28807,7 +28822,7 @@
         <v>1.83</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>1.89</v>
@@ -28935,7 +28950,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29013,7 +29028,7 @@
         <v>2.67</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ135">
         <v>2.5</v>
@@ -29141,7 +29156,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29219,7 +29234,7 @@
         <v>2.17</v>
       </c>
       <c r="AP136">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ136">
         <v>2.22</v>
@@ -29840,7 +29855,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>2.18</v>
@@ -30249,10 +30264,10 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30377,7 +30392,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30583,7 +30598,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30995,7 +31010,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31201,7 +31216,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31407,7 +31422,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31613,7 +31628,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31819,7 +31834,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32309,10 +32324,10 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ151">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR151">
         <v>1.32</v>
@@ -32437,7 +32452,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32515,10 +32530,10 @@
         <v>1.29</v>
       </c>
       <c r="AP152">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.76</v>
@@ -32643,7 +32658,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32721,7 +32736,7 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -32930,7 +32945,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ154">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>2.08</v>
@@ -33055,7 +33070,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33133,10 +33148,10 @@
         <v>1.43</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -33261,7 +33276,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33342,7 +33357,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR156">
         <v>1.53</v>
@@ -33467,7 +33482,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33545,10 +33560,10 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>2.25</v>
@@ -33751,7 +33766,7 @@
         <v>0.14</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ158">
         <v>0.13</v>
@@ -33879,7 +33894,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -33957,10 +33972,10 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ159">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR159">
         <v>1.06</v>
@@ -34163,10 +34178,10 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.69</v>
@@ -34497,7 +34512,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34703,7 +34718,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34909,7 +34924,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35115,7 +35130,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35733,7 +35748,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35939,7 +35954,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36145,7 +36160,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36302,6 +36317,1654 @@
       </c>
       <c r="BP170">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7466856</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45652.39583333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>85</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>211</v>
+      </c>
+      <c r="P171" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q171">
+        <v>1.73</v>
+      </c>
+      <c r="R171">
+        <v>2.63</v>
+      </c>
+      <c r="S171">
+        <v>8</v>
+      </c>
+      <c r="T171">
+        <v>1.29</v>
+      </c>
+      <c r="U171">
+        <v>3.5</v>
+      </c>
+      <c r="V171">
+        <v>2.25</v>
+      </c>
+      <c r="W171">
+        <v>1.57</v>
+      </c>
+      <c r="X171">
+        <v>5.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.14</v>
+      </c>
+      <c r="Z171">
+        <v>1.34</v>
+      </c>
+      <c r="AA171">
+        <v>5.6</v>
+      </c>
+      <c r="AB171">
+        <v>9.4</v>
+      </c>
+      <c r="AC171">
+        <v>1.02</v>
+      </c>
+      <c r="AD171">
+        <v>21</v>
+      </c>
+      <c r="AE171">
+        <v>1.18</v>
+      </c>
+      <c r="AF171">
+        <v>5.2</v>
+      </c>
+      <c r="AG171">
+        <v>1.53</v>
+      </c>
+      <c r="AH171">
+        <v>2.35</v>
+      </c>
+      <c r="AI171">
+        <v>1.95</v>
+      </c>
+      <c r="AJ171">
+        <v>1.8</v>
+      </c>
+      <c r="AK171">
+        <v>1.07</v>
+      </c>
+      <c r="AL171">
+        <v>1.14</v>
+      </c>
+      <c r="AM171">
+        <v>3.25</v>
+      </c>
+      <c r="AN171">
+        <v>2</v>
+      </c>
+      <c r="AO171">
+        <v>0.75</v>
+      </c>
+      <c r="AP171">
+        <v>1.89</v>
+      </c>
+      <c r="AQ171">
+        <v>0.78</v>
+      </c>
+      <c r="AR171">
+        <v>2.11</v>
+      </c>
+      <c r="AS171">
+        <v>1.13</v>
+      </c>
+      <c r="AT171">
+        <v>3.24</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>9</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>25</v>
+      </c>
+      <c r="AZ171">
+        <v>9</v>
+      </c>
+      <c r="BA171">
+        <v>8</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>13</v>
+      </c>
+      <c r="BD171">
+        <v>1.09</v>
+      </c>
+      <c r="BE171">
+        <v>11.5</v>
+      </c>
+      <c r="BF171">
+        <v>7</v>
+      </c>
+      <c r="BG171">
+        <v>1.17</v>
+      </c>
+      <c r="BH171">
+        <v>4.3</v>
+      </c>
+      <c r="BI171">
+        <v>1.3</v>
+      </c>
+      <c r="BJ171">
+        <v>3.05</v>
+      </c>
+      <c r="BK171">
+        <v>1.5</v>
+      </c>
+      <c r="BL171">
+        <v>2.35</v>
+      </c>
+      <c r="BM171">
+        <v>1.78</v>
+      </c>
+      <c r="BN171">
+        <v>1.9</v>
+      </c>
+      <c r="BO171">
+        <v>2.18</v>
+      </c>
+      <c r="BP171">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7466851</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+      <c r="H172" t="s">
+        <v>83</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>91</v>
+      </c>
+      <c r="P172" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q172">
+        <v>2.6</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>1.33</v>
+      </c>
+      <c r="U172">
+        <v>3.25</v>
+      </c>
+      <c r="V172">
+        <v>2.63</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>6.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.11</v>
+      </c>
+      <c r="Z172">
+        <v>2</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>3.4</v>
+      </c>
+      <c r="AC172">
+        <v>1.04</v>
+      </c>
+      <c r="AD172">
+        <v>14</v>
+      </c>
+      <c r="AE172">
+        <v>1.24</v>
+      </c>
+      <c r="AF172">
+        <v>4.25</v>
+      </c>
+      <c r="AG172">
+        <v>1.7</v>
+      </c>
+      <c r="AH172">
+        <v>2.1</v>
+      </c>
+      <c r="AI172">
+        <v>1.67</v>
+      </c>
+      <c r="AJ172">
+        <v>2.1</v>
+      </c>
+      <c r="AK172">
+        <v>1.32</v>
+      </c>
+      <c r="AL172">
+        <v>1.27</v>
+      </c>
+      <c r="AM172">
+        <v>1.82</v>
+      </c>
+      <c r="AN172">
+        <v>1.75</v>
+      </c>
+      <c r="AO172">
+        <v>1.13</v>
+      </c>
+      <c r="AP172">
+        <v>1.67</v>
+      </c>
+      <c r="AQ172">
+        <v>1.11</v>
+      </c>
+      <c r="AR172">
+        <v>1.74</v>
+      </c>
+      <c r="AS172">
+        <v>1.44</v>
+      </c>
+      <c r="AT172">
+        <v>3.18</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>10</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>19</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>5</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>7</v>
+      </c>
+      <c r="BD172">
+        <v>1.49</v>
+      </c>
+      <c r="BE172">
+        <v>7</v>
+      </c>
+      <c r="BF172">
+        <v>2.9</v>
+      </c>
+      <c r="BG172">
+        <v>1.16</v>
+      </c>
+      <c r="BH172">
+        <v>4.4</v>
+      </c>
+      <c r="BI172">
+        <v>1.29</v>
+      </c>
+      <c r="BJ172">
+        <v>3.2</v>
+      </c>
+      <c r="BK172">
+        <v>1.49</v>
+      </c>
+      <c r="BL172">
+        <v>2.4</v>
+      </c>
+      <c r="BM172">
+        <v>1.74</v>
+      </c>
+      <c r="BN172">
+        <v>1.96</v>
+      </c>
+      <c r="BO172">
+        <v>2.18</v>
+      </c>
+      <c r="BP172">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7466854</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" t="s">
+        <v>84</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>137</v>
+      </c>
+      <c r="P173" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q173">
+        <v>1.95</v>
+      </c>
+      <c r="R173">
+        <v>2.63</v>
+      </c>
+      <c r="S173">
+        <v>5.5</v>
+      </c>
+      <c r="T173">
+        <v>1.25</v>
+      </c>
+      <c r="U173">
+        <v>3.75</v>
+      </c>
+      <c r="V173">
+        <v>2.1</v>
+      </c>
+      <c r="W173">
+        <v>1.67</v>
+      </c>
+      <c r="X173">
+        <v>4.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.18</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>4.75</v>
+      </c>
+      <c r="AB173">
+        <v>5.75</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>25</v>
+      </c>
+      <c r="AE173">
+        <v>1.14</v>
+      </c>
+      <c r="AF173">
+        <v>6.2</v>
+      </c>
+      <c r="AG173">
+        <v>1.45</v>
+      </c>
+      <c r="AH173">
+        <v>2.7</v>
+      </c>
+      <c r="AI173">
+        <v>1.57</v>
+      </c>
+      <c r="AJ173">
+        <v>2.25</v>
+      </c>
+      <c r="AK173">
+        <v>1.13</v>
+      </c>
+      <c r="AL173">
+        <v>1.17</v>
+      </c>
+      <c r="AM173">
+        <v>2.7</v>
+      </c>
+      <c r="AN173">
+        <v>1.88</v>
+      </c>
+      <c r="AO173">
+        <v>1.25</v>
+      </c>
+      <c r="AP173">
+        <v>1.67</v>
+      </c>
+      <c r="AQ173">
+        <v>1.44</v>
+      </c>
+      <c r="AR173">
+        <v>1.78</v>
+      </c>
+      <c r="AS173">
+        <v>1.32</v>
+      </c>
+      <c r="AT173">
+        <v>3.1</v>
+      </c>
+      <c r="AU173">
+        <v>9</v>
+      </c>
+      <c r="AV173">
+        <v>8</v>
+      </c>
+      <c r="AW173">
+        <v>1</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>13</v>
+      </c>
+      <c r="AZ173">
+        <v>15</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>4</v>
+      </c>
+      <c r="BD173">
+        <v>1.38</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>3.4</v>
+      </c>
+      <c r="BG173">
+        <v>1.2</v>
+      </c>
+      <c r="BH173">
+        <v>3.95</v>
+      </c>
+      <c r="BI173">
+        <v>1.34</v>
+      </c>
+      <c r="BJ173">
+        <v>2.9</v>
+      </c>
+      <c r="BK173">
+        <v>1.57</v>
+      </c>
+      <c r="BL173">
+        <v>2.23</v>
+      </c>
+      <c r="BM173">
+        <v>1.91</v>
+      </c>
+      <c r="BN173">
+        <v>1.78</v>
+      </c>
+      <c r="BO173">
+        <v>2.38</v>
+      </c>
+      <c r="BP173">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7466857</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>86</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>212</v>
+      </c>
+      <c r="P174" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q174">
+        <v>2.5</v>
+      </c>
+      <c r="R174">
+        <v>2.38</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.3</v>
+      </c>
+      <c r="U174">
+        <v>3.4</v>
+      </c>
+      <c r="V174">
+        <v>2.5</v>
+      </c>
+      <c r="W174">
+        <v>1.5</v>
+      </c>
+      <c r="X174">
+        <v>6</v>
+      </c>
+      <c r="Y174">
+        <v>1.13</v>
+      </c>
+      <c r="Z174">
+        <v>1.8</v>
+      </c>
+      <c r="AA174">
+        <v>3.9</v>
+      </c>
+      <c r="AB174">
+        <v>3.9</v>
+      </c>
+      <c r="AC174">
+        <v>1.03</v>
+      </c>
+      <c r="AD174">
+        <v>17</v>
+      </c>
+      <c r="AE174">
+        <v>1.21</v>
+      </c>
+      <c r="AF174">
+        <v>4.7</v>
+      </c>
+      <c r="AG174">
+        <v>1.62</v>
+      </c>
+      <c r="AH174">
+        <v>2.25</v>
+      </c>
+      <c r="AI174">
+        <v>1.57</v>
+      </c>
+      <c r="AJ174">
+        <v>2.25</v>
+      </c>
+      <c r="AK174">
+        <v>1.26</v>
+      </c>
+      <c r="AL174">
+        <v>1.24</v>
+      </c>
+      <c r="AM174">
+        <v>2.03</v>
+      </c>
+      <c r="AN174">
+        <v>1.75</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.89</v>
+      </c>
+      <c r="AQ174">
+        <v>1.11</v>
+      </c>
+      <c r="AR174">
+        <v>1.48</v>
+      </c>
+      <c r="AS174">
+        <v>1.19</v>
+      </c>
+      <c r="AT174">
+        <v>2.67</v>
+      </c>
+      <c r="AU174">
+        <v>9</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>7</v>
+      </c>
+      <c r="AX174">
+        <v>2</v>
+      </c>
+      <c r="AY174">
+        <v>23</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>9</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>15</v>
+      </c>
+      <c r="BD174">
+        <v>1.65</v>
+      </c>
+      <c r="BE174">
+        <v>7</v>
+      </c>
+      <c r="BF174">
+        <v>2.43</v>
+      </c>
+      <c r="BG174">
+        <v>1.15</v>
+      </c>
+      <c r="BH174">
+        <v>4.4</v>
+      </c>
+      <c r="BI174">
+        <v>1.29</v>
+      </c>
+      <c r="BJ174">
+        <v>3.15</v>
+      </c>
+      <c r="BK174">
+        <v>1.49</v>
+      </c>
+      <c r="BL174">
+        <v>2.4</v>
+      </c>
+      <c r="BM174">
+        <v>1.77</v>
+      </c>
+      <c r="BN174">
+        <v>1.92</v>
+      </c>
+      <c r="BO174">
+        <v>2.18</v>
+      </c>
+      <c r="BP174">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7466858</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s">
+        <v>81</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>213</v>
+      </c>
+      <c r="P175" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q175">
+        <v>3.1</v>
+      </c>
+      <c r="R175">
+        <v>2.38</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175">
+        <v>1.29</v>
+      </c>
+      <c r="U175">
+        <v>3.5</v>
+      </c>
+      <c r="V175">
+        <v>2.38</v>
+      </c>
+      <c r="W175">
+        <v>1.53</v>
+      </c>
+      <c r="X175">
+        <v>5.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.14</v>
+      </c>
+      <c r="Z175">
+        <v>2.5</v>
+      </c>
+      <c r="AA175">
+        <v>3.65</v>
+      </c>
+      <c r="AB175">
+        <v>2.5</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>18</v>
+      </c>
+      <c r="AE175">
+        <v>1.18</v>
+      </c>
+      <c r="AF175">
+        <v>5.2</v>
+      </c>
+      <c r="AG175">
+        <v>1.53</v>
+      </c>
+      <c r="AH175">
+        <v>2.45</v>
+      </c>
+      <c r="AI175">
+        <v>1.5</v>
+      </c>
+      <c r="AJ175">
+        <v>2.5</v>
+      </c>
+      <c r="AK175">
+        <v>1.55</v>
+      </c>
+      <c r="AL175">
+        <v>1.27</v>
+      </c>
+      <c r="AM175">
+        <v>1.53</v>
+      </c>
+      <c r="AN175">
+        <v>1.75</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.89</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>1.56</v>
+      </c>
+      <c r="AS175">
+        <v>1.69</v>
+      </c>
+      <c r="AT175">
+        <v>3.25</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>11</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>2.23</v>
+      </c>
+      <c r="BE175">
+        <v>7</v>
+      </c>
+      <c r="BF175">
+        <v>1.75</v>
+      </c>
+      <c r="BG175">
+        <v>1.1</v>
+      </c>
+      <c r="BH175">
+        <v>5.4</v>
+      </c>
+      <c r="BI175">
+        <v>1.2</v>
+      </c>
+      <c r="BJ175">
+        <v>3.9</v>
+      </c>
+      <c r="BK175">
+        <v>1.35</v>
+      </c>
+      <c r="BL175">
+        <v>2.9</v>
+      </c>
+      <c r="BM175">
+        <v>1.56</v>
+      </c>
+      <c r="BN175">
+        <v>2.23</v>
+      </c>
+      <c r="BO175">
+        <v>1.88</v>
+      </c>
+      <c r="BP175">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7466859</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>91</v>
+      </c>
+      <c r="P176" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q176">
+        <v>3.6</v>
+      </c>
+      <c r="R176">
+        <v>2.38</v>
+      </c>
+      <c r="S176">
+        <v>2.63</v>
+      </c>
+      <c r="T176">
+        <v>1.3</v>
+      </c>
+      <c r="U176">
+        <v>3.4</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.13</v>
+      </c>
+      <c r="Z176">
+        <v>3.25</v>
+      </c>
+      <c r="AA176">
+        <v>3.5</v>
+      </c>
+      <c r="AB176">
+        <v>2.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>16</v>
+      </c>
+      <c r="AE176">
+        <v>1.21</v>
+      </c>
+      <c r="AF176">
+        <v>4.7</v>
+      </c>
+      <c r="AG176">
+        <v>1.62</v>
+      </c>
+      <c r="AH176">
+        <v>2.25</v>
+      </c>
+      <c r="AI176">
+        <v>1.53</v>
+      </c>
+      <c r="AJ176">
+        <v>2.38</v>
+      </c>
+      <c r="AK176">
+        <v>1.77</v>
+      </c>
+      <c r="AL176">
+        <v>1.27</v>
+      </c>
+      <c r="AM176">
+        <v>1.36</v>
+      </c>
+      <c r="AN176">
+        <v>0.5</v>
+      </c>
+      <c r="AO176">
+        <v>1.13</v>
+      </c>
+      <c r="AP176">
+        <v>0.44</v>
+      </c>
+      <c r="AQ176">
+        <v>1.33</v>
+      </c>
+      <c r="AR176">
+        <v>1.06</v>
+      </c>
+      <c r="AS176">
+        <v>1.47</v>
+      </c>
+      <c r="AT176">
+        <v>2.53</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>9</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>19</v>
+      </c>
+      <c r="AZ176">
+        <v>17</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>4</v>
+      </c>
+      <c r="BD176">
+        <v>1.98</v>
+      </c>
+      <c r="BE176">
+        <v>6.75</v>
+      </c>
+      <c r="BF176">
+        <v>1.98</v>
+      </c>
+      <c r="BG176">
+        <v>1.16</v>
+      </c>
+      <c r="BH176">
+        <v>4.4</v>
+      </c>
+      <c r="BI176">
+        <v>1.29</v>
+      </c>
+      <c r="BJ176">
+        <v>3.15</v>
+      </c>
+      <c r="BK176">
+        <v>1.49</v>
+      </c>
+      <c r="BL176">
+        <v>2.4</v>
+      </c>
+      <c r="BM176">
+        <v>1.78</v>
+      </c>
+      <c r="BN176">
+        <v>1.9</v>
+      </c>
+      <c r="BO176">
+        <v>2.2</v>
+      </c>
+      <c r="BP176">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7466860</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45652.60416666666</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>88</v>
+      </c>
+      <c r="H177" t="s">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>214</v>
+      </c>
+      <c r="P177" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q177">
+        <v>4.5</v>
+      </c>
+      <c r="R177">
+        <v>2.4</v>
+      </c>
+      <c r="S177">
+        <v>2.25</v>
+      </c>
+      <c r="T177">
+        <v>1.29</v>
+      </c>
+      <c r="U177">
+        <v>3.5</v>
+      </c>
+      <c r="V177">
+        <v>2.38</v>
+      </c>
+      <c r="W177">
+        <v>1.53</v>
+      </c>
+      <c r="X177">
+        <v>5.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.14</v>
+      </c>
+      <c r="Z177">
+        <v>4.75</v>
+      </c>
+      <c r="AA177">
+        <v>3.75</v>
+      </c>
+      <c r="AB177">
+        <v>1.73</v>
+      </c>
+      <c r="AC177">
+        <v>1</v>
+      </c>
+      <c r="AD177">
+        <v>15.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.18</v>
+      </c>
+      <c r="AF177">
+        <v>4.45</v>
+      </c>
+      <c r="AG177">
+        <v>1.62</v>
+      </c>
+      <c r="AH177">
+        <v>2.3</v>
+      </c>
+      <c r="AI177">
+        <v>1.57</v>
+      </c>
+      <c r="AJ177">
+        <v>2.25</v>
+      </c>
+      <c r="AK177">
+        <v>1.95</v>
+      </c>
+      <c r="AL177">
+        <v>1.26</v>
+      </c>
+      <c r="AM177">
+        <v>1.28</v>
+      </c>
+      <c r="AN177">
+        <v>0.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.13</v>
+      </c>
+      <c r="AP177">
+        <v>0.78</v>
+      </c>
+      <c r="AQ177">
+        <v>1</v>
+      </c>
+      <c r="AR177">
+        <v>1.19</v>
+      </c>
+      <c r="AS177">
+        <v>1.4</v>
+      </c>
+      <c r="AT177">
+        <v>2.59</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>1</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>12</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>4</v>
+      </c>
+      <c r="BC177">
+        <v>9</v>
+      </c>
+      <c r="BD177">
+        <v>2.65</v>
+      </c>
+      <c r="BE177">
+        <v>6.75</v>
+      </c>
+      <c r="BF177">
+        <v>1.56</v>
+      </c>
+      <c r="BG177">
+        <v>1.17</v>
+      </c>
+      <c r="BH177">
+        <v>4.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.3</v>
+      </c>
+      <c r="BJ177">
+        <v>3.05</v>
+      </c>
+      <c r="BK177">
+        <v>1.52</v>
+      </c>
+      <c r="BL177">
+        <v>2.33</v>
+      </c>
+      <c r="BM177">
+        <v>1.83</v>
+      </c>
+      <c r="BN177">
+        <v>1.85</v>
+      </c>
+      <c r="BO177">
+        <v>2.25</v>
+      </c>
+      <c r="BP177">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7466855</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45652.70833333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>89</v>
+      </c>
+      <c r="H178" t="s">
+        <v>79</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>215</v>
+      </c>
+      <c r="P178" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q178">
+        <v>1.4</v>
+      </c>
+      <c r="R178">
+        <v>3.5</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>1.14</v>
+      </c>
+      <c r="U178">
+        <v>5.5</v>
+      </c>
+      <c r="V178">
+        <v>1.73</v>
+      </c>
+      <c r="W178">
+        <v>2</v>
+      </c>
+      <c r="X178">
+        <v>3.4</v>
+      </c>
+      <c r="Y178">
+        <v>1.3</v>
+      </c>
+      <c r="Z178">
+        <v>1.1</v>
+      </c>
+      <c r="AA178">
+        <v>10</v>
+      </c>
+      <c r="AB178">
+        <v>15</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>29</v>
+      </c>
+      <c r="AE178">
+        <v>1.02</v>
+      </c>
+      <c r="AF178">
+        <v>8.6</v>
+      </c>
+      <c r="AG178">
+        <v>1.25</v>
+      </c>
+      <c r="AH178">
+        <v>3.75</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.01</v>
+      </c>
+      <c r="AL178">
+        <v>1.04</v>
+      </c>
+      <c r="AM178">
+        <v>7.4</v>
+      </c>
+      <c r="AN178">
+        <v>2.38</v>
+      </c>
+      <c r="AO178">
+        <v>0.63</v>
+      </c>
+      <c r="AP178">
+        <v>2.44</v>
+      </c>
+      <c r="AQ178">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR178">
+        <v>1.73</v>
+      </c>
+      <c r="AS178">
+        <v>1.09</v>
+      </c>
+      <c r="AT178">
+        <v>2.82</v>
+      </c>
+      <c r="AU178">
+        <v>8</v>
+      </c>
+      <c r="AV178">
+        <v>2</v>
+      </c>
+      <c r="AW178">
+        <v>7</v>
+      </c>
+      <c r="AX178">
+        <v>2</v>
+      </c>
+      <c r="AY178">
+        <v>21</v>
+      </c>
+      <c r="AZ178">
+        <v>6</v>
+      </c>
+      <c r="BA178">
+        <v>14</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>15</v>
+      </c>
+      <c r="BD178">
+        <v>1.06</v>
+      </c>
+      <c r="BE178">
+        <v>14</v>
+      </c>
+      <c r="BF178">
+        <v>9.5</v>
+      </c>
+      <c r="BG178">
+        <v>1.16</v>
+      </c>
+      <c r="BH178">
+        <v>4.4</v>
+      </c>
+      <c r="BI178">
+        <v>1.29</v>
+      </c>
+      <c r="BJ178">
+        <v>3.2</v>
+      </c>
+      <c r="BK178">
+        <v>1.48</v>
+      </c>
+      <c r="BL178">
+        <v>2.43</v>
+      </c>
+      <c r="BM178">
+        <v>1.76</v>
+      </c>
+      <c r="BN178">
+        <v>1.94</v>
+      </c>
+      <c r="BO178">
+        <v>2.14</v>
+      </c>
+      <c r="BP178">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1293,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0.89</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ21">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -8019,7 +8019,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ33">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -10491,7 +10491,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
         <v>0.83</v>
@@ -11109,7 +11109,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
@@ -11518,7 +11518,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>1.89</v>
@@ -12342,7 +12342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -14196,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0.22</v>
@@ -14405,7 +14405,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -15844,7 +15844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16671,7 +16671,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR75">
         <v>1.31</v>
@@ -18522,7 +18522,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.89</v>
@@ -18937,7 +18937,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19964,7 +19964,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
         <v>2.5</v>
@@ -22027,7 +22027,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -23054,7 +23054,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
         <v>1.22</v>
@@ -23881,7 +23881,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24705,7 +24705,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24908,7 +24908,7 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
         <v>1.89</v>
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>0.22</v>
@@ -26559,7 +26559,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -29649,7 +29649,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29852,7 +29852,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -32739,7 +32739,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR153">
         <v>1.14</v>
@@ -32942,7 +32942,7 @@
         <v>0.71</v>
       </c>
       <c r="AP154">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -33354,7 +33354,7 @@
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -33769,7 +33769,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ158">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -37965,6 +37965,418 @@
       </c>
       <c r="BP178">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7466853</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45653.6875</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>77</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>91</v>
+      </c>
+      <c r="P179" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q179">
+        <v>2.25</v>
+      </c>
+      <c r="R179">
+        <v>2.5</v>
+      </c>
+      <c r="S179">
+        <v>4.33</v>
+      </c>
+      <c r="T179">
+        <v>1.25</v>
+      </c>
+      <c r="U179">
+        <v>3.75</v>
+      </c>
+      <c r="V179">
+        <v>2.2</v>
+      </c>
+      <c r="W179">
+        <v>1.62</v>
+      </c>
+      <c r="X179">
+        <v>5</v>
+      </c>
+      <c r="Y179">
+        <v>1.17</v>
+      </c>
+      <c r="Z179">
+        <v>1.76</v>
+      </c>
+      <c r="AA179">
+        <v>4.17</v>
+      </c>
+      <c r="AB179">
+        <v>4.21</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>23</v>
+      </c>
+      <c r="AE179">
+        <v>1.14</v>
+      </c>
+      <c r="AF179">
+        <v>6</v>
+      </c>
+      <c r="AG179">
+        <v>1.45</v>
+      </c>
+      <c r="AH179">
+        <v>2.7</v>
+      </c>
+      <c r="AI179">
+        <v>1.5</v>
+      </c>
+      <c r="AJ179">
+        <v>2.5</v>
+      </c>
+      <c r="AK179">
+        <v>1.2</v>
+      </c>
+      <c r="AL179">
+        <v>1.21</v>
+      </c>
+      <c r="AM179">
+        <v>2.3</v>
+      </c>
+      <c r="AN179">
+        <v>1.63</v>
+      </c>
+      <c r="AO179">
+        <v>0.13</v>
+      </c>
+      <c r="AP179">
+        <v>1.56</v>
+      </c>
+      <c r="AQ179">
+        <v>0.22</v>
+      </c>
+      <c r="AR179">
+        <v>1.54</v>
+      </c>
+      <c r="AS179">
+        <v>0.95</v>
+      </c>
+      <c r="AT179">
+        <v>2.49</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>12</v>
+      </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
+      <c r="AY179">
+        <v>25</v>
+      </c>
+      <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.33</v>
+      </c>
+      <c r="BE179">
+        <v>7.5</v>
+      </c>
+      <c r="BF179">
+        <v>3.65</v>
+      </c>
+      <c r="BG179">
+        <v>1.15</v>
+      </c>
+      <c r="BH179">
+        <v>4.6</v>
+      </c>
+      <c r="BI179">
+        <v>1.28</v>
+      </c>
+      <c r="BJ179">
+        <v>3.3</v>
+      </c>
+      <c r="BK179">
+        <v>1.48</v>
+      </c>
+      <c r="BL179">
+        <v>2.43</v>
+      </c>
+      <c r="BM179">
+        <v>1.76</v>
+      </c>
+      <c r="BN179">
+        <v>1.93</v>
+      </c>
+      <c r="BO179">
+        <v>2.15</v>
+      </c>
+      <c r="BP179">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7466852</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45653.71875</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>94</v>
+      </c>
+      <c r="P180" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q180">
+        <v>1.5</v>
+      </c>
+      <c r="R180">
+        <v>3.1</v>
+      </c>
+      <c r="S180">
+        <v>12</v>
+      </c>
+      <c r="T180">
+        <v>1.22</v>
+      </c>
+      <c r="U180">
+        <v>4</v>
+      </c>
+      <c r="V180">
+        <v>2</v>
+      </c>
+      <c r="W180">
+        <v>1.73</v>
+      </c>
+      <c r="X180">
+        <v>4.33</v>
+      </c>
+      <c r="Y180">
+        <v>1.2</v>
+      </c>
+      <c r="Z180">
+        <v>1.07</v>
+      </c>
+      <c r="AA180">
+        <v>12.57</v>
+      </c>
+      <c r="AB180">
+        <v>10.01</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>28</v>
+      </c>
+      <c r="AE180">
+        <v>1.12</v>
+      </c>
+      <c r="AF180">
+        <v>6.8</v>
+      </c>
+      <c r="AG180">
+        <v>1.4</v>
+      </c>
+      <c r="AH180">
+        <v>2.9</v>
+      </c>
+      <c r="AI180">
+        <v>2.2</v>
+      </c>
+      <c r="AJ180">
+        <v>1.62</v>
+      </c>
+      <c r="AK180">
+        <v>1.02</v>
+      </c>
+      <c r="AL180">
+        <v>1.07</v>
+      </c>
+      <c r="AM180">
+        <v>5.5</v>
+      </c>
+      <c r="AN180">
+        <v>2.25</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>2.33</v>
+      </c>
+      <c r="AQ180">
+        <v>0.89</v>
+      </c>
+      <c r="AR180">
+        <v>2.03</v>
+      </c>
+      <c r="AS180">
+        <v>1.01</v>
+      </c>
+      <c r="AT180">
+        <v>3.04</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>0</v>
+      </c>
+      <c r="AW180">
+        <v>3</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>3</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>6</v>
+      </c>
+      <c r="BD180">
+        <v>1.06</v>
+      </c>
+      <c r="BE180">
+        <v>14</v>
+      </c>
+      <c r="BF180">
+        <v>9.5</v>
+      </c>
+      <c r="BG180">
+        <v>1.21</v>
+      </c>
+      <c r="BH180">
+        <v>3.7</v>
+      </c>
+      <c r="BI180">
+        <v>1.4</v>
+      </c>
+      <c r="BJ180">
+        <v>2.7</v>
+      </c>
+      <c r="BK180">
+        <v>1.64</v>
+      </c>
+      <c r="BL180">
+        <v>2.1</v>
+      </c>
+      <c r="BM180">
+        <v>1.98</v>
+      </c>
+      <c r="BN180">
+        <v>1.72</v>
+      </c>
+      <c r="BO180">
+        <v>2.48</v>
+      </c>
+      <c r="BP180">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,15 @@
     <t>['45+1', '49', '82']</t>
   </si>
   <si>
+    <t>['12', '45+3']</t>
+  </si>
+  <si>
+    <t>['31', '52']</t>
+  </si>
+  <si>
+    <t>['40', '72']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -932,6 +941,21 @@
   </si>
   <si>
     <t>['82', '90+5']</t>
+  </si>
+  <si>
+    <t>['21', '74']</t>
+  </si>
+  <si>
+    <t>['7', '87']</t>
+  </si>
+  <si>
+    <t>['15', '61']</t>
+  </si>
+  <si>
+    <t>['51', '89']</t>
+  </si>
+  <si>
+    <t>['30', '40', '44', '54', '84']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,7 +1782,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1839,7 +1863,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ3">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2045,7 +2069,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2170,7 +2194,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2248,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2457,7 +2481,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,7 +2606,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2663,7 +2687,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2788,7 +2812,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2866,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
         <v>1.11</v>
@@ -3200,7 +3224,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3281,7 +3305,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3484,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3612,7 +3636,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3896,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.78</v>
@@ -4105,7 +4129,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4308,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4514,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16">
         <v>0.5600000000000001</v>
@@ -4848,7 +4872,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5054,7 +5078,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5260,7 +5284,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5959,7 +5983,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>1.78</v>
@@ -6084,7 +6108,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6162,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -6290,7 +6314,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6577,7 +6601,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ26">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6702,7 +6726,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6780,10 +6804,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -6908,7 +6932,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6986,10 +7010,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7114,7 +7138,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7526,7 +7550,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7607,7 +7631,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7732,7 +7756,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8225,7 +8249,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ34">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8428,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8556,7 +8580,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8634,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0.5600000000000001</v>
@@ -8968,7 +8992,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9174,7 +9198,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9380,7 +9404,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9458,7 +9482,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9586,7 +9610,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9792,7 +9816,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9870,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42">
         <v>2.22</v>
@@ -10079,7 +10103,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10282,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ44">
         <v>0.78</v>
@@ -10697,7 +10721,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR46">
         <v>1.44</v>
@@ -10822,7 +10846,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10900,7 +10924,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11106,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>0.22</v>
@@ -11312,7 +11336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11521,7 +11545,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11646,7 +11670,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11852,7 +11876,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11933,7 +11957,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ52">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -12058,7 +12082,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12264,7 +12288,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12676,7 +12700,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12960,7 +12984,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -13088,7 +13112,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13169,7 +13193,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ58">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13294,7 +13318,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13500,7 +13524,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13706,7 +13730,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13787,7 +13811,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13912,7 +13936,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13990,10 +14014,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14199,7 +14223,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR63">
         <v>2.4</v>
@@ -14324,7 +14348,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14402,7 +14426,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64">
         <v>0.89</v>
@@ -14530,7 +14554,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14611,7 +14635,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14736,7 +14760,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15020,10 +15044,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15226,7 +15250,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15641,7 +15665,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -15766,7 +15790,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15972,7 +15996,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16050,7 +16074,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16178,7 +16202,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16384,7 +16408,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16590,7 +16614,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16796,7 +16820,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16874,7 +16898,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -17002,7 +17026,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17414,7 +17438,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17495,7 +17519,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -17620,7 +17644,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18032,7 +18056,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18110,10 +18134,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ82">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18319,7 +18343,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ83">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18444,7 +18468,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18525,7 +18549,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18650,7 +18674,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18731,7 +18755,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -18856,7 +18880,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19062,7 +19086,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19140,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
         <v>1.44</v>
@@ -19268,7 +19292,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19552,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
         <v>1.11</v>
@@ -19680,7 +19704,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19758,7 +19782,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19886,7 +19910,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19967,7 +19991,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -21122,7 +21146,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21203,7 +21227,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21328,7 +21352,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21534,7 +21558,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21612,7 +21636,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -21740,7 +21764,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22024,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ101">
         <v>0.22</v>
@@ -22152,7 +22176,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22233,7 +22257,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22439,7 +22463,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ103">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR103">
         <v>1.17</v>
@@ -22564,7 +22588,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22642,7 +22666,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
         <v>1.44</v>
@@ -22848,7 +22872,7 @@
         <v>0.8</v>
       </c>
       <c r="AP105">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ105">
         <v>0.78</v>
@@ -23057,7 +23081,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23594,7 +23618,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23800,7 +23824,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23878,7 +23902,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24006,7 +24030,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24212,7 +24236,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24290,7 +24314,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ112">
         <v>2.22</v>
@@ -24418,7 +24442,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24496,10 +24520,10 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ113">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -24702,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114">
         <v>0.22</v>
@@ -24911,7 +24935,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -25036,7 +25060,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25242,7 +25266,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25448,7 +25472,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25654,7 +25678,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25735,7 +25759,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ119">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -25860,7 +25884,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26066,7 +26090,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26272,7 +26296,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26353,7 +26377,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ122">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26684,7 +26708,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26762,7 +26786,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.33</v>
@@ -27096,7 +27120,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27177,7 +27201,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ126">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.13</v>
@@ -27302,7 +27326,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27380,7 +27404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ127">
         <v>1.67</v>
@@ -27714,7 +27738,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27792,7 +27816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28207,7 +28231,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28332,7 +28356,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28616,7 +28640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ133">
         <v>1.33</v>
@@ -28825,7 +28849,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ134">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR134">
         <v>2.3</v>
@@ -28950,7 +28974,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29031,7 +29055,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ135">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR135">
         <v>1.25</v>
@@ -29156,7 +29180,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29440,10 +29464,10 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30058,7 +30082,7 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30392,7 +30416,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30598,7 +30622,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30676,10 +30700,10 @@
         <v>1.43</v>
       </c>
       <c r="AP143">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30885,7 +30909,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31010,7 +31034,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31091,7 +31115,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -31216,7 +31240,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31294,7 +31318,7 @@
         <v>1.57</v>
       </c>
       <c r="AP146">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ146">
         <v>1.67</v>
@@ -31422,7 +31446,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31503,7 +31527,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ147">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -31628,7 +31652,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31706,7 +31730,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ148">
         <v>1.33</v>
@@ -31834,7 +31858,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31912,7 +31936,7 @@
         <v>2.29</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ149">
         <v>2.22</v>
@@ -32118,10 +32142,10 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ150">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32452,7 +32476,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32658,7 +32682,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33070,7 +33094,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33276,7 +33300,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33482,7 +33506,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33894,7 +33918,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34387,7 +34411,7 @@
         <v>2</v>
       </c>
       <c r="AQ161">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34512,7 +34536,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34590,7 +34614,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -34718,7 +34742,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34799,7 +34823,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ163">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR163">
         <v>1.71</v>
@@ -34924,7 +34948,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35130,7 +35154,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35208,7 +35232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
         <v>1.67</v>
@@ -35414,7 +35438,7 @@
         <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ166">
         <v>2.22</v>
@@ -35620,10 +35644,10 @@
         <v>0.13</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ167">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR167">
         <v>1.59</v>
@@ -35748,7 +35772,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35826,10 +35850,10 @@
         <v>0.63</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ168">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR168">
         <v>1.06</v>
@@ -35954,7 +35978,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36035,7 +36059,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ169">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36160,7 +36184,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36238,10 +36262,10 @@
         <v>2.43</v>
       </c>
       <c r="AP170">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ170">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -36778,7 +36802,7 @@
         <v>137</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>1.95</v>
@@ -37396,7 +37420,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37808,7 +37832,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38377,6 +38401,1242 @@
       </c>
       <c r="BP180">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7466867</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45655.47916666666</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>85</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>91</v>
+      </c>
+      <c r="P181" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q181">
+        <v>7</v>
+      </c>
+      <c r="R181">
+        <v>2.88</v>
+      </c>
+      <c r="S181">
+        <v>1.67</v>
+      </c>
+      <c r="T181">
+        <v>1.2</v>
+      </c>
+      <c r="U181">
+        <v>4.33</v>
+      </c>
+      <c r="V181">
+        <v>1.91</v>
+      </c>
+      <c r="W181">
+        <v>1.8</v>
+      </c>
+      <c r="X181">
+        <v>4</v>
+      </c>
+      <c r="Y181">
+        <v>1.22</v>
+      </c>
+      <c r="Z181">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA181">
+        <v>5.9</v>
+      </c>
+      <c r="AB181">
+        <v>1.34</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>27</v>
+      </c>
+      <c r="AE181">
+        <v>1.09</v>
+      </c>
+      <c r="AF181">
+        <v>7</v>
+      </c>
+      <c r="AG181">
+        <v>1.33</v>
+      </c>
+      <c r="AH181">
+        <v>3.2</v>
+      </c>
+      <c r="AI181">
+        <v>1.67</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>3.5</v>
+      </c>
+      <c r="AL181">
+        <v>1.09</v>
+      </c>
+      <c r="AM181">
+        <v>1.06</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
+        <v>1.22</v>
+      </c>
+      <c r="AP181">
+        <v>0.9</v>
+      </c>
+      <c r="AQ181">
+        <v>1.4</v>
+      </c>
+      <c r="AR181">
+        <v>1.08</v>
+      </c>
+      <c r="AS181">
+        <v>1.83</v>
+      </c>
+      <c r="AT181">
+        <v>2.91</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>6</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>6</v>
+      </c>
+      <c r="AY181">
+        <v>13</v>
+      </c>
+      <c r="AZ181">
+        <v>15</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>5.3</v>
+      </c>
+      <c r="BE181">
+        <v>10</v>
+      </c>
+      <c r="BF181">
+        <v>1.16</v>
+      </c>
+      <c r="BG181">
+        <v>1.14</v>
+      </c>
+      <c r="BH181">
+        <v>4.6</v>
+      </c>
+      <c r="BI181">
+        <v>1.28</v>
+      </c>
+      <c r="BJ181">
+        <v>3.3</v>
+      </c>
+      <c r="BK181">
+        <v>1.46</v>
+      </c>
+      <c r="BL181">
+        <v>2.48</v>
+      </c>
+      <c r="BM181">
+        <v>1.73</v>
+      </c>
+      <c r="BN181">
+        <v>1.96</v>
+      </c>
+      <c r="BO181">
+        <v>2.12</v>
+      </c>
+      <c r="BP181">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7466869</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>88</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>216</v>
+      </c>
+      <c r="P182" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q182">
+        <v>1.91</v>
+      </c>
+      <c r="R182">
+        <v>2.75</v>
+      </c>
+      <c r="S182">
+        <v>5</v>
+      </c>
+      <c r="T182">
+        <v>1.2</v>
+      </c>
+      <c r="U182">
+        <v>4.33</v>
+      </c>
+      <c r="V182">
+        <v>1.91</v>
+      </c>
+      <c r="W182">
+        <v>1.8</v>
+      </c>
+      <c r="X182">
+        <v>4</v>
+      </c>
+      <c r="Y182">
+        <v>1.22</v>
+      </c>
+      <c r="Z182">
+        <v>1.62</v>
+      </c>
+      <c r="AA182">
+        <v>4.95</v>
+      </c>
+      <c r="AB182">
+        <v>4.75</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>29</v>
+      </c>
+      <c r="AE182">
+        <v>1.09</v>
+      </c>
+      <c r="AF182">
+        <v>8</v>
+      </c>
+      <c r="AG182">
+        <v>1.33</v>
+      </c>
+      <c r="AH182">
+        <v>3.2</v>
+      </c>
+      <c r="AI182">
+        <v>1.44</v>
+      </c>
+      <c r="AJ182">
+        <v>2.63</v>
+      </c>
+      <c r="AK182">
+        <v>1.13</v>
+      </c>
+      <c r="AL182">
+        <v>1.16</v>
+      </c>
+      <c r="AM182">
+        <v>2.76</v>
+      </c>
+      <c r="AN182">
+        <v>1.44</v>
+      </c>
+      <c r="AO182">
+        <v>0.89</v>
+      </c>
+      <c r="AP182">
+        <v>1.4</v>
+      </c>
+      <c r="AQ182">
+        <v>0.9</v>
+      </c>
+      <c r="AR182">
+        <v>1.74</v>
+      </c>
+      <c r="AS182">
+        <v>1.23</v>
+      </c>
+      <c r="AT182">
+        <v>2.97</v>
+      </c>
+      <c r="AU182">
+        <v>5</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>7</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>15</v>
+      </c>
+      <c r="AZ182">
+        <v>12</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>5</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>1.18</v>
+      </c>
+      <c r="BE182">
+        <v>10</v>
+      </c>
+      <c r="BF182">
+        <v>5.1</v>
+      </c>
+      <c r="BG182">
+        <v>1.08</v>
+      </c>
+      <c r="BH182">
+        <v>6.1</v>
+      </c>
+      <c r="BI182">
+        <v>1.17</v>
+      </c>
+      <c r="BJ182">
+        <v>4.35</v>
+      </c>
+      <c r="BK182">
+        <v>1.29</v>
+      </c>
+      <c r="BL182">
+        <v>3.2</v>
+      </c>
+      <c r="BM182">
+        <v>1.47</v>
+      </c>
+      <c r="BN182">
+        <v>2.48</v>
+      </c>
+      <c r="BO182">
+        <v>1.72</v>
+      </c>
+      <c r="BP182">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7466863</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>217</v>
+      </c>
+      <c r="P183" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q183">
+        <v>2.1</v>
+      </c>
+      <c r="R183">
+        <v>2.38</v>
+      </c>
+      <c r="S183">
+        <v>5.5</v>
+      </c>
+      <c r="T183">
+        <v>1.33</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>1.62</v>
+      </c>
+      <c r="AA183">
+        <v>4.25</v>
+      </c>
+      <c r="AB183">
+        <v>5.6</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>15</v>
+      </c>
+      <c r="AE183">
+        <v>1.23</v>
+      </c>
+      <c r="AF183">
+        <v>4.35</v>
+      </c>
+      <c r="AG183">
+        <v>1.75</v>
+      </c>
+      <c r="AH183">
+        <v>2.13</v>
+      </c>
+      <c r="AI183">
+        <v>1.75</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.14</v>
+      </c>
+      <c r="AL183">
+        <v>1.21</v>
+      </c>
+      <c r="AM183">
+        <v>2.49</v>
+      </c>
+      <c r="AN183">
+        <v>0.78</v>
+      </c>
+      <c r="AO183">
+        <v>0.22</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
+      <c r="AQ183">
+        <v>0.2</v>
+      </c>
+      <c r="AR183">
+        <v>1.34</v>
+      </c>
+      <c r="AS183">
+        <v>0.95</v>
+      </c>
+      <c r="AT183">
+        <v>2.29</v>
+      </c>
+      <c r="AU183">
+        <v>11</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>20</v>
+      </c>
+      <c r="AZ183">
+        <v>8</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>7</v>
+      </c>
+      <c r="BC183">
+        <v>15</v>
+      </c>
+      <c r="BD183">
+        <v>1.4</v>
+      </c>
+      <c r="BE183">
+        <v>7</v>
+      </c>
+      <c r="BF183">
+        <v>3.3</v>
+      </c>
+      <c r="BG183">
+        <v>1.14</v>
+      </c>
+      <c r="BH183">
+        <v>4.6</v>
+      </c>
+      <c r="BI183">
+        <v>1.28</v>
+      </c>
+      <c r="BJ183">
+        <v>3.3</v>
+      </c>
+      <c r="BK183">
+        <v>1.47</v>
+      </c>
+      <c r="BL183">
+        <v>2.48</v>
+      </c>
+      <c r="BM183">
+        <v>1.73</v>
+      </c>
+      <c r="BN183">
+        <v>1.96</v>
+      </c>
+      <c r="BO183">
+        <v>2.12</v>
+      </c>
+      <c r="BP183">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7466864</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>91</v>
+      </c>
+      <c r="P184" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q184">
+        <v>3.25</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>3.5</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
+        <v>3.4</v>
+      </c>
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>2.72</v>
+      </c>
+      <c r="AA184">
+        <v>3.2</v>
+      </c>
+      <c r="AB184">
+        <v>2.85</v>
+      </c>
+      <c r="AC184">
+        <v>1.08</v>
+      </c>
+      <c r="AD184">
+        <v>9</v>
+      </c>
+      <c r="AE184">
+        <v>1.42</v>
+      </c>
+      <c r="AF184">
+        <v>3</v>
+      </c>
+      <c r="AG184">
+        <v>2.3</v>
+      </c>
+      <c r="AH184">
+        <v>1.65</v>
+      </c>
+      <c r="AI184">
+        <v>1.95</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.47</v>
+      </c>
+      <c r="AL184">
+        <v>1.33</v>
+      </c>
+      <c r="AM184">
+        <v>1.54</v>
+      </c>
+      <c r="AN184">
+        <v>1.25</v>
+      </c>
+      <c r="AO184">
+        <v>1.89</v>
+      </c>
+      <c r="AP184">
+        <v>1.11</v>
+      </c>
+      <c r="AQ184">
+        <v>2</v>
+      </c>
+      <c r="AR184">
+        <v>1.32</v>
+      </c>
+      <c r="AS184">
+        <v>1.28</v>
+      </c>
+      <c r="AT184">
+        <v>2.6</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>8</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>12</v>
+      </c>
+      <c r="BA184">
+        <v>5</v>
+      </c>
+      <c r="BB184">
+        <v>4</v>
+      </c>
+      <c r="BC184">
+        <v>9</v>
+      </c>
+      <c r="BD184">
+        <v>1.84</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>2.15</v>
+      </c>
+      <c r="BG184">
+        <v>1.21</v>
+      </c>
+      <c r="BH184">
+        <v>3.8</v>
+      </c>
+      <c r="BI184">
+        <v>1.37</v>
+      </c>
+      <c r="BJ184">
+        <v>2.8</v>
+      </c>
+      <c r="BK184">
+        <v>1.63</v>
+      </c>
+      <c r="BL184">
+        <v>2.12</v>
+      </c>
+      <c r="BM184">
+        <v>1.98</v>
+      </c>
+      <c r="BN184">
+        <v>1.72</v>
+      </c>
+      <c r="BO184">
+        <v>2.48</v>
+      </c>
+      <c r="BP184">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7466865</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>84</v>
+      </c>
+      <c r="H185" t="s">
+        <v>87</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>218</v>
+      </c>
+      <c r="P185" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>2.3</v>
+      </c>
+      <c r="S185">
+        <v>3.25</v>
+      </c>
+      <c r="T185">
+        <v>1.33</v>
+      </c>
+      <c r="U185">
+        <v>3.25</v>
+      </c>
+      <c r="V185">
+        <v>2.5</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>6</v>
+      </c>
+      <c r="Y185">
+        <v>1.13</v>
+      </c>
+      <c r="Z185">
+        <v>2.4</v>
+      </c>
+      <c r="AA185">
+        <v>3.65</v>
+      </c>
+      <c r="AB185">
+        <v>2.95</v>
+      </c>
+      <c r="AC185">
+        <v>1.03</v>
+      </c>
+      <c r="AD185">
+        <v>15</v>
+      </c>
+      <c r="AE185">
+        <v>1.22</v>
+      </c>
+      <c r="AF185">
+        <v>4.5</v>
+      </c>
+      <c r="AG185">
+        <v>1.69</v>
+      </c>
+      <c r="AH185">
+        <v>2.23</v>
+      </c>
+      <c r="AI185">
+        <v>1.57</v>
+      </c>
+      <c r="AJ185">
+        <v>2.25</v>
+      </c>
+      <c r="AK185">
+        <v>1.45</v>
+      </c>
+      <c r="AL185">
+        <v>1.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.61</v>
+      </c>
+      <c r="AN185">
+        <v>1.67</v>
+      </c>
+      <c r="AO185">
+        <v>1.56</v>
+      </c>
+      <c r="AP185">
+        <v>1.6</v>
+      </c>
+      <c r="AQ185">
+        <v>1.5</v>
+      </c>
+      <c r="AR185">
+        <v>1.59</v>
+      </c>
+      <c r="AS185">
+        <v>1.53</v>
+      </c>
+      <c r="AT185">
+        <v>3.12</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>10</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>19</v>
+      </c>
+      <c r="BA185">
+        <v>1</v>
+      </c>
+      <c r="BB185">
+        <v>7</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.88</v>
+      </c>
+      <c r="BE185">
+        <v>6.75</v>
+      </c>
+      <c r="BF185">
+        <v>2.08</v>
+      </c>
+      <c r="BG185">
+        <v>1.14</v>
+      </c>
+      <c r="BH185">
+        <v>4.6</v>
+      </c>
+      <c r="BI185">
+        <v>1.28</v>
+      </c>
+      <c r="BJ185">
+        <v>3.3</v>
+      </c>
+      <c r="BK185">
+        <v>1.47</v>
+      </c>
+      <c r="BL185">
+        <v>2.48</v>
+      </c>
+      <c r="BM185">
+        <v>1.73</v>
+      </c>
+      <c r="BN185">
+        <v>1.96</v>
+      </c>
+      <c r="BO185">
+        <v>2.12</v>
+      </c>
+      <c r="BP185">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7466870</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45655.59375</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>76</v>
+      </c>
+      <c r="H186" t="s">
+        <v>89</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>5</v>
+      </c>
+      <c r="N186">
+        <v>5</v>
+      </c>
+      <c r="O186" t="s">
+        <v>91</v>
+      </c>
+      <c r="P186" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q186">
+        <v>5.5</v>
+      </c>
+      <c r="R186">
+        <v>2.63</v>
+      </c>
+      <c r="S186">
+        <v>1.91</v>
+      </c>
+      <c r="T186">
+        <v>1.22</v>
+      </c>
+      <c r="U186">
+        <v>4</v>
+      </c>
+      <c r="V186">
+        <v>2.1</v>
+      </c>
+      <c r="W186">
+        <v>1.67</v>
+      </c>
+      <c r="X186">
+        <v>4.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.18</v>
+      </c>
+      <c r="Z186">
+        <v>5.75</v>
+      </c>
+      <c r="AA186">
+        <v>5.1</v>
+      </c>
+      <c r="AB186">
+        <v>1.46</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>27</v>
+      </c>
+      <c r="AE186">
+        <v>1.13</v>
+      </c>
+      <c r="AF186">
+        <v>6.4</v>
+      </c>
+      <c r="AG186">
+        <v>1.44</v>
+      </c>
+      <c r="AH186">
+        <v>2.75</v>
+      </c>
+      <c r="AI186">
+        <v>1.57</v>
+      </c>
+      <c r="AJ186">
+        <v>2.25</v>
+      </c>
+      <c r="AK186">
+        <v>2.75</v>
+      </c>
+      <c r="AL186">
+        <v>1.17</v>
+      </c>
+      <c r="AM186">
+        <v>1.13</v>
+      </c>
+      <c r="AN186">
+        <v>1.22</v>
+      </c>
+      <c r="AO186">
+        <v>2.5</v>
+      </c>
+      <c r="AP186">
+        <v>1.1</v>
+      </c>
+      <c r="AQ186">
+        <v>2.56</v>
+      </c>
+      <c r="AR186">
+        <v>1.43</v>
+      </c>
+      <c r="AS186">
+        <v>1.76</v>
+      </c>
+      <c r="AT186">
+        <v>3.19</v>
+      </c>
+      <c r="AU186">
+        <v>0</v>
+      </c>
+      <c r="AV186">
+        <v>14</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>7</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>23</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>3.9</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>1.29</v>
+      </c>
+      <c r="BG186">
+        <v>1.12</v>
+      </c>
+      <c r="BH186">
+        <v>5.1</v>
+      </c>
+      <c r="BI186">
+        <v>1.24</v>
+      </c>
+      <c r="BJ186">
+        <v>3.55</v>
+      </c>
+      <c r="BK186">
+        <v>1.41</v>
+      </c>
+      <c r="BL186">
+        <v>2.65</v>
+      </c>
+      <c r="BM186">
+        <v>1.65</v>
+      </c>
+      <c r="BN186">
+        <v>2.08</v>
+      </c>
+      <c r="BO186">
+        <v>1.98</v>
+      </c>
+      <c r="BP186">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,12 @@
     <t>['40', '72']</t>
   </si>
   <si>
+    <t>['36', '47']</t>
+  </si>
+  <si>
+    <t>['12', '53']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -956,6 +962,12 @@
   </si>
   <si>
     <t>['30', '40', '44', '54', '84']</t>
+  </si>
+  <si>
+    <t>['12', '81']</t>
+  </si>
+  <si>
+    <t>['4', '19']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ2">
         <v>1.44</v>
@@ -1782,7 +1794,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -1860,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ3">
         <v>2.56</v>
@@ -2194,7 +2206,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2275,7 +2287,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2606,7 +2618,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2812,7 +2824,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3224,7 +3236,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3636,7 +3648,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4872,7 +4884,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4950,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -5078,7 +5090,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5159,7 +5171,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5284,7 +5296,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5365,7 +5377,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ20">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5777,7 +5789,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -6108,7 +6120,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6314,7 +6326,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6392,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6726,7 +6738,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6932,7 +6944,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7138,7 +7150,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7550,7 +7562,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7628,7 +7640,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ31">
         <v>2.56</v>
@@ -7756,7 +7768,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8580,7 +8592,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8992,7 +9004,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9070,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ38">
         <v>0.78</v>
@@ -9198,7 +9210,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9279,7 +9291,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9404,7 +9416,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9610,7 +9622,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9691,7 +9703,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9816,7 +9828,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9897,7 +9909,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10718,7 +10730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ46">
         <v>0.9</v>
@@ -10846,7 +10858,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10927,7 +10939,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11670,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11876,7 +11888,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12082,7 +12094,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12288,7 +12300,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12700,7 +12712,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12781,7 +12793,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR56">
         <v>1.39</v>
@@ -13112,7 +13124,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13318,7 +13330,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13396,7 +13408,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ59">
         <v>1.11</v>
@@ -13524,7 +13536,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13602,7 +13614,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
         <v>1.11</v>
@@ -13730,7 +13742,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13936,7 +13948,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14348,7 +14360,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14554,7 +14566,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14760,7 +14772,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15253,7 +15265,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15456,7 +15468,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15790,7 +15802,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15996,7 +16008,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16202,7 +16214,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16283,7 +16295,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR73">
         <v>0.91</v>
@@ -16408,7 +16420,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16614,7 +16626,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16692,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ75">
         <v>0.22</v>
@@ -16820,7 +16832,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17026,7 +17038,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17104,7 +17116,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ77">
         <v>0.78</v>
@@ -17438,7 +17450,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17644,7 +17656,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17725,7 +17737,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ80">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18056,7 +18068,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18468,7 +18480,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18674,7 +18686,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18752,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18880,7 +18892,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19086,7 +19098,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19292,7 +19304,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19373,7 +19385,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19704,7 +19716,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19910,7 +19922,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20812,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -21021,7 +21033,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -21146,7 +21158,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21352,7 +21364,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21558,7 +21570,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21764,7 +21776,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21842,10 +21854,10 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ100">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22176,7 +22188,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22588,7 +22600,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23490,7 +23502,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -23618,7 +23630,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23699,7 +23711,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23824,7 +23836,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24030,7 +24042,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24236,7 +24248,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24317,7 +24329,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ112">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24442,7 +24454,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25060,7 +25072,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25141,7 +25153,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25266,7 +25278,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25344,7 +25356,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25472,7 +25484,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25678,7 +25690,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25884,7 +25896,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25962,7 +25974,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26090,7 +26102,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26296,7 +26308,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26708,7 +26720,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26789,7 +26801,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27120,7 +27132,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27326,7 +27338,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27610,7 +27622,7 @@
         <v>0.83</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
         <v>0.78</v>
@@ -27738,7 +27750,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28356,7 +28368,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28434,7 +28446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ132">
         <v>1.11</v>
@@ -28974,7 +28986,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29180,7 +29192,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29261,7 +29273,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ136">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29670,7 +29682,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ138">
         <v>0.22</v>
@@ -30085,7 +30097,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR140">
         <v>1.88</v>
@@ -30416,7 +30428,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30497,7 +30509,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
         <v>1.7</v>
@@ -30622,7 +30634,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30906,7 +30918,7 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ144">
         <v>0.2</v>
@@ -31034,7 +31046,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31112,7 +31124,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
         <v>2</v>
@@ -31240,7 +31252,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31446,7 +31458,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31524,7 +31536,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ147">
         <v>1.5</v>
@@ -31652,7 +31664,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31733,7 +31745,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ148">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31858,7 +31870,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31939,7 +31951,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ149">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32476,7 +32488,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32682,7 +32694,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33094,7 +33106,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33300,7 +33312,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33506,7 +33518,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33918,7 +33930,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34408,7 +34420,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ161">
         <v>1.4</v>
@@ -34536,7 +34548,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34617,7 +34629,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR162">
         <v>1.48</v>
@@ -34742,7 +34754,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34948,7 +34960,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35026,10 +35038,10 @@
         <v>1.13</v>
       </c>
       <c r="AP164">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ164">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35154,7 +35166,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35441,7 +35453,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ166">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35772,7 +35784,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35978,7 +35990,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36056,7 +36068,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ169">
         <v>1.5</v>
@@ -36184,7 +36196,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36802,7 +36814,7 @@
         <v>137</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>1.95</v>
@@ -37420,7 +37432,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37832,7 +37844,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38450,7 +38462,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -38656,7 +38668,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -38862,7 +38874,7 @@
         <v>217</v>
       </c>
       <c r="P183" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="Q183">
         <v>2.1</v>
@@ -39068,7 +39080,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39274,7 +39286,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39480,7 +39492,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -39637,6 +39649,624 @@
       </c>
       <c r="BP186">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7466861</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45656.69791666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>86</v>
+      </c>
+      <c r="H187" t="s">
+        <v>80</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187" t="s">
+        <v>219</v>
+      </c>
+      <c r="P187" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q187">
+        <v>2.4</v>
+      </c>
+      <c r="R187">
+        <v>2.4</v>
+      </c>
+      <c r="S187">
+        <v>4</v>
+      </c>
+      <c r="T187">
+        <v>1.29</v>
+      </c>
+      <c r="U187">
+        <v>3.5</v>
+      </c>
+      <c r="V187">
+        <v>2.38</v>
+      </c>
+      <c r="W187">
+        <v>1.53</v>
+      </c>
+      <c r="X187">
+        <v>5.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.14</v>
+      </c>
+      <c r="Z187">
+        <v>1.93</v>
+      </c>
+      <c r="AA187">
+        <v>4</v>
+      </c>
+      <c r="AB187">
+        <v>3.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>17.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.16</v>
+      </c>
+      <c r="AF187">
+        <v>4.75</v>
+      </c>
+      <c r="AG187">
+        <v>1.56</v>
+      </c>
+      <c r="AH187">
+        <v>2.38</v>
+      </c>
+      <c r="AI187">
+        <v>1.53</v>
+      </c>
+      <c r="AJ187">
+        <v>2.38</v>
+      </c>
+      <c r="AK187">
+        <v>1.29</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.95</v>
+      </c>
+      <c r="AN187">
+        <v>2</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.9</v>
+      </c>
+      <c r="AQ187">
+        <v>1.3</v>
+      </c>
+      <c r="AR187">
+        <v>1.51</v>
+      </c>
+      <c r="AS187">
+        <v>1.39</v>
+      </c>
+      <c r="AT187">
+        <v>2.9</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>7</v>
+      </c>
+      <c r="AX187">
+        <v>4</v>
+      </c>
+      <c r="AY187">
+        <v>21</v>
+      </c>
+      <c r="AZ187">
+        <v>15</v>
+      </c>
+      <c r="BA187">
+        <v>12</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>15</v>
+      </c>
+      <c r="BD187">
+        <v>1.58</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.55</v>
+      </c>
+      <c r="BG187">
+        <v>1.17</v>
+      </c>
+      <c r="BH187">
+        <v>4.3</v>
+      </c>
+      <c r="BI187">
+        <v>1.3</v>
+      </c>
+      <c r="BJ187">
+        <v>3.15</v>
+      </c>
+      <c r="BK187">
+        <v>1.5</v>
+      </c>
+      <c r="BL187">
+        <v>2.35</v>
+      </c>
+      <c r="BM187">
+        <v>1.83</v>
+      </c>
+      <c r="BN187">
+        <v>1.85</v>
+      </c>
+      <c r="BO187">
+        <v>2.25</v>
+      </c>
+      <c r="BP187">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7466866</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45656.69791666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>78</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>220</v>
+      </c>
+      <c r="P188" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q188">
+        <v>5.5</v>
+      </c>
+      <c r="R188">
+        <v>2.63</v>
+      </c>
+      <c r="S188">
+        <v>1.91</v>
+      </c>
+      <c r="T188">
+        <v>1.22</v>
+      </c>
+      <c r="U188">
+        <v>4</v>
+      </c>
+      <c r="V188">
+        <v>2.1</v>
+      </c>
+      <c r="W188">
+        <v>1.67</v>
+      </c>
+      <c r="X188">
+        <v>4.5</v>
+      </c>
+      <c r="Y188">
+        <v>1.18</v>
+      </c>
+      <c r="Z188">
+        <v>6.25</v>
+      </c>
+      <c r="AA188">
+        <v>5.1</v>
+      </c>
+      <c r="AB188">
+        <v>1.43</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>22</v>
+      </c>
+      <c r="AE188">
+        <v>1.11</v>
+      </c>
+      <c r="AF188">
+        <v>5</v>
+      </c>
+      <c r="AG188">
+        <v>1.42</v>
+      </c>
+      <c r="AH188">
+        <v>2.74</v>
+      </c>
+      <c r="AI188">
+        <v>1.57</v>
+      </c>
+      <c r="AJ188">
+        <v>2.25</v>
+      </c>
+      <c r="AK188">
+        <v>2.88</v>
+      </c>
+      <c r="AL188">
+        <v>1.16</v>
+      </c>
+      <c r="AM188">
+        <v>1.11</v>
+      </c>
+      <c r="AN188">
+        <v>0.44</v>
+      </c>
+      <c r="AO188">
+        <v>2.22</v>
+      </c>
+      <c r="AP188">
+        <v>0.7</v>
+      </c>
+      <c r="AQ188">
+        <v>2</v>
+      </c>
+      <c r="AR188">
+        <v>1.17</v>
+      </c>
+      <c r="AS188">
+        <v>1.63</v>
+      </c>
+      <c r="AT188">
+        <v>2.8</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>1</v>
+      </c>
+      <c r="AX188">
+        <v>7</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>21</v>
+      </c>
+      <c r="BA188">
+        <v>4</v>
+      </c>
+      <c r="BB188">
+        <v>7</v>
+      </c>
+      <c r="BC188">
+        <v>11</v>
+      </c>
+      <c r="BD188">
+        <v>3.55</v>
+      </c>
+      <c r="BE188">
+        <v>8</v>
+      </c>
+      <c r="BF188">
+        <v>1.33</v>
+      </c>
+      <c r="BG188">
+        <v>1.14</v>
+      </c>
+      <c r="BH188">
+        <v>4.6</v>
+      </c>
+      <c r="BI188">
+        <v>1.27</v>
+      </c>
+      <c r="BJ188">
+        <v>3.3</v>
+      </c>
+      <c r="BK188">
+        <v>1.47</v>
+      </c>
+      <c r="BL188">
+        <v>2.48</v>
+      </c>
+      <c r="BM188">
+        <v>1.72</v>
+      </c>
+      <c r="BN188">
+        <v>1.98</v>
+      </c>
+      <c r="BO188">
+        <v>2.08</v>
+      </c>
+      <c r="BP188">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7466868</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45656.70833333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>2</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>91</v>
+      </c>
+      <c r="P189" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q189">
+        <v>3.2</v>
+      </c>
+      <c r="R189">
+        <v>2.38</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189">
+        <v>1.3</v>
+      </c>
+      <c r="U189">
+        <v>3.4</v>
+      </c>
+      <c r="V189">
+        <v>2.38</v>
+      </c>
+      <c r="W189">
+        <v>1.53</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.13</v>
+      </c>
+      <c r="Z189">
+        <v>2.8</v>
+      </c>
+      <c r="AA189">
+        <v>3.5</v>
+      </c>
+      <c r="AB189">
+        <v>2.5</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
+      </c>
+      <c r="AD189">
+        <v>16.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.17</v>
+      </c>
+      <c r="AF189">
+        <v>4.5</v>
+      </c>
+      <c r="AG189">
+        <v>1.62</v>
+      </c>
+      <c r="AH189">
+        <v>2.3</v>
+      </c>
+      <c r="AI189">
+        <v>1.5</v>
+      </c>
+      <c r="AJ189">
+        <v>2.5</v>
+      </c>
+      <c r="AK189">
+        <v>1.61</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
+        <v>1.47</v>
+      </c>
+      <c r="AN189">
+        <v>1.44</v>
+      </c>
+      <c r="AO189">
+        <v>1.33</v>
+      </c>
+      <c r="AP189">
+        <v>1.3</v>
+      </c>
+      <c r="AQ189">
+        <v>1.5</v>
+      </c>
+      <c r="AR189">
+        <v>1.54</v>
+      </c>
+      <c r="AS189">
+        <v>1.44</v>
+      </c>
+      <c r="AT189">
+        <v>2.98</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>13</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>5</v>
+      </c>
+      <c r="BD189">
+        <v>2.08</v>
+      </c>
+      <c r="BE189">
+        <v>6.75</v>
+      </c>
+      <c r="BF189">
+        <v>1.86</v>
+      </c>
+      <c r="BG189">
+        <v>1.12</v>
+      </c>
+      <c r="BH189">
+        <v>4.9</v>
+      </c>
+      <c r="BI189">
+        <v>1.25</v>
+      </c>
+      <c r="BJ189">
+        <v>3.45</v>
+      </c>
+      <c r="BK189">
+        <v>1.43</v>
+      </c>
+      <c r="BL189">
+        <v>2.55</v>
+      </c>
+      <c r="BM189">
+        <v>1.67</v>
+      </c>
+      <c r="BN189">
+        <v>2.05</v>
+      </c>
+      <c r="BO189">
+        <v>2.02</v>
+      </c>
+      <c r="BP189">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['12', '53']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -968,6 +971,9 @@
   </si>
   <si>
     <t>['4', '19']</t>
+  </si>
+  <si>
+    <t>['29', '50', '53']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1800,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2206,7 +2212,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2618,7 +2624,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2824,7 +2830,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3108,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>1.11</v>
@@ -3236,7 +3242,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3648,7 +3654,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4884,7 +4890,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4965,7 +4971,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5090,7 +5096,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5296,7 +5302,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -6120,7 +6126,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6326,7 +6332,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6610,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
         <v>0.2</v>
@@ -6738,7 +6744,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6944,7 +6950,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7150,7 +7156,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7562,7 +7568,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7768,7 +7774,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8592,7 +8598,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9004,7 +9010,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9210,7 +9216,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9416,7 +9422,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9497,7 +9503,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -9622,7 +9628,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9828,7 +9834,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10858,7 +10864,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11682,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11763,7 +11769,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -11888,7 +11894,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12094,7 +12100,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12300,7 +12306,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12584,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12712,7 +12718,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13124,7 +13130,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13330,7 +13336,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13536,7 +13542,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13742,7 +13748,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13948,7 +13954,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14360,7 +14366,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14566,7 +14572,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14644,7 +14650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ65">
         <v>0.9</v>
@@ -14772,7 +14778,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15802,7 +15808,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16008,7 +16014,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16214,7 +16220,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16420,7 +16426,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16626,7 +16632,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16832,7 +16838,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17038,7 +17044,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17325,7 +17331,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17450,7 +17456,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17656,7 +17662,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18068,7 +18074,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18480,7 +18486,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18686,7 +18692,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18892,7 +18898,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18970,7 +18976,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>0.89</v>
@@ -19098,7 +19104,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19304,7 +19310,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19716,7 +19722,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19922,7 +19928,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20209,7 +20215,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -21158,7 +21164,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21364,7 +21370,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21570,7 +21576,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21776,7 +21782,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22188,7 +22194,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22266,7 +22272,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22600,7 +22606,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23630,7 +23636,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23836,7 +23842,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24042,7 +24048,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24123,7 +24129,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24248,7 +24254,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24454,7 +24460,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25072,7 +25078,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25278,7 +25284,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25484,7 +25490,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25690,7 +25696,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25896,7 +25902,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26102,7 +26108,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26308,7 +26314,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26720,7 +26726,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27004,7 +27010,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27132,7 +27138,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27338,7 +27344,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27419,7 +27425,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ127">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27750,7 +27756,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28368,7 +28374,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28986,7 +28992,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29192,7 +29198,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -30428,7 +30434,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30506,7 +30512,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -30634,7 +30640,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31046,7 +31052,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31252,7 +31258,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31333,7 +31339,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR146">
         <v>1.74</v>
@@ -31458,7 +31464,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31664,7 +31670,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31870,7 +31876,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32488,7 +32494,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32694,7 +32700,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33106,7 +33112,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33312,7 +33318,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33518,7 +33524,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33930,7 +33936,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34548,7 +34554,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34754,7 +34760,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34832,7 +34838,7 @@
         <v>1.75</v>
       </c>
       <c r="AP163">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ163">
         <v>2</v>
@@ -34960,7 +34966,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35166,7 +35172,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35247,7 +35253,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35784,7 +35790,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35990,7 +35996,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36196,7 +36202,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36814,7 +36820,7 @@
         <v>137</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>1.95</v>
@@ -37432,7 +37438,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37844,7 +37850,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38462,7 +38468,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -38668,7 +38674,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39080,7 +39086,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39286,7 +39292,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39492,7 +39498,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -39698,7 +39704,7 @@
         <v>219</v>
       </c>
       <c r="P187" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40110,7 +40116,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40267,6 +40273,212 @@
       </c>
       <c r="BP189">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7466862</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45658.60416666666</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H190" t="s">
+        <v>72</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>221</v>
+      </c>
+      <c r="P190" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q190">
+        <v>6</v>
+      </c>
+      <c r="R190">
+        <v>2.5</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>1.29</v>
+      </c>
+      <c r="U190">
+        <v>3.5</v>
+      </c>
+      <c r="V190">
+        <v>2.25</v>
+      </c>
+      <c r="W190">
+        <v>1.57</v>
+      </c>
+      <c r="X190">
+        <v>5.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.14</v>
+      </c>
+      <c r="Z190">
+        <v>5.8</v>
+      </c>
+      <c r="AA190">
+        <v>4.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.5</v>
+      </c>
+      <c r="AC190">
+        <v>1.02</v>
+      </c>
+      <c r="AD190">
+        <v>19</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>5.1</v>
+      </c>
+      <c r="AG190">
+        <v>1.56</v>
+      </c>
+      <c r="AH190">
+        <v>2.4</v>
+      </c>
+      <c r="AI190">
+        <v>1.75</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>2.6</v>
+      </c>
+      <c r="AL190">
+        <v>1.19</v>
+      </c>
+      <c r="AM190">
+        <v>1.13</v>
+      </c>
+      <c r="AN190">
+        <v>2.44</v>
+      </c>
+      <c r="AO190">
+        <v>1.67</v>
+      </c>
+      <c r="AP190">
+        <v>2.2</v>
+      </c>
+      <c r="AQ190">
+        <v>1.8</v>
+      </c>
+      <c r="AR190">
+        <v>1.66</v>
+      </c>
+      <c r="AS190">
+        <v>1.27</v>
+      </c>
+      <c r="AT190">
+        <v>2.93</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>2</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>6</v>
+      </c>
+      <c r="AZ190">
+        <v>15</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>3</v>
+      </c>
+      <c r="BC190">
+        <v>7</v>
+      </c>
+      <c r="BD190">
+        <v>4.1</v>
+      </c>
+      <c r="BE190">
+        <v>8.5</v>
+      </c>
+      <c r="BF190">
+        <v>1.25</v>
+      </c>
+      <c r="BG190">
+        <v>1.17</v>
+      </c>
+      <c r="BH190">
+        <v>4.35</v>
+      </c>
+      <c r="BI190">
+        <v>1.3</v>
+      </c>
+      <c r="BJ190">
+        <v>3.15</v>
+      </c>
+      <c r="BK190">
+        <v>1.5</v>
+      </c>
+      <c r="BL190">
+        <v>2.38</v>
+      </c>
+      <c r="BM190">
+        <v>1.8</v>
+      </c>
+      <c r="BN190">
+        <v>1.89</v>
+      </c>
+      <c r="BO190">
+        <v>2.2</v>
+      </c>
+      <c r="BP190">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,24 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['10', '42', '55', '58']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['58', '76']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -701,9 +719,6 @@
   </si>
   <si>
     <t>['67', '77']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['2', '45', '49', '58', '63', '80']</t>
@@ -820,16 +835,10 @@
     <t>['28', '31', '86']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
     <t>['18', '81']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['60', '77']</t>
@@ -974,6 +983,15 @@
   </si>
   <si>
     <t>['29', '50', '53']</t>
+  </si>
+  <si>
+    <t>['6', '38']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['6', '62', '69', '90+2', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1800,7 +1818,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2212,7 +2230,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2624,7 +2642,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2830,7 +2848,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3242,7 +3260,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3654,7 +3672,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3732,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3938,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4144,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4353,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4559,7 +4577,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ16">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4762,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.89</v>
@@ -4890,7 +4908,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4968,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5096,7 +5114,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5174,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5302,7 +5320,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5383,7 +5401,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5589,7 +5607,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ21">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6126,7 +6144,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6332,7 +6350,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6744,7 +6762,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6950,7 +6968,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7156,7 +7174,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7568,7 +7586,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7774,7 +7792,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7852,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8058,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.98</v>
@@ -8473,7 +8491,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -8598,7 +8616,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8679,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.29</v>
@@ -8882,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.89</v>
@@ -9010,7 +9028,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9088,10 +9106,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9216,7 +9234,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9294,10 +9312,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9422,7 +9440,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9500,10 +9518,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -9628,7 +9646,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9709,7 +9727,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9834,7 +9852,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9915,7 +9933,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10327,7 +10345,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ44">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -10530,7 +10548,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ45">
         <v>0.89</v>
@@ -10736,7 +10754,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.9</v>
@@ -10864,7 +10882,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10945,7 +10963,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -11148,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.75</v>
@@ -11560,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11688,7 +11706,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11766,10 +11784,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -11894,7 +11912,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12100,7 +12118,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12306,7 +12324,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12387,7 +12405,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.6</v>
@@ -12593,7 +12611,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12718,7 +12736,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13130,7 +13148,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13336,7 +13354,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13542,7 +13560,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13748,7 +13766,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13826,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>0.2</v>
@@ -13954,7 +13972,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14366,7 +14384,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14572,7 +14590,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14778,7 +14796,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -14856,7 +14874,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -15271,7 +15289,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15474,7 +15492,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15808,7 +15826,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -15886,7 +15904,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16014,7 +16032,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16092,10 +16110,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16220,7 +16238,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16426,7 +16444,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16504,10 +16522,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ74">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>0.91</v>
@@ -16632,7 +16650,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16713,7 +16731,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ75">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.31</v>
@@ -16838,7 +16856,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17044,7 +17062,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17125,7 +17143,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17328,10 +17346,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17456,7 +17474,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17662,7 +17680,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17743,7 +17761,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18074,7 +18092,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18358,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>0.2</v>
@@ -18486,7 +18504,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18564,7 +18582,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>0.9</v>
@@ -18692,7 +18710,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18770,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18898,7 +18916,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19104,7 +19122,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19310,7 +19328,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19391,7 +19409,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19722,7 +19740,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19928,7 +19946,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20215,7 +20233,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -20421,7 +20439,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20624,10 +20642,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR94">
         <v>1.09</v>
@@ -20833,7 +20851,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -21164,7 +21182,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -21242,7 +21260,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97">
         <v>1.4</v>
@@ -21370,7 +21388,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21576,7 +21594,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21654,7 +21672,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -21782,7 +21800,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21863,7 +21881,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22069,7 +22087,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ101">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -22194,7 +22212,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22606,7 +22624,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22893,7 +22911,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR105">
         <v>1.57</v>
@@ -23096,7 +23114,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1.4</v>
@@ -23511,7 +23529,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ108">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23636,7 +23654,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23717,7 +23735,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23842,7 +23860,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23920,7 +23938,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24048,7 +24066,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24129,7 +24147,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24254,7 +24272,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24335,7 +24353,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24460,7 +24478,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24747,7 +24765,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ114">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -25078,7 +25096,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25156,7 +25174,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ116">
         <v>1.3</v>
@@ -25284,7 +25302,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25362,7 +25380,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25490,7 +25508,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25568,7 +25586,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.11</v>
@@ -25696,7 +25714,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25774,7 +25792,7 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ119">
         <v>2.56</v>
@@ -25902,7 +25920,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26108,7 +26126,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26189,7 +26207,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26314,7 +26332,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26392,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.2</v>
@@ -26726,7 +26744,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26807,7 +26825,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR124">
         <v>1.38</v>
@@ -27013,7 +27031,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.7</v>
@@ -27138,7 +27156,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27344,7 +27362,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27425,7 +27443,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ127">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27631,7 +27649,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR128">
         <v>1.43</v>
@@ -27756,7 +27774,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27834,7 +27852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28374,7 +28392,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28661,7 +28679,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR133">
         <v>1.02</v>
@@ -28864,7 +28882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP134">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -28992,7 +29010,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29198,7 +29216,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29276,10 +29294,10 @@
         <v>2.17</v>
       </c>
       <c r="AP136">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29688,10 +29706,10 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -30306,7 +30324,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ141">
         <v>1.11</v>
@@ -30434,7 +30452,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30515,7 +30533,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR142">
         <v>1.7</v>
@@ -30640,7 +30658,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30924,7 +30942,7 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.2</v>
@@ -31052,7 +31070,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31258,7 +31276,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31339,7 +31357,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR146">
         <v>1.74</v>
@@ -31464,7 +31482,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31670,7 +31688,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31876,7 +31894,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31954,10 +31972,10 @@
         <v>2.29</v>
       </c>
       <c r="AP149">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32369,7 +32387,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.32</v>
@@ -32494,7 +32512,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32700,7 +32718,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32987,7 +33005,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ154">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR154">
         <v>2.08</v>
@@ -33112,7 +33130,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33318,7 +33336,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33396,7 +33414,7 @@
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -33524,7 +33542,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33602,7 +33620,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33811,7 +33829,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ158">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33936,7 +33954,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34014,7 +34032,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ159">
         <v>1.11</v>
@@ -34220,10 +34238,10 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ160">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR160">
         <v>1.69</v>
@@ -34426,7 +34444,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
         <v>1.4</v>
@@ -34554,7 +34572,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34760,7 +34778,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34966,7 +34984,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35047,7 +35065,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35172,7 +35190,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35253,7 +35271,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35459,7 +35477,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ166">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35790,7 +35808,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -35996,7 +36014,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36202,7 +36220,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36280,7 +36298,7 @@
         <v>2.43</v>
       </c>
       <c r="AP170">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ170">
         <v>2.56</v>
@@ -36486,10 +36504,10 @@
         <v>0.75</v>
       </c>
       <c r="AP171">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR171">
         <v>2.11</v>
@@ -36692,7 +36710,7 @@
         <v>1.13</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ172">
         <v>1.11</v>
@@ -36820,7 +36838,7 @@
         <v>137</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>1.95</v>
@@ -37438,7 +37456,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37516,10 +37534,10 @@
         <v>1.13</v>
       </c>
       <c r="AP176">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR176">
         <v>1.06</v>
@@ -37850,7 +37868,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -37931,7 +37949,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ178">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR178">
         <v>1.73</v>
@@ -38134,10 +38152,10 @@
         <v>0.13</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR179">
         <v>1.54</v>
@@ -38468,7 +38486,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -38674,7 +38692,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -38752,7 +38770,7 @@
         <v>0.89</v>
       </c>
       <c r="AP182">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ182">
         <v>0.9</v>
@@ -39086,7 +39104,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39292,7 +39310,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39498,7 +39516,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -39704,7 +39722,7 @@
         <v>219</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39782,7 +39800,7 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>1.3</v>
@@ -39991,7 +40009,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ188">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR188">
         <v>1.17</v>
@@ -40116,7 +40134,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40197,7 +40215,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40322,7 +40340,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40403,7 +40421,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ190">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR190">
         <v>1.66</v>
@@ -40479,6 +40497,1448 @@
       </c>
       <c r="BP190">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7466879</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45661.39583333334</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>222</v>
+      </c>
+      <c r="P191" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q191">
+        <v>3.2</v>
+      </c>
+      <c r="R191">
+        <v>2.6</v>
+      </c>
+      <c r="S191">
+        <v>2.63</v>
+      </c>
+      <c r="T191">
+        <v>1.2</v>
+      </c>
+      <c r="U191">
+        <v>4.33</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>1.73</v>
+      </c>
+      <c r="X191">
+        <v>4</v>
+      </c>
+      <c r="Y191">
+        <v>1.22</v>
+      </c>
+      <c r="Z191">
+        <v>2.8</v>
+      </c>
+      <c r="AA191">
+        <v>3.65</v>
+      </c>
+      <c r="AB191">
+        <v>2.35</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>27</v>
+      </c>
+      <c r="AE191">
+        <v>1.11</v>
+      </c>
+      <c r="AF191">
+        <v>7.2</v>
+      </c>
+      <c r="AG191">
+        <v>1.36</v>
+      </c>
+      <c r="AH191">
+        <v>3.1</v>
+      </c>
+      <c r="AI191">
+        <v>1.33</v>
+      </c>
+      <c r="AJ191">
+        <v>3.25</v>
+      </c>
+      <c r="AK191">
+        <v>1.61</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.42</v>
+      </c>
+      <c r="AN191">
+        <v>1.4</v>
+      </c>
+      <c r="AO191">
+        <v>1.5</v>
+      </c>
+      <c r="AP191">
+        <v>1.27</v>
+      </c>
+      <c r="AQ191">
+        <v>1.64</v>
+      </c>
+      <c r="AR191">
+        <v>1.71</v>
+      </c>
+      <c r="AS191">
+        <v>1.42</v>
+      </c>
+      <c r="AT191">
+        <v>3.13</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>14</v>
+      </c>
+      <c r="AZ191">
+        <v>15</v>
+      </c>
+      <c r="BA191">
+        <v>9</v>
+      </c>
+      <c r="BB191">
+        <v>10</v>
+      </c>
+      <c r="BC191">
+        <v>19</v>
+      </c>
+      <c r="BD191">
+        <v>1.76</v>
+      </c>
+      <c r="BE191">
+        <v>7</v>
+      </c>
+      <c r="BF191">
+        <v>2.2</v>
+      </c>
+      <c r="BG191">
+        <v>1.11</v>
+      </c>
+      <c r="BH191">
+        <v>5.3</v>
+      </c>
+      <c r="BI191">
+        <v>1.21</v>
+      </c>
+      <c r="BJ191">
+        <v>3.8</v>
+      </c>
+      <c r="BK191">
+        <v>1.37</v>
+      </c>
+      <c r="BL191">
+        <v>2.8</v>
+      </c>
+      <c r="BM191">
+        <v>1.6</v>
+      </c>
+      <c r="BN191">
+        <v>2.17</v>
+      </c>
+      <c r="BO191">
+        <v>1.93</v>
+      </c>
+      <c r="BP191">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7466877</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>85</v>
+      </c>
+      <c r="H192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>223</v>
+      </c>
+      <c r="P192" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q192">
+        <v>1.73</v>
+      </c>
+      <c r="R192">
+        <v>2.88</v>
+      </c>
+      <c r="S192">
+        <v>6.5</v>
+      </c>
+      <c r="T192">
+        <v>1.2</v>
+      </c>
+      <c r="U192">
+        <v>4.33</v>
+      </c>
+      <c r="V192">
+        <v>1.91</v>
+      </c>
+      <c r="W192">
+        <v>1.8</v>
+      </c>
+      <c r="X192">
+        <v>4</v>
+      </c>
+      <c r="Y192">
+        <v>1.22</v>
+      </c>
+      <c r="Z192">
+        <v>1.3</v>
+      </c>
+      <c r="AA192">
+        <v>6</v>
+      </c>
+      <c r="AB192">
+        <v>8</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>31</v>
+      </c>
+      <c r="AE192">
+        <v>1.11</v>
+      </c>
+      <c r="AF192">
+        <v>7.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.6</v>
+      </c>
+      <c r="AH192">
+        <v>2.25</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.08</v>
+      </c>
+      <c r="AL192">
+        <v>1.13</v>
+      </c>
+      <c r="AM192">
+        <v>3.3</v>
+      </c>
+      <c r="AN192">
+        <v>1.89</v>
+      </c>
+      <c r="AO192">
+        <v>1.33</v>
+      </c>
+      <c r="AP192">
+        <v>2</v>
+      </c>
+      <c r="AQ192">
+        <v>1.2</v>
+      </c>
+      <c r="AR192">
+        <v>2.09</v>
+      </c>
+      <c r="AS192">
+        <v>1.43</v>
+      </c>
+      <c r="AT192">
+        <v>3.52</v>
+      </c>
+      <c r="AU192">
+        <v>8</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>0</v>
+      </c>
+      <c r="AX192">
+        <v>10</v>
+      </c>
+      <c r="AY192">
+        <v>11</v>
+      </c>
+      <c r="AZ192">
+        <v>18</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>8</v>
+      </c>
+      <c r="BD192">
+        <v>1.1</v>
+      </c>
+      <c r="BE192">
+        <v>11</v>
+      </c>
+      <c r="BF192">
+        <v>6.75</v>
+      </c>
+      <c r="BG192">
+        <v>1.14</v>
+      </c>
+      <c r="BH192">
+        <v>4.8</v>
+      </c>
+      <c r="BI192">
+        <v>1.24</v>
+      </c>
+      <c r="BJ192">
+        <v>3.55</v>
+      </c>
+      <c r="BK192">
+        <v>1.41</v>
+      </c>
+      <c r="BL192">
+        <v>2.65</v>
+      </c>
+      <c r="BM192">
+        <v>1.65</v>
+      </c>
+      <c r="BN192">
+        <v>2.08</v>
+      </c>
+      <c r="BO192">
+        <v>1.98</v>
+      </c>
+      <c r="BP192">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7466874</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" t="s">
+        <v>78</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>224</v>
+      </c>
+      <c r="P193" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>2.38</v>
+      </c>
+      <c r="S193">
+        <v>2.4</v>
+      </c>
+      <c r="T193">
+        <v>1.3</v>
+      </c>
+      <c r="U193">
+        <v>3.4</v>
+      </c>
+      <c r="V193">
+        <v>2.38</v>
+      </c>
+      <c r="W193">
+        <v>1.53</v>
+      </c>
+      <c r="X193">
+        <v>6</v>
+      </c>
+      <c r="Y193">
+        <v>1.13</v>
+      </c>
+      <c r="Z193">
+        <v>3.6</v>
+      </c>
+      <c r="AA193">
+        <v>3.75</v>
+      </c>
+      <c r="AB193">
+        <v>1.95</v>
+      </c>
+      <c r="AC193">
+        <v>1.03</v>
+      </c>
+      <c r="AD193">
+        <v>16</v>
+      </c>
+      <c r="AE193">
+        <v>1.2</v>
+      </c>
+      <c r="AF193">
+        <v>4.85</v>
+      </c>
+      <c r="AG193">
+        <v>1.6</v>
+      </c>
+      <c r="AH193">
+        <v>2.3</v>
+      </c>
+      <c r="AI193">
+        <v>1.53</v>
+      </c>
+      <c r="AJ193">
+        <v>2.38</v>
+      </c>
+      <c r="AK193">
+        <v>1.9</v>
+      </c>
+      <c r="AL193">
+        <v>1.26</v>
+      </c>
+      <c r="AM193">
+        <v>1.25</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
+        <v>2</v>
+      </c>
+      <c r="AP193">
+        <v>1</v>
+      </c>
+      <c r="AQ193">
+        <v>1.91</v>
+      </c>
+      <c r="AR193">
+        <v>1.41</v>
+      </c>
+      <c r="AS193">
+        <v>1.64</v>
+      </c>
+      <c r="AT193">
+        <v>3.05</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>2</v>
+      </c>
+      <c r="AX193">
+        <v>10</v>
+      </c>
+      <c r="AY193">
+        <v>14</v>
+      </c>
+      <c r="AZ193">
+        <v>16</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>6</v>
+      </c>
+      <c r="BC193">
+        <v>12</v>
+      </c>
+      <c r="BD193">
+        <v>2.7</v>
+      </c>
+      <c r="BE193">
+        <v>7</v>
+      </c>
+      <c r="BF193">
+        <v>1.54</v>
+      </c>
+      <c r="BG193">
+        <v>1.17</v>
+      </c>
+      <c r="BH193">
+        <v>4.35</v>
+      </c>
+      <c r="BI193">
+        <v>1.3</v>
+      </c>
+      <c r="BJ193">
+        <v>3.15</v>
+      </c>
+      <c r="BK193">
+        <v>1.49</v>
+      </c>
+      <c r="BL193">
+        <v>2.4</v>
+      </c>
+      <c r="BM193">
+        <v>1.78</v>
+      </c>
+      <c r="BN193">
+        <v>1.91</v>
+      </c>
+      <c r="BO193">
+        <v>2.18</v>
+      </c>
+      <c r="BP193">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7466878</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>82</v>
+      </c>
+      <c r="H194" t="s">
+        <v>77</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>5</v>
+      </c>
+      <c r="O194" t="s">
+        <v>91</v>
+      </c>
+      <c r="P194" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q194">
+        <v>3.2</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>3</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>3.25</v>
+      </c>
+      <c r="V194">
+        <v>2.5</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>6</v>
+      </c>
+      <c r="Y194">
+        <v>1.13</v>
+      </c>
+      <c r="Z194">
+        <v>2.88</v>
+      </c>
+      <c r="AA194">
+        <v>3.4</v>
+      </c>
+      <c r="AB194">
+        <v>2.38</v>
+      </c>
+      <c r="AC194">
+        <v>1.04</v>
+      </c>
+      <c r="AD194">
+        <v>15</v>
+      </c>
+      <c r="AE194">
+        <v>1.23</v>
+      </c>
+      <c r="AF194">
+        <v>4.45</v>
+      </c>
+      <c r="AG194">
+        <v>1.65</v>
+      </c>
+      <c r="AH194">
+        <v>2.2</v>
+      </c>
+      <c r="AI194">
+        <v>1.53</v>
+      </c>
+      <c r="AJ194">
+        <v>2.38</v>
+      </c>
+      <c r="AK194">
+        <v>1.52</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.46</v>
+      </c>
+      <c r="AN194">
+        <v>0.44</v>
+      </c>
+      <c r="AO194">
+        <v>0.22</v>
+      </c>
+      <c r="AP194">
+        <v>0.4</v>
+      </c>
+      <c r="AQ194">
+        <v>0.5</v>
+      </c>
+      <c r="AR194">
+        <v>1.14</v>
+      </c>
+      <c r="AS194">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT194">
+        <v>2.08</v>
+      </c>
+      <c r="AU194">
+        <v>2</v>
+      </c>
+      <c r="AV194">
+        <v>12</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>7</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>21</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>2</v>
+      </c>
+      <c r="BC194">
+        <v>4</v>
+      </c>
+      <c r="BD194">
+        <v>1.75</v>
+      </c>
+      <c r="BE194">
+        <v>6.75</v>
+      </c>
+      <c r="BF194">
+        <v>2.25</v>
+      </c>
+      <c r="BG194">
+        <v>1.16</v>
+      </c>
+      <c r="BH194">
+        <v>4.3</v>
+      </c>
+      <c r="BI194">
+        <v>1.3</v>
+      </c>
+      <c r="BJ194">
+        <v>3.05</v>
+      </c>
+      <c r="BK194">
+        <v>1.52</v>
+      </c>
+      <c r="BL194">
+        <v>2.32</v>
+      </c>
+      <c r="BM194">
+        <v>1.83</v>
+      </c>
+      <c r="BN194">
+        <v>1.85</v>
+      </c>
+      <c r="BO194">
+        <v>2.28</v>
+      </c>
+      <c r="BP194">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7466872</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>86</v>
+      </c>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>225</v>
+      </c>
+      <c r="P195" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q195">
+        <v>1.8</v>
+      </c>
+      <c r="R195">
+        <v>2.63</v>
+      </c>
+      <c r="S195">
+        <v>7.5</v>
+      </c>
+      <c r="T195">
+        <v>1.29</v>
+      </c>
+      <c r="U195">
+        <v>3.5</v>
+      </c>
+      <c r="V195">
+        <v>2.25</v>
+      </c>
+      <c r="W195">
+        <v>1.57</v>
+      </c>
+      <c r="X195">
+        <v>5.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.14</v>
+      </c>
+      <c r="Z195">
+        <v>1.3</v>
+      </c>
+      <c r="AA195">
+        <v>5.75</v>
+      </c>
+      <c r="AB195">
+        <v>8.5</v>
+      </c>
+      <c r="AC195">
+        <v>1.02</v>
+      </c>
+      <c r="AD195">
+        <v>20</v>
+      </c>
+      <c r="AE195">
+        <v>1.17</v>
+      </c>
+      <c r="AF195">
+        <v>5.4</v>
+      </c>
+      <c r="AG195">
+        <v>1.53</v>
+      </c>
+      <c r="AH195">
+        <v>2.45</v>
+      </c>
+      <c r="AI195">
+        <v>1.91</v>
+      </c>
+      <c r="AJ195">
+        <v>1.91</v>
+      </c>
+      <c r="AK195">
+        <v>1.07</v>
+      </c>
+      <c r="AL195">
+        <v>1.15</v>
+      </c>
+      <c r="AM195">
+        <v>3.3</v>
+      </c>
+      <c r="AN195">
+        <v>1.9</v>
+      </c>
+      <c r="AO195">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP195">
+        <v>2</v>
+      </c>
+      <c r="AQ195">
+        <v>0.5</v>
+      </c>
+      <c r="AR195">
+        <v>1.51</v>
+      </c>
+      <c r="AS195">
+        <v>1.02</v>
+      </c>
+      <c r="AT195">
+        <v>2.53</v>
+      </c>
+      <c r="AU195">
+        <v>6</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>14</v>
+      </c>
+      <c r="AZ195">
+        <v>5</v>
+      </c>
+      <c r="BA195">
+        <v>6</v>
+      </c>
+      <c r="BB195">
+        <v>2</v>
+      </c>
+      <c r="BC195">
+        <v>8</v>
+      </c>
+      <c r="BD195">
+        <v>1.16</v>
+      </c>
+      <c r="BE195">
+        <v>9.5</v>
+      </c>
+      <c r="BF195">
+        <v>5.4</v>
+      </c>
+      <c r="BG195">
+        <v>1.2</v>
+      </c>
+      <c r="BH195">
+        <v>3.9</v>
+      </c>
+      <c r="BI195">
+        <v>1.36</v>
+      </c>
+      <c r="BJ195">
+        <v>2.8</v>
+      </c>
+      <c r="BK195">
+        <v>1.6</v>
+      </c>
+      <c r="BL195">
+        <v>2.17</v>
+      </c>
+      <c r="BM195">
+        <v>1.92</v>
+      </c>
+      <c r="BN195">
+        <v>1.77</v>
+      </c>
+      <c r="BO195">
+        <v>2.38</v>
+      </c>
+      <c r="BP195">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7466871</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45661.5</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>87</v>
+      </c>
+      <c r="H196" t="s">
+        <v>73</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>226</v>
+      </c>
+      <c r="P196" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q196">
+        <v>2.38</v>
+      </c>
+      <c r="R196">
+        <v>2.25</v>
+      </c>
+      <c r="S196">
+        <v>4.75</v>
+      </c>
+      <c r="T196">
+        <v>1.36</v>
+      </c>
+      <c r="U196">
+        <v>3</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>1.1</v>
+      </c>
+      <c r="Z196">
+        <v>1.75</v>
+      </c>
+      <c r="AA196">
+        <v>3.75</v>
+      </c>
+      <c r="AB196">
+        <v>4.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>13</v>
+      </c>
+      <c r="AE196">
+        <v>1.27</v>
+      </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
+      <c r="AG196">
+        <v>1.85</v>
+      </c>
+      <c r="AH196">
+        <v>1.91</v>
+      </c>
+      <c r="AI196">
+        <v>1.75</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>1.19</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>2</v>
+      </c>
+      <c r="AN196">
+        <v>1.67</v>
+      </c>
+      <c r="AO196">
+        <v>0.78</v>
+      </c>
+      <c r="AP196">
+        <v>1.8</v>
+      </c>
+      <c r="AQ196">
+        <v>0.7</v>
+      </c>
+      <c r="AR196">
+        <v>1.73</v>
+      </c>
+      <c r="AS196">
+        <v>1.11</v>
+      </c>
+      <c r="AT196">
+        <v>2.84</v>
+      </c>
+      <c r="AU196">
+        <v>9</v>
+      </c>
+      <c r="AV196">
+        <v>0</v>
+      </c>
+      <c r="AW196">
+        <v>7</v>
+      </c>
+      <c r="AX196">
+        <v>10</v>
+      </c>
+      <c r="AY196">
+        <v>20</v>
+      </c>
+      <c r="AZ196">
+        <v>10</v>
+      </c>
+      <c r="BA196">
+        <v>9</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>12</v>
+      </c>
+      <c r="BD196">
+        <v>1.33</v>
+      </c>
+      <c r="BE196">
+        <v>7.5</v>
+      </c>
+      <c r="BF196">
+        <v>3.65</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>4.2</v>
+      </c>
+      <c r="BI196">
+        <v>1.3</v>
+      </c>
+      <c r="BJ196">
+        <v>3.05</v>
+      </c>
+      <c r="BK196">
+        <v>1.53</v>
+      </c>
+      <c r="BL196">
+        <v>2.32</v>
+      </c>
+      <c r="BM196">
+        <v>1.83</v>
+      </c>
+      <c r="BN196">
+        <v>1.85</v>
+      </c>
+      <c r="BO196">
+        <v>2.25</v>
+      </c>
+      <c r="BP196">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7466873</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45661.60416666666</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>227</v>
+      </c>
+      <c r="P197" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q197">
+        <v>4.5</v>
+      </c>
+      <c r="R197">
+        <v>2.38</v>
+      </c>
+      <c r="S197">
+        <v>2.3</v>
+      </c>
+      <c r="T197">
+        <v>1.33</v>
+      </c>
+      <c r="U197">
+        <v>3.25</v>
+      </c>
+      <c r="V197">
+        <v>2.5</v>
+      </c>
+      <c r="W197">
+        <v>1.5</v>
+      </c>
+      <c r="X197">
+        <v>6</v>
+      </c>
+      <c r="Y197">
+        <v>1.13</v>
+      </c>
+      <c r="Z197">
+        <v>4.2</v>
+      </c>
+      <c r="AA197">
+        <v>3.75</v>
+      </c>
+      <c r="AB197">
+        <v>1.8</v>
+      </c>
+      <c r="AC197">
+        <v>1.03</v>
+      </c>
+      <c r="AD197">
+        <v>16</v>
+      </c>
+      <c r="AE197">
+        <v>1.23</v>
+      </c>
+      <c r="AF197">
+        <v>4.45</v>
+      </c>
+      <c r="AG197">
+        <v>1.75</v>
+      </c>
+      <c r="AH197">
+        <v>2.05</v>
+      </c>
+      <c r="AI197">
+        <v>1.62</v>
+      </c>
+      <c r="AJ197">
+        <v>2.2</v>
+      </c>
+      <c r="AK197">
+        <v>2.05</v>
+      </c>
+      <c r="AL197">
+        <v>1.24</v>
+      </c>
+      <c r="AM197">
+        <v>1.21</v>
+      </c>
+      <c r="AN197">
+        <v>1.56</v>
+      </c>
+      <c r="AO197">
+        <v>1.8</v>
+      </c>
+      <c r="AP197">
+        <v>1.5</v>
+      </c>
+      <c r="AQ197">
+        <v>1.73</v>
+      </c>
+      <c r="AR197">
+        <v>1.62</v>
+      </c>
+      <c r="AS197">
+        <v>1.31</v>
+      </c>
+      <c r="AT197">
+        <v>2.93</v>
+      </c>
+      <c r="AU197">
+        <v>5</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>4</v>
+      </c>
+      <c r="AX197">
+        <v>4</v>
+      </c>
+      <c r="AY197">
+        <v>12</v>
+      </c>
+      <c r="AZ197">
+        <v>10</v>
+      </c>
+      <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>5</v>
+      </c>
+      <c r="BC197">
+        <v>7</v>
+      </c>
+      <c r="BD197">
+        <v>2.7</v>
+      </c>
+      <c r="BE197">
+        <v>6.75</v>
+      </c>
+      <c r="BF197">
+        <v>1.54</v>
+      </c>
+      <c r="BG197">
+        <v>1.22</v>
+      </c>
+      <c r="BH197">
+        <v>3.7</v>
+      </c>
+      <c r="BI197">
+        <v>1.4</v>
+      </c>
+      <c r="BJ197">
+        <v>2.7</v>
+      </c>
+      <c r="BK197">
+        <v>1.65</v>
+      </c>
+      <c r="BL197">
+        <v>2.08</v>
+      </c>
+      <c r="BM197">
+        <v>2</v>
+      </c>
+      <c r="BN197">
+        <v>1.7</v>
+      </c>
+      <c r="BO197">
+        <v>2.55</v>
+      </c>
+      <c r="BP197">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,12 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
+    <t>['59', '70']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -992,6 +998,12 @@
   </si>
   <si>
     <t>['6', '62', '69', '90+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['38', '71']</t>
+  </si>
+  <si>
+    <t>['52', '80']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1818,7 +1830,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2230,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2642,7 +2654,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2848,7 +2860,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3260,7 +3272,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3672,7 +3684,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4574,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4783,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4908,7 +4920,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5320,7 +5332,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>4.5</v>
@@ -5604,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -6144,7 +6156,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6350,7 +6362,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6762,7 +6774,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6968,7 +6980,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7174,7 +7186,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7586,7 +7598,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7792,7 +7804,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8282,7 +8294,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8488,7 +8500,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ35">
         <v>1.2</v>
@@ -8616,7 +8628,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8903,7 +8915,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -9028,7 +9040,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9234,7 +9246,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9440,7 +9452,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9646,7 +9658,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9852,7 +9864,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10136,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10551,7 +10563,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR45">
         <v>0.83</v>
@@ -10882,7 +10894,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10960,7 +10972,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -11706,7 +11718,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -11912,7 +11924,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12118,7 +12130,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12324,7 +12336,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>1.57</v>
@@ -12736,7 +12748,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13148,7 +13160,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13354,7 +13366,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13560,7 +13572,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13766,7 +13778,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13972,7 +13984,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14384,7 +14396,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14465,7 +14477,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14590,7 +14602,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14796,7 +14808,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>1.67</v>
@@ -15826,7 +15838,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16032,7 +16044,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>1.95</v>
@@ -16238,7 +16250,7 @@
         <v>91</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16444,7 +16456,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16650,7 +16662,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>2.1</v>
@@ -16856,7 +16868,7 @@
         <v>119</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16934,7 +16946,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -17062,7 +17074,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17474,7 +17486,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17680,7 +17692,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17758,7 +17770,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ80">
         <v>1.91</v>
@@ -18092,7 +18104,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18504,7 +18516,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18710,7 +18722,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18916,7 +18928,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -18997,7 +19009,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19328,7 +19340,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19740,7 +19752,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19946,7 +19958,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -21054,7 +21066,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ96">
         <v>1.3</v>
@@ -21388,7 +21400,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21594,7 +21606,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21800,7 +21812,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22084,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22212,7 +22224,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22624,7 +22636,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -23320,7 +23332,7 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ107">
         <v>1.11</v>
@@ -23654,7 +23666,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23860,7 +23872,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -23941,7 +23953,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24066,7 +24078,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24272,7 +24284,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24478,7 +24490,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24556,7 +24568,7 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ113">
         <v>0.9</v>
@@ -25096,7 +25108,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25302,7 +25314,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25508,7 +25520,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25714,7 +25726,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -25920,7 +25932,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26126,7 +26138,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26332,7 +26344,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26619,7 +26631,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26744,7 +26756,7 @@
         <v>149</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -27156,7 +27168,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27362,7 +27374,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27774,7 +27786,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28264,7 +28276,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ131">
         <v>1.4</v>
@@ -28392,7 +28404,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29010,7 +29022,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29216,7 +29228,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -30118,7 +30130,7 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>1.3</v>
@@ -30452,7 +30464,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30658,7 +30670,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31070,7 +31082,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31276,7 +31288,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31354,7 +31366,7 @@
         <v>1.57</v>
       </c>
       <c r="AP146">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
         <v>1.73</v>
@@ -31482,7 +31494,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31688,7 +31700,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31894,7 +31906,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32512,7 +32524,7 @@
         <v>204</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>1.73</v>
@@ -32590,7 +32602,7 @@
         <v>1.29</v>
       </c>
       <c r="AP152">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ152">
         <v>1.44</v>
@@ -32718,7 +32730,7 @@
         <v>205</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32799,7 +32811,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ153">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR153">
         <v>1.14</v>
@@ -33130,7 +33142,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33336,7 +33348,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33542,7 +33554,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -33954,7 +33966,7 @@
         <v>91</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -34572,7 +34584,7 @@
         <v>125</v>
       </c>
       <c r="P162" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34778,7 +34790,7 @@
         <v>91</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -34984,7 +34996,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35190,7 +35202,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35680,7 +35692,7 @@
         <v>0.13</v>
       </c>
       <c r="AP167">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ167">
         <v>0.2</v>
@@ -35808,7 +35820,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -36014,7 +36026,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -36220,7 +36232,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36838,7 +36850,7 @@
         <v>137</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>1.95</v>
@@ -37456,7 +37468,7 @@
         <v>91</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37868,7 +37880,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -37946,7 +37958,7 @@
         <v>0.63</v>
       </c>
       <c r="AP178">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ178">
         <v>0.5</v>
@@ -38361,7 +38373,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ180">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38486,7 +38498,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -38692,7 +38704,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39104,7 +39116,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>3.25</v>
@@ -39310,7 +39322,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39388,7 +39400,7 @@
         <v>1.56</v>
       </c>
       <c r="AP185">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ185">
         <v>1.5</v>
@@ -39516,7 +39528,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -39722,7 +39734,7 @@
         <v>219</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40134,7 +40146,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40340,7 +40352,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40546,7 +40558,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -40752,7 +40764,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>1.73</v>
@@ -41164,7 +41176,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>3.2</v>
@@ -41370,7 +41382,7 @@
         <v>225</v>
       </c>
       <c r="P195" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q195">
         <v>1.8</v>
@@ -41939,6 +41951,418 @@
       </c>
       <c r="BP197">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7466875</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45662.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>84</v>
+      </c>
+      <c r="H198" t="s">
+        <v>71</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>228</v>
+      </c>
+      <c r="P198" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q198">
+        <v>2.1</v>
+      </c>
+      <c r="R198">
+        <v>2.38</v>
+      </c>
+      <c r="S198">
+        <v>5.5</v>
+      </c>
+      <c r="T198">
+        <v>1.33</v>
+      </c>
+      <c r="U198">
+        <v>3.25</v>
+      </c>
+      <c r="V198">
+        <v>2.63</v>
+      </c>
+      <c r="W198">
+        <v>1.44</v>
+      </c>
+      <c r="X198">
+        <v>6.5</v>
+      </c>
+      <c r="Y198">
+        <v>1.11</v>
+      </c>
+      <c r="Z198">
+        <v>1.63</v>
+      </c>
+      <c r="AA198">
+        <v>4.1</v>
+      </c>
+      <c r="AB198">
+        <v>5.25</v>
+      </c>
+      <c r="AC198">
+        <v>1.03</v>
+      </c>
+      <c r="AD198">
+        <v>15</v>
+      </c>
+      <c r="AE198">
+        <v>1.23</v>
+      </c>
+      <c r="AF198">
+        <v>4.35</v>
+      </c>
+      <c r="AG198">
+        <v>1.68</v>
+      </c>
+      <c r="AH198">
+        <v>2.05</v>
+      </c>
+      <c r="AI198">
+        <v>1.8</v>
+      </c>
+      <c r="AJ198">
+        <v>1.95</v>
+      </c>
+      <c r="AK198">
+        <v>1.14</v>
+      </c>
+      <c r="AL198">
+        <v>1.21</v>
+      </c>
+      <c r="AM198">
+        <v>2.4</v>
+      </c>
+      <c r="AN198">
+        <v>1.6</v>
+      </c>
+      <c r="AO198">
+        <v>0.89</v>
+      </c>
+      <c r="AP198">
+        <v>1.55</v>
+      </c>
+      <c r="AQ198">
+        <v>0.9</v>
+      </c>
+      <c r="AR198">
+        <v>1.57</v>
+      </c>
+      <c r="AS198">
+        <v>0.92</v>
+      </c>
+      <c r="AT198">
+        <v>2.49</v>
+      </c>
+      <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>3</v>
+      </c>
+      <c r="AY198">
+        <v>16</v>
+      </c>
+      <c r="AZ198">
+        <v>8</v>
+      </c>
+      <c r="BA198">
+        <v>9</v>
+      </c>
+      <c r="BB198">
+        <v>2</v>
+      </c>
+      <c r="BC198">
+        <v>11</v>
+      </c>
+      <c r="BD198">
+        <v>1.27</v>
+      </c>
+      <c r="BE198">
+        <v>8</v>
+      </c>
+      <c r="BF198">
+        <v>4.1</v>
+      </c>
+      <c r="BG198">
+        <v>1.16</v>
+      </c>
+      <c r="BH198">
+        <v>4.4</v>
+      </c>
+      <c r="BI198">
+        <v>1.29</v>
+      </c>
+      <c r="BJ198">
+        <v>3.15</v>
+      </c>
+      <c r="BK198">
+        <v>1.48</v>
+      </c>
+      <c r="BL198">
+        <v>2.43</v>
+      </c>
+      <c r="BM198">
+        <v>1.76</v>
+      </c>
+      <c r="BN198">
+        <v>1.93</v>
+      </c>
+      <c r="BO198">
+        <v>2.17</v>
+      </c>
+      <c r="BP198">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7466876</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45662.5625</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>89</v>
+      </c>
+      <c r="H199" t="s">
+        <v>70</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>229</v>
+      </c>
+      <c r="P199" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q199">
+        <v>1.67</v>
+      </c>
+      <c r="R199">
+        <v>2.88</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>1.22</v>
+      </c>
+      <c r="U199">
+        <v>4</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>1.73</v>
+      </c>
+      <c r="X199">
+        <v>4.33</v>
+      </c>
+      <c r="Y199">
+        <v>1.2</v>
+      </c>
+      <c r="Z199">
+        <v>1.3</v>
+      </c>
+      <c r="AA199">
+        <v>6</v>
+      </c>
+      <c r="AB199">
+        <v>9.17</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>29</v>
+      </c>
+      <c r="AE199">
+        <v>1.12</v>
+      </c>
+      <c r="AF199">
+        <v>6.8</v>
+      </c>
+      <c r="AG199">
+        <v>1.4</v>
+      </c>
+      <c r="AH199">
+        <v>2.82</v>
+      </c>
+      <c r="AI199">
+        <v>1.75</v>
+      </c>
+      <c r="AJ199">
+        <v>2</v>
+      </c>
+      <c r="AK199">
+        <v>1.06</v>
+      </c>
+      <c r="AL199">
+        <v>1.11</v>
+      </c>
+      <c r="AM199">
+        <v>4</v>
+      </c>
+      <c r="AN199">
+        <v>2.44</v>
+      </c>
+      <c r="AO199">
+        <v>1</v>
+      </c>
+      <c r="AP199">
+        <v>2.3</v>
+      </c>
+      <c r="AQ199">
+        <v>1</v>
+      </c>
+      <c r="AR199">
+        <v>1.79</v>
+      </c>
+      <c r="AS199">
+        <v>1.38</v>
+      </c>
+      <c r="AT199">
+        <v>3.17</v>
+      </c>
+      <c r="AU199">
+        <v>7</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>8</v>
+      </c>
+      <c r="AX199">
+        <v>1</v>
+      </c>
+      <c r="AY199">
+        <v>20</v>
+      </c>
+      <c r="AZ199">
+        <v>14</v>
+      </c>
+      <c r="BA199">
+        <v>6</v>
+      </c>
+      <c r="BB199">
+        <v>9</v>
+      </c>
+      <c r="BC199">
+        <v>15</v>
+      </c>
+      <c r="BD199">
+        <v>1.12</v>
+      </c>
+      <c r="BE199">
+        <v>10.5</v>
+      </c>
+      <c r="BF199">
+        <v>6.4</v>
+      </c>
+      <c r="BG199">
+        <v>1.15</v>
+      </c>
+      <c r="BH199">
+        <v>4.6</v>
+      </c>
+      <c r="BI199">
+        <v>1.27</v>
+      </c>
+      <c r="BJ199">
+        <v>3.3</v>
+      </c>
+      <c r="BK199">
+        <v>1.46</v>
+      </c>
+      <c r="BL199">
+        <v>2.5</v>
+      </c>
+      <c r="BM199">
+        <v>1.72</v>
+      </c>
+      <c r="BN199">
+        <v>1.98</v>
+      </c>
+      <c r="BO199">
+        <v>2.08</v>
+      </c>
+      <c r="BP199">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>['52', '80']</t>
   </si>
+  <si>
+    <t>['7', '44', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4177,7 +4180,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5410,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ20">
         <v>1.91</v>
@@ -8297,7 +8300,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -9736,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ41">
         <v>1.64</v>
@@ -11593,7 +11596,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -13238,7 +13241,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ58">
         <v>2.56</v>
@@ -15713,7 +15716,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR70">
         <v>1.45</v>
@@ -17564,7 +17567,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -18185,7 +18188,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -21478,7 +21481,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ98">
         <v>1.11</v>
@@ -22508,7 +22511,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ103">
         <v>0.2</v>
@@ -24983,7 +24986,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -27246,7 +27249,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -28897,7 +28900,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR134">
         <v>2.3</v>
@@ -31163,7 +31166,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -32808,7 +32811,7 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ153">
         <v>0.9</v>
@@ -34871,7 +34874,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ163">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR163">
         <v>1.71</v>
@@ -37752,7 +37755,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -39197,7 +39200,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ184">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR184">
         <v>1.32</v>
@@ -42363,6 +42366,212 @@
       </c>
       <c r="BP199">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7466880</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45663.70833333334</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>88</v>
+      </c>
+      <c r="H200" t="s">
+        <v>75</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>91</v>
+      </c>
+      <c r="P200" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q200">
+        <v>3.6</v>
+      </c>
+      <c r="R200">
+        <v>2.1</v>
+      </c>
+      <c r="S200">
+        <v>3</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>2.8</v>
+      </c>
+      <c r="AA200">
+        <v>3.28</v>
+      </c>
+      <c r="AB200">
+        <v>2.28</v>
+      </c>
+      <c r="AC200">
+        <v>1.06</v>
+      </c>
+      <c r="AD200">
+        <v>9</v>
+      </c>
+      <c r="AE200">
+        <v>1.3</v>
+      </c>
+      <c r="AF200">
+        <v>3.3</v>
+      </c>
+      <c r="AG200">
+        <v>1.58</v>
+      </c>
+      <c r="AH200">
+        <v>2.2</v>
+      </c>
+      <c r="AI200">
+        <v>1.7</v>
+      </c>
+      <c r="AJ200">
+        <v>2.05</v>
+      </c>
+      <c r="AK200">
+        <v>1.55</v>
+      </c>
+      <c r="AL200">
+        <v>1.32</v>
+      </c>
+      <c r="AM200">
+        <v>1.39</v>
+      </c>
+      <c r="AN200">
+        <v>0.78</v>
+      </c>
+      <c r="AO200">
+        <v>2</v>
+      </c>
+      <c r="AP200">
+        <v>0.7</v>
+      </c>
+      <c r="AQ200">
+        <v>2.09</v>
+      </c>
+      <c r="AR200">
+        <v>1.18</v>
+      </c>
+      <c r="AS200">
+        <v>1.3</v>
+      </c>
+      <c r="AT200">
+        <v>2.48</v>
+      </c>
+      <c r="AU200">
+        <v>7</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>2</v>
+      </c>
+      <c r="AX200">
+        <v>6</v>
+      </c>
+      <c r="AY200">
+        <v>14</v>
+      </c>
+      <c r="AZ200">
+        <v>12</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
+        <v>8</v>
+      </c>
+      <c r="BD200">
+        <v>2.05</v>
+      </c>
+      <c r="BE200">
+        <v>6.75</v>
+      </c>
+      <c r="BF200">
+        <v>1.94</v>
+      </c>
+      <c r="BG200">
+        <v>1.2</v>
+      </c>
+      <c r="BH200">
+        <v>3.95</v>
+      </c>
+      <c r="BI200">
+        <v>1.36</v>
+      </c>
+      <c r="BJ200">
+        <v>2.8</v>
+      </c>
+      <c r="BK200">
+        <v>1.58</v>
+      </c>
+      <c r="BL200">
+        <v>2.18</v>
+      </c>
+      <c r="BM200">
+        <v>1.93</v>
+      </c>
+      <c r="BN200">
+        <v>1.76</v>
+      </c>
+      <c r="BO200">
+        <v>2.4</v>
+      </c>
+      <c r="BP200">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
